--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F10F6-626D-49B8-882A-181B872F8812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349B219-9781-4BD8-8C16-2BAE13950E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="2340" windowWidth="28785" windowHeight="12915" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1536" uniqueCount="806">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1537" uniqueCount="806">
   <si>
     <t>Template version</t>
   </si>
@@ -3222,14 +3222,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3789,65 +3789,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -3946,61 +3946,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
@@ -4064,391 +4064,391 @@
       <c r="J11" s="5"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="5"/>
@@ -4461,1096 +4461,1096 @@
       <c r="J47" s="5"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="21" t="s">
@@ -6647,8 +6647,8 @@
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6724,7 +6724,9 @@
       <c r="A6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="16"/>
+      <c r="B6" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="C6" s="13" t="s">
         <v>52</v>
       </c>
@@ -7809,8 +7811,8 @@
   </sheetPr>
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8535,7 +8537,7 @@
       <c r="E32" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="27" t="s">
         <v>805</v>
       </c>
       <c r="H32" t="s">

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh-nfdi4cat\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F349B219-9781-4BD8-8C16-2BAE13950E0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CFE84-3321-45FE-958F-14FAC37A254E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="2340" windowWidth="28785" windowHeight="12915" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -267,9 +267,6 @@
   </si>
   <si>
     <t>Description*</t>
-  </si>
-  <si>
-    <t>A vocabulary for all areas of catalysis initiated in NFDI4Cat. Starting with photocatalysis we add more and more terms from other areas of catalysis and related disciplines like chemical enineering or material science.</t>
   </si>
   <si>
     <t>General description of the vocabulary</t>
@@ -2959,6 +2956,9 @@
   <si>
     <t>citation management software,
 organization of literature</t>
+  </si>
+  <si>
+    <t>A vocabulary for all areas of catalysis initiated in NFDI4Cat. Starting with photocatalysis we add more and more terms from other areas of catalysis and related disciplines like chemical enineering or materials science.</t>
   </si>
 </sst>
 </file>
@@ -6648,7 +6648,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6697,10 +6697,10 @@
         <v>44</v>
       </c>
       <c r="B4" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>46</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>43</v>
@@ -6708,83 +6708,83 @@
     </row>
     <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="D5" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13" t="s">
+      <c r="D6" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="C7" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="D8" s="14" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="C9" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="C10" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>43</v>
@@ -6792,28 +6792,28 @@
     </row>
     <row r="11" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="C11" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>68</v>
-      </c>
       <c r="D11" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="18"/>
       <c r="C12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="14" t="s">
         <v>70</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7830,3995 +7830,3995 @@
   <sheetData>
     <row r="1" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="C3" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>84</v>
-      </c>
       <c r="E3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>88</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="C5" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="E5" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>96</v>
-      </c>
       <c r="E6" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="E7" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>100</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>103</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>104</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="C9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D9" s="9" t="s">
+      <c r="E9" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="E10" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>111</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>112</v>
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="9"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>115</v>
-      </c>
       <c r="E11" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="E12" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D13" s="9" t="s">
+      <c r="E13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>122</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>125</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="C15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>128</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>129</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="C16" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>132</v>
-      </c>
       <c r="E16" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>136</v>
       </c>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>140</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="E19" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="9"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="C20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D20" s="9" t="s">
+      <c r="E20" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>146</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>147</v>
       </c>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
         <v>149</v>
       </c>
-      <c r="C21" t="s">
-        <v>83</v>
-      </c>
-      <c r="D21" t="s">
-        <v>150</v>
-      </c>
       <c r="E21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>150</v>
+      </c>
+      <c r="B22" t="s">
         <v>151</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="D22" t="s">
         <v>152</v>
       </c>
-      <c r="C22" t="s">
-        <v>83</v>
-      </c>
-      <c r="D22" t="s">
-        <v>153</v>
-      </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B23" t="s">
         <v>154</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" t="s">
         <v>155</v>
       </c>
-      <c r="C23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>156</v>
-      </c>
       <c r="E23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>156</v>
+      </c>
+      <c r="B24" t="s">
         <v>157</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" t="s">
         <v>158</v>
       </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" t="s">
-        <v>159</v>
-      </c>
       <c r="E24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" t="s">
         <v>160</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
         <v>161</v>
       </c>
-      <c r="C25" t="s">
-        <v>83</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
         <v>162</v>
       </c>
-      <c r="E25" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" t="s">
-        <v>163</v>
-      </c>
       <c r="H25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>163</v>
+      </c>
+      <c r="B26" t="s">
         <v>164</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
         <v>165</v>
       </c>
-      <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" t="s">
-        <v>166</v>
-      </c>
       <c r="E26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" t="s">
         <v>168</v>
       </c>
-      <c r="C27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>169</v>
+      </c>
+      <c r="B28" t="s">
         <v>170</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
         <v>171</v>
       </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" t="s">
-        <v>172</v>
-      </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B29" t="s">
         <v>173</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" t="s">
         <v>174</v>
       </c>
-      <c r="C29" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" t="s">
-        <v>175</v>
-      </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" t="s">
         <v>176</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" t="s">
         <v>177</v>
       </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
-        <v>178</v>
-      </c>
       <c r="E30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>178</v>
+      </c>
+      <c r="B31" t="s">
         <v>179</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" t="s">
         <v>180</v>
       </c>
-      <c r="C31" t="s">
-        <v>83</v>
-      </c>
-      <c r="D31" t="s">
-        <v>181</v>
-      </c>
       <c r="E31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
         <v>182</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+      <c r="D32" t="s">
         <v>183</v>
       </c>
-      <c r="C32" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" t="s">
-        <v>184</v>
-      </c>
       <c r="E32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F32" s="27" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
         <v>185</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" t="s">
         <v>186</v>
       </c>
-      <c r="C33" t="s">
-        <v>83</v>
-      </c>
-      <c r="D33" t="s">
-        <v>187</v>
-      </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" t="s">
         <v>188</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" t="s">
         <v>189</v>
       </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>190</v>
-      </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" t="s">
-        <v>193</v>
-      </c>
       <c r="E35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
       </c>
-      <c r="C36" t="s">
-        <v>83</v>
-      </c>
-      <c r="D36" t="s">
-        <v>196</v>
-      </c>
       <c r="E36" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>196</v>
+      </c>
+      <c r="B37" t="s">
         <v>197</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" t="s">
         <v>198</v>
       </c>
-      <c r="C37" t="s">
-        <v>83</v>
-      </c>
-      <c r="D37" t="s">
-        <v>199</v>
-      </c>
       <c r="E37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>199</v>
+      </c>
+      <c r="B38" t="s">
         <v>200</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" t="s">
         <v>201</v>
       </c>
-      <c r="C38" t="s">
-        <v>83</v>
-      </c>
-      <c r="D38" t="s">
-        <v>202</v>
-      </c>
       <c r="E38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B39" t="s">
         <v>203</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" t="s">
         <v>204</v>
       </c>
-      <c r="C39" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" t="s">
-        <v>205</v>
-      </c>
       <c r="E39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>205</v>
+      </c>
+      <c r="B40" t="s">
         <v>206</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" t="s">
         <v>207</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>208</v>
+      </c>
+      <c r="B41" t="s">
         <v>209</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
         <v>210</v>
       </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>211</v>
-      </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B42" t="s">
         <v>212</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" t="s">
         <v>213</v>
       </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" t="s">
-        <v>214</v>
-      </c>
       <c r="E42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>214</v>
+      </c>
+      <c r="B43" t="s">
         <v>215</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" t="s">
         <v>216</v>
       </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" t="s">
-        <v>217</v>
-      </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>217</v>
+      </c>
+      <c r="B44" t="s">
         <v>218</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>82</v>
+      </c>
+      <c r="D44" t="s">
         <v>219</v>
       </c>
-      <c r="C44" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" t="s">
-        <v>220</v>
-      </c>
       <c r="E44" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>220</v>
+      </c>
+      <c r="B45" t="s">
         <v>221</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" t="s">
         <v>222</v>
       </c>
-      <c r="C45" t="s">
-        <v>83</v>
-      </c>
-      <c r="D45" t="s">
-        <v>223</v>
-      </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" t="s">
         <v>224</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" t="s">
         <v>225</v>
       </c>
-      <c r="C46" t="s">
-        <v>83</v>
-      </c>
-      <c r="D46" t="s">
-        <v>226</v>
-      </c>
       <c r="E46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H46" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" t="s">
         <v>227</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
         <v>228</v>
       </c>
-      <c r="C47" t="s">
-        <v>83</v>
-      </c>
-      <c r="D47" t="s">
-        <v>229</v>
-      </c>
       <c r="E47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>229</v>
+      </c>
+      <c r="B48" t="s">
         <v>230</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
         <v>231</v>
       </c>
-      <c r="C48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D48" t="s">
-        <v>232</v>
-      </c>
       <c r="E48" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
+        <v>232</v>
+      </c>
+      <c r="B49" t="s">
         <v>233</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
         <v>234</v>
       </c>
-      <c r="C49" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" t="s">
         <v>235</v>
-      </c>
-      <c r="E49" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" t="s">
         <v>237</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" t="s">
         <v>238</v>
       </c>
-      <c r="C50" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" t="s">
-        <v>239</v>
-      </c>
       <c r="E50" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
+        <v>239</v>
+      </c>
+      <c r="B51" t="s">
         <v>240</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" t="s">
         <v>241</v>
       </c>
-      <c r="C51" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" t="s">
         <v>242</v>
       </c>
-      <c r="E51" t="s">
-        <v>83</v>
-      </c>
-      <c r="F51" t="s">
-        <v>243</v>
-      </c>
       <c r="H51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>243</v>
+      </c>
+      <c r="B52" t="s">
         <v>244</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C52" t="s">
+        <v>82</v>
+      </c>
+      <c r="D52" t="s">
         <v>245</v>
       </c>
-      <c r="C52" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" t="s">
-        <v>246</v>
-      </c>
       <c r="E52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>246</v>
+      </c>
+      <c r="B53" t="s">
         <v>247</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D53" t="s">
         <v>248</v>
       </c>
-      <c r="C53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" t="s">
-        <v>249</v>
-      </c>
       <c r="E53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>249</v>
+      </c>
+      <c r="B54" t="s">
         <v>250</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" t="s">
         <v>251</v>
       </c>
-      <c r="C54" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" t="s">
-        <v>252</v>
-      </c>
       <c r="E54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>252</v>
+      </c>
+      <c r="B55" t="s">
         <v>253</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>82</v>
+      </c>
+      <c r="D55" t="s">
         <v>254</v>
       </c>
-      <c r="C55" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" t="s">
-        <v>255</v>
-      </c>
       <c r="E55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>255</v>
+      </c>
+      <c r="B56" t="s">
         <v>256</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C56" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" t="s">
         <v>257</v>
       </c>
-      <c r="C56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D56" t="s">
-        <v>258</v>
-      </c>
       <c r="E56" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
         <v>259</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C57" t="s">
+        <v>82</v>
+      </c>
+      <c r="D57" t="s">
         <v>260</v>
       </c>
-      <c r="C57" t="s">
-        <v>83</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" t="s">
         <v>261</v>
       </c>
-      <c r="E57" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" t="s">
-        <v>262</v>
-      </c>
       <c r="H57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>262</v>
+      </c>
+      <c r="B58" t="s">
         <v>263</v>
       </c>
-      <c r="B58" t="s">
+      <c r="C58" t="s">
+        <v>82</v>
+      </c>
+      <c r="D58" t="s">
         <v>264</v>
       </c>
-      <c r="C58" t="s">
-        <v>83</v>
-      </c>
-      <c r="D58" t="s">
-        <v>265</v>
-      </c>
       <c r="E58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
+        <v>265</v>
+      </c>
+      <c r="B59" t="s">
         <v>266</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
         <v>267</v>
       </c>
-      <c r="C59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" t="s">
         <v>268</v>
       </c>
-      <c r="E59" t="s">
-        <v>83</v>
-      </c>
-      <c r="F59" t="s">
-        <v>269</v>
-      </c>
       <c r="H59" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>269</v>
+      </c>
+      <c r="B60" t="s">
         <v>270</v>
       </c>
-      <c r="B60" t="s">
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" t="s">
         <v>271</v>
       </c>
-      <c r="C60" t="s">
-        <v>83</v>
-      </c>
-      <c r="D60" t="s">
-        <v>272</v>
-      </c>
       <c r="E60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
+        <v>272</v>
+      </c>
+      <c r="B61" t="s">
         <v>273</v>
       </c>
-      <c r="B61" t="s">
+      <c r="C61" t="s">
+        <v>82</v>
+      </c>
+      <c r="D61" t="s">
         <v>274</v>
       </c>
-      <c r="C61" t="s">
-        <v>83</v>
-      </c>
-      <c r="D61" t="s">
-        <v>275</v>
-      </c>
       <c r="E61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>275</v>
+      </c>
+      <c r="B62" t="s">
         <v>276</v>
       </c>
-      <c r="B62" t="s">
+      <c r="C62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D62" t="s">
         <v>277</v>
       </c>
-      <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" t="s">
-        <v>278</v>
-      </c>
       <c r="E62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>278</v>
+      </c>
+      <c r="B63" t="s">
         <v>279</v>
       </c>
-      <c r="B63" t="s">
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
         <v>280</v>
       </c>
-      <c r="C63" t="s">
-        <v>83</v>
-      </c>
-      <c r="D63" t="s">
-        <v>281</v>
-      </c>
       <c r="E63" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H63" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
+        <v>281</v>
+      </c>
+      <c r="B64" t="s">
         <v>282</v>
       </c>
-      <c r="B64" t="s">
+      <c r="C64" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" t="s">
         <v>283</v>
       </c>
-      <c r="C64" t="s">
-        <v>83</v>
-      </c>
-      <c r="D64" t="s">
-        <v>284</v>
-      </c>
       <c r="E64" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H64" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>284</v>
+      </c>
+      <c r="B65" t="s">
         <v>285</v>
       </c>
-      <c r="B65" t="s">
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
         <v>286</v>
       </c>
-      <c r="C65" t="s">
-        <v>83</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
+        <v>82</v>
+      </c>
+      <c r="F65" t="s">
         <v>287</v>
       </c>
-      <c r="E65" t="s">
-        <v>83</v>
-      </c>
-      <c r="F65" t="s">
-        <v>288</v>
-      </c>
       <c r="H65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>288</v>
+      </c>
+      <c r="B66" t="s">
         <v>289</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" t="s">
+        <v>82</v>
+      </c>
+      <c r="D66" t="s">
         <v>290</v>
       </c>
-      <c r="C66" t="s">
-        <v>83</v>
-      </c>
-      <c r="D66" t="s">
+      <c r="E66" t="s">
+        <v>82</v>
+      </c>
+      <c r="F66" t="s">
         <v>291</v>
       </c>
-      <c r="E66" t="s">
-        <v>83</v>
-      </c>
-      <c r="F66" t="s">
-        <v>292</v>
-      </c>
       <c r="H66" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B67" t="s">
         <v>293</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
         <v>294</v>
       </c>
-      <c r="C67" t="s">
-        <v>83</v>
-      </c>
-      <c r="D67" t="s">
-        <v>295</v>
-      </c>
       <c r="E67" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
+        <v>295</v>
+      </c>
+      <c r="B68" t="s">
         <v>296</v>
       </c>
-      <c r="B68" t="s">
+      <c r="C68" t="s">
+        <v>82</v>
+      </c>
+      <c r="D68" t="s">
         <v>297</v>
       </c>
-      <c r="C68" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" t="s">
-        <v>298</v>
-      </c>
       <c r="E68" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H68" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
+        <v>298</v>
+      </c>
+      <c r="B69" t="s">
         <v>299</v>
       </c>
-      <c r="B69" t="s">
+      <c r="C69" t="s">
+        <v>82</v>
+      </c>
+      <c r="D69" t="s">
         <v>300</v>
       </c>
-      <c r="C69" t="s">
-        <v>83</v>
-      </c>
-      <c r="D69" t="s">
-        <v>301</v>
-      </c>
       <c r="E69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
+        <v>301</v>
+      </c>
+      <c r="B70" t="s">
         <v>302</v>
       </c>
-      <c r="B70" t="s">
+      <c r="C70" t="s">
+        <v>82</v>
+      </c>
+      <c r="D70" t="s">
         <v>303</v>
       </c>
-      <c r="C70" t="s">
-        <v>83</v>
-      </c>
-      <c r="D70" t="s">
-        <v>304</v>
-      </c>
       <c r="E70" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H70" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
+        <v>304</v>
+      </c>
+      <c r="B71" t="s">
         <v>305</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
+        <v>82</v>
+      </c>
+      <c r="D71" t="s">
         <v>306</v>
       </c>
-      <c r="C71" t="s">
-        <v>83</v>
-      </c>
-      <c r="D71" t="s">
-        <v>307</v>
-      </c>
       <c r="E71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H71" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
+        <v>307</v>
+      </c>
+      <c r="B72" t="s">
         <v>308</v>
       </c>
-      <c r="B72" t="s">
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
         <v>309</v>
       </c>
-      <c r="C72" t="s">
-        <v>83</v>
-      </c>
-      <c r="D72" t="s">
-        <v>310</v>
-      </c>
       <c r="E72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H72" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
+        <v>310</v>
+      </c>
+      <c r="B73" t="s">
         <v>311</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
         <v>312</v>
       </c>
-      <c r="C73" t="s">
-        <v>83</v>
-      </c>
-      <c r="D73" t="s">
-        <v>313</v>
-      </c>
       <c r="E73" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" t="s">
         <v>314</v>
       </c>
-      <c r="B74" t="s">
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
         <v>315</v>
       </c>
-      <c r="C74" t="s">
-        <v>83</v>
-      </c>
-      <c r="D74" t="s">
-        <v>316</v>
-      </c>
       <c r="E74" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H74" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>316</v>
+      </c>
+      <c r="B75" t="s">
         <v>317</v>
       </c>
-      <c r="B75" t="s">
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
         <v>318</v>
       </c>
-      <c r="C75" t="s">
-        <v>83</v>
-      </c>
-      <c r="D75" t="s">
-        <v>319</v>
-      </c>
       <c r="E75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H75" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>319</v>
+      </c>
+      <c r="B76" t="s">
         <v>320</v>
       </c>
-      <c r="B76" t="s">
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
         <v>321</v>
       </c>
-      <c r="C76" t="s">
-        <v>83</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="E76" t="s">
+        <v>82</v>
+      </c>
+      <c r="F76" t="s">
         <v>322</v>
       </c>
-      <c r="E76" t="s">
-        <v>83</v>
-      </c>
-      <c r="F76" t="s">
-        <v>323</v>
-      </c>
       <c r="H76" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
+        <v>323</v>
+      </c>
+      <c r="B77" t="s">
         <v>324</v>
       </c>
-      <c r="B77" t="s">
+      <c r="C77" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" t="s">
         <v>325</v>
       </c>
-      <c r="C77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D77" t="s">
-        <v>326</v>
-      </c>
       <c r="E77" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
+        <v>326</v>
+      </c>
+      <c r="B78" t="s">
         <v>327</v>
       </c>
-      <c r="B78" t="s">
+      <c r="C78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
         <v>328</v>
       </c>
-      <c r="C78" t="s">
-        <v>83</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="E78" t="s">
+        <v>82</v>
+      </c>
+      <c r="F78" t="s">
         <v>329</v>
       </c>
-      <c r="E78" t="s">
-        <v>83</v>
-      </c>
-      <c r="F78" t="s">
-        <v>330</v>
-      </c>
       <c r="H78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" t="s">
         <v>331</v>
       </c>
-      <c r="B79" t="s">
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79" t="s">
         <v>332</v>
       </c>
-      <c r="C79" t="s">
-        <v>83</v>
-      </c>
-      <c r="D79" t="s">
-        <v>333</v>
-      </c>
       <c r="E79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
+        <v>333</v>
+      </c>
+      <c r="B80" t="s">
         <v>334</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
+        <v>82</v>
+      </c>
+      <c r="D80" t="s">
         <v>335</v>
       </c>
-      <c r="C80" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="E80" t="s">
+        <v>82</v>
+      </c>
+      <c r="F80" t="s">
         <v>336</v>
       </c>
-      <c r="E80" t="s">
-        <v>83</v>
-      </c>
-      <c r="F80" t="s">
-        <v>337</v>
-      </c>
       <c r="H80" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
+        <v>337</v>
+      </c>
+      <c r="B81" t="s">
         <v>338</v>
       </c>
-      <c r="B81" t="s">
+      <c r="C81" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" t="s">
         <v>339</v>
       </c>
-      <c r="C81" t="s">
-        <v>83</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="E81" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" t="s">
         <v>340</v>
       </c>
-      <c r="E81" t="s">
-        <v>83</v>
-      </c>
-      <c r="F81" t="s">
-        <v>341</v>
-      </c>
       <c r="H81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
+        <v>341</v>
+      </c>
+      <c r="B82" t="s">
         <v>342</v>
       </c>
-      <c r="B82" t="s">
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" t="s">
         <v>343</v>
       </c>
-      <c r="C82" t="s">
-        <v>83</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="E82" t="s">
+        <v>82</v>
+      </c>
+      <c r="F82" t="s">
         <v>344</v>
       </c>
-      <c r="E82" t="s">
-        <v>83</v>
-      </c>
-      <c r="F82" t="s">
-        <v>345</v>
-      </c>
       <c r="H82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
+        <v>345</v>
+      </c>
+      <c r="B83" t="s">
         <v>346</v>
       </c>
-      <c r="B83" t="s">
+      <c r="C83" t="s">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
         <v>347</v>
       </c>
-      <c r="C83" t="s">
-        <v>83</v>
-      </c>
-      <c r="D83" t="s">
-        <v>348</v>
-      </c>
       <c r="E83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H83" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" t="s">
         <v>349</v>
       </c>
-      <c r="B84" t="s">
+      <c r="C84" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" t="s">
         <v>350</v>
       </c>
-      <c r="C84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" t="s">
-        <v>351</v>
-      </c>
       <c r="E84" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
+        <v>351</v>
+      </c>
+      <c r="B85" t="s">
         <v>352</v>
       </c>
-      <c r="B85" t="s">
+      <c r="C85" t="s">
+        <v>82</v>
+      </c>
+      <c r="D85" t="s">
         <v>353</v>
       </c>
-      <c r="C85" t="s">
-        <v>83</v>
-      </c>
-      <c r="D85" t="s">
-        <v>354</v>
-      </c>
       <c r="E85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
+        <v>354</v>
+      </c>
+      <c r="B86" t="s">
         <v>355</v>
       </c>
-      <c r="B86" t="s">
+      <c r="C86" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" t="s">
         <v>356</v>
       </c>
-      <c r="C86" t="s">
-        <v>83</v>
-      </c>
-      <c r="D86" t="s">
-        <v>357</v>
-      </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H86" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
+        <v>357</v>
+      </c>
+      <c r="B87" t="s">
         <v>358</v>
       </c>
-      <c r="B87" t="s">
+      <c r="C87" t="s">
+        <v>82</v>
+      </c>
+      <c r="D87" t="s">
         <v>359</v>
       </c>
-      <c r="C87" t="s">
-        <v>83</v>
-      </c>
-      <c r="D87" t="s">
-        <v>360</v>
-      </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" t="s">
         <v>361</v>
       </c>
-      <c r="B88" t="s">
+      <c r="C88" t="s">
+        <v>82</v>
+      </c>
+      <c r="D88" t="s">
         <v>362</v>
       </c>
-      <c r="C88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D88" t="s">
-        <v>363</v>
-      </c>
       <c r="E88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
+        <v>363</v>
+      </c>
+      <c r="B89" t="s">
         <v>364</v>
       </c>
-      <c r="B89" t="s">
+      <c r="C89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D89" t="s">
         <v>365</v>
       </c>
-      <c r="C89" t="s">
-        <v>83</v>
-      </c>
-      <c r="D89" t="s">
-        <v>366</v>
-      </c>
       <c r="E89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H89" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>366</v>
+      </c>
+      <c r="B90" t="s">
         <v>367</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
+        <v>82</v>
+      </c>
+      <c r="D90" t="s">
         <v>368</v>
       </c>
-      <c r="C90" t="s">
-        <v>83</v>
-      </c>
-      <c r="D90" t="s">
-        <v>369</v>
-      </c>
       <c r="E90" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
+        <v>369</v>
+      </c>
+      <c r="B91" t="s">
         <v>370</v>
       </c>
-      <c r="B91" t="s">
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
         <v>371</v>
       </c>
-      <c r="C91" t="s">
-        <v>83</v>
-      </c>
-      <c r="D91" t="s">
-        <v>372</v>
-      </c>
       <c r="E91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
+        <v>372</v>
+      </c>
+      <c r="B92" t="s">
         <v>373</v>
       </c>
-      <c r="B92" t="s">
+      <c r="C92" t="s">
+        <v>82</v>
+      </c>
+      <c r="D92" t="s">
         <v>374</v>
       </c>
-      <c r="C92" t="s">
-        <v>83</v>
-      </c>
-      <c r="D92" t="s">
-        <v>375</v>
-      </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
+        <v>375</v>
+      </c>
+      <c r="B93" t="s">
         <v>376</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
+        <v>82</v>
+      </c>
+      <c r="D93" t="s">
         <v>377</v>
       </c>
-      <c r="C93" t="s">
-        <v>83</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>82</v>
+      </c>
+      <c r="F93" t="s">
         <v>378</v>
       </c>
-      <c r="E93" t="s">
-        <v>83</v>
-      </c>
-      <c r="F93" t="s">
-        <v>379</v>
-      </c>
       <c r="H93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
+        <v>379</v>
+      </c>
+      <c r="B94" t="s">
         <v>380</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
+        <v>82</v>
+      </c>
+      <c r="D94" t="s">
         <v>381</v>
       </c>
-      <c r="C94" t="s">
-        <v>83</v>
-      </c>
-      <c r="D94" t="s">
-        <v>382</v>
-      </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>382</v>
+      </c>
+      <c r="B95" t="s">
         <v>383</v>
       </c>
-      <c r="B95" t="s">
+      <c r="C95" t="s">
+        <v>82</v>
+      </c>
+      <c r="D95" t="s">
         <v>384</v>
       </c>
-      <c r="C95" t="s">
-        <v>83</v>
-      </c>
-      <c r="D95" t="s">
-        <v>385</v>
-      </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H95" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
+        <v>385</v>
+      </c>
+      <c r="B96" t="s">
         <v>386</v>
       </c>
-      <c r="B96" t="s">
+      <c r="C96" t="s">
+        <v>82</v>
+      </c>
+      <c r="D96" t="s">
         <v>387</v>
       </c>
-      <c r="C96" t="s">
-        <v>83</v>
-      </c>
-      <c r="D96" t="s">
-        <v>388</v>
-      </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H96" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
+        <v>388</v>
+      </c>
+      <c r="B97" t="s">
         <v>389</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C97" t="s">
+        <v>82</v>
+      </c>
+      <c r="D97" t="s">
         <v>390</v>
       </c>
-      <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" t="s">
-        <v>391</v>
-      </c>
       <c r="E97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H97" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
+        <v>391</v>
+      </c>
+      <c r="B98" t="s">
         <v>392</v>
       </c>
-      <c r="B98" t="s">
+      <c r="C98" t="s">
+        <v>82</v>
+      </c>
+      <c r="D98" t="s">
         <v>393</v>
       </c>
-      <c r="C98" t="s">
-        <v>83</v>
-      </c>
-      <c r="D98" t="s">
-        <v>394</v>
-      </c>
       <c r="E98" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>394</v>
+      </c>
+      <c r="B99" t="s">
         <v>395</v>
       </c>
-      <c r="B99" t="s">
+      <c r="C99" t="s">
+        <v>82</v>
+      </c>
+      <c r="D99" t="s">
         <v>396</v>
       </c>
-      <c r="C99" t="s">
-        <v>83</v>
-      </c>
-      <c r="D99" t="s">
-        <v>397</v>
-      </c>
       <c r="E99" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
+        <v>397</v>
+      </c>
+      <c r="B100" t="s">
         <v>398</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D100" t="s">
         <v>399</v>
       </c>
-      <c r="C100" t="s">
-        <v>83</v>
-      </c>
-      <c r="D100" t="s">
-        <v>400</v>
-      </c>
       <c r="E100" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
+        <v>400</v>
+      </c>
+      <c r="B101" t="s">
         <v>401</v>
       </c>
-      <c r="B101" t="s">
+      <c r="C101" t="s">
+        <v>82</v>
+      </c>
+      <c r="D101" t="s">
         <v>402</v>
       </c>
-      <c r="C101" t="s">
-        <v>83</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="E101" t="s">
+        <v>82</v>
+      </c>
+      <c r="F101" t="s">
         <v>403</v>
       </c>
-      <c r="E101" t="s">
-        <v>83</v>
-      </c>
-      <c r="F101" t="s">
-        <v>404</v>
-      </c>
       <c r="H101" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
+        <v>404</v>
+      </c>
+      <c r="B102" t="s">
         <v>405</v>
       </c>
-      <c r="B102" t="s">
+      <c r="C102" t="s">
+        <v>82</v>
+      </c>
+      <c r="D102" t="s">
         <v>406</v>
       </c>
-      <c r="C102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="E102" t="s">
+        <v>82</v>
+      </c>
+      <c r="F102" t="s">
         <v>407</v>
       </c>
-      <c r="E102" t="s">
-        <v>83</v>
-      </c>
-      <c r="F102" t="s">
-        <v>408</v>
-      </c>
       <c r="H102" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" t="s">
         <v>409</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
+        <v>82</v>
+      </c>
+      <c r="D103" t="s">
         <v>410</v>
       </c>
-      <c r="C103" t="s">
-        <v>83</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
+        <v>82</v>
+      </c>
+      <c r="F103" t="s">
         <v>411</v>
       </c>
-      <c r="E103" t="s">
-        <v>83</v>
-      </c>
-      <c r="F103" t="s">
-        <v>412</v>
-      </c>
       <c r="H103" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
+        <v>412</v>
+      </c>
+      <c r="B104" t="s">
         <v>413</v>
       </c>
-      <c r="B104" t="s">
+      <c r="C104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D104" t="s">
         <v>414</v>
       </c>
-      <c r="C104" t="s">
-        <v>83</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="E104" t="s">
+        <v>82</v>
+      </c>
+      <c r="F104" t="s">
         <v>415</v>
       </c>
-      <c r="E104" t="s">
-        <v>83</v>
-      </c>
-      <c r="F104" t="s">
-        <v>416</v>
-      </c>
       <c r="H104" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
+        <v>416</v>
+      </c>
+      <c r="B105" t="s">
         <v>417</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
+        <v>82</v>
+      </c>
+      <c r="D105" t="s">
         <v>418</v>
       </c>
-      <c r="C105" t="s">
-        <v>83</v>
-      </c>
-      <c r="D105" t="s">
-        <v>419</v>
-      </c>
       <c r="E105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H105" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
+        <v>419</v>
+      </c>
+      <c r="B106" t="s">
         <v>420</v>
       </c>
-      <c r="B106" t="s">
+      <c r="C106" t="s">
+        <v>82</v>
+      </c>
+      <c r="D106" t="s">
         <v>421</v>
       </c>
-      <c r="C106" t="s">
-        <v>83</v>
-      </c>
-      <c r="D106" t="s">
-        <v>422</v>
-      </c>
       <c r="E106" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H106" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
+        <v>422</v>
+      </c>
+      <c r="B107" t="s">
         <v>423</v>
       </c>
-      <c r="B107" t="s">
+      <c r="C107" t="s">
+        <v>82</v>
+      </c>
+      <c r="D107" t="s">
         <v>424</v>
       </c>
-      <c r="C107" t="s">
-        <v>83</v>
-      </c>
-      <c r="D107" t="s">
-        <v>425</v>
-      </c>
       <c r="E107" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H107" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
+        <v>425</v>
+      </c>
+      <c r="B108" t="s">
         <v>426</v>
       </c>
-      <c r="B108" t="s">
+      <c r="C108" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" t="s">
         <v>427</v>
       </c>
-      <c r="C108" t="s">
-        <v>83</v>
-      </c>
-      <c r="D108" t="s">
-        <v>428</v>
-      </c>
       <c r="E108" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H108" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>428</v>
+      </c>
+      <c r="B109" t="s">
         <v>429</v>
       </c>
-      <c r="B109" t="s">
+      <c r="C109" t="s">
+        <v>82</v>
+      </c>
+      <c r="D109" t="s">
         <v>430</v>
       </c>
-      <c r="C109" t="s">
-        <v>83</v>
-      </c>
-      <c r="D109" t="s">
-        <v>431</v>
-      </c>
       <c r="E109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
+        <v>431</v>
+      </c>
+      <c r="B110" t="s">
         <v>432</v>
       </c>
-      <c r="B110" t="s">
+      <c r="C110" t="s">
+        <v>82</v>
+      </c>
+      <c r="D110" t="s">
         <v>433</v>
       </c>
-      <c r="C110" t="s">
-        <v>83</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="E110" t="s">
+        <v>82</v>
+      </c>
+      <c r="F110" t="s">
         <v>434</v>
       </c>
-      <c r="E110" t="s">
-        <v>83</v>
-      </c>
-      <c r="F110" t="s">
-        <v>435</v>
-      </c>
       <c r="H110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
+        <v>435</v>
+      </c>
+      <c r="B111" t="s">
         <v>436</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
+        <v>82</v>
+      </c>
+      <c r="D111" t="s">
         <v>437</v>
       </c>
-      <c r="C111" t="s">
-        <v>83</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" t="s">
         <v>438</v>
       </c>
-      <c r="E111" t="s">
-        <v>83</v>
-      </c>
-      <c r="F111" t="s">
-        <v>439</v>
-      </c>
       <c r="H111" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
+        <v>439</v>
+      </c>
+      <c r="B112" t="s">
         <v>440</v>
       </c>
-      <c r="B112" t="s">
+      <c r="C112" t="s">
+        <v>82</v>
+      </c>
+      <c r="D112" t="s">
         <v>441</v>
       </c>
-      <c r="C112" t="s">
-        <v>83</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="E112" t="s">
+        <v>82</v>
+      </c>
+      <c r="F112" t="s">
         <v>442</v>
       </c>
-      <c r="E112" t="s">
-        <v>83</v>
-      </c>
-      <c r="F112" t="s">
-        <v>443</v>
-      </c>
       <c r="H112" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>443</v>
+      </c>
+      <c r="B113" t="s">
         <v>444</v>
       </c>
-      <c r="B113" t="s">
+      <c r="C113" t="s">
+        <v>82</v>
+      </c>
+      <c r="D113" t="s">
         <v>445</v>
       </c>
-      <c r="C113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D113" t="s">
-        <v>446</v>
-      </c>
       <c r="E113" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G113" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H113" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>446</v>
+      </c>
+      <c r="B114" t="s">
         <v>447</v>
       </c>
-      <c r="B114" t="s">
+      <c r="C114" t="s">
+        <v>82</v>
+      </c>
+      <c r="D114" t="s">
         <v>448</v>
       </c>
-      <c r="C114" t="s">
-        <v>83</v>
-      </c>
-      <c r="D114" t="s">
-        <v>449</v>
-      </c>
       <c r="E114" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G114" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H114" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>449</v>
+      </c>
+      <c r="B115" t="s">
         <v>450</v>
       </c>
-      <c r="B115" t="s">
+      <c r="C115" t="s">
+        <v>82</v>
+      </c>
+      <c r="D115" t="s">
         <v>451</v>
       </c>
-      <c r="C115" t="s">
-        <v>83</v>
-      </c>
-      <c r="D115" t="s">
-        <v>452</v>
-      </c>
       <c r="E115" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G115" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H115" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>452</v>
+      </c>
+      <c r="B116" t="s">
         <v>453</v>
       </c>
-      <c r="B116" t="s">
+      <c r="C116" t="s">
+        <v>82</v>
+      </c>
+      <c r="D116" t="s">
         <v>454</v>
       </c>
-      <c r="C116" t="s">
-        <v>83</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="E116" t="s">
+        <v>82</v>
+      </c>
+      <c r="F116" t="s">
         <v>455</v>
       </c>
-      <c r="E116" t="s">
-        <v>83</v>
-      </c>
-      <c r="F116" t="s">
-        <v>456</v>
-      </c>
       <c r="H116" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>456</v>
+      </c>
+      <c r="B117" t="s">
         <v>457</v>
       </c>
-      <c r="B117" t="s">
+      <c r="C117" t="s">
+        <v>82</v>
+      </c>
+      <c r="D117" t="s">
         <v>458</v>
       </c>
-      <c r="C117" t="s">
-        <v>83</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="E117" t="s">
+        <v>82</v>
+      </c>
+      <c r="F117" t="s">
         <v>459</v>
       </c>
-      <c r="E117" t="s">
-        <v>83</v>
-      </c>
-      <c r="F117" t="s">
-        <v>460</v>
-      </c>
       <c r="H117" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
+        <v>460</v>
+      </c>
+      <c r="B118" t="s">
         <v>461</v>
       </c>
-      <c r="B118" t="s">
+      <c r="C118" t="s">
+        <v>82</v>
+      </c>
+      <c r="D118" t="s">
         <v>462</v>
       </c>
-      <c r="C118" t="s">
-        <v>83</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="E118" t="s">
+        <v>82</v>
+      </c>
+      <c r="F118" t="s">
         <v>463</v>
       </c>
-      <c r="E118" t="s">
-        <v>83</v>
-      </c>
-      <c r="F118" t="s">
-        <v>464</v>
-      </c>
       <c r="H118" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
+        <v>464</v>
+      </c>
+      <c r="B119" t="s">
         <v>465</v>
       </c>
-      <c r="B119" t="s">
+      <c r="C119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" t="s">
         <v>466</v>
       </c>
-      <c r="C119" t="s">
-        <v>83</v>
-      </c>
-      <c r="D119" t="s">
+      <c r="E119" t="s">
+        <v>82</v>
+      </c>
+      <c r="F119" t="s">
         <v>467</v>
       </c>
-      <c r="E119" t="s">
-        <v>83</v>
-      </c>
-      <c r="F119" t="s">
-        <v>468</v>
-      </c>
       <c r="H119" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
+        <v>468</v>
+      </c>
+      <c r="B120" t="s">
         <v>469</v>
       </c>
-      <c r="B120" t="s">
+      <c r="C120" t="s">
+        <v>82</v>
+      </c>
+      <c r="D120" t="s">
         <v>470</v>
       </c>
-      <c r="C120" t="s">
-        <v>83</v>
-      </c>
-      <c r="D120" t="s">
+      <c r="E120" t="s">
+        <v>82</v>
+      </c>
+      <c r="F120" t="s">
         <v>471</v>
       </c>
-      <c r="E120" t="s">
-        <v>83</v>
-      </c>
-      <c r="F120" t="s">
-        <v>472</v>
-      </c>
       <c r="H120" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" t="s">
         <v>473</v>
       </c>
-      <c r="B121" t="s">
+      <c r="C121" t="s">
+        <v>82</v>
+      </c>
+      <c r="D121" t="s">
         <v>474</v>
       </c>
-      <c r="C121" t="s">
-        <v>83</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="E121" t="s">
+        <v>82</v>
+      </c>
+      <c r="F121" t="s">
         <v>475</v>
       </c>
-      <c r="E121" t="s">
-        <v>83</v>
-      </c>
-      <c r="F121" t="s">
-        <v>476</v>
-      </c>
       <c r="H121" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" t="s">
         <v>477</v>
       </c>
-      <c r="B122" t="s">
+      <c r="C122" t="s">
+        <v>82</v>
+      </c>
+      <c r="D122" t="s">
         <v>478</v>
       </c>
-      <c r="C122" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="E122" t="s">
+        <v>82</v>
+      </c>
+      <c r="F122" t="s">
         <v>479</v>
       </c>
-      <c r="E122" t="s">
-        <v>83</v>
-      </c>
-      <c r="F122" t="s">
-        <v>480</v>
-      </c>
       <c r="H122" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
+        <v>480</v>
+      </c>
+      <c r="B123" t="s">
         <v>481</v>
       </c>
-      <c r="B123" t="s">
+      <c r="C123" t="s">
+        <v>82</v>
+      </c>
+      <c r="D123" t="s">
         <v>482</v>
       </c>
-      <c r="C123" t="s">
-        <v>83</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="E123" t="s">
+        <v>82</v>
+      </c>
+      <c r="F123" t="s">
         <v>483</v>
       </c>
-      <c r="E123" t="s">
-        <v>83</v>
-      </c>
-      <c r="F123" t="s">
-        <v>484</v>
-      </c>
       <c r="H123" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
+        <v>484</v>
+      </c>
+      <c r="B124" t="s">
         <v>485</v>
       </c>
-      <c r="B124" t="s">
+      <c r="C124" t="s">
+        <v>82</v>
+      </c>
+      <c r="D124" t="s">
         <v>486</v>
       </c>
-      <c r="C124" t="s">
-        <v>83</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="E124" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" t="s">
         <v>487</v>
       </c>
-      <c r="E124" t="s">
-        <v>83</v>
-      </c>
-      <c r="F124" t="s">
-        <v>488</v>
-      </c>
       <c r="H124" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
+        <v>488</v>
+      </c>
+      <c r="B125" t="s">
         <v>489</v>
       </c>
-      <c r="B125" t="s">
+      <c r="C125" t="s">
+        <v>82</v>
+      </c>
+      <c r="D125" t="s">
         <v>490</v>
       </c>
-      <c r="C125" t="s">
-        <v>83</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="E125" t="s">
+        <v>82</v>
+      </c>
+      <c r="F125" t="s">
         <v>491</v>
       </c>
-      <c r="E125" t="s">
-        <v>83</v>
-      </c>
-      <c r="F125" t="s">
-        <v>492</v>
-      </c>
       <c r="H125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>492</v>
+      </c>
+      <c r="B126" t="s">
         <v>493</v>
       </c>
-      <c r="B126" t="s">
+      <c r="C126" t="s">
+        <v>82</v>
+      </c>
+      <c r="D126" t="s">
         <v>494</v>
       </c>
-      <c r="C126" t="s">
-        <v>83</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="E126" t="s">
+        <v>82</v>
+      </c>
+      <c r="F126" t="s">
         <v>495</v>
       </c>
-      <c r="E126" t="s">
-        <v>83</v>
-      </c>
-      <c r="F126" t="s">
-        <v>496</v>
-      </c>
       <c r="H126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
+        <v>496</v>
+      </c>
+      <c r="B127" t="s">
         <v>497</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
+        <v>82</v>
+      </c>
+      <c r="D127" t="s">
         <v>498</v>
       </c>
-      <c r="C127" t="s">
-        <v>83</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
+        <v>82</v>
+      </c>
+      <c r="F127" t="s">
         <v>499</v>
       </c>
-      <c r="E127" t="s">
-        <v>83</v>
-      </c>
-      <c r="F127" t="s">
-        <v>500</v>
-      </c>
       <c r="H127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" t="s">
         <v>501</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
+        <v>82</v>
+      </c>
+      <c r="D128" t="s">
         <v>502</v>
       </c>
-      <c r="C128" t="s">
-        <v>83</v>
-      </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
+        <v>82</v>
+      </c>
+      <c r="F128" t="s">
         <v>503</v>
       </c>
-      <c r="E128" t="s">
-        <v>83</v>
-      </c>
-      <c r="F128" t="s">
-        <v>504</v>
-      </c>
       <c r="H128" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
+        <v>504</v>
+      </c>
+      <c r="B129" t="s">
         <v>505</v>
       </c>
-      <c r="B129" t="s">
+      <c r="C129" t="s">
+        <v>82</v>
+      </c>
+      <c r="D129" t="s">
         <v>506</v>
       </c>
-      <c r="C129" t="s">
-        <v>83</v>
-      </c>
-      <c r="D129" t="s">
+      <c r="E129" t="s">
+        <v>82</v>
+      </c>
+      <c r="F129" t="s">
         <v>507</v>
       </c>
-      <c r="E129" t="s">
-        <v>83</v>
-      </c>
-      <c r="F129" t="s">
-        <v>508</v>
-      </c>
       <c r="H129" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
+        <v>508</v>
+      </c>
+      <c r="B130" t="s">
         <v>509</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>82</v>
+      </c>
+      <c r="D130" t="s">
         <v>510</v>
       </c>
-      <c r="C130" t="s">
-        <v>83</v>
-      </c>
-      <c r="D130" t="s">
+      <c r="E130" t="s">
+        <v>82</v>
+      </c>
+      <c r="F130" t="s">
         <v>511</v>
       </c>
-      <c r="E130" t="s">
-        <v>83</v>
-      </c>
-      <c r="F130" t="s">
-        <v>512</v>
-      </c>
       <c r="H130" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>512</v>
+      </c>
+      <c r="B131" t="s">
         <v>513</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>82</v>
+      </c>
+      <c r="D131" t="s">
         <v>514</v>
       </c>
-      <c r="C131" t="s">
-        <v>83</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="E131" t="s">
+        <v>82</v>
+      </c>
+      <c r="F131" t="s">
         <v>515</v>
       </c>
-      <c r="E131" t="s">
-        <v>83</v>
-      </c>
-      <c r="F131" t="s">
-        <v>516</v>
-      </c>
       <c r="H131" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
+        <v>516</v>
+      </c>
+      <c r="B132" t="s">
         <v>517</v>
       </c>
-      <c r="B132" t="s">
+      <c r="C132" t="s">
+        <v>82</v>
+      </c>
+      <c r="D132" t="s">
         <v>518</v>
       </c>
-      <c r="C132" t="s">
-        <v>83</v>
-      </c>
-      <c r="D132" t="s">
-        <v>519</v>
-      </c>
       <c r="E132" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H132" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
+        <v>519</v>
+      </c>
+      <c r="B133" t="s">
         <v>520</v>
       </c>
-      <c r="B133" t="s">
+      <c r="C133" t="s">
+        <v>82</v>
+      </c>
+      <c r="D133" t="s">
         <v>521</v>
       </c>
-      <c r="C133" t="s">
-        <v>83</v>
-      </c>
-      <c r="D133" t="s">
-        <v>522</v>
-      </c>
       <c r="E133" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G133" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H133" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
+        <v>522</v>
+      </c>
+      <c r="B134" t="s">
         <v>523</v>
       </c>
-      <c r="B134" t="s">
+      <c r="C134" t="s">
+        <v>82</v>
+      </c>
+      <c r="D134" t="s">
         <v>524</v>
       </c>
-      <c r="C134" t="s">
-        <v>83</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
+        <v>82</v>
+      </c>
+      <c r="F134" t="s">
         <v>525</v>
       </c>
-      <c r="E134" t="s">
-        <v>83</v>
-      </c>
-      <c r="F134" t="s">
-        <v>526</v>
-      </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
+        <v>526</v>
+      </c>
+      <c r="B135" t="s">
         <v>527</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
+        <v>82</v>
+      </c>
+      <c r="D135" t="s">
         <v>528</v>
       </c>
-      <c r="C135" t="s">
-        <v>83</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
+        <v>82</v>
+      </c>
+      <c r="F135" t="s">
         <v>529</v>
       </c>
-      <c r="E135" t="s">
-        <v>83</v>
-      </c>
-      <c r="F135" t="s">
-        <v>530</v>
-      </c>
       <c r="G135" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H135" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
+        <v>530</v>
+      </c>
+      <c r="B136" t="s">
         <v>531</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
+        <v>82</v>
+      </c>
+      <c r="D136" t="s">
         <v>532</v>
       </c>
-      <c r="C136" t="s">
-        <v>83</v>
-      </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
+        <v>82</v>
+      </c>
+      <c r="F136" t="s">
         <v>533</v>
       </c>
-      <c r="E136" t="s">
-        <v>83</v>
-      </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>534</v>
       </c>
-      <c r="G136" t="s">
-        <v>535</v>
-      </c>
       <c r="H136" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
+        <v>534</v>
+      </c>
+      <c r="B137" t="s">
         <v>535</v>
       </c>
-      <c r="B137" t="s">
+      <c r="C137" t="s">
+        <v>82</v>
+      </c>
+      <c r="D137" t="s">
         <v>536</v>
       </c>
-      <c r="C137" t="s">
-        <v>83</v>
-      </c>
-      <c r="D137" t="s">
-        <v>537</v>
-      </c>
       <c r="E137" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G137" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H137" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
+        <v>537</v>
+      </c>
+      <c r="B138" t="s">
         <v>538</v>
       </c>
-      <c r="B138" t="s">
+      <c r="C138" t="s">
+        <v>82</v>
+      </c>
+      <c r="D138" t="s">
         <v>539</v>
       </c>
-      <c r="C138" t="s">
-        <v>83</v>
-      </c>
-      <c r="D138" t="s">
+      <c r="E138" t="s">
+        <v>82</v>
+      </c>
+      <c r="G138" t="s">
         <v>540</v>
       </c>
-      <c r="E138" t="s">
-        <v>83</v>
-      </c>
-      <c r="G138" t="s">
-        <v>541</v>
-      </c>
       <c r="H138" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>541</v>
+      </c>
+      <c r="B139" t="s">
         <v>542</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
+        <v>82</v>
+      </c>
+      <c r="D139" t="s">
         <v>543</v>
       </c>
-      <c r="C139" t="s">
-        <v>83</v>
-      </c>
-      <c r="D139" t="s">
+      <c r="E139" t="s">
+        <v>82</v>
+      </c>
+      <c r="G139" t="s">
         <v>544</v>
       </c>
-      <c r="E139" t="s">
-        <v>83</v>
-      </c>
-      <c r="G139" t="s">
-        <v>545</v>
-      </c>
       <c r="H139" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
+        <v>545</v>
+      </c>
+      <c r="B140" t="s">
         <v>546</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
+        <v>82</v>
+      </c>
+      <c r="D140" t="s">
         <v>547</v>
       </c>
-      <c r="C140" t="s">
-        <v>83</v>
-      </c>
-      <c r="D140" t="s">
+      <c r="E140" t="s">
+        <v>82</v>
+      </c>
+      <c r="G140" t="s">
         <v>548</v>
       </c>
-      <c r="E140" t="s">
-        <v>83</v>
-      </c>
-      <c r="G140" t="s">
-        <v>549</v>
-      </c>
       <c r="H140" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
+        <v>549</v>
+      </c>
+      <c r="B141" t="s">
         <v>550</v>
       </c>
-      <c r="B141" t="s">
+      <c r="C141" t="s">
+        <v>82</v>
+      </c>
+      <c r="D141" t="s">
         <v>551</v>
       </c>
-      <c r="C141" t="s">
-        <v>83</v>
-      </c>
-      <c r="D141" t="s">
+      <c r="E141" t="s">
+        <v>82</v>
+      </c>
+      <c r="G141" t="s">
         <v>552</v>
       </c>
-      <c r="E141" t="s">
-        <v>83</v>
-      </c>
-      <c r="G141" t="s">
-        <v>553</v>
-      </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
+        <v>553</v>
+      </c>
+      <c r="B142" t="s">
         <v>554</v>
       </c>
-      <c r="B142" t="s">
+      <c r="C142" t="s">
+        <v>82</v>
+      </c>
+      <c r="D142" t="s">
         <v>555</v>
       </c>
-      <c r="C142" t="s">
-        <v>83</v>
-      </c>
-      <c r="D142" t="s">
+      <c r="E142" t="s">
+        <v>82</v>
+      </c>
+      <c r="F142" t="s">
         <v>556</v>
       </c>
-      <c r="E142" t="s">
-        <v>83</v>
-      </c>
-      <c r="F142" t="s">
+      <c r="G142" t="s">
         <v>557</v>
       </c>
-      <c r="G142" t="s">
-        <v>558</v>
-      </c>
       <c r="H142" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
+        <v>558</v>
+      </c>
+      <c r="B143" t="s">
         <v>559</v>
       </c>
-      <c r="B143" t="s">
+      <c r="C143" t="s">
+        <v>82</v>
+      </c>
+      <c r="D143" t="s">
         <v>560</v>
       </c>
-      <c r="C143" t="s">
-        <v>83</v>
-      </c>
-      <c r="D143" t="s">
+      <c r="E143" t="s">
+        <v>82</v>
+      </c>
+      <c r="G143" t="s">
         <v>561</v>
       </c>
-      <c r="E143" t="s">
-        <v>83</v>
-      </c>
-      <c r="G143" t="s">
-        <v>562</v>
-      </c>
       <c r="H143" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
+        <v>562</v>
+      </c>
+      <c r="B144" t="s">
         <v>563</v>
       </c>
-      <c r="B144" t="s">
+      <c r="C144" t="s">
+        <v>82</v>
+      </c>
+      <c r="D144" t="s">
         <v>564</v>
       </c>
-      <c r="C144" t="s">
-        <v>83</v>
-      </c>
-      <c r="D144" t="s">
+      <c r="E144" t="s">
+        <v>82</v>
+      </c>
+      <c r="G144" t="s">
         <v>565</v>
       </c>
-      <c r="E144" t="s">
-        <v>83</v>
-      </c>
-      <c r="G144" t="s">
-        <v>566</v>
-      </c>
       <c r="H144" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
+        <v>566</v>
+      </c>
+      <c r="B145" t="s">
         <v>567</v>
       </c>
-      <c r="B145" t="s">
+      <c r="C145" t="s">
+        <v>82</v>
+      </c>
+      <c r="D145" t="s">
         <v>568</v>
       </c>
-      <c r="C145" t="s">
-        <v>83</v>
-      </c>
-      <c r="D145" t="s">
+      <c r="E145" t="s">
+        <v>82</v>
+      </c>
+      <c r="G145" t="s">
         <v>569</v>
       </c>
-      <c r="E145" t="s">
-        <v>83</v>
-      </c>
-      <c r="G145" t="s">
-        <v>570</v>
-      </c>
       <c r="H145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
+        <v>570</v>
+      </c>
+      <c r="B146" t="s">
         <v>571</v>
       </c>
-      <c r="B146" t="s">
+      <c r="C146" t="s">
+        <v>82</v>
+      </c>
+      <c r="D146" t="s">
         <v>572</v>
       </c>
-      <c r="C146" t="s">
-        <v>83</v>
-      </c>
-      <c r="D146" t="s">
+      <c r="E146" t="s">
+        <v>82</v>
+      </c>
+      <c r="G146" t="s">
         <v>573</v>
       </c>
-      <c r="E146" t="s">
-        <v>83</v>
-      </c>
-      <c r="G146" t="s">
-        <v>574</v>
-      </c>
       <c r="H146" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
+        <v>574</v>
+      </c>
+      <c r="B147" t="s">
         <v>575</v>
       </c>
-      <c r="B147" t="s">
+      <c r="C147" t="s">
+        <v>82</v>
+      </c>
+      <c r="D147" t="s">
         <v>576</v>
       </c>
-      <c r="C147" t="s">
-        <v>83</v>
-      </c>
-      <c r="D147" t="s">
+      <c r="E147" t="s">
+        <v>82</v>
+      </c>
+      <c r="G147" t="s">
         <v>577</v>
       </c>
-      <c r="E147" t="s">
-        <v>83</v>
-      </c>
-      <c r="G147" t="s">
-        <v>578</v>
-      </c>
       <c r="H147" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
+        <v>578</v>
+      </c>
+      <c r="B148" t="s">
         <v>579</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C148" t="s">
+        <v>82</v>
+      </c>
+      <c r="D148" t="s">
         <v>580</v>
       </c>
-      <c r="C148" t="s">
-        <v>83</v>
-      </c>
-      <c r="D148" t="s">
+      <c r="E148" t="s">
+        <v>82</v>
+      </c>
+      <c r="G148" t="s">
         <v>581</v>
       </c>
-      <c r="E148" t="s">
-        <v>83</v>
-      </c>
-      <c r="G148" t="s">
-        <v>582</v>
-      </c>
       <c r="H148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
+        <v>582</v>
+      </c>
+      <c r="B149" t="s">
         <v>583</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C149" t="s">
+        <v>82</v>
+      </c>
+      <c r="D149" t="s">
         <v>584</v>
       </c>
-      <c r="C149" t="s">
-        <v>83</v>
-      </c>
-      <c r="D149" t="s">
+      <c r="E149" t="s">
+        <v>82</v>
+      </c>
+      <c r="G149" t="s">
         <v>585</v>
       </c>
-      <c r="E149" t="s">
-        <v>83</v>
-      </c>
-      <c r="G149" t="s">
-        <v>586</v>
-      </c>
       <c r="H149" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
+        <v>586</v>
+      </c>
+      <c r="B150" t="s">
         <v>587</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C150" t="s">
+        <v>82</v>
+      </c>
+      <c r="D150" t="s">
         <v>588</v>
       </c>
-      <c r="C150" t="s">
-        <v>83</v>
-      </c>
-      <c r="D150" t="s">
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="G150" t="s">
         <v>589</v>
       </c>
-      <c r="E150" t="s">
-        <v>83</v>
-      </c>
-      <c r="G150" t="s">
-        <v>590</v>
-      </c>
       <c r="H150" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
+        <v>590</v>
+      </c>
+      <c r="B151" t="s">
         <v>591</v>
       </c>
-      <c r="B151" t="s">
+      <c r="C151" t="s">
+        <v>82</v>
+      </c>
+      <c r="D151" t="s">
         <v>592</v>
       </c>
-      <c r="C151" t="s">
-        <v>83</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="E151" t="s">
+        <v>82</v>
+      </c>
+      <c r="G151" t="s">
         <v>593</v>
       </c>
-      <c r="E151" t="s">
-        <v>83</v>
-      </c>
-      <c r="G151" t="s">
-        <v>594</v>
-      </c>
       <c r="H151" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
+        <v>594</v>
+      </c>
+      <c r="B152" t="s">
         <v>595</v>
       </c>
-      <c r="B152" t="s">
+      <c r="C152" t="s">
+        <v>82</v>
+      </c>
+      <c r="D152" t="s">
         <v>596</v>
       </c>
-      <c r="C152" t="s">
-        <v>83</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
+        <v>82</v>
+      </c>
+      <c r="G152" t="s">
         <v>597</v>
       </c>
-      <c r="E152" t="s">
-        <v>83</v>
-      </c>
-      <c r="G152" t="s">
-        <v>598</v>
-      </c>
       <c r="H152" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
+        <v>598</v>
+      </c>
+      <c r="B153" t="s">
         <v>599</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
+        <v>82</v>
+      </c>
+      <c r="D153" t="s">
         <v>600</v>
       </c>
-      <c r="C153" t="s">
-        <v>83</v>
-      </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
+        <v>82</v>
+      </c>
+      <c r="G153" t="s">
         <v>601</v>
       </c>
-      <c r="E153" t="s">
-        <v>83</v>
-      </c>
-      <c r="G153" t="s">
-        <v>602</v>
-      </c>
       <c r="H153" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
+        <v>602</v>
+      </c>
+      <c r="B154" t="s">
         <v>603</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
+        <v>82</v>
+      </c>
+      <c r="D154" t="s">
         <v>604</v>
       </c>
-      <c r="C154" t="s">
-        <v>83</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
+        <v>82</v>
+      </c>
+      <c r="G154" t="s">
         <v>605</v>
       </c>
-      <c r="E154" t="s">
-        <v>83</v>
-      </c>
-      <c r="G154" t="s">
-        <v>606</v>
-      </c>
       <c r="H154" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
+        <v>606</v>
+      </c>
+      <c r="B155" t="s">
         <v>607</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
+        <v>82</v>
+      </c>
+      <c r="D155" t="s">
         <v>608</v>
       </c>
-      <c r="C155" t="s">
-        <v>83</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
+        <v>82</v>
+      </c>
+      <c r="G155" t="s">
         <v>609</v>
       </c>
-      <c r="E155" t="s">
-        <v>83</v>
-      </c>
-      <c r="G155" t="s">
-        <v>610</v>
-      </c>
       <c r="H155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
+        <v>610</v>
+      </c>
+      <c r="B156" t="s">
         <v>611</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C156" t="s">
+        <v>82</v>
+      </c>
+      <c r="D156" t="s">
         <v>612</v>
       </c>
-      <c r="C156" t="s">
-        <v>83</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="E156" t="s">
+        <v>82</v>
+      </c>
+      <c r="G156" t="s">
         <v>613</v>
       </c>
-      <c r="E156" t="s">
-        <v>83</v>
-      </c>
-      <c r="G156" t="s">
-        <v>614</v>
-      </c>
       <c r="H156" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
+        <v>614</v>
+      </c>
+      <c r="B157" t="s">
         <v>615</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="D157" t="s">
         <v>616</v>
       </c>
-      <c r="C157" t="s">
-        <v>83</v>
-      </c>
-      <c r="D157" t="s">
+      <c r="E157" t="s">
+        <v>82</v>
+      </c>
+      <c r="G157" t="s">
         <v>617</v>
       </c>
-      <c r="E157" t="s">
-        <v>83</v>
-      </c>
-      <c r="G157" t="s">
-        <v>618</v>
-      </c>
       <c r="H157" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
+        <v>618</v>
+      </c>
+      <c r="B158" t="s">
         <v>619</v>
       </c>
-      <c r="B158" t="s">
+      <c r="C158" t="s">
+        <v>82</v>
+      </c>
+      <c r="D158" t="s">
         <v>620</v>
       </c>
-      <c r="C158" t="s">
-        <v>83</v>
-      </c>
-      <c r="D158" t="s">
+      <c r="E158" t="s">
+        <v>82</v>
+      </c>
+      <c r="G158" t="s">
         <v>621</v>
       </c>
-      <c r="E158" t="s">
-        <v>83</v>
-      </c>
-      <c r="G158" t="s">
-        <v>622</v>
-      </c>
       <c r="H158" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
+        <v>622</v>
+      </c>
+      <c r="B159" t="s">
         <v>623</v>
       </c>
-      <c r="B159" t="s">
+      <c r="C159" t="s">
+        <v>82</v>
+      </c>
+      <c r="D159" t="s">
         <v>624</v>
       </c>
-      <c r="C159" t="s">
-        <v>83</v>
-      </c>
-      <c r="D159" t="s">
+      <c r="E159" t="s">
+        <v>82</v>
+      </c>
+      <c r="G159" t="s">
         <v>625</v>
       </c>
-      <c r="E159" t="s">
-        <v>83</v>
-      </c>
-      <c r="G159" t="s">
-        <v>626</v>
-      </c>
       <c r="H159" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
+        <v>626</v>
+      </c>
+      <c r="B160" t="s">
         <v>627</v>
       </c>
-      <c r="B160" t="s">
+      <c r="C160" t="s">
+        <v>82</v>
+      </c>
+      <c r="D160" t="s">
         <v>628</v>
       </c>
-      <c r="C160" t="s">
-        <v>83</v>
-      </c>
-      <c r="D160" t="s">
+      <c r="E160" t="s">
+        <v>82</v>
+      </c>
+      <c r="G160" t="s">
         <v>629</v>
       </c>
-      <c r="E160" t="s">
-        <v>83</v>
-      </c>
-      <c r="G160" t="s">
-        <v>630</v>
-      </c>
       <c r="H160" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
+        <v>630</v>
+      </c>
+      <c r="B161" t="s">
         <v>631</v>
       </c>
-      <c r="B161" t="s">
+      <c r="C161" t="s">
+        <v>82</v>
+      </c>
+      <c r="D161" t="s">
         <v>632</v>
       </c>
-      <c r="C161" t="s">
-        <v>83</v>
-      </c>
-      <c r="D161" t="s">
+      <c r="E161" t="s">
+        <v>82</v>
+      </c>
+      <c r="F161" t="s">
         <v>633</v>
       </c>
-      <c r="E161" t="s">
-        <v>83</v>
-      </c>
-      <c r="F161" t="s">
+      <c r="G161" t="s">
         <v>634</v>
       </c>
-      <c r="G161" t="s">
-        <v>635</v>
-      </c>
       <c r="H161" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
+        <v>635</v>
+      </c>
+      <c r="B162" t="s">
         <v>636</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C162" t="s">
+        <v>82</v>
+      </c>
+      <c r="D162" t="s">
         <v>637</v>
       </c>
-      <c r="C162" t="s">
-        <v>83</v>
-      </c>
-      <c r="D162" t="s">
+      <c r="E162" t="s">
+        <v>82</v>
+      </c>
+      <c r="F162" t="s">
         <v>638</v>
       </c>
-      <c r="E162" t="s">
-        <v>83</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="G162" t="s">
         <v>639</v>
       </c>
-      <c r="G162" t="s">
-        <v>640</v>
-      </c>
       <c r="H162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>640</v>
+      </c>
+      <c r="B163" t="s">
         <v>641</v>
       </c>
-      <c r="B163" t="s">
+      <c r="C163" t="s">
+        <v>82</v>
+      </c>
+      <c r="D163" t="s">
         <v>642</v>
       </c>
-      <c r="C163" t="s">
-        <v>83</v>
-      </c>
-      <c r="D163" t="s">
+      <c r="E163" t="s">
+        <v>82</v>
+      </c>
+      <c r="G163" t="s">
         <v>643</v>
       </c>
-      <c r="E163" t="s">
-        <v>83</v>
-      </c>
-      <c r="G163" t="s">
-        <v>644</v>
-      </c>
       <c r="H163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
+        <v>644</v>
+      </c>
+      <c r="B164" t="s">
         <v>645</v>
       </c>
-      <c r="B164" t="s">
+      <c r="C164" t="s">
+        <v>82</v>
+      </c>
+      <c r="D164" t="s">
         <v>646</v>
       </c>
-      <c r="C164" t="s">
-        <v>83</v>
-      </c>
-      <c r="D164" t="s">
+      <c r="E164" t="s">
+        <v>82</v>
+      </c>
+      <c r="F164" t="s">
         <v>647</v>
       </c>
-      <c r="E164" t="s">
-        <v>83</v>
-      </c>
-      <c r="F164" t="s">
+      <c r="G164" t="s">
         <v>648</v>
       </c>
-      <c r="G164" t="s">
-        <v>649</v>
-      </c>
       <c r="H164" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
+        <v>649</v>
+      </c>
+      <c r="B165" t="s">
         <v>650</v>
       </c>
-      <c r="B165" t="s">
+      <c r="C165" t="s">
+        <v>82</v>
+      </c>
+      <c r="D165" t="s">
         <v>651</v>
       </c>
-      <c r="C165" t="s">
-        <v>83</v>
-      </c>
-      <c r="D165" t="s">
+      <c r="E165" t="s">
+        <v>82</v>
+      </c>
+      <c r="F165" t="s">
         <v>652</v>
       </c>
-      <c r="E165" t="s">
-        <v>83</v>
-      </c>
-      <c r="F165" t="s">
+      <c r="G165" t="s">
         <v>653</v>
       </c>
-      <c r="G165" t="s">
-        <v>654</v>
-      </c>
       <c r="H165" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
+        <v>654</v>
+      </c>
+      <c r="B166" t="s">
         <v>655</v>
       </c>
-      <c r="B166" t="s">
+      <c r="C166" t="s">
+        <v>82</v>
+      </c>
+      <c r="D166" t="s">
         <v>656</v>
       </c>
-      <c r="C166" t="s">
-        <v>83</v>
-      </c>
-      <c r="D166" t="s">
+      <c r="E166" t="s">
+        <v>82</v>
+      </c>
+      <c r="G166" t="s">
         <v>657</v>
       </c>
-      <c r="E166" t="s">
-        <v>83</v>
-      </c>
-      <c r="G166" t="s">
-        <v>658</v>
-      </c>
       <c r="H166" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
+        <v>658</v>
+      </c>
+      <c r="B167" t="s">
         <v>659</v>
       </c>
-      <c r="B167" t="s">
+      <c r="C167" t="s">
+        <v>82</v>
+      </c>
+      <c r="D167" t="s">
         <v>660</v>
       </c>
-      <c r="C167" t="s">
-        <v>83</v>
-      </c>
-      <c r="D167" t="s">
+      <c r="E167" t="s">
+        <v>82</v>
+      </c>
+      <c r="G167" t="s">
         <v>661</v>
       </c>
-      <c r="E167" t="s">
-        <v>83</v>
-      </c>
-      <c r="G167" t="s">
-        <v>662</v>
-      </c>
       <c r="H167" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
+        <v>662</v>
+      </c>
+      <c r="B168" t="s">
         <v>663</v>
       </c>
-      <c r="B168" t="s">
+      <c r="C168" t="s">
+        <v>82</v>
+      </c>
+      <c r="D168" t="s">
         <v>664</v>
       </c>
-      <c r="C168" t="s">
-        <v>83</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="E168" t="s">
+        <v>82</v>
+      </c>
+      <c r="G168" t="s">
         <v>665</v>
       </c>
-      <c r="E168" t="s">
-        <v>83</v>
-      </c>
-      <c r="G168" t="s">
-        <v>666</v>
-      </c>
       <c r="H168" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
+        <v>666</v>
+      </c>
+      <c r="B169" t="s">
         <v>667</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
+        <v>82</v>
+      </c>
+      <c r="D169" t="s">
         <v>668</v>
       </c>
-      <c r="C169" t="s">
-        <v>83</v>
-      </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
+        <v>82</v>
+      </c>
+      <c r="G169" t="s">
         <v>669</v>
       </c>
-      <c r="E169" t="s">
-        <v>83</v>
-      </c>
-      <c r="G169" t="s">
-        <v>670</v>
-      </c>
       <c r="H169" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
+        <v>670</v>
+      </c>
+      <c r="B170" t="s">
         <v>671</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
+        <v>82</v>
+      </c>
+      <c r="D170" t="s">
         <v>672</v>
       </c>
-      <c r="C170" t="s">
-        <v>83</v>
-      </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
+        <v>82</v>
+      </c>
+      <c r="F170" t="s">
         <v>673</v>
       </c>
-      <c r="E170" t="s">
-        <v>83</v>
-      </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>674</v>
       </c>
-      <c r="G170" t="s">
-        <v>675</v>
-      </c>
       <c r="H170" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
+        <v>675</v>
+      </c>
+      <c r="B171" t="s">
         <v>676</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
+        <v>82</v>
+      </c>
+      <c r="D171" t="s">
         <v>677</v>
       </c>
-      <c r="C171" t="s">
-        <v>83</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
+        <v>82</v>
+      </c>
+      <c r="F171" t="s">
         <v>678</v>
       </c>
-      <c r="E171" t="s">
-        <v>83</v>
-      </c>
-      <c r="F171" t="s">
+      <c r="G171" t="s">
         <v>679</v>
       </c>
-      <c r="G171" t="s">
-        <v>680</v>
-      </c>
       <c r="H171" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>680</v>
+      </c>
+      <c r="B172" t="s">
         <v>681</v>
       </c>
-      <c r="B172" t="s">
+      <c r="C172" t="s">
+        <v>82</v>
+      </c>
+      <c r="D172" t="s">
         <v>682</v>
       </c>
-      <c r="C172" t="s">
-        <v>83</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="E172" t="s">
+        <v>82</v>
+      </c>
+      <c r="F172" t="s">
         <v>683</v>
       </c>
-      <c r="E172" t="s">
-        <v>83</v>
-      </c>
-      <c r="F172" t="s">
+      <c r="G172" t="s">
         <v>684</v>
       </c>
-      <c r="G172" t="s">
-        <v>685</v>
-      </c>
       <c r="H172" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
+        <v>685</v>
+      </c>
+      <c r="B173" t="s">
         <v>686</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C173" t="s">
+        <v>82</v>
+      </c>
+      <c r="D173" t="s">
         <v>687</v>
       </c>
-      <c r="C173" t="s">
-        <v>83</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="E173" t="s">
+        <v>82</v>
+      </c>
+      <c r="F173" t="s">
         <v>688</v>
       </c>
-      <c r="E173" t="s">
-        <v>83</v>
-      </c>
-      <c r="F173" t="s">
+      <c r="G173" t="s">
         <v>689</v>
       </c>
-      <c r="G173" t="s">
-        <v>690</v>
-      </c>
       <c r="H173" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
+        <v>690</v>
+      </c>
+      <c r="B174" t="s">
         <v>691</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
+        <v>82</v>
+      </c>
+      <c r="D174" t="s">
         <v>692</v>
       </c>
-      <c r="C174" t="s">
-        <v>83</v>
-      </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
+        <v>82</v>
+      </c>
+      <c r="F174" t="s">
         <v>693</v>
       </c>
-      <c r="E174" t="s">
-        <v>83</v>
-      </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
         <v>694</v>
       </c>
-      <c r="G174" t="s">
-        <v>695</v>
-      </c>
       <c r="H174" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
+        <v>695</v>
+      </c>
+      <c r="B175" t="s">
         <v>696</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
+        <v>82</v>
+      </c>
+      <c r="D175" t="s">
         <v>697</v>
       </c>
-      <c r="C175" t="s">
-        <v>83</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
+        <v>82</v>
+      </c>
+      <c r="F175" t="s">
         <v>698</v>
       </c>
-      <c r="E175" t="s">
-        <v>83</v>
-      </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
         <v>699</v>
       </c>
-      <c r="G175" t="s">
-        <v>700</v>
-      </c>
       <c r="H175" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
+        <v>700</v>
+      </c>
+      <c r="B176" t="s">
         <v>701</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
+        <v>82</v>
+      </c>
+      <c r="D176" t="s">
         <v>702</v>
       </c>
-      <c r="C176" t="s">
-        <v>83</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
+        <v>82</v>
+      </c>
+      <c r="G176" t="s">
         <v>703</v>
       </c>
-      <c r="E176" t="s">
-        <v>83</v>
-      </c>
-      <c r="G176" t="s">
-        <v>704</v>
-      </c>
       <c r="H176" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
+        <v>704</v>
+      </c>
+      <c r="B177" t="s">
         <v>705</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
+        <v>82</v>
+      </c>
+      <c r="D177" t="s">
         <v>706</v>
       </c>
-      <c r="C177" t="s">
-        <v>83</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
+        <v>82</v>
+      </c>
+      <c r="G177" t="s">
         <v>707</v>
       </c>
-      <c r="E177" t="s">
-        <v>83</v>
-      </c>
-      <c r="G177" t="s">
-        <v>708</v>
-      </c>
       <c r="H177" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
+        <v>708</v>
+      </c>
+      <c r="B178" t="s">
         <v>709</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
+        <v>82</v>
+      </c>
+      <c r="D178" t="s">
         <v>710</v>
       </c>
-      <c r="C178" t="s">
-        <v>83</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
+        <v>82</v>
+      </c>
+      <c r="G178" t="s">
         <v>711</v>
       </c>
-      <c r="E178" t="s">
-        <v>83</v>
-      </c>
-      <c r="G178" t="s">
-        <v>712</v>
-      </c>
       <c r="H178" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
+        <v>712</v>
+      </c>
+      <c r="B179" t="s">
         <v>713</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
+        <v>82</v>
+      </c>
+      <c r="D179" t="s">
         <v>714</v>
       </c>
-      <c r="C179" t="s">
-        <v>83</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
+        <v>82</v>
+      </c>
+      <c r="G179" t="s">
         <v>715</v>
       </c>
-      <c r="E179" t="s">
-        <v>83</v>
-      </c>
-      <c r="G179" t="s">
-        <v>716</v>
-      </c>
       <c r="H179" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
+        <v>716</v>
+      </c>
+      <c r="B180" t="s">
         <v>717</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
+        <v>82</v>
+      </c>
+      <c r="D180" t="s">
         <v>718</v>
       </c>
-      <c r="C180" t="s">
-        <v>83</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
+        <v>82</v>
+      </c>
+      <c r="G180" t="s">
         <v>719</v>
       </c>
-      <c r="E180" t="s">
-        <v>83</v>
-      </c>
-      <c r="G180" t="s">
-        <v>720</v>
-      </c>
       <c r="H180" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
+        <v>720</v>
+      </c>
+      <c r="B181" t="s">
         <v>721</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
+        <v>82</v>
+      </c>
+      <c r="D181" t="s">
         <v>722</v>
       </c>
-      <c r="C181" t="s">
-        <v>83</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
+        <v>82</v>
+      </c>
+      <c r="G181" t="s">
         <v>723</v>
       </c>
-      <c r="E181" t="s">
-        <v>83</v>
-      </c>
-      <c r="G181" t="s">
-        <v>724</v>
-      </c>
       <c r="H181" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -11853,923 +11853,923 @@
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>729</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="128" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="129" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="132" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="133" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="134" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="137" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="138" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="139" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="142" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="143" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="148" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="152" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="153" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="154" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="157" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="158" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="159" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="162" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="163" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="167" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="168" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="172" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="173" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="174" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="177" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="178" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="179" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="181" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="182" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13107,58 +13107,58 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>733</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
+        <v>736</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>737</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>738</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>739</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>740</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
+        <v>740</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>741</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>742</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>743</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>744</v>
-      </c>
       <c r="E4" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -13300,242 +13300,242 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>744</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>745</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B2" t="s">
         <v>747</v>
-      </c>
-      <c r="B2" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>748</v>
+      </c>
+      <c r="B3" t="s">
         <v>749</v>
-      </c>
-      <c r="B3" t="s">
-        <v>750</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>750</v>
+      </c>
+      <c r="B4" t="s">
         <v>751</v>
-      </c>
-      <c r="B4" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>752</v>
+      </c>
+      <c r="B5" t="s">
         <v>753</v>
-      </c>
-      <c r="B5" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>754</v>
+      </c>
+      <c r="B6" t="s">
         <v>755</v>
-      </c>
-      <c r="B6" t="s">
-        <v>756</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B7" t="s">
         <v>757</v>
-      </c>
-      <c r="B7" t="s">
-        <v>758</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>758</v>
+      </c>
+      <c r="B8" t="s">
         <v>759</v>
-      </c>
-      <c r="B8" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>760</v>
+      </c>
+      <c r="B9" t="s">
         <v>761</v>
-      </c>
-      <c r="B9" t="s">
-        <v>762</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>762</v>
+      </c>
+      <c r="B10" t="s">
         <v>763</v>
-      </c>
-      <c r="B10" t="s">
-        <v>764</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>764</v>
+      </c>
+      <c r="B11" t="s">
         <v>765</v>
-      </c>
-      <c r="B11" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>766</v>
+      </c>
+      <c r="B12" t="s">
         <v>767</v>
-      </c>
-      <c r="B12" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>768</v>
+      </c>
+      <c r="B13" t="s">
         <v>769</v>
-      </c>
-      <c r="B13" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>770</v>
+      </c>
+      <c r="B14" t="s">
         <v>771</v>
-      </c>
-      <c r="B14" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>772</v>
+      </c>
+      <c r="B15" t="s">
         <v>773</v>
-      </c>
-      <c r="B15" t="s">
-        <v>774</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>774</v>
+      </c>
+      <c r="B16" t="s">
         <v>775</v>
-      </c>
-      <c r="B16" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>776</v>
+      </c>
+      <c r="B17" t="s">
         <v>777</v>
-      </c>
-      <c r="B17" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>778</v>
+      </c>
+      <c r="B18" t="s">
         <v>779</v>
-      </c>
-      <c r="B18" t="s">
-        <v>780</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>780</v>
+      </c>
+      <c r="B19" t="s">
         <v>781</v>
-      </c>
-      <c r="B19" t="s">
-        <v>782</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>782</v>
+      </c>
+      <c r="B20" t="s">
         <v>783</v>
-      </c>
-      <c r="B20" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>784</v>
+      </c>
+      <c r="B21" t="s">
         <v>785</v>
-      </c>
-      <c r="B21" t="s">
-        <v>786</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>786</v>
+      </c>
+      <c r="B22" t="s">
         <v>787</v>
-      </c>
-      <c r="B22" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>788</v>
+      </c>
+      <c r="B23" t="s">
         <v>789</v>
-      </c>
-      <c r="B23" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>790</v>
+      </c>
+      <c r="B24" t="s">
         <v>791</v>
-      </c>
-      <c r="B24" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>792</v>
+      </c>
+      <c r="B25" t="s">
         <v>793</v>
-      </c>
-      <c r="B25" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>794</v>
+      </c>
+      <c r="B26" t="s">
         <v>795</v>
-      </c>
-      <c r="B26" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>796</v>
+      </c>
+      <c r="B27" t="s">
         <v>797</v>
-      </c>
-      <c r="B27" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>798</v>
+      </c>
+      <c r="B28" t="s">
         <v>799</v>
-      </c>
-      <c r="B28" t="s">
-        <v>800</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>800</v>
+      </c>
+      <c r="B29" t="s">
         <v>801</v>
-      </c>
-      <c r="B29" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>802</v>
+      </c>
+      <c r="B30" t="s">
         <v>803</v>
-      </c>
-      <c r="B30" t="s">
-        <v>804</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1705" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="915">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2629,27 +2629,51 @@
     <t xml:space="preserve">electrode</t>
   </si>
   <si>
+    <t xml:space="preserve">A conductor employed either to determine an electrode potential (at zero current, i.e., for potentiometric experiments), or to determine current during a dynamic electroanalytical measurement. The electronic conductivity of most electrodes is metallic. </t>
+  </si>
+  <si>
     <t xml:space="preserve">working electrode</t>
   </si>
   <si>
+    <t xml:space="preserve">The principal electrode during dynamic analyses. The potential of the WE is measured with respect to a reference electrode, while the current passing through the WE is measured with respect to the counter electrode.</t>
+  </si>
+  <si>
     <t xml:space="preserve">counter electrode</t>
   </si>
   <si>
+    <t xml:space="preserve">The third electrode in voltammetry and polarography, where the current is measured between the counter and working electrodes. It is rare to monitor the potential of the counter electrode.</t>
+  </si>
+  <si>
     <t xml:space="preserve">reference electrode</t>
   </si>
   <si>
+    <t xml:space="preserve">A constant-potential device (e.g., an SHE or SCE) used as a half cell of known potential.</t>
+  </si>
+  <si>
     <t xml:space="preserve">potentiostat</t>
   </si>
   <si>
+    <t xml:space="preserve">The instrument employed in dynamic electrochemistry such as voltammetry, allowing three electrodes to be used.</t>
+  </si>
+  <si>
     <t xml:space="preserve">potentiometry</t>
   </si>
   <si>
+    <t xml:space="preserve">The techniques and methodology of determining an activity as a function of potential (at zero current). Activity and concentration can often be interchanged at low ionic strength.</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronoamperometry</t>
   </si>
   <si>
+    <t xml:space="preserve">The techniques and methodology of studying current as a function of time.</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronopotentiometry</t>
   </si>
   <si>
+    <t xml:space="preserve">The techniques and methodology of studying electric potential as a function of time.</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrochemical impedance spectroscopy</t>
   </si>
   <si>
@@ -2659,31 +2683,52 @@
     <t xml:space="preserve">linear sweep voltammetry</t>
   </si>
   <si>
+    <t xml:space="preserve">A voltammetry where the voltage changes linearly over time from a initial potential to a final potential.</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronocoulometry</t>
   </si>
   <si>
+    <t xml:space="preserve">The techniques and methodology of studying charge as a function of time.</t>
+  </si>
+  <si>
     <t xml:space="preserve">scan rate potential</t>
   </si>
   <si>
+    <t xml:space="preserve">In cyclic voltammetry, the rate at which the potential of the working electrode is varied, i.e., = (dE/dt). The value of is always cited as positive.</t>
+  </si>
+  <si>
     <t xml:space="preserve">sweep rate potential</t>
   </si>
   <si>
     <t xml:space="preserve">lower limit potential</t>
   </si>
   <si>
+    <t xml:space="preserve">The minimal potential in a cyclic voltammetry. This is where the sweep turns.</t>
+  </si>
+  <si>
     <t xml:space="preserve">upper limit potential</t>
   </si>
   <si>
+    <t xml:space="preserve">The maximal potential in a cyclic voltammetry. This is where the sweep turns.</t>
+  </si>
+  <si>
     <t xml:space="preserve">initial potential</t>
   </si>
   <si>
+    <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry starts.</t>
+  </si>
+  <si>
     <t xml:space="preserve">final potential</t>
   </si>
   <si>
+    <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry ends.</t>
+  </si>
+  <si>
     <t xml:space="preserve">step size potential</t>
   </si>
   <si>
-    <t xml:space="preserve">potential</t>
+    <t xml:space="preserve">electric potential</t>
   </si>
   <si>
     <t xml:space="preserve">current</t>
@@ -2695,39 +2740,66 @@
     <t xml:space="preserve">resistance</t>
   </si>
   <si>
-    <t xml:space="preserve">environment</t>
+    <t xml:space="preserve">electrochemical environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The final environment in which the elctrochemical reaction happens. Includes possibly purged electrolyte.</t>
   </si>
   <si>
     <t xml:space="preserve">electrolyte</t>
   </si>
   <si>
+    <t xml:space="preserve">An ionic salt to be dissolved in a solvent, or the solution formed by dissolving an ionic salt in a solvent.</t>
+  </si>
+  <si>
     <t xml:space="preserve">purging</t>
   </si>
   <si>
     <t xml:space="preserve">purging gas</t>
   </si>
   <si>
+    <t xml:space="preserve">Gas which is used in purging.</t>
+  </si>
+  <si>
     <t xml:space="preserve">purging temperature</t>
   </si>
   <si>
+    <t xml:space="preserve">Temperature for which a gas is purged through the reaction chamber.</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of cycles</t>
   </si>
   <si>
+    <t xml:space="preserve">The number of cycles in a measurment, such as an cyclic voltammetry.</t>
+  </si>
+  <si>
     <t xml:space="preserve">faradaic efficiency</t>
   </si>
   <si>
+    <t xml:space="preserve">The quotient of faradaic current to total current passed.</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrochemical setup</t>
   </si>
   <si>
+    <t xml:space="preserve">The collection of instruments and devices used in an electochemical reaction. Can include electrodes, flow cells, beaker, does not include the electrochemical environment.</t>
+  </si>
+  <si>
     <t xml:space="preserve">beaker</t>
   </si>
   <si>
     <t xml:space="preserve">flow cell</t>
   </si>
   <si>
+    <t xml:space="preserve">Electrochemical cell in which analyte solution flows at a constant velocity V through stationary tubular electrode(s).</t>
+  </si>
+  <si>
     <t xml:space="preserve">rotated ring disk electrode</t>
   </si>
   <si>
+    <t xml:space="preserve">Disc electrode within a concentric ring electrode.</t>
+  </si>
+  <si>
     <t xml:space="preserve">total charge transfer</t>
   </si>
   <si>
@@ -2740,13 +2812,22 @@
     <t xml:space="preserve">voltammetry</t>
   </si>
   <si>
+    <t xml:space="preserve">The techniques and methodology of measuring current as a function of applied potential.</t>
+  </si>
+  <si>
     <t xml:space="preserve">voltammogramm</t>
   </si>
   <si>
+    <t xml:space="preserve">A trace of current (as “y“) against applied potential (as “x“).</t>
+  </si>
+  <si>
     <t xml:space="preserve">angular frequency</t>
   </si>
   <si>
     <t xml:space="preserve">impedance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AC resistance.</t>
   </si>
   <si>
     <t xml:space="preserve">initial angular frequency</t>
@@ -3215,7 +3296,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3296,6 +3377,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3428,7 +3515,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3543,6 +3630,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -7835,8 +7926,8 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A136" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D193" activeCellId="0" sqref="D193"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D201" activeCellId="0" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12056,75 +12147,97 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="0" t="s">
         <v>760</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D192" s="28"/>
-    </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D192" s="28" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="0" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D193" s="28"/>
-    </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D193" s="28" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="0" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D194" s="28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="0" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D195" s="28" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D196" s="28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="0" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D197" s="28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="0" t="s">
-        <v>766</v>
+        <v>772</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D198" s="28" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="0" t="s">
-        <v>767</v>
+        <v>774</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D199" s="28" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
-        <v>768</v>
+        <v>776</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>84</v>
@@ -12132,7 +12245,7 @@
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>769</v>
+        <v>777</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>84</v>
@@ -12140,66 +12253,87 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>770</v>
+        <v>778</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D202" s="0" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D203" s="28" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>772</v>
+        <v>782</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D204" s="29" t="s">
+        <v>783</v>
+      </c>
       <c r="F204" s="0" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D205" s="0" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D206" s="0" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>776</v>
+        <v>789</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D207" s="0" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>777</v>
+        <v>791</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D208" s="29" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>84</v>
@@ -12207,7 +12341,7 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>779</v>
+        <v>794</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>84</v>
@@ -12215,7 +12349,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>780</v>
+        <v>795</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>84</v>
@@ -12223,7 +12357,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>84</v>
@@ -12231,7 +12365,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>84</v>
@@ -12239,23 +12373,29 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>783</v>
+        <v>798</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D214" s="0" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D215" s="28" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>785</v>
+        <v>802</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>84</v>
@@ -12263,71 +12403,92 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>786</v>
+        <v>803</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D217" s="0" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D218" s="0" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>788</v>
+        <v>807</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D219" s="0" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>789</v>
+        <v>809</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D220" s="28" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>790</v>
+        <v>811</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D221" s="0" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>791</v>
+        <v>813</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>792</v>
+        <v>814</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D223" s="28" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>793</v>
+        <v>816</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D224" s="28" t="s">
+        <v>817</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>794</v>
+        <v>818</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>84</v>
@@ -12335,7 +12496,7 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>795</v>
+        <v>819</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>84</v>
@@ -12343,47 +12504,56 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>796</v>
+        <v>820</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>797</v>
+        <v>821</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D228" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>798</v>
+        <v>823</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D229" s="28" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>799</v>
+        <v>825</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>800</v>
+        <v>826</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D231" s="28" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>801</v>
+        <v>828</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>84</v>
@@ -12391,7 +12561,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>802</v>
+        <v>829</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>84</v>
@@ -12399,7 +12569,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>803</v>
+        <v>830</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>84</v>
@@ -12407,7 +12577,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>804</v>
+        <v>831</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>84</v>
@@ -12415,7 +12585,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>84</v>
@@ -12423,7 +12593,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>806</v>
+        <v>833</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
@@ -12431,7 +12601,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>807</v>
+        <v>834</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
@@ -12462,7 +12632,7 @@
   </sheetPr>
   <dimension ref="A1:F485"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -12474,7 +12644,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>808</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12482,19 +12652,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>809</v>
+        <v>836</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>810</v>
+        <v>837</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>811</v>
+        <v>838</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>812</v>
+        <v>839</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>813</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13773,38 +13943,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>814</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>816</v>
+        <v>843</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>817</v>
+        <v>844</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>818</v>
+        <v>845</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>819</v>
+        <v>846</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>820</v>
+        <v>847</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>822</v>
+        <v>849</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>823</v>
+        <v>850</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -13812,16 +13982,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>824</v>
+        <v>851</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>825</v>
+        <v>852</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>826</v>
+        <v>853</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>827</v>
+        <v>854</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -13971,242 +14141,242 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>828</v>
+        <v>855</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>829</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
-        <v>830</v>
+      <c r="A2" s="30" t="s">
+        <v>857</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>831</v>
+        <v>858</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>832</v>
+      <c r="A3" s="30" t="s">
+        <v>859</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>834</v>
+      <c r="A4" s="30" t="s">
+        <v>861</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>836</v>
+      <c r="A5" s="30" t="s">
+        <v>863</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="29" t="s">
-        <v>838</v>
+      <c r="A6" s="30" t="s">
+        <v>865</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="29" t="s">
-        <v>840</v>
+      <c r="A7" s="30" t="s">
+        <v>867</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>842</v>
+      <c r="A8" s="30" t="s">
+        <v>869</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="29" t="s">
-        <v>844</v>
+      <c r="A9" s="30" t="s">
+        <v>871</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="29" t="s">
-        <v>846</v>
+      <c r="A10" s="30" t="s">
+        <v>873</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="s">
-        <v>848</v>
+      <c r="A11" s="30" t="s">
+        <v>875</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="29" t="s">
-        <v>850</v>
+      <c r="A12" s="30" t="s">
+        <v>877</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="s">
-        <v>852</v>
+      <c r="A13" s="30" t="s">
+        <v>879</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="29" t="s">
-        <v>854</v>
+      <c r="A14" s="30" t="s">
+        <v>881</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="29" t="s">
-        <v>856</v>
+      <c r="A15" s="30" t="s">
+        <v>883</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="29" t="s">
-        <v>858</v>
+      <c r="A16" s="30" t="s">
+        <v>885</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>859</v>
+        <v>886</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="29" t="s">
-        <v>860</v>
+      <c r="A17" s="30" t="s">
+        <v>887</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="29" t="s">
-        <v>862</v>
+      <c r="A18" s="30" t="s">
+        <v>889</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29" t="s">
-        <v>864</v>
+      <c r="A19" s="30" t="s">
+        <v>891</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>877</v>
+        <v>904</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>878</v>
+        <v>905</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>879</v>
+        <v>906</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>880</v>
+        <v>907</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>881</v>
+        <v>908</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>882</v>
+        <v>909</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>883</v>
+        <v>910</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>884</v>
+        <v>911</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>885</v>
+        <v>912</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>886</v>
+        <v>913</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>887</v>
+        <v>914</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1732" uniqueCount="915">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="919">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2677,6 +2677,9 @@
     <t xml:space="preserve">electrochemical impedance spectroscopy</t>
   </si>
   <si>
+    <t xml:space="preserve">Electrochemical impedance spectroscopy determines the impedance, i.e. the alternating current resistance, of electrochemical systems as a function of the frequency of an alternating voltage or alternating current.</t>
+  </si>
+  <si>
     <t xml:space="preserve">open circuit voltage measurement</t>
   </si>
   <si>
@@ -2728,6 +2731,9 @@
     <t xml:space="preserve">step size potential</t>
   </si>
   <si>
+    <t xml:space="preserve">The potential at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
+  </si>
+  <si>
     <t xml:space="preserve">electric potential</t>
   </si>
   <si>
@@ -2788,6 +2794,9 @@
     <t xml:space="preserve">beaker</t>
   </si>
   <si>
+    <t xml:space="preserve">In laboratory equipment, a beaker (also becker or beker) is generally a cylindrical container with a flat bottom.</t>
+  </si>
+  <si>
     <t xml:space="preserve">flow cell</t>
   </si>
   <si>
@@ -2807,6 +2816,9 @@
   </si>
   <si>
     <t xml:space="preserve">h cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The H-Cell is a two-compartment electrochemical cell used for membrane testing, H2 permeation, or any other experiment where two separate electrode chambers are required.</t>
   </si>
   <si>
     <t xml:space="preserve">voltammetry</t>
@@ -3296,7 +3308,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3377,12 +3389,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3515,7 +3521,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3630,10 +3636,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3762,9 +3764,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3778,8 +3780,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374480" y="304920"/>
-          <a:ext cx="5911920" cy="1542960"/>
+          <a:off x="1375200" y="304920"/>
+          <a:ext cx="5914440" cy="1542600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3859,7 +3861,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4042,7 +4044,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -6761,7 +6763,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -7926,13 +7928,13 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A170" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D201" activeCellId="0" sqref="D201"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.14"/>
@@ -7940,7 +7942,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12235,17 +12237,20 @@
         <v>775</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="0" t="s">
         <v>776</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D200" s="28" t="s">
+        <v>777</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="0" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>84</v>
@@ -12253,95 +12258,98 @@
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="0" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="0" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="0" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D204" s="29" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="0" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="0" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="0" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="0" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="0" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D209" s="29" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="0" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>84</v>
@@ -12349,7 +12357,7 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="0" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>84</v>
@@ -12357,7 +12365,7 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="0" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>84</v>
@@ -12365,7 +12373,7 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="0" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>84</v>
@@ -12373,29 +12381,29 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="0" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="0" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="0" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>84</v>
@@ -12403,92 +12411,95 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="0" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="0" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="0" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="0" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="0" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="0" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D222" s="0" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="0" t="s">
-        <v>814</v>
+        <v>817</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>815</v>
+        <v>818</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="0" t="s">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="0" t="s">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>84</v>
@@ -12496,45 +12507,48 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="0" t="s">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="0" t="s">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D227" s="28" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="0" t="s">
-        <v>821</v>
+        <v>825</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>822</v>
+        <v>826</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="0" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="0" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>84</v>
@@ -12542,18 +12556,18 @@
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="0" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="0" t="s">
-        <v>828</v>
+        <v>832</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>84</v>
@@ -12561,7 +12575,7 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="0" t="s">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>84</v>
@@ -12569,7 +12583,7 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="0" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>84</v>
@@ -12577,7 +12591,7 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="0" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>84</v>
@@ -12585,7 +12599,7 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="0" t="s">
-        <v>832</v>
+        <v>836</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>84</v>
@@ -12593,7 +12607,7 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="0" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
@@ -12601,7 +12615,7 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="0" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
@@ -12636,7 +12650,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -12644,7 +12658,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>835</v>
+        <v>839</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12652,19 +12666,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>839</v>
+        <v>843</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>840</v>
+        <v>844</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13932,49 +13946,49 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -13982,16 +13996,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -14134,249 +14148,249 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="30" t="s">
-        <v>857</v>
+      <c r="A2" s="29" t="s">
+        <v>861</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="30" t="s">
-        <v>859</v>
+      <c r="A3" s="29" t="s">
+        <v>863</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="30" t="s">
-        <v>861</v>
+      <c r="A4" s="29" t="s">
+        <v>865</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="30" t="s">
-        <v>863</v>
+      <c r="A5" s="29" t="s">
+        <v>867</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="30" t="s">
-        <v>865</v>
+      <c r="A6" s="29" t="s">
+        <v>869</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="30" t="s">
-        <v>867</v>
+      <c r="A7" s="29" t="s">
+        <v>871</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="30" t="s">
-        <v>869</v>
+      <c r="A8" s="29" t="s">
+        <v>873</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="30" t="s">
-        <v>871</v>
+      <c r="A9" s="29" t="s">
+        <v>875</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="30" t="s">
-        <v>873</v>
+      <c r="A10" s="29" t="s">
+        <v>877</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="30" t="s">
-        <v>875</v>
+      <c r="A11" s="29" t="s">
+        <v>879</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="30" t="s">
-        <v>877</v>
+      <c r="A12" s="29" t="s">
+        <v>881</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="30" t="s">
-        <v>879</v>
+      <c r="A13" s="29" t="s">
+        <v>883</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="30" t="s">
-        <v>881</v>
+      <c r="A14" s="29" t="s">
+        <v>885</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="30" t="s">
-        <v>883</v>
+      <c r="A15" s="29" t="s">
+        <v>887</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="30" t="s">
-        <v>885</v>
+      <c r="A16" s="29" t="s">
+        <v>889</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="30" t="s">
-        <v>887</v>
+      <c r="A17" s="29" t="s">
+        <v>891</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>888</v>
+        <v>892</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="30" t="s">
-        <v>889</v>
+      <c r="A18" s="29" t="s">
+        <v>893</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="30" t="s">
-        <v>891</v>
+      <c r="A19" s="29" t="s">
+        <v>895</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>892</v>
+        <v>896</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>897</v>
+        <v>901</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>898</v>
+        <v>902</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>903</v>
+        <v>907</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>904</v>
+        <v>908</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>905</v>
+        <v>909</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>906</v>
+        <v>910</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>908</v>
+        <v>912</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>912</v>
+        <v>916</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="967">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2626,75 +2626,117 @@
 https://w3id.org/nfdi4cat/voc4cat_0000083</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007201</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrode</t>
   </si>
   <si>
     <t xml:space="preserve">A conductor employed either to determine an electrode potential (at zero current, i.e., for potentiometric experiments), or to determine current during a dynamic electroanalytical measurement. The electronic conductivity of most electrodes is metallic. </t>
   </si>
   <si>
+    <t xml:space="preserve">0009-0008-1278-8890 Michael Götte created the resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007202</t>
+  </si>
+  <si>
     <t xml:space="preserve">working electrode</t>
   </si>
   <si>
     <t xml:space="preserve">The principal electrode during dynamic analyses. The potential of the WE is measured with respect to a reference electrode, while the current passing through the WE is measured with respect to the counter electrode.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007203</t>
+  </si>
+  <si>
     <t xml:space="preserve">counter electrode</t>
   </si>
   <si>
     <t xml:space="preserve">The third electrode in voltammetry and polarography, where the current is measured between the counter and working electrodes. It is rare to monitor the potential of the counter electrode.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007204</t>
+  </si>
+  <si>
     <t xml:space="preserve">reference electrode</t>
   </si>
   <si>
     <t xml:space="preserve">A constant-potential device (e.g., an SHE or SCE) used as a half cell of known potential.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007205</t>
+  </si>
+  <si>
     <t xml:space="preserve">potentiostat</t>
   </si>
   <si>
     <t xml:space="preserve">The instrument employed in dynamic electrochemistry such as voltammetry, allowing three electrodes to be used.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007206</t>
+  </si>
+  <si>
     <t xml:space="preserve">potentiometry</t>
   </si>
   <si>
     <t xml:space="preserve">The techniques and methodology of determining an activity as a function of potential (at zero current). Activity and concentration can often be interchanged at low ionic strength.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007207</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronoamperometry</t>
   </si>
   <si>
     <t xml:space="preserve">The techniques and methodology of studying current as a function of time.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007208</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronopotentiometry</t>
   </si>
   <si>
     <t xml:space="preserve">The techniques and methodology of studying electric potential as a function of time.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007209</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrochemical impedance spectroscopy</t>
   </si>
   <si>
     <t xml:space="preserve">Electrochemical impedance spectroscopy determines the impedance, i.e. the alternating current resistance, of electrochemical systems as a function of the frequency of an alternating voltage or alternating current.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007210</t>
+  </si>
+  <si>
     <t xml:space="preserve">open circuit voltage measurement</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007211</t>
+  </si>
+  <si>
     <t xml:space="preserve">linear sweep voltammetry</t>
   </si>
   <si>
     <t xml:space="preserve">A voltammetry where the voltage changes linearly over time from a initial potential to a final potential.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007212</t>
+  </si>
+  <si>
     <t xml:space="preserve">chronocoulometry</t>
   </si>
   <si>
     <t xml:space="preserve">The techniques and methodology of studying charge as a function of time.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007213</t>
+  </si>
+  <si>
     <t xml:space="preserve">scan rate potential</t>
   </si>
   <si>
@@ -2704,160 +2746,262 @@
     <t xml:space="preserve">sweep rate potential</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007214</t>
+  </si>
+  <si>
     <t xml:space="preserve">lower limit potential</t>
   </si>
   <si>
     <t xml:space="preserve">The minimal potential in a cyclic voltammetry. This is where the sweep turns.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007215</t>
+  </si>
+  <si>
     <t xml:space="preserve">upper limit potential</t>
   </si>
   <si>
     <t xml:space="preserve">The maximal potential in a cyclic voltammetry. This is where the sweep turns.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007216</t>
+  </si>
+  <si>
     <t xml:space="preserve">initial potential</t>
   </si>
   <si>
     <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry starts.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007217</t>
+  </si>
+  <si>
     <t xml:space="preserve">final potential</t>
   </si>
   <si>
     <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry ends.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007218</t>
+  </si>
+  <si>
     <t xml:space="preserve">step size potential</t>
   </si>
   <si>
     <t xml:space="preserve">The potential at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007219</t>
+  </si>
+  <si>
     <t xml:space="preserve">electric potential</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007220</t>
+  </si>
+  <si>
     <t xml:space="preserve">current</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007221</t>
+  </si>
+  <si>
     <t xml:space="preserve">current density</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_000722</t>
+  </si>
+  <si>
     <t xml:space="preserve">resistance</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007223</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrochemical environment</t>
   </si>
   <si>
     <t xml:space="preserve">The final environment in which the elctrochemical reaction happens. Includes possibly purged electrolyte.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007224</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrolyte</t>
   </si>
   <si>
     <t xml:space="preserve">An ionic salt to be dissolved in a solvent, or the solution formed by dissolving an ionic salt in a solvent.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007225</t>
+  </si>
+  <si>
     <t xml:space="preserve">purging</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007226</t>
+  </si>
+  <si>
     <t xml:space="preserve">purging gas</t>
   </si>
   <si>
     <t xml:space="preserve">Gas which is used in purging.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007227</t>
+  </si>
+  <si>
     <t xml:space="preserve">purging temperature</t>
   </si>
   <si>
     <t xml:space="preserve">Temperature for which a gas is purged through the reaction chamber.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007228</t>
+  </si>
+  <si>
     <t xml:space="preserve">number of cycles</t>
   </si>
   <si>
     <t xml:space="preserve">The number of cycles in a measurment, such as an cyclic voltammetry.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007229</t>
+  </si>
+  <si>
     <t xml:space="preserve">faradaic efficiency</t>
   </si>
   <si>
     <t xml:space="preserve">The quotient of faradaic current to total current passed.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007230</t>
+  </si>
+  <si>
     <t xml:space="preserve">electrochemical setup</t>
   </si>
   <si>
     <t xml:space="preserve">The collection of instruments and devices used in an electochemical reaction. Can include electrodes, flow cells, beaker, does not include the electrochemical environment.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007231</t>
+  </si>
+  <si>
     <t xml:space="preserve">beaker</t>
   </si>
   <si>
     <t xml:space="preserve">In laboratory equipment, a beaker (also becker or beker) is generally a cylindrical container with a flat bottom.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007232</t>
+  </si>
+  <si>
     <t xml:space="preserve">flow cell</t>
   </si>
   <si>
     <t xml:space="preserve">Electrochemical cell in which analyte solution flows at a constant velocity V through stationary tubular electrode(s).</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007233</t>
+  </si>
+  <si>
     <t xml:space="preserve">rotated ring disk electrode</t>
   </si>
   <si>
     <t xml:space="preserve">Disc electrode within a concentric ring electrode.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007234</t>
+  </si>
+  <si>
     <t xml:space="preserve">total charge transfer</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007235</t>
+  </si>
+  <si>
     <t xml:space="preserve">membrane</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007236</t>
+  </si>
+  <si>
     <t xml:space="preserve">h cell</t>
   </si>
   <si>
     <t xml:space="preserve">The H-Cell is a two-compartment electrochemical cell used for membrane testing, H2 permeation, or any other experiment where two separate electrode chambers are required.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007237</t>
+  </si>
+  <si>
     <t xml:space="preserve">voltammetry</t>
   </si>
   <si>
     <t xml:space="preserve">The techniques and methodology of measuring current as a function of applied potential.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007238</t>
+  </si>
+  <si>
     <t xml:space="preserve">voltammogramm</t>
   </si>
   <si>
     <t xml:space="preserve">A trace of current (as “y“) against applied potential (as “x“).</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007239</t>
+  </si>
+  <si>
     <t xml:space="preserve">angular frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007240</t>
+  </si>
+  <si>
     <t xml:space="preserve">impedance</t>
   </si>
   <si>
     <t xml:space="preserve">AC resistance.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007241</t>
+  </si>
+  <si>
     <t xml:space="preserve">initial angular frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007242</t>
+  </si>
+  <si>
     <t xml:space="preserve">final angular frequency</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007243</t>
+  </si>
+  <si>
     <t xml:space="preserve">rhe compensation</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007244</t>
+  </si>
+  <si>
     <t xml:space="preserve">concentration of a chemical in an electrolyte</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007245</t>
+  </si>
+  <si>
     <t xml:space="preserve">mass coverage</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007246</t>
+  </si>
+  <si>
     <t xml:space="preserve">solvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007247</t>
   </si>
   <si>
     <t xml:space="preserve">solute</t>
@@ -3858,7 +4002,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="H193:H238 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4041,7 +4185,7 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H193:H238 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6760,7 +6904,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="H193:H238 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7928,8 +8072,8 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H193" activeCellId="0" sqref="H193:H238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12150,475 +12294,757 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="s">
+        <v>760</v>
+      </c>
       <c r="B192" s="0" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C192" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D192" s="28" t="s">
-        <v>761</v>
+        <v>762</v>
+      </c>
+      <c r="H192" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="s">
+        <v>764</v>
+      </c>
       <c r="B193" s="0" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="C193" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D193" s="28" t="s">
+        <v>766</v>
+      </c>
+      <c r="H193" s="0" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="s">
+        <v>767</v>
+      </c>
       <c r="B194" s="0" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="C194" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>765</v>
+        <v>769</v>
+      </c>
+      <c r="H194" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="s">
+        <v>770</v>
+      </c>
       <c r="B195" s="0" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C195" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D195" s="28" t="s">
-        <v>767</v>
+        <v>772</v>
+      </c>
+      <c r="H195" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="s">
+        <v>773</v>
+      </c>
       <c r="B196" s="0" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C196" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D196" s="28" t="s">
-        <v>769</v>
+        <v>775</v>
+      </c>
+      <c r="H196" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="s">
+        <v>776</v>
+      </c>
       <c r="B197" s="0" t="s">
-        <v>770</v>
+        <v>777</v>
       </c>
       <c r="C197" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D197" s="28" t="s">
-        <v>771</v>
+        <v>778</v>
+      </c>
+      <c r="H197" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="s">
+        <v>779</v>
+      </c>
       <c r="B198" s="0" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="C198" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D198" s="28" t="s">
-        <v>773</v>
+        <v>781</v>
+      </c>
+      <c r="H198" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="s">
+        <v>782</v>
+      </c>
       <c r="B199" s="0" t="s">
-        <v>774</v>
+        <v>783</v>
       </c>
       <c r="C199" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D199" s="28" t="s">
-        <v>775</v>
+        <v>784</v>
+      </c>
+      <c r="H199" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="s">
+        <v>785</v>
+      </c>
       <c r="B200" s="0" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="C200" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>777</v>
+        <v>787</v>
+      </c>
+      <c r="H200" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="s">
+        <v>788</v>
+      </c>
       <c r="B201" s="0" t="s">
-        <v>778</v>
+        <v>789</v>
       </c>
       <c r="C201" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H201" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="s">
+        <v>790</v>
+      </c>
       <c r="B202" s="0" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
       <c r="C202" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D202" s="0" t="s">
-        <v>780</v>
+        <v>792</v>
+      </c>
+      <c r="H202" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="s">
+        <v>793</v>
+      </c>
       <c r="B203" s="0" t="s">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="C203" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D203" s="28" t="s">
-        <v>782</v>
+        <v>795</v>
+      </c>
+      <c r="H203" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="s">
+        <v>796</v>
+      </c>
       <c r="B204" s="0" t="s">
-        <v>783</v>
+        <v>797</v>
       </c>
       <c r="C204" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D204" s="29" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F204" s="0" t="s">
-        <v>785</v>
+        <v>799</v>
+      </c>
+      <c r="H204" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="s">
+        <v>800</v>
+      </c>
       <c r="B205" s="0" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="C205" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D205" s="0" t="s">
-        <v>787</v>
+        <v>802</v>
+      </c>
+      <c r="H205" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="s">
+        <v>803</v>
+      </c>
       <c r="B206" s="0" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="C206" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D206" s="0" t="s">
-        <v>789</v>
+        <v>805</v>
+      </c>
+      <c r="H206" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="s">
+        <v>806</v>
+      </c>
       <c r="B207" s="0" t="s">
-        <v>790</v>
+        <v>807</v>
       </c>
       <c r="C207" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D207" s="0" t="s">
-        <v>791</v>
+        <v>808</v>
+      </c>
+      <c r="H207" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="s">
+        <v>809</v>
+      </c>
       <c r="B208" s="0" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
       <c r="C208" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D208" s="29" t="s">
-        <v>793</v>
+        <v>811</v>
+      </c>
+      <c r="H208" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="s">
+        <v>812</v>
+      </c>
       <c r="B209" s="0" t="s">
-        <v>794</v>
+        <v>813</v>
       </c>
       <c r="C209" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D209" s="29" t="s">
-        <v>795</v>
+        <v>814</v>
+      </c>
+      <c r="H209" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="s">
+        <v>815</v>
+      </c>
       <c r="B210" s="0" t="s">
-        <v>796</v>
+        <v>816</v>
       </c>
       <c r="C210" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H210" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="s">
+        <v>817</v>
+      </c>
       <c r="B211" s="0" t="s">
-        <v>797</v>
+        <v>818</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H211" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="s">
+        <v>819</v>
+      </c>
       <c r="B212" s="0" t="s">
-        <v>798</v>
+        <v>820</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H212" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="s">
+        <v>821</v>
+      </c>
       <c r="B213" s="0" t="s">
-        <v>799</v>
+        <v>822</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H213" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="s">
+        <v>823</v>
+      </c>
       <c r="B214" s="0" t="s">
-        <v>800</v>
+        <v>824</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>801</v>
+        <v>825</v>
+      </c>
+      <c r="H214" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="s">
+        <v>826</v>
+      </c>
       <c r="B215" s="0" t="s">
-        <v>802</v>
+        <v>827</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>803</v>
+        <v>828</v>
+      </c>
+      <c r="H215" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="s">
+        <v>829</v>
+      </c>
       <c r="B216" s="0" t="s">
-        <v>804</v>
+        <v>830</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H216" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="s">
+        <v>831</v>
+      </c>
       <c r="B217" s="0" t="s">
-        <v>805</v>
+        <v>832</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>806</v>
+        <v>833</v>
+      </c>
+      <c r="H217" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="s">
+        <v>834</v>
+      </c>
       <c r="B218" s="0" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>808</v>
+        <v>836</v>
+      </c>
+      <c r="H218" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="s">
+        <v>837</v>
+      </c>
       <c r="B219" s="0" t="s">
-        <v>809</v>
+        <v>838</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>810</v>
+        <v>839</v>
+      </c>
+      <c r="H219" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="s">
+        <v>840</v>
+      </c>
       <c r="B220" s="0" t="s">
-        <v>811</v>
+        <v>841</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>812</v>
+        <v>842</v>
+      </c>
+      <c r="H220" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="s">
+        <v>843</v>
+      </c>
       <c r="B221" s="0" t="s">
-        <v>813</v>
+        <v>844</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>814</v>
+        <v>845</v>
+      </c>
+      <c r="H221" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="s">
+        <v>846</v>
+      </c>
       <c r="B222" s="0" t="s">
-        <v>815</v>
+        <v>847</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>816</v>
+        <v>848</v>
+      </c>
+      <c r="H222" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="s">
+        <v>849</v>
+      </c>
       <c r="B223" s="0" t="s">
-        <v>817</v>
+        <v>850</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>818</v>
+        <v>851</v>
+      </c>
+      <c r="H223" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="s">
+        <v>852</v>
+      </c>
       <c r="B224" s="0" t="s">
-        <v>819</v>
+        <v>853</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>820</v>
+        <v>854</v>
+      </c>
+      <c r="H224" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="s">
+        <v>855</v>
+      </c>
       <c r="B225" s="0" t="s">
-        <v>821</v>
+        <v>856</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H225" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="s">
+        <v>857</v>
+      </c>
       <c r="B226" s="0" t="s">
-        <v>822</v>
+        <v>858</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H226" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="227" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="s">
+        <v>859</v>
+      </c>
       <c r="B227" s="0" t="s">
-        <v>823</v>
+        <v>860</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>824</v>
+        <v>861</v>
+      </c>
+      <c r="H227" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="s">
+        <v>862</v>
+      </c>
       <c r="B228" s="0" t="s">
-        <v>825</v>
+        <v>863</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>826</v>
+        <v>864</v>
+      </c>
+      <c r="H228" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="s">
+        <v>865</v>
+      </c>
       <c r="B229" s="0" t="s">
-        <v>827</v>
+        <v>866</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>828</v>
+        <v>867</v>
+      </c>
+      <c r="H229" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="s">
+        <v>868</v>
+      </c>
       <c r="B230" s="0" t="s">
-        <v>829</v>
+        <v>869</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H230" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="231" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="s">
+        <v>870</v>
+      </c>
       <c r="B231" s="0" t="s">
-        <v>830</v>
+        <v>871</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>831</v>
+        <v>872</v>
+      </c>
+      <c r="H231" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="s">
+        <v>873</v>
+      </c>
       <c r="B232" s="0" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H232" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="s">
+        <v>875</v>
+      </c>
       <c r="B233" s="0" t="s">
-        <v>833</v>
+        <v>876</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H233" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="s">
+        <v>877</v>
+      </c>
       <c r="B234" s="0" t="s">
-        <v>834</v>
+        <v>878</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H234" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="s">
+        <v>879</v>
+      </c>
       <c r="B235" s="0" t="s">
-        <v>835</v>
+        <v>880</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H235" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="s">
+        <v>881</v>
+      </c>
       <c r="B236" s="0" t="s">
-        <v>836</v>
+        <v>882</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H236" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="s">
+        <v>883</v>
+      </c>
       <c r="B237" s="0" t="s">
-        <v>837</v>
+        <v>884</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="H237" s="0" t="s">
+        <v>763</v>
+      </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="s">
+        <v>885</v>
+      </c>
       <c r="B238" s="0" t="s">
-        <v>838</v>
+        <v>886</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="H238" s="0" t="s">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
@@ -12647,7 +13073,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H193:H238 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12658,7 +13084,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>839</v>
+        <v>887</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12666,19 +13092,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>840</v>
+        <v>888</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>841</v>
+        <v>889</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>842</v>
+        <v>890</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>843</v>
+        <v>891</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>844</v>
+        <v>892</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13943,7 +14369,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H193:H238 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13957,38 +14383,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>845</v>
+        <v>893</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>846</v>
+        <v>894</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>847</v>
+        <v>895</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>848</v>
+        <v>896</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>849</v>
+        <v>897</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>850</v>
+        <v>898</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>851</v>
+        <v>899</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>852</v>
+        <v>900</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>853</v>
+        <v>901</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>854</v>
+        <v>902</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -13996,16 +14422,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>855</v>
+        <v>903</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>856</v>
+        <v>904</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>857</v>
+        <v>905</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>858</v>
+        <v>906</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -14145,7 +14571,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H193:H238 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14155,242 +14581,242 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>859</v>
+        <v>907</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>860</v>
+        <v>908</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>861</v>
+        <v>909</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>862</v>
+        <v>910</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>863</v>
+        <v>911</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>864</v>
+        <v>912</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>865</v>
+        <v>913</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>866</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>867</v>
+        <v>915</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>868</v>
+        <v>916</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>869</v>
+        <v>917</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>870</v>
+        <v>918</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>871</v>
+        <v>919</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>872</v>
+        <v>920</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>873</v>
+        <v>921</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>874</v>
+        <v>922</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>875</v>
+        <v>923</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>876</v>
+        <v>924</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>877</v>
+        <v>925</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>878</v>
+        <v>926</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>879</v>
+        <v>927</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>880</v>
+        <v>928</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>881</v>
+        <v>929</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>882</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>883</v>
+        <v>931</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>884</v>
+        <v>932</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>885</v>
+        <v>933</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>886</v>
+        <v>934</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>887</v>
+        <v>935</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>888</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>889</v>
+        <v>937</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>890</v>
+        <v>938</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>891</v>
+        <v>939</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>892</v>
+        <v>940</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>893</v>
+        <v>941</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>894</v>
+        <v>942</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>895</v>
+        <v>943</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>896</v>
+        <v>944</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>897</v>
+        <v>945</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>898</v>
+        <v>946</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>899</v>
+        <v>947</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>900</v>
+        <v>948</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>901</v>
+        <v>949</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>902</v>
+        <v>950</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>903</v>
+        <v>951</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>904</v>
+        <v>952</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>905</v>
+        <v>953</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>906</v>
+        <v>954</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>907</v>
+        <v>955</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>908</v>
+        <v>956</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>909</v>
+        <v>957</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>910</v>
+        <v>958</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>911</v>
+        <v>959</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>912</v>
+        <v>960</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>913</v>
+        <v>961</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>914</v>
+        <v>962</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>915</v>
+        <v>963</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>916</v>
+        <v>964</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>917</v>
+        <v>965</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>918</v>
+        <v>966</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="967">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="968">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2993,6 +2993,9 @@
   </si>
   <si>
     <t xml:space="preserve">mass coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The mass per area of a thin film sample.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007246</t>
@@ -3908,9 +3911,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>580320</xdr:colOff>
+      <xdr:colOff>579960</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3924,8 +3927,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1375200" y="304920"/>
-          <a:ext cx="5914440" cy="1542600"/>
+          <a:off x="1375920" y="304920"/>
+          <a:ext cx="5917320" cy="1542240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4002,10 +4005,10 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="H193:H238 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="D201 J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4185,10 +4188,10 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H193:H238 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D201 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -6904,10 +6907,10 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="H193:H238 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D201 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -8072,11 +8075,11 @@
   </sheetPr>
   <dimension ref="A1:I238"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H193" activeCellId="0" sqref="H193:H238"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D201" activeCellId="0" sqref="D201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
@@ -12456,6 +12459,9 @@
       <c r="C201" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D201" s="0" t="s">
+        <v>789</v>
+      </c>
       <c r="H201" s="0" t="s">
         <v>763</v>
       </c>
@@ -12609,6 +12615,9 @@
       <c r="C210" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D210" s="0" t="s">
+        <v>816</v>
+      </c>
       <c r="H210" s="0" t="s">
         <v>763</v>
       </c>
@@ -12623,6 +12632,9 @@
       <c r="C211" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D211" s="0" t="s">
+        <v>818</v>
+      </c>
       <c r="H211" s="0" t="s">
         <v>763</v>
       </c>
@@ -12637,6 +12649,9 @@
       <c r="C212" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D212" s="0" t="s">
+        <v>820</v>
+      </c>
       <c r="H212" s="0" t="s">
         <v>763</v>
       </c>
@@ -12651,6 +12666,9 @@
       <c r="C213" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D213" s="0" t="s">
+        <v>822</v>
+      </c>
       <c r="H213" s="0" t="s">
         <v>763</v>
       </c>
@@ -12699,6 +12717,9 @@
       <c r="C216" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D216" s="0" t="s">
+        <v>830</v>
+      </c>
       <c r="H216" s="0" t="s">
         <v>763</v>
       </c>
@@ -12849,6 +12870,9 @@
       <c r="C225" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D225" s="0" t="s">
+        <v>856</v>
+      </c>
       <c r="H225" s="0" t="s">
         <v>763</v>
       </c>
@@ -12863,6 +12887,9 @@
       <c r="C226" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D226" s="0" t="s">
+        <v>858</v>
+      </c>
       <c r="H226" s="0" t="s">
         <v>763</v>
       </c>
@@ -12928,6 +12955,9 @@
       <c r="C230" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D230" s="0" t="s">
+        <v>869</v>
+      </c>
       <c r="H230" s="0" t="s">
         <v>763</v>
       </c>
@@ -12959,6 +12989,9 @@
       <c r="C232" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D232" s="0" t="s">
+        <v>874</v>
+      </c>
       <c r="H232" s="0" t="s">
         <v>763</v>
       </c>
@@ -12973,6 +13006,9 @@
       <c r="C233" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D233" s="0" t="s">
+        <v>876</v>
+      </c>
       <c r="H233" s="0" t="s">
         <v>763</v>
       </c>
@@ -12987,6 +13023,9 @@
       <c r="C234" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D234" s="0" t="s">
+        <v>878</v>
+      </c>
       <c r="H234" s="0" t="s">
         <v>763</v>
       </c>
@@ -13001,6 +13040,9 @@
       <c r="C235" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D235" s="0" t="s">
+        <v>880</v>
+      </c>
       <c r="H235" s="0" t="s">
         <v>763</v>
       </c>
@@ -13015,19 +13057,25 @@
       <c r="C236" s="0" t="s">
         <v>84</v>
       </c>
+      <c r="D236" s="0" t="s">
+        <v>883</v>
+      </c>
       <c r="H236" s="0" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D237" s="0" t="s">
+        <v>885</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>763</v>
@@ -13035,13 +13083,16 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
+      </c>
+      <c r="D238" s="0" t="s">
+        <v>887</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>763</v>
@@ -13073,10 +13124,10 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H193:H238 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D201 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -13084,7 +13135,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13092,19 +13143,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14369,10 +14420,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H193:H238 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D201 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
@@ -14383,38 +14434,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -14422,16 +14473,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -14571,252 +14622,252 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H193:H238 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D201 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -2809,7 +2809,7 @@
     <t xml:space="preserve">current density</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_000722</t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007222</t>
   </si>
   <si>
     <t xml:space="preserve">resistance</t>
@@ -4005,7 +4005,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="D201 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4188,7 +4188,7 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D201 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6907,7 +6907,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="D201 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8076,7 +8076,7 @@
   <dimension ref="A1:I238"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A178" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D201" activeCellId="0" sqref="D201"/>
+      <selection pane="topLeft" activeCell="A213" activeCellId="0" sqref="A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12656,7 +12656,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
         <v>821</v>
       </c>
@@ -13101,6 +13101,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
+    <hyperlink ref="A213" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13109,9 +13110,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
   <tableParts>
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13124,7 +13125,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D201 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14420,7 +14421,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D201 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14622,7 +14623,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="D201 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -3133,7 +3133,7 @@
     <t xml:space="preserve">Equipment used in an electrochemical setup.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, htthttps://w3id.org/nfdi4cat/voc4cat_0007248 ps://w3id.org/nfdi4cat/voc4cat_0007236, </t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236, </t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007251</t>
@@ -8259,8 +8259,8 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A172" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G192" activeCellId="0" sqref="G192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G241" activeCellId="0" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -2635,7 +2635,7 @@
     <t xml:space="preserve">The two electronically conducting parts of an electrochemical cell.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007202, https://w3id.org/nfdi4cat/voc4cat_0007203, htthttps://w3id.org/nfdi4cat/voc4cat_0007243 ps://w3id.org/nfdi4cat/voc4cat_0007204, https://w3id.org/nfdi4cat/voc4cat_0007254, https://w3id.org/nfdi4cat/voc4cat_0007255</t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007202, https://w3id.org/nfdi4cat/voc4cat_0007203, https://w3id.org/nfdi4cat/voc4cat_0007243, https://w3id.org/nfdi4cat/voc4cat_0007204, https://w3id.org/nfdi4cat/voc4cat_0007254, https://w3id.org/nfdi4cat/voc4cat_0007255</t>
   </si>
   <si>
     <t xml:space="preserve">0009-0008-1278-8890 Michael Götte created the resource</t>
@@ -8259,8 +8259,8 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G241" activeCellId="0" sqref="G241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G192" activeCellId="0" sqref="G192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13487,19 +13487,18 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
-    <hyperlink ref="G192" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
-    <hyperlink ref="G210" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007219"/>
-    <hyperlink ref="A213" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
-    <hyperlink ref="G228" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0000082"/>
-    <hyperlink ref="G230" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007242"/>
-    <hyperlink ref="A239" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
-    <hyperlink ref="A240" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
-    <hyperlink ref="A241" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
-    <hyperlink ref="A242" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
-    <hyperlink ref="A243" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
-    <hyperlink ref="A244" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
-    <hyperlink ref="A245" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
-    <hyperlink ref="A246" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
+    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007219"/>
+    <hyperlink ref="A213" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
+    <hyperlink ref="G228" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0000082"/>
+    <hyperlink ref="G230" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007242"/>
+    <hyperlink ref="A239" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
+    <hyperlink ref="A240" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
+    <hyperlink ref="A241" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
+    <hyperlink ref="A242" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
+    <hyperlink ref="A243" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
+    <hyperlink ref="A244" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
+    <hyperlink ref="A245" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
+    <hyperlink ref="A246" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13508,9 +13507,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId16"/>
+  <legacyDrawing r:id="rId15"/>
   <tableParts>
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -3133,7 +3133,7 @@
     <t xml:space="preserve">Equipment used in an electrochemical setup.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236, </t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007251</t>
@@ -8259,8 +8259,8 @@
   </sheetPr>
   <dimension ref="A1:I246"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A142" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G192" activeCellId="0" sqref="G192"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G241" activeCellId="0" sqref="G241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13376,7 +13376,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
         <v>926</v>
       </c>
@@ -13494,11 +13494,12 @@
     <hyperlink ref="A239" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
     <hyperlink ref="A240" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
     <hyperlink ref="A241" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
-    <hyperlink ref="A242" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
-    <hyperlink ref="A243" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
-    <hyperlink ref="A244" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
-    <hyperlink ref="A245" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
-    <hyperlink ref="A246" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
+    <hyperlink ref="G241" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007236"/>
+    <hyperlink ref="A242" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
+    <hyperlink ref="A243" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
+    <hyperlink ref="A244" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
+    <hyperlink ref="A245" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
+    <hyperlink ref="A246" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13507,9 +13508,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId15"/>
+  <legacyDrawing r:id="rId16"/>
   <tableParts>
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1033">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2722,7 +2722,7 @@
     <t xml:space="preserve">electrochemical impedance spectroscopy </t>
   </si>
   <si>
-    <t xml:space="preserve">Electrochemical impedance spectroscopy is a powerful tool for examining processes occurring at electrode surfaces. A small amplitude ac (sinusoidal) excitation signal (potential or current), covering a wide range of frequencies, is applied to the system under investigation and the response (current or voltage or another signal of interest) is measured. It is routinely used in electrode kinetics and mechanism investigations, and in the characterization of batteries, fuel cells, and corrosion phenomena. Abbreviated as "EIS".  electrochemical irreversibility</t>
+    <t xml:space="preserve">Electrochemical impedance spectroscopy is a powerful tool for examining processes occurring at electrode surfaces. A small amplitude ac (sinusoidal) excitation signal (potential or current), covering a wide range of frequencies, is applied to the system under investigation and the response (current or voltage or another signal of interest) is measured. It is routinely used in electrode kinetics and mechanism investigations, and in the characterization of batteries, fuel cells, and corrosion phenomena.</t>
   </si>
   <si>
     <t xml:space="preserve">EIS</t>
@@ -2818,7 +2818,7 @@
     <t xml:space="preserve">step size potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The potential at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
+    <t xml:space="preserve">The potential difference at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007219</t>
@@ -3061,7 +3061,7 @@
     <t xml:space="preserve">reversible hydrogen electrode</t>
   </si>
   <si>
-    <t xml:space="preserve">A commonly used reference electrode. A hydrogen electrode immersed directly into the electrolyte of the electrochemical cell and usually (unless otherwise stated) operated with one atmosphere pressure hydrogen gas. The equilibrium potential depends on the hydrogen ion concentration (strictly speaking, activity) of the cell electrolyte. Abbreviated as "RHE".</t>
+    <t xml:space="preserve">A commonly used reference electrode. A hydrogen electrode immersed directly into the electrolyte of the electrochemical cell and usually (unless otherwise stated) operated with one atmosphere pressure hydrogen gas. The equilibrium potential depends on the hydrogen ion concentration (strictly speaking, activity) of the cell electrolyte.</t>
   </si>
   <si>
     <t xml:space="preserve">RHE</t>
@@ -3124,6 +3124,9 @@
     <t xml:space="preserve">A device that converts chemical energy into electrical energy or vice versa when a chemical reaction is occurring in the cell. Typically, it consists of two metal electrodes immersed into an aqueous solution (electrolyte) with electrode reactions occurring at the electrode-solution surfaces. See also galvanic cell and electrolytic cell.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007256, https://w3id.org/nfdi4cat/voc4cat_0007257</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007250</t>
   </si>
   <si>
@@ -3182,6 +3185,24 @@
   </si>
   <si>
     <t xml:space="preserve">The electrode where oxidation occurs in an electrochemical cell. It is the positive electrode in an electrolytic cell, while it is the negative electrode in a galvanic cell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007256</t>
+  </si>
+  <si>
+    <t xml:space="preserve">galvanic cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An electrochemical cell that converts chemical energy into electrical energy. A cell in which chemical reactions occur spontaneously at the electrodes when they are connected through an external circuit, producing an electrical current.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electrolytic cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An electrochemical cell that converts electrical energy into chemical energy. The chemical reactions do not occur "spontaneously" at the electrodes when they are connected through an external circuit. The reaction must be forced by applying an external electrical current.</t>
   </si>
   <si>
     <t xml:space="preserve">Concept Relations</t>
@@ -4095,9 +4116,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>578880</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4111,8 +4132,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1377360" y="304920"/>
-          <a:ext cx="5922720" cy="1541520"/>
+          <a:off x="1377720" y="304920"/>
+          <a:ext cx="5925960" cy="1541160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4192,7 +4213,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4375,7 +4396,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -7094,7 +7115,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -8257,13 +8278,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A208" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G241" activeCellId="0" sqref="G241"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
@@ -13372,25 +13393,28 @@
       <c r="D240" s="28" t="s">
         <v>925</v>
       </c>
+      <c r="G240" s="0" t="s">
+        <v>926</v>
+      </c>
       <c r="H240" s="0" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="G241" s="30" t="s">
         <v>929</v>
+      </c>
+      <c r="G241" s="29" t="s">
+        <v>930</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>764</v>
@@ -13398,19 +13422,19 @@
     </row>
     <row r="242" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>764</v>
@@ -13418,16 +13442,16 @@
     </row>
     <row r="243" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>764</v>
@@ -13435,16 +13459,16 @@
     </row>
     <row r="244" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>764</v>
@@ -13452,16 +13476,16 @@
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>764</v>
@@ -13469,37 +13493,74 @@
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="H246" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="s">
+        <v>947</v>
+      </c>
+      <c r="B247" s="30" t="s">
+        <v>948</v>
+      </c>
+      <c r="C247" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D247" s="28" t="s">
+        <v>949</v>
+      </c>
+      <c r="H247" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="s">
+        <v>950</v>
+      </c>
+      <c r="B248" s="30" t="s">
+        <v>951</v>
+      </c>
+      <c r="C248" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D248" s="28" t="s">
+        <v>952</v>
+      </c>
+      <c r="H248" s="0" t="s">
         <v>764</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
-    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007219"/>
+    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218, https://w3id.org/nfdi4cat/voc4cat_0007219"/>
     <hyperlink ref="A213" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
-    <hyperlink ref="G228" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0000082"/>
-    <hyperlink ref="G230" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007242"/>
+    <hyperlink ref="G228" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007211, https://w3id.org/nfdi4cat/voc4cat_0000082"/>
+    <hyperlink ref="G230" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007241, https://w3id.org/nfdi4cat/voc4cat_0007242"/>
     <hyperlink ref="A239" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
     <hyperlink ref="A240" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
-    <hyperlink ref="A241" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
-    <hyperlink ref="G241" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007236"/>
-    <hyperlink ref="A242" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
-    <hyperlink ref="A243" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
-    <hyperlink ref="A244" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
-    <hyperlink ref="A245" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
-    <hyperlink ref="A246" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
+    <hyperlink ref="G240" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
+    <hyperlink ref="A241" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
+    <hyperlink ref="G241" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236"/>
+    <hyperlink ref="A242" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
+    <hyperlink ref="A243" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
+    <hyperlink ref="A244" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
+    <hyperlink ref="A245" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
+    <hyperlink ref="A246" r:id="rId16" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
+    <hyperlink ref="A247" r:id="rId17" display="https://w3id.org/nfdi4cat/voc4cat_0007256"/>
+    <hyperlink ref="A248" r:id="rId18" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13508,9 +13569,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId16"/>
+  <legacyDrawing r:id="rId19"/>
   <tableParts>
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId20"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13526,7 +13587,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -13534,7 +13595,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>946</v>
+        <v>953</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13542,19 +13603,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>947</v>
+        <v>954</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>949</v>
+        <v>956</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>950</v>
+        <v>957</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>951</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14822,7 +14883,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
@@ -14833,38 +14894,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>952</v>
+        <v>959</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -14872,16 +14933,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -15024,249 +15085,249 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1917" uniqueCount="1033">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1040">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2842,6 +2842,9 @@
     <t xml:space="preserve">The movement of electrical charges in a conductor; carried by electrons in an electronic conductor (electronic current) or by ions in an ionic conductor (ionic current). </t>
   </si>
   <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007259</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007221</t>
   </si>
   <si>
@@ -3203,6 +3206,24 @@
   </si>
   <si>
     <t xml:space="preserve">An electrochemical cell that converts electrical energy into chemical energy. The chemical reactions do not occur "spontaneously" at the electrodes when they are connected through an external circuit. The reaction must be forced by applying an external electrical current.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007258</t>
+  </si>
+  <si>
+    <t xml:space="preserve">active area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In contrast to substrate area, the actual area of a sample or electrode which is active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true electrode area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">faradaic current</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The current that is flowing through an electrochemical cell and is causing (or is caused by) chemical reactions (charge transfer) occurring at the electrode surfaces. </t>
   </si>
   <si>
     <t xml:space="preserve">Concept Relations</t>
@@ -3869,7 +3890,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3988,6 +4009,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4210,7 +4235,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="211:211 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4393,7 +4418,7 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="211:211 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7112,7 +7137,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="211:211 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8278,10 +8303,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I248"/>
+  <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A202" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A211" activeCellId="0" sqref="211:211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12873,22 +12898,25 @@
       <c r="D211" s="0" t="s">
         <v>831</v>
       </c>
+      <c r="G211" s="0" t="s">
+        <v>832</v>
+      </c>
       <c r="H211" s="0" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>764</v>
@@ -12896,16 +12924,16 @@
     </row>
     <row r="213" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>764</v>
@@ -12913,16 +12941,16 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>764</v>
@@ -12930,16 +12958,16 @@
     </row>
     <row r="215" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>764</v>
@@ -12947,16 +12975,16 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>764</v>
@@ -12964,16 +12992,16 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>764</v>
@@ -12981,16 +13009,16 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>764</v>
@@ -12998,16 +13026,16 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>764</v>
@@ -13015,16 +13043,16 @@
     </row>
     <row r="220" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>764</v>
@@ -13032,16 +13060,16 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>764</v>
@@ -13049,19 +13077,19 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="G222" s="29"/>
       <c r="H222" s="0" t="s">
@@ -13070,16 +13098,16 @@
     </row>
     <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="G223" s="29"/>
       <c r="H223" s="0" t="s">
@@ -13088,16 +13116,16 @@
     </row>
     <row r="224" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="G224" s="29"/>
       <c r="H224" s="0" t="s">
@@ -13106,16 +13134,16 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>764</v>
@@ -13123,19 +13151,19 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G226" s="29"/>
       <c r="H226" s="0" t="s">
@@ -13144,19 +13172,19 @@
     </row>
     <row r="227" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G227" s="29"/>
       <c r="H227" s="0" t="s">
@@ -13165,19 +13193,19 @@
     </row>
     <row r="228" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>764</v>
@@ -13185,16 +13213,16 @@
     </row>
     <row r="229" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D229" s="28" t="s">
-        <v>889</v>
+      <c r="D229" s="30" t="s">
+        <v>890</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>764</v>
@@ -13202,19 +13230,19 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>764</v>
@@ -13222,16 +13250,16 @@
     </row>
     <row r="231" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>764</v>
@@ -13239,16 +13267,16 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>764</v>
@@ -13256,16 +13284,16 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>764</v>
@@ -13273,19 +13301,19 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>764</v>
@@ -13293,16 +13321,16 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>764</v>
@@ -13310,16 +13338,16 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>764</v>
@@ -13327,16 +13355,16 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>764</v>
@@ -13344,16 +13372,16 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>764</v>
@@ -13361,19 +13389,19 @@
     </row>
     <row r="239" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G239" s="29"/>
       <c r="H239" s="0" t="s">
@@ -13382,19 +13410,19 @@
     </row>
     <row r="240" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>764</v>
@@ -13402,19 +13430,19 @@
     </row>
     <row r="241" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>764</v>
@@ -13422,19 +13450,19 @@
     </row>
     <row r="242" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>764</v>
@@ -13442,16 +13470,16 @@
     </row>
     <row r="243" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>764</v>
@@ -13459,16 +13487,16 @@
     </row>
     <row r="244" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>764</v>
@@ -13476,16 +13504,16 @@
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>764</v>
@@ -13493,16 +13521,16 @@
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>764</v>
@@ -13510,16 +13538,16 @@
     </row>
     <row r="247" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>947</v>
-      </c>
-      <c r="B247" s="30" t="s">
         <v>948</v>
       </c>
+      <c r="B247" s="31" t="s">
+        <v>949</v>
+      </c>
       <c r="C247" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>764</v>
@@ -13527,18 +13555,55 @@
     </row>
     <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B248" s="30" t="s">
         <v>951</v>
       </c>
+      <c r="B248" s="31" t="s">
+        <v>952</v>
+      </c>
       <c r="C248" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="H248" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="s">
+        <v>954</v>
+      </c>
+      <c r="B249" s="31" t="s">
+        <v>955</v>
+      </c>
+      <c r="C249" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D249" s="28" t="s">
+        <v>956</v>
+      </c>
+      <c r="G249" s="0" t="s">
+        <v>957</v>
+      </c>
+      <c r="H249" s="0" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="s">
+        <v>832</v>
+      </c>
+      <c r="B250" s="31" t="s">
+        <v>958</v>
+      </c>
+      <c r="C250" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D250" s="28" t="s">
+        <v>959</v>
+      </c>
+      <c r="H250" s="0" t="s">
         <v>764</v>
       </c>
     </row>
@@ -13546,21 +13611,24 @@
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
     <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218, https://w3id.org/nfdi4cat/voc4cat_0007219"/>
-    <hyperlink ref="A213" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
-    <hyperlink ref="G228" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007211, https://w3id.org/nfdi4cat/voc4cat_0000082"/>
-    <hyperlink ref="G230" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007241, https://w3id.org/nfdi4cat/voc4cat_0007242"/>
-    <hyperlink ref="A239" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
-    <hyperlink ref="A240" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
-    <hyperlink ref="G240" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
-    <hyperlink ref="A241" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
-    <hyperlink ref="G241" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236"/>
-    <hyperlink ref="A242" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
-    <hyperlink ref="A243" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
-    <hyperlink ref="A244" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
-    <hyperlink ref="A245" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
-    <hyperlink ref="A246" r:id="rId16" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
-    <hyperlink ref="A247" r:id="rId17" display="https://w3id.org/nfdi4cat/voc4cat_0007256"/>
-    <hyperlink ref="A248" r:id="rId18" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
+    <hyperlink ref="G211" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007259"/>
+    <hyperlink ref="A213" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
+    <hyperlink ref="G228" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007211, https://w3id.org/nfdi4cat/voc4cat_0000082"/>
+    <hyperlink ref="G230" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007241, https://w3id.org/nfdi4cat/voc4cat_0007242"/>
+    <hyperlink ref="A239" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
+    <hyperlink ref="A240" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
+    <hyperlink ref="G240" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
+    <hyperlink ref="A241" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
+    <hyperlink ref="G241" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236"/>
+    <hyperlink ref="A242" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
+    <hyperlink ref="A243" r:id="rId14" display="https://w3id.org/nfdi4cat/voc4cat_0007252"/>
+    <hyperlink ref="A244" r:id="rId15" display="https://w3id.org/nfdi4cat/voc4cat_0007253"/>
+    <hyperlink ref="A245" r:id="rId16" display="https://w3id.org/nfdi4cat/voc4cat_0007254"/>
+    <hyperlink ref="A246" r:id="rId17" display="https://w3id.org/nfdi4cat/voc4cat_0007255"/>
+    <hyperlink ref="A247" r:id="rId18" display="https://w3id.org/nfdi4cat/voc4cat_0007256"/>
+    <hyperlink ref="A248" r:id="rId19" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
+    <hyperlink ref="A249" r:id="rId20" display="https://w3id.org/nfdi4cat/voc4cat_0007258"/>
+    <hyperlink ref="A250" r:id="rId21" display="https://w3id.org/nfdi4cat/voc4cat_0007259"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -13569,9 +13637,9 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId19"/>
+  <legacyDrawing r:id="rId22"/>
   <tableParts>
-    <tablePart r:id="rId20"/>
+    <tablePart r:id="rId23"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13584,7 +13652,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="211:211 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13595,7 +13663,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>953</v>
+        <v>960</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13603,19 +13671,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>954</v>
+        <v>961</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>955</v>
+        <v>962</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>957</v>
+        <v>964</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>958</v>
+        <v>965</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14880,7 +14948,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="211:211 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14894,38 +14962,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>959</v>
+        <v>966</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>960</v>
+        <v>967</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>962</v>
+        <v>969</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>963</v>
+        <v>970</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>964</v>
+        <v>971</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>965</v>
+        <v>972</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>966</v>
+        <v>973</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>967</v>
+        <v>974</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>968</v>
+        <v>975</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -14933,16 +15001,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>969</v>
+        <v>976</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>970</v>
+        <v>977</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>971</v>
+        <v>978</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -15082,7 +15150,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="211:211 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15092,242 +15160,242 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>973</v>
+        <v>980</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>974</v>
+        <v>981</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>975</v>
+        <v>982</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>976</v>
+        <v>983</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>977</v>
+        <v>984</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>978</v>
+        <v>985</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>980</v>
+        <v>987</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>981</v>
+        <v>988</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>982</v>
+        <v>989</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>983</v>
+        <v>990</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>984</v>
+        <v>991</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>985</v>
+        <v>992</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>986</v>
+        <v>993</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>987</v>
+        <v>994</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>988</v>
+        <v>995</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>989</v>
+        <v>996</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>990</v>
+        <v>997</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>991</v>
+        <v>998</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>992</v>
+        <v>999</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>994</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>995</v>
+        <v>1002</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>996</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>997</v>
+        <v>1004</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>998</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1000</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1001</v>
+        <v>1008</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1002</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1004</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1005</v>
+        <v>1012</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1008</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1010</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1012</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1014</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1016</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1019</v>
+        <v>1026</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1020</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1021</v>
+        <v>1028</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1022</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1023</v>
+        <v>1030</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1025</v>
+        <v>1032</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1026</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1029</v>
+        <v>1036</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -4235,7 +4235,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="211:211 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="F249 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4418,7 +4418,7 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="211:211 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F249 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7137,7 +7137,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="211:211 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="F249 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8305,8 +8305,8 @@
   </sheetPr>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A199" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A211" activeCellId="0" sqref="211:211"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F249" activeCellId="0" sqref="F249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13583,7 +13583,7 @@
       <c r="D249" s="28" t="s">
         <v>956</v>
       </c>
-      <c r="G249" s="0" t="s">
+      <c r="F249" s="0" t="s">
         <v>957</v>
       </c>
       <c r="H249" s="0" t="s">
@@ -13652,7 +13652,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="211:211 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F249 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14948,7 +14948,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="211:211 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F249 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15150,7 +15150,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="211:211 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F249 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -2722,7 +2722,7 @@
     <t xml:space="preserve">electrochemical impedance spectroscopy </t>
   </si>
   <si>
-    <t xml:space="preserve">Electrochemical impedance spectroscopy is a powerful tool for examining processes occurring at electrode surfaces. A small amplitude ac (sinusoidal) excitation signal (potential or current), covering a wide range of frequencies, is applied to the system under investigation and the response (current or voltage or another signal of interest) is measured. It is routinely used in electrode kinetics and mechanism investigations, and in the characterization of batteries, fuel cells, and corrosion phenomena.</t>
+    <t xml:space="preserve">A powerful tool for examining processes occurring at electrode surfaces. A small amplitude ac (sinusoidal) excitation signal (potential or current), covering a wide range of frequencies, is applied to the system under investigation and the response (current or voltage or another signal of interest) is measured. It is routinely used in electrode kinetics and mechanism investigations, and in the characterization of batteries, fuel cells, and corrosion phenomena.</t>
   </si>
   <si>
     <t xml:space="preserve">EIS</t>
@@ -2830,7 +2830,7 @@
     <t xml:space="preserve">The electrical potential difference between two points in a circuit is the cause of the flow of a current.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218, https://w3id.org/nfdi4cat/voc4cat_0007219</t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007220</t>
@@ -2953,13 +2953,13 @@
     <t xml:space="preserve">flow cell</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrochemical cell in which analyte solution flows at a constant velocity V through stationary tubular electrode(s).</t>
+    <t xml:space="preserve">Electrochemical cell in which analyte solution flows at a constant velocity through stationary tubular electrode(s).</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007233</t>
   </si>
   <si>
-    <t xml:space="preserve">cycle</t>
+    <t xml:space="preserve">voltammetry cycle</t>
   </si>
   <si>
     <t xml:space="preserve">In voltammetry: a complementary pair of forward and reverse potential sweeps.</t>
@@ -2989,13 +2989,13 @@
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007236</t>
   </si>
   <si>
-    <t xml:space="preserve">h cell</t>
+    <t xml:space="preserve">H cell</t>
   </si>
   <si>
     <t xml:space="preserve">The H-Cell is a two-compartment electrochemical cell used for membrane testing, hydrogen permeation, or any other experiment where two separate electrode chambers are required.</t>
   </si>
   <si>
-    <t xml:space="preserve">H-cell, H-cell</t>
+    <t xml:space="preserve">H-cell</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007237</t>
@@ -3671,7 +3671,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -3752,12 +3752,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -3890,7 +3884,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4015,10 +4009,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4141,9 +4131,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131400</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4157,8 +4147,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1377720" y="304920"/>
-          <a:ext cx="5925960" cy="1541160"/>
+          <a:off x="1378440" y="304920"/>
+          <a:ext cx="5928480" cy="1540800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4235,10 +4225,10 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="F249 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4418,10 +4408,10 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F249 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -7137,10 +7127,10 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="F249 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -8305,11 +8295,11 @@
   </sheetPr>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A223" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F249" activeCellId="0" sqref="F249"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B224" activeCellId="0" sqref="B224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
@@ -13540,7 +13530,7 @@
       <c r="A247" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="B247" s="31" t="s">
+      <c r="B247" s="29" t="s">
         <v>949</v>
       </c>
       <c r="C247" s="0" t="s">
@@ -13557,7 +13547,7 @@
       <c r="A248" s="0" t="s">
         <v>951</v>
       </c>
-      <c r="B248" s="31" t="s">
+      <c r="B248" s="29" t="s">
         <v>952</v>
       </c>
       <c r="C248" s="0" t="s">
@@ -13574,7 +13564,7 @@
       <c r="A249" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="B249" s="31" t="s">
+      <c r="B249" s="29" t="s">
         <v>955</v>
       </c>
       <c r="C249" s="0" t="s">
@@ -13594,7 +13584,7 @@
       <c r="A250" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="B250" s="31" t="s">
+      <c r="B250" s="29" t="s">
         <v>958</v>
       </c>
       <c r="C250" s="0" t="s">
@@ -13610,14 +13600,14 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
-    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218, https://w3id.org/nfdi4cat/voc4cat_0007219"/>
+    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007218"/>
     <hyperlink ref="G211" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007259"/>
     <hyperlink ref="A213" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
     <hyperlink ref="G228" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007211, https://w3id.org/nfdi4cat/voc4cat_0000082"/>
     <hyperlink ref="G230" r:id="rId7" display="https://w3id.org/nfdi4cat/voc4cat_0007241, https://w3id.org/nfdi4cat/voc4cat_0007242"/>
     <hyperlink ref="A239" r:id="rId8" display="https://w3id.org/nfdi4cat/voc4cat_0007248"/>
     <hyperlink ref="A240" r:id="rId9" display="https://w3id.org/nfdi4cat/voc4cat_0007249"/>
-    <hyperlink ref="G240" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007257"/>
+    <hyperlink ref="G240" r:id="rId10" display="https://w3id.org/nfdi4cat/voc4cat_0007256, https://w3id.org/nfdi4cat/voc4cat_0007257"/>
     <hyperlink ref="A241" r:id="rId11" display="https://w3id.org/nfdi4cat/voc4cat_0007250"/>
     <hyperlink ref="G241" r:id="rId12" display="https://w3id.org/nfdi4cat/voc4cat_0007205, https://w3id.org/nfdi4cat/voc4cat_0007231, https://w3id.org/nfdi4cat/voc4cat_0007232, https://w3id.org/nfdi4cat/voc4cat_0007235, https://w3id.org/nfdi4cat/voc4cat_0007248, https://w3id.org/nfdi4cat/voc4cat_0007236"/>
     <hyperlink ref="A242" r:id="rId13" display="https://w3id.org/nfdi4cat/voc4cat_0007251"/>
@@ -13652,10 +13642,10 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F249 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -14948,10 +14938,10 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F249 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
@@ -15150,10 +15140,10 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="F249 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -2941,7 +2941,7 @@
     <t xml:space="preserve">beaker</t>
   </si>
   <si>
-    <t xml:space="preserve">In laboratory equipment, a beaker (also becker or beker) is generally a cylindrical container with a flat bottom.</t>
+    <t xml:space="preserve">In laboratory equipment, a beaker is generally a cylindrical container with a flat bottom.</t>
   </si>
   <si>
     <t xml:space="preserve">beker, becker</t>
@@ -8295,8 +8295,8 @@
   </sheetPr>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A195" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B224" activeCellId="0" sqref="B224"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D223" activeCellId="0" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1929" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1930" uniqueCount="1041">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -2782,7 +2782,7 @@
     <t xml:space="preserve">lower limit potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The minimal potential in a cyclic voltammetry. This is where the sweep turns.</t>
+    <t xml:space="preserve">The minimal electrical potential in a cyclic voltammetry. This is where the sweep turns.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007215</t>
@@ -2791,7 +2791,7 @@
     <t xml:space="preserve">upper limit potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The maximal potential in a cyclic voltammetry. This is where the sweep turns.</t>
+    <t xml:space="preserve">The maximal electrical potential in a cyclic voltammetry. This is where the sweep turns.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007216</t>
@@ -2800,7 +2800,7 @@
     <t xml:space="preserve">initial potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry starts.</t>
+    <t xml:space="preserve">The electrical potential at which a linear sweep or cyclic voltammetry starts.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007217</t>
@@ -2809,7 +2809,7 @@
     <t xml:space="preserve">final potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The potential at which a linear sweep or cyclic voltammetry ends.</t>
+    <t xml:space="preserve">The electrical potential at which a linear sweep or cyclic voltammetry ends.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007218</t>
@@ -2818,18 +2818,21 @@
     <t xml:space="preserve">step size potential</t>
   </si>
   <si>
-    <t xml:space="preserve">The potential difference at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
+    <t xml:space="preserve">The electrical potential difference at which the potential in a linear sweep or cyclic voltammetry is altered.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007219</t>
   </si>
   <si>
-    <t xml:space="preserve">electric potential</t>
+    <t xml:space="preserve">electrical potential</t>
   </si>
   <si>
     <t xml:space="preserve">The electrical potential difference between two points in a circuit is the cause of the flow of a current.</t>
   </si>
   <si>
+    <t xml:space="preserve">voltage</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218</t>
   </si>
   <si>
@@ -2911,7 +2914,7 @@
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007228</t>
   </si>
   <si>
-    <t xml:space="preserve">number of cycles</t>
+    <t xml:space="preserve">number of voltammetry cycles</t>
   </si>
   <si>
     <t xml:space="preserve">The number of cycles in a measurement, such as a cyclic voltammetry.</t>
@@ -4131,9 +4134,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578520</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131040</xdr:rowOff>
+      <xdr:rowOff>130680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4147,8 +4150,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1378440" y="304920"/>
-          <a:ext cx="5928480" cy="1540800"/>
+          <a:off x="1379160" y="304920"/>
+          <a:ext cx="5931360" cy="1540440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4228,7 +4231,7 @@
       <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4411,7 +4414,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -7130,7 +7133,7 @@
       <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -8295,11 +8298,11 @@
   </sheetPr>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D223" activeCellId="0" sqref="D223"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A198" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D205" activeCellId="0" sqref="D205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="47.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
@@ -12855,7 +12858,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
         <v>825</v>
       </c>
@@ -12868,8 +12871,11 @@
       <c r="D210" s="0" t="s">
         <v>827</v>
       </c>
+      <c r="F210" s="0" t="s">
+        <v>828</v>
+      </c>
       <c r="G210" s="0" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>764</v>
@@ -12877,19 +12883,19 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C211" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D211" s="0" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>764</v>
@@ -12897,16 +12903,16 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C212" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D212" s="0" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>764</v>
@@ -12914,16 +12920,16 @@
     </row>
     <row r="213" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C213" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D213" s="0" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>764</v>
@@ -12931,16 +12937,16 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C214" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D214" s="0" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>764</v>
@@ -12948,16 +12954,16 @@
     </row>
     <row r="215" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C215" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D215" s="28" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>764</v>
@@ -12965,16 +12971,16 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C216" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D216" s="0" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>764</v>
@@ -12982,16 +12988,16 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C217" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D217" s="0" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>764</v>
@@ -12999,16 +13005,16 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C218" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D218" s="0" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>764</v>
@@ -13016,16 +13022,16 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C219" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="0" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>764</v>
@@ -13033,16 +13039,16 @@
     </row>
     <row r="220" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C220" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D220" s="28" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>764</v>
@@ -13050,16 +13056,16 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C221" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D221" s="0" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>764</v>
@@ -13067,19 +13073,19 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C222" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D222" s="0" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F222" s="0" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="G222" s="29"/>
       <c r="H222" s="0" t="s">
@@ -13088,16 +13094,16 @@
     </row>
     <row r="223" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C223" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D223" s="28" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="G223" s="29"/>
       <c r="H223" s="0" t="s">
@@ -13106,16 +13112,16 @@
     </row>
     <row r="224" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C224" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D224" s="28" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G224" s="29"/>
       <c r="H224" s="0" t="s">
@@ -13124,16 +13130,16 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C225" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D225" s="0" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>764</v>
@@ -13141,19 +13147,19 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C226" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D226" s="0" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F226" s="0" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="G226" s="29"/>
       <c r="H226" s="0" t="s">
@@ -13162,19 +13168,19 @@
     </row>
     <row r="227" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C227" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D227" s="28" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F227" s="0" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="G227" s="29"/>
       <c r="H227" s="0" t="s">
@@ -13183,19 +13189,19 @@
     </row>
     <row r="228" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C228" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>764</v>
@@ -13203,16 +13209,16 @@
     </row>
     <row r="229" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="C229" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D229" s="30" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>764</v>
@@ -13220,19 +13226,19 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C230" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D230" s="0" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>764</v>
@@ -13240,16 +13246,16 @@
     </row>
     <row r="231" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="C231" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D231" s="28" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>764</v>
@@ -13257,16 +13263,16 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="C232" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D232" s="0" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>764</v>
@@ -13274,16 +13280,16 @@
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C233" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D233" s="0" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>764</v>
@@ -13291,19 +13297,19 @@
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C234" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D234" s="0" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="F234" s="0" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>764</v>
@@ -13311,16 +13317,16 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C235" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D235" s="0" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>764</v>
@@ -13328,16 +13334,16 @@
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="C236" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D236" s="0" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>764</v>
@@ -13345,16 +13351,16 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C237" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D237" s="0" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>764</v>
@@ -13362,16 +13368,16 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="C238" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D238" s="0" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>764</v>
@@ -13379,19 +13385,19 @@
     </row>
     <row r="239" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C239" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F239" s="0" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="G239" s="29"/>
       <c r="H239" s="0" t="s">
@@ -13400,19 +13406,19 @@
     </row>
     <row r="240" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C240" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>764</v>
@@ -13420,19 +13426,19 @@
     </row>
     <row r="241" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C241" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D241" s="0" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G241" s="29" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>764</v>
@@ -13440,19 +13446,19 @@
     </row>
     <row r="242" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C242" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D242" s="0" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>764</v>
@@ -13460,16 +13466,16 @@
     </row>
     <row r="243" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C243" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D243" s="0" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>764</v>
@@ -13477,16 +13483,16 @@
     </row>
     <row r="244" customFormat="false" ht="14.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C244" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D244" s="0" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>764</v>
@@ -13494,16 +13500,16 @@
     </row>
     <row r="245" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C245" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D245" s="0" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>764</v>
@@ -13511,16 +13517,16 @@
     </row>
     <row r="246" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C246" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D246" s="0" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>764</v>
@@ -13528,16 +13534,16 @@
     </row>
     <row r="247" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B247" s="29" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C247" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D247" s="28" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>764</v>
@@ -13545,16 +13551,16 @@
     </row>
     <row r="248" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B248" s="29" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C248" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D248" s="28" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>764</v>
@@ -13562,19 +13568,19 @@
     </row>
     <row r="249" customFormat="false" ht="28.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B249" s="29" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C249" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D249" s="28" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="F249" s="0" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H249" s="0" t="s">
         <v>764</v>
@@ -13582,16 +13588,16 @@
     </row>
     <row r="250" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B250" s="29" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C250" s="0" t="s">
         <v>84</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>764</v>
@@ -13600,7 +13606,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I4" r:id="rId2" display="https://www.w3.org/TR/2010/NOTE-curie-20101216/"/>
-    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007218"/>
+    <hyperlink ref="G210" r:id="rId3" display="https://w3id.org/nfdi4cat/voc4cat_0007213, https://w3id.org/nfdi4cat/voc4cat_0007214, https://w3id.org/nfdi4cat/voc4cat_0007215, https://w3id.org/nfdi4cat/voc4cat_0007216, https://w3id.org/nfdi4cat/voc4cat_0007217, https://w3id.org/nfdi4cat/voc4cat_0007218"/>
     <hyperlink ref="G211" r:id="rId4" display="https://w3id.org/nfdi4cat/voc4cat_0007259"/>
     <hyperlink ref="A213" r:id="rId5" display="https://w3id.org/nfdi4cat/voc4cat_0007222"/>
     <hyperlink ref="G228" r:id="rId6" display="https://w3id.org/nfdi4cat/voc4cat_0007211, https://w3id.org/nfdi4cat/voc4cat_0000082"/>
@@ -13645,7 +13651,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -13653,7 +13659,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -13661,19 +13667,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14941,7 +14947,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
@@ -14952,38 +14958,38 @@
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="24" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="26" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="E3" s="26" t="s">
         <v>120</v>
@@ -14991,16 +14997,16 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="26" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="E4" s="26" t="s">
         <v>120</v>
@@ -15143,249 +15149,249 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="29" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="29" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="29" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="29" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="29" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="29" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="29" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="29" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="29" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="29" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="29" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="29" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="29" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="29" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="29" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="29" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="29" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2119" uniqueCount="1077">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2123" uniqueCount="1077">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -4356,7 +4356,7 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="H258:H261 J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4539,7 +4539,7 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H258:H261 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7258,7 +7258,7 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="H258:H261 B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8426,8 +8426,8 @@
   </sheetPr>
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D259" activeCellId="0" sqref="D259"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H258" activeCellId="0" sqref="H258:H261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14064,6 +14064,9 @@
       <c r="D258" s="28" t="s">
         <v>987</v>
       </c>
+      <c r="H258" s="0" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="259" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
@@ -14078,6 +14081,9 @@
       <c r="D259" s="0" t="s">
         <v>990</v>
       </c>
+      <c r="H259" s="0" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="260" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
@@ -14092,6 +14098,9 @@
       <c r="D260" s="0" t="s">
         <v>993</v>
       </c>
+      <c r="H260" s="0" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="261" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
@@ -14105,6 +14114,9 @@
       </c>
       <c r="D261" s="0" t="s">
         <v>996</v>
+      </c>
+      <c r="H261" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -14139,7 +14151,7 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H258:H261 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15708,7 +15720,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H258:H261 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15910,7 +15922,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H258:H261 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -3329,16 +3329,16 @@
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007260</t>
   </si>
   <si>
-    <t xml:space="preserve">retention time gas chromography</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A measure of the time taken for a solute to pass through a chromatography column.</t>
+    <t xml:space="preserve">retention time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A measure of the time taken for a solute to pass through a chromatography column. It is the mean of the residence time distribution; it is known as the first moment of the residence time distribution.</t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007261</t>
   </si>
   <si>
-    <t xml:space="preserve">peak area gas chromotography</t>
+    <t xml:space="preserve">peak area</t>
   </si>
   <si>
     <t xml:space="preserve">A measure which is proportional to the amount of a product with a specific retention time. After calibration it is used to calculate gas concentrations of products of an chemical experiment.</t>
@@ -4262,9 +4262,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>580680</xdr:colOff>
+      <xdr:colOff>580320</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4278,8 +4278,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1374480" y="304920"/>
-          <a:ext cx="5911920" cy="1542960"/>
+          <a:off x="1375200" y="304920"/>
+          <a:ext cx="5914440" cy="1542600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4356,10 +4356,10 @@
   <dimension ref="A11:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J12" activeCellId="1" sqref="H258:H261 J12"/>
+      <selection pane="topLeft" activeCell="J12" activeCellId="0" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.28"/>
   </cols>
@@ -4539,10 +4539,10 @@
   <dimension ref="A1:J1152"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="H258:H261 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="12"/>
@@ -7258,10 +7258,10 @@
   <dimension ref="A1:D994"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="1" sqref="H258:H261 B6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.14"/>
@@ -8426,11 +8426,11 @@
   </sheetPr>
   <dimension ref="A1:I263"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A175" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H258" activeCellId="0" sqref="H258:H261"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A229" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B258" activeCellId="0" sqref="B258"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.85"/>
@@ -8440,7 +8440,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14051,7 +14051,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
         <v>985</v>
       </c>
@@ -14151,10 +14151,10 @@
   <dimension ref="A1:F485"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H258:H261 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="25.15"/>
@@ -15720,16 +15720,16 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="H258:H261 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="40.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.3"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15922,10 +15922,10 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="H258:H261 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.58203125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.71"/>
   </cols>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschumann\Documents\ontologies\Voc4Cat\work_in_Progress\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDEC091D-5C5C-4277-B0B3-8EF07BF37434}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E07B87-401D-4B51-9C8B-7ECBA3C0E9CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="3060" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2210" uniqueCount="1127">
   <si>
     <t>Template version</t>
   </si>
@@ -4128,7 +4128,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4202,6 +4202,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4209,7 +4211,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="3" builtinId="30"/>
@@ -4220,6 +4221,69 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFD9EAD3"/>
@@ -4285,69 +4349,6 @@
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4449,14 +4450,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4810,65 +4811,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -4965,61 +4966,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
@@ -5083,391 +5084,391 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="26"/>
@@ -5480,1096 +5481,1096 @@
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D150" s="16" t="s">
@@ -7619,32 +7620,32 @@
     <mergeCell ref="B12:J46"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B4 B48:B88">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="12" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B46">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(B90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(B118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(B133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B149">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(B145))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8830,8 +8831,8 @@
   </sheetPr>
   <dimension ref="A1:I276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="E263" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H275" sqref="H275:H276"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8957,7 +8958,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="28" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -8982,7 +8983,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="28" t="s">
         <v>98</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -9007,7 +9008,7 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="28" t="s">
         <v>101</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -9030,7 +9031,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="28" t="s">
         <v>104</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -9101,7 +9102,7 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -9124,7 +9125,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="28" t="s">
         <v>117</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -9142,7 +9143,7 @@
       <c r="F13" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="28" t="s">
         <v>114</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -14544,7 +14545,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A262" s="30" t="s">
+      <c r="A262" s="28" t="s">
         <v>1107</v>
       </c>
       <c r="B262" t="s">
@@ -14561,7 +14562,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A263" s="30" t="s">
+      <c r="A263" s="28" t="s">
         <v>1108</v>
       </c>
       <c r="B263" t="s">
@@ -14578,7 +14579,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264" s="30" t="s">
+      <c r="A264" s="28" t="s">
         <v>1109</v>
       </c>
       <c r="B264" t="s">
@@ -14595,7 +14596,7 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="30" t="s">
+      <c r="A265" s="28" t="s">
         <v>1110</v>
       </c>
       <c r="B265" t="s">
@@ -14612,7 +14613,7 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A266" s="30" t="s">
+      <c r="A266" s="28" t="s">
         <v>1111</v>
       </c>
       <c r="B266" t="s">
@@ -14629,7 +14630,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A267" s="30" t="s">
+      <c r="A267" s="28" t="s">
         <v>1112</v>
       </c>
       <c r="B267" t="s">
@@ -14641,7 +14642,7 @@
       <c r="D267" t="s">
         <v>1089</v>
       </c>
-      <c r="G267" s="30" t="s">
+      <c r="G267" s="28" t="s">
         <v>1124</v>
       </c>
       <c r="H267" t="s">
@@ -14649,7 +14650,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A268" s="30" t="s">
+      <c r="A268" s="28" t="s">
         <v>1113</v>
       </c>
       <c r="B268" t="s">
@@ -14661,7 +14662,7 @@
       <c r="D268" t="s">
         <v>1090</v>
       </c>
-      <c r="G268" s="30" t="s">
+      <c r="G268" s="28" t="s">
         <v>1114</v>
       </c>
       <c r="H268" t="s">
@@ -14669,7 +14670,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A269" s="30" t="s">
+      <c r="A269" s="28" t="s">
         <v>1114</v>
       </c>
       <c r="B269" t="s">
@@ -14689,7 +14690,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A270" s="30" t="s">
+      <c r="A270" s="28" t="s">
         <v>1115</v>
       </c>
       <c r="B270" t="s">
@@ -14706,7 +14707,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A271" s="30" t="s">
+      <c r="A271" s="28" t="s">
         <v>1116</v>
       </c>
       <c r="B271" t="s">
@@ -14723,7 +14724,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A272" s="30" t="s">
+      <c r="A272" s="28" t="s">
         <v>1117</v>
       </c>
       <c r="B272" t="s">
@@ -14740,7 +14741,7 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A273" s="30" t="s">
+      <c r="A273" s="28" t="s">
         <v>1118</v>
       </c>
       <c r="B273" t="s">
@@ -14757,7 +14758,7 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A274" s="30" t="s">
+      <c r="A274" s="28" t="s">
         <v>1119</v>
       </c>
       <c r="B274" t="s">
@@ -14774,7 +14775,7 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A275" s="30" t="s">
+      <c r="A275" s="28" t="s">
         <v>1120</v>
       </c>
       <c r="B275" t="s">
@@ -14791,7 +14792,7 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A276" s="30" t="s">
+      <c r="A276" s="28" t="s">
         <v>1121</v>
       </c>
       <c r="B276" t="s">
@@ -14802,6 +14803,9 @@
       </c>
       <c r="D276" t="s">
         <v>1101</v>
+      </c>
+      <c r="H276" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschumann\Documents\ontologies\Voc4Cat\24_03_12_current_PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE9C69F-AEC0-4C56-AE1C-1ACCAF25D312}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5581C0-8900-47AF-87E3-2301269A2C76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="3060" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3945,9 +3945,6 @@
     <t>bulk catalyst</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0000005, https://w3id.org/nfdi4cat/voc4cat_0007015, </t>
-  </si>
-  <si>
     <t>Some characteristics that define the catalyst, which can be related to composition, active phase, or role.</t>
   </si>
   <si>
@@ -4009,6 +4006,9 @@
   </si>
   <si>
     <t>catalyst bed volume</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000005, https://w3id.org/nfdi4cat/voc4cat_0007015</t>
   </si>
 </sst>
 </file>
@@ -4269,14 +4269,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4288,6 +4288,69 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFD9EAD3"/>
@@ -4353,69 +4416,6 @@
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4517,14 +4517,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4878,65 +4878,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -5033,61 +5033,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
@@ -5151,391 +5151,391 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="31"/>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31"/>
-      <c r="C15" s="31"/>
-      <c r="D15" s="31"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
-      <c r="J19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="32"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="31"/>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
-      <c r="I25" s="31"/>
-      <c r="J25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
-      <c r="I26" s="31"/>
-      <c r="J26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="32"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="32"/>
+      <c r="J26" s="32"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="32"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="32"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
-      <c r="I31" s="31"/>
-      <c r="J31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
+      <c r="I31" s="32"/>
+      <c r="J31" s="32"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="31"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+      <c r="J33" s="32"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="31"/>
-      <c r="J34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+      <c r="J34" s="32"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="32"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="32"/>
+      <c r="G36" s="32"/>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+      <c r="J36" s="32"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+      <c r="J37" s="32"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="31"/>
-      <c r="C39" s="31"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="31"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="31"/>
-      <c r="H39" s="31"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="31"/>
-      <c r="C40" s="31"/>
-      <c r="D40" s="31"/>
-      <c r="E40" s="31"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="31"/>
-      <c r="H40" s="31"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="32"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="31"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="31"/>
-      <c r="H42" s="31"/>
-      <c r="I42" s="31"/>
-      <c r="J42" s="31"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42" s="32"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="31"/>
-      <c r="C43" s="31"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="31"/>
-      <c r="I43" s="31"/>
-      <c r="J43" s="31"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44" s="32"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45" s="32"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31"/>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="26"/>
@@ -5548,1096 +5548,1096 @@
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="32"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="31"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31"/>
-      <c r="E51" s="31"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="31"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31"/>
-      <c r="E53" s="31"/>
-      <c r="F53" s="31"/>
-      <c r="G53" s="31"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="32"/>
+      <c r="J53" s="32"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31"/>
-      <c r="E55" s="31"/>
-      <c r="F55" s="31"/>
-      <c r="G55" s="31"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="31"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="31"/>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="31"/>
-      <c r="G56" s="31"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="31"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="32"/>
+      <c r="J56" s="32"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="31"/>
-      <c r="C57" s="31"/>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="32"/>
+      <c r="J57" s="32"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="31"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="32"/>
+      <c r="H58" s="32"/>
+      <c r="I58" s="32"/>
+      <c r="J58" s="32"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="32"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="32"/>
+      <c r="J59" s="32"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="31"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="31"/>
-      <c r="C61" s="31"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="32"/>
+      <c r="E61" s="32"/>
+      <c r="F61" s="32"/>
+      <c r="G61" s="32"/>
+      <c r="H61" s="32"/>
+      <c r="I61" s="32"/>
+      <c r="J61" s="32"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="31"/>
-      <c r="C62" s="31"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="32"/>
+      <c r="E62" s="32"/>
+      <c r="F62" s="32"/>
+      <c r="G62" s="32"/>
+      <c r="H62" s="32"/>
+      <c r="I62" s="32"/>
+      <c r="J62" s="32"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="31"/>
-      <c r="C63" s="31"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="32"/>
+      <c r="J63" s="32"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="31"/>
-      <c r="C64" s="31"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="32"/>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="31"/>
-      <c r="C65" s="31"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
+      <c r="I65" s="32"/>
+      <c r="J65" s="32"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="31"/>
-      <c r="C66" s="31"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="32"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="31"/>
-      <c r="C67" s="31"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="32"/>
+      <c r="J67" s="32"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="31"/>
-      <c r="C68" s="31"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
+      <c r="I68" s="32"/>
+      <c r="J68" s="32"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="31"/>
-      <c r="C69" s="31"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
+      <c r="I69" s="32"/>
+      <c r="J69" s="32"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="31"/>
-      <c r="C70" s="31"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="32"/>
+      <c r="J70" s="32"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="31"/>
-      <c r="C71" s="31"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
+      <c r="I71" s="32"/>
+      <c r="J71" s="32"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="31"/>
-      <c r="C72" s="31"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="J72" s="32"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="31"/>
-      <c r="C73" s="31"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="J73" s="32"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="31"/>
-      <c r="C74" s="31"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
+      <c r="I74" s="32"/>
+      <c r="J74" s="32"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="31"/>
-      <c r="C75" s="31"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
+      <c r="I75" s="32"/>
+      <c r="J75" s="32"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="31"/>
-      <c r="C76" s="31"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="32"/>
+      <c r="D76" s="32"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="32"/>
+      <c r="G76" s="32"/>
+      <c r="H76" s="32"/>
+      <c r="I76" s="32"/>
+      <c r="J76" s="32"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="31"/>
-      <c r="C77" s="31"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="32"/>
+      <c r="D77" s="32"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="32"/>
+      <c r="G77" s="32"/>
+      <c r="H77" s="32"/>
+      <c r="I77" s="32"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="31"/>
-      <c r="C78" s="31"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="32"/>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="32"/>
+      <c r="G78" s="32"/>
+      <c r="H78" s="32"/>
+      <c r="I78" s="32"/>
+      <c r="J78" s="32"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="31"/>
-      <c r="C79" s="31"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
+      <c r="I79" s="32"/>
+      <c r="J79" s="32"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="31"/>
-      <c r="C80" s="31"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="32"/>
+      <c r="J80" s="32"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="31"/>
-      <c r="C81" s="31"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
+      <c r="I81" s="32"/>
+      <c r="J81" s="32"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="31"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="32"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="31"/>
-      <c r="C83" s="31"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
+      <c r="I83" s="32"/>
+      <c r="J83" s="32"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="31"/>
-      <c r="C84" s="31"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
+      <c r="I84" s="32"/>
+      <c r="J84" s="32"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="31"/>
-      <c r="C85" s="31"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
+      <c r="I85" s="32"/>
+      <c r="J85" s="32"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
+      <c r="I86" s="32"/>
+      <c r="J86" s="32"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="32"/>
+      <c r="J87" s="32"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
+      <c r="I88" s="32"/>
+      <c r="J88" s="32"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="31"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="31"/>
-      <c r="C91" s="31"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
+      <c r="I91" s="32"/>
+      <c r="J91" s="32"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
+      <c r="I92" s="32"/>
+      <c r="J92" s="32"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="31"/>
-      <c r="C93" s="31"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
+      <c r="I93" s="32"/>
+      <c r="J93" s="32"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="31"/>
-      <c r="C94" s="31"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
+      <c r="I94" s="32"/>
+      <c r="J94" s="32"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="31"/>
-      <c r="C95" s="31"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
+      <c r="I95" s="32"/>
+      <c r="J95" s="32"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
+      <c r="B96" s="32"/>
+      <c r="C96" s="32"/>
+      <c r="D96" s="32"/>
+      <c r="E96" s="32"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="32"/>
+      <c r="H96" s="32"/>
+      <c r="I96" s="32"/>
+      <c r="J96" s="32"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="32"/>
+      <c r="D97" s="32"/>
+      <c r="E97" s="32"/>
+      <c r="F97" s="32"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="32"/>
+      <c r="I97" s="32"/>
+      <c r="J97" s="32"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="31"/>
-      <c r="C98" s="31"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="32"/>
+      <c r="D98" s="32"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="32"/>
+      <c r="J98" s="32"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="31"/>
-      <c r="C99" s="31"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="32"/>
+      <c r="D99" s="32"/>
+      <c r="E99" s="32"/>
+      <c r="F99" s="32"/>
+      <c r="G99" s="32"/>
+      <c r="H99" s="32"/>
+      <c r="I99" s="32"/>
+      <c r="J99" s="32"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="31"/>
-      <c r="C100" s="31"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
+      <c r="B100" s="32"/>
+      <c r="C100" s="32"/>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32"/>
+      <c r="F100" s="32"/>
+      <c r="G100" s="32"/>
+      <c r="H100" s="32"/>
+      <c r="I100" s="32"/>
+      <c r="J100" s="32"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="31"/>
-      <c r="C101" s="31"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="32"/>
+      <c r="D101" s="32"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="32"/>
+      <c r="J101" s="32"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="31"/>
-      <c r="C102" s="31"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="32"/>
+      <c r="D102" s="32"/>
+      <c r="E102" s="32"/>
+      <c r="F102" s="32"/>
+      <c r="G102" s="32"/>
+      <c r="H102" s="32"/>
+      <c r="I102" s="32"/>
+      <c r="J102" s="32"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="31"/>
-      <c r="C103" s="31"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="32"/>
+      <c r="D103" s="32"/>
+      <c r="E103" s="32"/>
+      <c r="F103" s="32"/>
+      <c r="G103" s="32"/>
+      <c r="H103" s="32"/>
+      <c r="I103" s="32"/>
+      <c r="J103" s="32"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="31"/>
-      <c r="C104" s="31"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="B104" s="32"/>
+      <c r="C104" s="32"/>
+      <c r="D104" s="32"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="32"/>
+      <c r="J104" s="32"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="31"/>
-      <c r="C105" s="31"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="32"/>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32"/>
+      <c r="F105" s="32"/>
+      <c r="G105" s="32"/>
+      <c r="H105" s="32"/>
+      <c r="I105" s="32"/>
+      <c r="J105" s="32"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="31"/>
-      <c r="C106" s="31"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="32"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="32"/>
+      <c r="G106" s="32"/>
+      <c r="H106" s="32"/>
+      <c r="I106" s="32"/>
+      <c r="J106" s="32"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="31"/>
-      <c r="C107" s="31"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="32"/>
+      <c r="D107" s="32"/>
+      <c r="E107" s="32"/>
+      <c r="F107" s="32"/>
+      <c r="G107" s="32"/>
+      <c r="H107" s="32"/>
+      <c r="I107" s="32"/>
+      <c r="J107" s="32"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="31"/>
-      <c r="C108" s="31"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="B108" s="32"/>
+      <c r="C108" s="32"/>
+      <c r="D108" s="32"/>
+      <c r="E108" s="32"/>
+      <c r="F108" s="32"/>
+      <c r="G108" s="32"/>
+      <c r="H108" s="32"/>
+      <c r="I108" s="32"/>
+      <c r="J108" s="32"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="31"/>
-      <c r="C109" s="31"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="32"/>
+      <c r="D109" s="32"/>
+      <c r="E109" s="32"/>
+      <c r="F109" s="32"/>
+      <c r="G109" s="32"/>
+      <c r="H109" s="32"/>
+      <c r="I109" s="32"/>
+      <c r="J109" s="32"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="31"/>
-      <c r="C110" s="31"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="32"/>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="32"/>
+      <c r="J110" s="32"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="31"/>
-      <c r="C111" s="31"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="32"/>
+      <c r="D111" s="32"/>
+      <c r="E111" s="32"/>
+      <c r="F111" s="32"/>
+      <c r="G111" s="32"/>
+      <c r="H111" s="32"/>
+      <c r="I111" s="32"/>
+      <c r="J111" s="32"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="32"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="B113" s="32"/>
+      <c r="C113" s="32"/>
+      <c r="D113" s="32"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="32"/>
+      <c r="J113" s="32"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="31"/>
-      <c r="C114" s="31"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="B114" s="32"/>
+      <c r="C114" s="32"/>
+      <c r="D114" s="32"/>
+      <c r="E114" s="32"/>
+      <c r="F114" s="32"/>
+      <c r="G114" s="32"/>
+      <c r="H114" s="32"/>
+      <c r="I114" s="32"/>
+      <c r="J114" s="32"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="31"/>
-      <c r="C115" s="31"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="B115" s="32"/>
+      <c r="C115" s="32"/>
+      <c r="D115" s="32"/>
+      <c r="E115" s="32"/>
+      <c r="F115" s="32"/>
+      <c r="G115" s="32"/>
+      <c r="H115" s="32"/>
+      <c r="I115" s="32"/>
+      <c r="J115" s="32"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="B116" s="32"/>
+      <c r="C116" s="32"/>
+      <c r="D116" s="32"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="32"/>
+      <c r="J116" s="32"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="30" t="s">
+      <c r="B118" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="31"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="C118" s="32"/>
+      <c r="D118" s="32"/>
+      <c r="E118" s="32"/>
+      <c r="F118" s="32"/>
+      <c r="G118" s="32"/>
+      <c r="H118" s="32"/>
+      <c r="I118" s="32"/>
+      <c r="J118" s="32"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="32"/>
+      <c r="D119" s="32"/>
+      <c r="E119" s="32"/>
+      <c r="F119" s="32"/>
+      <c r="G119" s="32"/>
+      <c r="H119" s="32"/>
+      <c r="I119" s="32"/>
+      <c r="J119" s="32"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="31"/>
-      <c r="C120" s="31"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="31"/>
-      <c r="G120" s="31"/>
-      <c r="H120" s="31"/>
-      <c r="I120" s="31"/>
-      <c r="J120" s="31"/>
+      <c r="B120" s="32"/>
+      <c r="C120" s="32"/>
+      <c r="D120" s="32"/>
+      <c r="E120" s="32"/>
+      <c r="F120" s="32"/>
+      <c r="G120" s="32"/>
+      <c r="H120" s="32"/>
+      <c r="I120" s="32"/>
+      <c r="J120" s="32"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="31"/>
-      <c r="C121" s="31"/>
-      <c r="D121" s="31"/>
-      <c r="E121" s="31"/>
-      <c r="F121" s="31"/>
-      <c r="G121" s="31"/>
-      <c r="H121" s="31"/>
-      <c r="I121" s="31"/>
-      <c r="J121" s="31"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="32"/>
+      <c r="D121" s="32"/>
+      <c r="E121" s="32"/>
+      <c r="F121" s="32"/>
+      <c r="G121" s="32"/>
+      <c r="H121" s="32"/>
+      <c r="I121" s="32"/>
+      <c r="J121" s="32"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="D122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="G122" s="31"/>
-      <c r="H122" s="31"/>
-      <c r="I122" s="31"/>
-      <c r="J122" s="31"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="32"/>
+      <c r="D122" s="32"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="32"/>
+      <c r="J122" s="32"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="31"/>
-      <c r="C123" s="31"/>
-      <c r="D123" s="31"/>
-      <c r="E123" s="31"/>
-      <c r="F123" s="31"/>
-      <c r="G123" s="31"/>
-      <c r="H123" s="31"/>
-      <c r="I123" s="31"/>
-      <c r="J123" s="31"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="32"/>
+      <c r="D123" s="32"/>
+      <c r="E123" s="32"/>
+      <c r="F123" s="32"/>
+      <c r="G123" s="32"/>
+      <c r="H123" s="32"/>
+      <c r="I123" s="32"/>
+      <c r="J123" s="32"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="G124" s="31"/>
-      <c r="H124" s="31"/>
-      <c r="I124" s="31"/>
-      <c r="J124" s="31"/>
+      <c r="B124" s="32"/>
+      <c r="C124" s="32"/>
+      <c r="D124" s="32"/>
+      <c r="E124" s="32"/>
+      <c r="F124" s="32"/>
+      <c r="G124" s="32"/>
+      <c r="H124" s="32"/>
+      <c r="I124" s="32"/>
+      <c r="J124" s="32"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="31"/>
-      <c r="C125" s="31"/>
-      <c r="D125" s="31"/>
-      <c r="E125" s="31"/>
-      <c r="F125" s="31"/>
-      <c r="G125" s="31"/>
-      <c r="H125" s="31"/>
-      <c r="I125" s="31"/>
-      <c r="J125" s="31"/>
+      <c r="B125" s="32"/>
+      <c r="C125" s="32"/>
+      <c r="D125" s="32"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="32"/>
+      <c r="J125" s="32"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="31"/>
-      <c r="C126" s="31"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="31"/>
-      <c r="J126" s="31"/>
+      <c r="B126" s="32"/>
+      <c r="C126" s="32"/>
+      <c r="D126" s="32"/>
+      <c r="E126" s="32"/>
+      <c r="F126" s="32"/>
+      <c r="G126" s="32"/>
+      <c r="H126" s="32"/>
+      <c r="I126" s="32"/>
+      <c r="J126" s="32"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="31"/>
-      <c r="C127" s="31"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="31"/>
-      <c r="J127" s="31"/>
+      <c r="B127" s="32"/>
+      <c r="C127" s="32"/>
+      <c r="D127" s="32"/>
+      <c r="E127" s="32"/>
+      <c r="F127" s="32"/>
+      <c r="G127" s="32"/>
+      <c r="H127" s="32"/>
+      <c r="I127" s="32"/>
+      <c r="J127" s="32"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="31"/>
-      <c r="C128" s="31"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="31"/>
-      <c r="G128" s="31"/>
-      <c r="H128" s="31"/>
-      <c r="I128" s="31"/>
-      <c r="J128" s="31"/>
+      <c r="B128" s="32"/>
+      <c r="C128" s="32"/>
+      <c r="D128" s="32"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="32"/>
+      <c r="J128" s="32"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="31"/>
-      <c r="C129" s="31"/>
-      <c r="D129" s="31"/>
-      <c r="E129" s="31"/>
-      <c r="F129" s="31"/>
-      <c r="G129" s="31"/>
-      <c r="H129" s="31"/>
-      <c r="I129" s="31"/>
-      <c r="J129" s="31"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="32"/>
+      <c r="D129" s="32"/>
+      <c r="E129" s="32"/>
+      <c r="F129" s="32"/>
+      <c r="G129" s="32"/>
+      <c r="H129" s="32"/>
+      <c r="I129" s="32"/>
+      <c r="J129" s="32"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="31"/>
-      <c r="C130" s="31"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="31"/>
-      <c r="J130" s="31"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="32"/>
+      <c r="J130" s="32"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="31"/>
-      <c r="C131" s="31"/>
-      <c r="D131" s="31"/>
-      <c r="E131" s="31"/>
-      <c r="F131" s="31"/>
-      <c r="G131" s="31"/>
-      <c r="H131" s="31"/>
-      <c r="I131" s="31"/>
-      <c r="J131" s="31"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="32"/>
+      <c r="J131" s="32"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="30" t="s">
+      <c r="B133" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="31"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="31"/>
-      <c r="J133" s="31"/>
+      <c r="C133" s="32"/>
+      <c r="D133" s="32"/>
+      <c r="E133" s="32"/>
+      <c r="F133" s="32"/>
+      <c r="G133" s="32"/>
+      <c r="H133" s="32"/>
+      <c r="I133" s="32"/>
+      <c r="J133" s="32"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="31"/>
-      <c r="C134" s="31"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="31"/>
-      <c r="J134" s="31"/>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="32"/>
+      <c r="F134" s="32"/>
+      <c r="G134" s="32"/>
+      <c r="H134" s="32"/>
+      <c r="I134" s="32"/>
+      <c r="J134" s="32"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="31"/>
-      <c r="C135" s="31"/>
-      <c r="D135" s="31"/>
-      <c r="E135" s="31"/>
-      <c r="F135" s="31"/>
-      <c r="G135" s="31"/>
-      <c r="H135" s="31"/>
-      <c r="I135" s="31"/>
-      <c r="J135" s="31"/>
+      <c r="B135" s="32"/>
+      <c r="C135" s="32"/>
+      <c r="D135" s="32"/>
+      <c r="E135" s="32"/>
+      <c r="F135" s="32"/>
+      <c r="G135" s="32"/>
+      <c r="H135" s="32"/>
+      <c r="I135" s="32"/>
+      <c r="J135" s="32"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="31"/>
-      <c r="C136" s="31"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="31"/>
-      <c r="G136" s="31"/>
-      <c r="H136" s="31"/>
-      <c r="I136" s="31"/>
-      <c r="J136" s="31"/>
+      <c r="B136" s="32"/>
+      <c r="C136" s="32"/>
+      <c r="D136" s="32"/>
+      <c r="E136" s="32"/>
+      <c r="F136" s="32"/>
+      <c r="G136" s="32"/>
+      <c r="H136" s="32"/>
+      <c r="I136" s="32"/>
+      <c r="J136" s="32"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="31"/>
-      <c r="C137" s="31"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="31"/>
-      <c r="J137" s="31"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="32"/>
+      <c r="D137" s="32"/>
+      <c r="E137" s="32"/>
+      <c r="F137" s="32"/>
+      <c r="G137" s="32"/>
+      <c r="H137" s="32"/>
+      <c r="I137" s="32"/>
+      <c r="J137" s="32"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="31"/>
-      <c r="C138" s="31"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="31"/>
-      <c r="J138" s="31"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="32"/>
+      <c r="D138" s="32"/>
+      <c r="E138" s="32"/>
+      <c r="F138" s="32"/>
+      <c r="G138" s="32"/>
+      <c r="H138" s="32"/>
+      <c r="I138" s="32"/>
+      <c r="J138" s="32"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="31"/>
-      <c r="C139" s="31"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="31"/>
-      <c r="J139" s="31"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="32"/>
+      <c r="D139" s="32"/>
+      <c r="E139" s="32"/>
+      <c r="F139" s="32"/>
+      <c r="G139" s="32"/>
+      <c r="H139" s="32"/>
+      <c r="I139" s="32"/>
+      <c r="J139" s="32"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="31"/>
-      <c r="C140" s="31"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="31"/>
-      <c r="G140" s="31"/>
-      <c r="H140" s="31"/>
-      <c r="I140" s="31"/>
-      <c r="J140" s="31"/>
+      <c r="B140" s="32"/>
+      <c r="C140" s="32"/>
+      <c r="D140" s="32"/>
+      <c r="E140" s="32"/>
+      <c r="F140" s="32"/>
+      <c r="G140" s="32"/>
+      <c r="H140" s="32"/>
+      <c r="I140" s="32"/>
+      <c r="J140" s="32"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="31"/>
-      <c r="C141" s="31"/>
-      <c r="D141" s="31"/>
-      <c r="E141" s="31"/>
-      <c r="F141" s="31"/>
-      <c r="G141" s="31"/>
-      <c r="H141" s="31"/>
-      <c r="I141" s="31"/>
-      <c r="J141" s="31"/>
+      <c r="B141" s="32"/>
+      <c r="C141" s="32"/>
+      <c r="D141" s="32"/>
+      <c r="E141" s="32"/>
+      <c r="F141" s="32"/>
+      <c r="G141" s="32"/>
+      <c r="H141" s="32"/>
+      <c r="I141" s="32"/>
+      <c r="J141" s="32"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="31"/>
-      <c r="C142" s="31"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="31"/>
-      <c r="G142" s="31"/>
-      <c r="H142" s="31"/>
-      <c r="I142" s="31"/>
-      <c r="J142" s="31"/>
+      <c r="B142" s="32"/>
+      <c r="C142" s="32"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="31"/>
-      <c r="C143" s="31"/>
-      <c r="D143" s="31"/>
-      <c r="E143" s="31"/>
-      <c r="F143" s="31"/>
-      <c r="G143" s="31"/>
-      <c r="H143" s="31"/>
-      <c r="I143" s="31"/>
-      <c r="J143" s="31"/>
+      <c r="B143" s="32"/>
+      <c r="C143" s="32"/>
+      <c r="D143" s="32"/>
+      <c r="E143" s="32"/>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="32"/>
+      <c r="J143" s="32"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="32" t="s">
+      <c r="B145" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="31"/>
-      <c r="D145" s="31"/>
-      <c r="E145" s="31"/>
-      <c r="F145" s="31"/>
-      <c r="G145" s="31"/>
-      <c r="H145" s="31"/>
-      <c r="I145" s="31"/>
-      <c r="J145" s="31"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="32"/>
+      <c r="J145" s="32"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="31"/>
-      <c r="C146" s="31"/>
-      <c r="D146" s="31"/>
-      <c r="E146" s="31"/>
-      <c r="F146" s="31"/>
-      <c r="G146" s="31"/>
-      <c r="H146" s="31"/>
-      <c r="I146" s="31"/>
-      <c r="J146" s="31"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="32"/>
+      <c r="D146" s="32"/>
+      <c r="E146" s="32"/>
+      <c r="F146" s="32"/>
+      <c r="G146" s="32"/>
+      <c r="H146" s="32"/>
+      <c r="I146" s="32"/>
+      <c r="J146" s="32"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="31"/>
-      <c r="C147" s="31"/>
-      <c r="D147" s="31"/>
-      <c r="E147" s="31"/>
-      <c r="F147" s="31"/>
-      <c r="G147" s="31"/>
-      <c r="H147" s="31"/>
-      <c r="I147" s="31"/>
-      <c r="J147" s="31"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="32"/>
+      <c r="D147" s="32"/>
+      <c r="E147" s="32"/>
+      <c r="F147" s="32"/>
+      <c r="G147" s="32"/>
+      <c r="H147" s="32"/>
+      <c r="I147" s="32"/>
+      <c r="J147" s="32"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="31"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
+      <c r="B148" s="32"/>
+      <c r="C148" s="32"/>
+      <c r="D148" s="32"/>
+      <c r="E148" s="32"/>
+      <c r="F148" s="32"/>
+      <c r="G148" s="32"/>
+      <c r="H148" s="32"/>
+      <c r="I148" s="32"/>
+      <c r="J148" s="32"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="31"/>
-      <c r="C149" s="31"/>
-      <c r="D149" s="31"/>
-      <c r="E149" s="31"/>
-      <c r="F149" s="31"/>
-      <c r="G149" s="31"/>
-      <c r="H149" s="31"/>
-      <c r="I149" s="31"/>
-      <c r="J149" s="31"/>
+      <c r="B149" s="32"/>
+      <c r="C149" s="32"/>
+      <c r="D149" s="32"/>
+      <c r="E149" s="32"/>
+      <c r="F149" s="32"/>
+      <c r="G149" s="32"/>
+      <c r="H149" s="32"/>
+      <c r="I149" s="32"/>
+      <c r="J149" s="32"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D150" s="16" t="s">
@@ -7687,32 +7687,32 @@
     <mergeCell ref="B12:J46"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B4 B48:B88">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="12" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B46">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(B90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(B118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(B133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B149">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(B145))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8899,7 +8899,7 @@
   <dimension ref="A1:I281"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A253" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D271" sqref="D271"/>
+      <selection activeCell="G265" sqref="G265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10574,7 +10574,7 @@
         <v>84</v>
       </c>
       <c r="F77" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H77" t="s">
         <v>307</v>
@@ -13401,7 +13401,7 @@
       <c r="F210" t="s">
         <v>1073</v>
       </c>
-      <c r="G210" s="33" t="s">
+      <c r="G210" s="30" t="s">
         <v>1120</v>
       </c>
       <c r="H210" t="s">
@@ -13976,7 +13976,7 @@
       <c r="E235" t="s">
         <v>84</v>
       </c>
-      <c r="F235" s="33" t="s">
+      <c r="F235" s="30" t="s">
         <v>1124</v>
       </c>
       <c r="G235" t="s">
@@ -14665,13 +14665,13 @@
         <v>84</v>
       </c>
       <c r="D264" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="E264" s="29" t="s">
         <v>84</v>
       </c>
       <c r="G264" s="28" t="s">
-        <v>1126</v>
+        <v>1147</v>
       </c>
       <c r="H264" t="s">
         <v>90</v>
@@ -14688,7 +14688,7 @@
         <v>84</v>
       </c>
       <c r="D265" s="29" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="E265" s="29" t="s">
         <v>84</v>
@@ -14715,7 +14715,7 @@
         <v>84</v>
       </c>
       <c r="G266" s="28" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="H266" t="s">
         <v>90</v>
@@ -14732,7 +14732,7 @@
         <v>84</v>
       </c>
       <c r="D267" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="E267" s="29" t="s">
         <v>84</v>
@@ -14827,7 +14827,7 @@
         <v>84</v>
       </c>
       <c r="F271" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="H271" t="s">
         <v>90</v>
@@ -14938,16 +14938,16 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="28" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B277" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="C277" t="s">
         <v>84</v>
       </c>
       <c r="D277" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="E277" s="29" t="s">
         <v>84</v>
@@ -14958,16 +14958,16 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="28" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B278" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="C278" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D278" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="E278" s="29" t="s">
         <v>84</v>
@@ -14978,16 +14978,16 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="28" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B279" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="C279" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D279" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="E279" s="29" t="s">
         <v>84</v>
@@ -14998,16 +14998,16 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="28" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B280" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="C280" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D280" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="E280" s="29" t="s">
         <v>84</v>
@@ -15018,16 +15018,16 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="28" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B281" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="C281" s="29" t="s">
         <v>84</v>
       </c>
       <c r="D281" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="E281" s="29" t="s">
         <v>84</v>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20408"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschumann\Documents\ontologies\Voc4Cat\24_03_12_current_PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF496BE8-4BC2-4F00-9CE8-ECCCA5948890}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5307D401-038F-4797-A0D2-E56CCD25192A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11640" windowHeight="3060" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2266" uniqueCount="1152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="1148">
   <si>
     <t>Template version</t>
   </si>
@@ -4009,18 +4009,6 @@
   </si>
   <si>
     <t>A process equipment to which elevated temperature and pressure can be applied to convert chemicals into desired products, usually in the presence of a catalyst.</t>
-  </si>
-  <si>
-    <t>informed by https://doi.org/10.1351/goldbook.C00773</t>
-  </si>
-  <si>
-    <t>informed by https://doi.org/10.1351/goldbook.P04795</t>
-  </si>
-  <si>
-    <t>informed by https://doi.org/10.1351/goldbook.C00876</t>
-  </si>
-  <si>
-    <t>informed by https://doi.org/10.1351/goldbook.A00108</t>
   </si>
 </sst>
 </file>
@@ -4271,9 +4259,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4283,6 +4268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -5034,7 +5020,7 @@
   </sheetPr>
   <dimension ref="A1:J1172"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -5102,27 +5088,27 @@
       <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="15"/>
@@ -5133,10 +5119,10 @@
         <v>22</v>
       </c>
       <c r="F9" s="13"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="16" t="s">
@@ -5146,21 +5132,21 @@
         <v>24</v>
       </c>
       <c r="F10" s="13"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="15"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="13"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
@@ -5550,14 +5536,14 @@
       <c r="J46" s="32"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="31" t="s">
@@ -8910,8 +8896,8 @@
   </sheetPr>
   <dimension ref="A1:I281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B204" sqref="B204"/>
+    <sheetView tabSelected="1" topLeftCell="C15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I280" sqref="I280"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9009,9 +8995,7 @@
       <c r="H4" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I4" s="25" t="s">
-        <v>1150</v>
-      </c>
+      <c r="I4" s="30"/>
     </row>
     <row r="5" spans="1:9" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -9037,7 +9021,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="114" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="24" t="s">
@@ -9059,12 +9043,10 @@
       <c r="H6" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I6" s="24" t="s">
-        <v>1150</v>
-      </c>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>97</v>
       </c>
       <c r="B7" s="24" t="s">
@@ -9091,7 +9073,7 @@
       <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="24" t="s">
@@ -9114,7 +9096,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>102</v>
       </c>
       <c r="B9" s="24" t="s">
@@ -9136,9 +9118,7 @@
       <c r="H9" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I9" s="24" t="s">
-        <v>1151</v>
-      </c>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" s="23" t="s">
@@ -9187,7 +9167,7 @@
       <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>112</v>
       </c>
       <c r="B12" s="24" t="s">
@@ -9210,7 +9190,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="27" t="s">
         <v>115</v>
       </c>
       <c r="B13" s="24" t="s">
@@ -9228,7 +9208,7 @@
       <c r="F13" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="28" t="s">
+      <c r="G13" s="27" t="s">
         <v>112</v>
       </c>
       <c r="H13" s="24" t="s">
@@ -13419,7 +13399,7 @@
       <c r="F210" t="s">
         <v>1073</v>
       </c>
-      <c r="G210" s="30" t="s">
+      <c r="G210" s="29" t="s">
         <v>1118</v>
       </c>
       <c r="H210" t="s">
@@ -13994,7 +13974,7 @@
       <c r="E235" t="s">
         <v>84</v>
       </c>
-      <c r="F235" s="30" t="s">
+      <c r="F235" s="29" t="s">
         <v>1122</v>
       </c>
       <c r="G235" t="s">
@@ -14633,7 +14613,7 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A262" s="28" t="s">
+      <c r="A262" s="27" t="s">
         <v>1090</v>
       </c>
       <c r="B262" t="s">
@@ -14645,7 +14625,7 @@
       <c r="D262" t="s">
         <v>1087</v>
       </c>
-      <c r="E262" s="29" t="s">
+      <c r="E262" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H262" t="s">
@@ -14653,7 +14633,7 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A263" s="28" t="s">
+      <c r="A263" s="27" t="s">
         <v>1091</v>
       </c>
       <c r="B263" t="s">
@@ -14665,7 +14645,7 @@
       <c r="D263" t="s">
         <v>1088</v>
       </c>
-      <c r="E263" s="29" t="s">
+      <c r="E263" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H263" t="s">
@@ -14673,7 +14653,7 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264" s="28" t="s">
+      <c r="A264" s="27" t="s">
         <v>1092</v>
       </c>
       <c r="B264" t="s">
@@ -14685,39 +14665,39 @@
       <c r="D264" t="s">
         <v>1124</v>
       </c>
-      <c r="E264" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G264" s="28" t="s">
+      <c r="E264" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G264" s="27" t="s">
         <v>1139</v>
       </c>
       <c r="H264" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="265" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="28" t="s">
+    <row r="265" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="27" t="s">
         <v>1093</v>
       </c>
-      <c r="B265" s="29" t="s">
+      <c r="B265" s="28" t="s">
         <v>1123</v>
       </c>
-      <c r="C265" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D265" s="29" t="s">
+      <c r="C265" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="D265" s="28" t="s">
         <v>1125</v>
       </c>
-      <c r="E265" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G265" s="28"/>
-      <c r="H265" s="29" t="s">
+      <c r="E265" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G265" s="27"/>
+      <c r="H265" s="28" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A266" s="28" t="s">
+      <c r="A266" s="27" t="s">
         <v>1094</v>
       </c>
       <c r="B266" t="s">
@@ -14729,10 +14709,10 @@
       <c r="D266" t="s">
         <v>1140</v>
       </c>
-      <c r="E266" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G266" s="28" t="s">
+      <c r="E266" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G266" s="27" t="s">
         <v>1137</v>
       </c>
       <c r="H266" t="s">
@@ -14740,7 +14720,7 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A267" s="28" t="s">
+      <c r="A267" s="27" t="s">
         <v>1095</v>
       </c>
       <c r="B267" t="s">
@@ -14752,10 +14732,10 @@
       <c r="D267" t="s">
         <v>1147</v>
       </c>
-      <c r="E267" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G267" s="28" t="s">
+      <c r="E267" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G267" s="27" t="s">
         <v>1107</v>
       </c>
       <c r="H267" t="s">
@@ -14763,7 +14743,7 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A268" s="28" t="s">
+      <c r="A268" s="27" t="s">
         <v>1096</v>
       </c>
       <c r="B268" t="s">
@@ -14775,10 +14755,10 @@
       <c r="D268" t="s">
         <v>1083</v>
       </c>
-      <c r="E268" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="G268" s="28" t="s">
+      <c r="E268" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="G268" s="27" t="s">
         <v>1097</v>
       </c>
       <c r="H268" t="s">
@@ -14786,7 +14766,7 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A269" s="28" t="s">
+      <c r="A269" s="27" t="s">
         <v>1097</v>
       </c>
       <c r="B269" t="s">
@@ -14798,7 +14778,7 @@
       <c r="D269" t="s">
         <v>1089</v>
       </c>
-      <c r="E269" s="29" t="s">
+      <c r="E269" s="28" t="s">
         <v>84</v>
       </c>
       <c r="F269" t="s">
@@ -14809,7 +14789,7 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A270" s="28" t="s">
+      <c r="A270" s="27" t="s">
         <v>1098</v>
       </c>
       <c r="B270" t="s">
@@ -14821,7 +14801,7 @@
       <c r="D270" t="s">
         <v>1112</v>
       </c>
-      <c r="E270" s="29" t="s">
+      <c r="E270" s="28" t="s">
         <v>84</v>
       </c>
       <c r="G270" t="s">
@@ -14832,7 +14812,7 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A271" s="28" t="s">
+      <c r="A271" s="27" t="s">
         <v>1099</v>
       </c>
       <c r="B271" t="s">
@@ -14844,7 +14824,7 @@
       <c r="D271" t="s">
         <v>1146</v>
       </c>
-      <c r="E271" s="29" t="s">
+      <c r="E271" s="28" t="s">
         <v>84</v>
       </c>
       <c r="F271" t="s">
@@ -14855,7 +14835,7 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A272" s="28" t="s">
+      <c r="A272" s="27" t="s">
         <v>1100</v>
       </c>
       <c r="B272" t="s">
@@ -14867,15 +14847,15 @@
       <c r="D272" t="s">
         <v>1086</v>
       </c>
-      <c r="E272" s="29" t="s">
+      <c r="E272" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H272" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A273" s="28" t="s">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A273" s="27" t="s">
         <v>1101</v>
       </c>
       <c r="B273" t="s">
@@ -14887,7 +14867,7 @@
       <c r="D273" t="s">
         <v>1111</v>
       </c>
-      <c r="E273" s="29" t="s">
+      <c r="E273" s="28" t="s">
         <v>84</v>
       </c>
       <c r="F273" t="s">
@@ -14897,8 +14877,8 @@
         <v>90</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A274" s="28" t="s">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A274" s="27" t="s">
         <v>1102</v>
       </c>
       <c r="B274" t="s">
@@ -14910,15 +14890,15 @@
       <c r="D274" t="s">
         <v>1114</v>
       </c>
-      <c r="E274" s="29" t="s">
+      <c r="E274" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H274" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A275" s="28" t="s">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A275" s="27" t="s">
         <v>1103</v>
       </c>
       <c r="B275" t="s">
@@ -14930,15 +14910,15 @@
       <c r="D275" t="s">
         <v>1115</v>
       </c>
-      <c r="E275" s="29" t="s">
+      <c r="E275" s="28" t="s">
         <v>84</v>
       </c>
       <c r="H275" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A276" s="28" t="s">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A276" s="27" t="s">
         <v>1104</v>
       </c>
       <c r="B276" t="s">
@@ -14950,15 +14930,15 @@
       <c r="D276" t="s">
         <v>1085</v>
       </c>
-      <c r="E276" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H276" s="27" t="s">
+      <c r="E276" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H276" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A277" s="28" t="s">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A277" s="27" t="s">
         <v>1132</v>
       </c>
       <c r="B277" t="s">
@@ -14970,96 +14950,90 @@
       <c r="D277" t="s">
         <v>1141</v>
       </c>
-      <c r="E277" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H277" s="29" t="s">
+      <c r="E277" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H277" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I277" t="s">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A278" s="28" t="s">
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A278" s="27" t="s">
         <v>1133</v>
       </c>
       <c r="B278" t="s">
         <v>1128</v>
       </c>
-      <c r="C278" s="29" t="s">
+      <c r="C278" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D278" t="s">
         <v>1142</v>
       </c>
-      <c r="E278" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H278" s="29" t="s">
+      <c r="E278" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H278" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A279" s="28" t="s">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A279" s="27" t="s">
         <v>1134</v>
       </c>
       <c r="B279" t="s">
         <v>1129</v>
       </c>
-      <c r="C279" s="29" t="s">
+      <c r="C279" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D279" t="s">
         <v>1144</v>
       </c>
-      <c r="E279" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H279" s="29" t="s">
+      <c r="E279" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H279" s="28" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A280" s="28" t="s">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A280" s="27" t="s">
         <v>1135</v>
       </c>
       <c r="B280" t="s">
         <v>1130</v>
       </c>
-      <c r="C280" s="29" t="s">
+      <c r="C280" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D280" t="s">
         <v>1143</v>
       </c>
-      <c r="E280" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H280" s="29" t="s">
+      <c r="E280" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H280" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="I280" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A281" s="28" t="s">
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A281" s="27" t="s">
         <v>1136</v>
       </c>
       <c r="B281" t="s">
         <v>1131</v>
       </c>
-      <c r="C281" s="29" t="s">
+      <c r="C281" s="28" t="s">
         <v>84</v>
       </c>
       <c r="D281" t="s">
         <v>1145</v>
       </c>
-      <c r="E281" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="H281" s="29" t="s">
+      <c r="E281" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="H281" s="28" t="s">
         <v>90</v>
       </c>
     </row>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlinke\MyProg_local\gh\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53D57DE6-7F24-477C-8AFD-E6E053F7D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7797F21A-2563-40D3-A09F-98C340052D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2306" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="1172">
   <si>
     <t>Template version</t>
   </si>
@@ -2549,10 +2549,6 @@
     <t>The substate onto which a (powdered) photocatalyst is deposited. Such substrates include glass surfaces (e.g., borosilicate glass or conductive glass like ITO and FTO), ceramic substrates (e.g., alumina) or metal substrates (e.g., Ti foils, stainless steel etc.).</t>
   </si>
   <si>
-    <t>https://w3id.org/nfdi4cat/voc4cat_0000025,
-https://w3id.org/nfdi4cat/voc4cat_0000033</t>
-  </si>
-  <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0000038</t>
   </si>
   <si>
@@ -2999,12 +2995,6 @@
   </si>
   <si>
     <t>The diamensions of the substrate.</t>
-  </si>
-  <si>
-    <t>https://w3id.org/nfdi4cat/voc4cat_0000034,
-https://w3id.org/nfdi4cat/voc4cat_0000035,
-https://w3id.org/nfdi4cat/voc4cat_0000036,
-https://w3id.org/nfdi4cat/voc4cat_0000037</t>
   </si>
   <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0000040</t>
@@ -3780,9 +3770,6 @@
     <t>https://w3id.org/nfdi4cat/voc4cat_0007032</t>
   </si>
   <si>
-    <t>https://w3id.org/nfdi4cat/voc4cat_0007033</t>
-  </si>
-  <si>
     <t>supported catalyst</t>
   </si>
   <si>
@@ -3811,9 +3798,6 @@
   </si>
   <si>
     <t>reactor temperature</t>
-  </si>
-  <si>
-    <t>https://w3id.org/nfdi4cat/voc4cat_0007032, https://w3id.org/nfdi4cat/voc4cat_0007033</t>
   </si>
   <si>
     <t>An apparatus or system designed for the controlled execution of reactions, encompassing a wide range of processes including chemical, nuclear, biochemical, or other physical transformations.</t>
@@ -4088,6 +4072,11 @@
   </si>
   <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0005010</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000034,
+https://w3id.org/nfdi4cat/voc4cat_0000035,
+https://w3id.org/nfdi4cat/voc4cat_0000036</t>
   </si>
 </sst>
 </file>
@@ -4288,7 +4277,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4359,21 +4348,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4975,65 +4961,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -5130,61 +5116,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="25"/>
@@ -5248,391 +5234,391 @@
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="27"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="27"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="27"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="27"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="27"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="27"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="27"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="27"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="27"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="27"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="27"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="27"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
-      <c r="F46" s="27"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="25"/>
@@ -5645,1096 +5631,1096 @@
       <c r="J47" s="25"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="26" t="s">
+      <c r="B48" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
-      <c r="H48" s="27"/>
-      <c r="I48" s="27"/>
-      <c r="J48" s="27"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27"/>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27"/>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="27"/>
-      <c r="G53" s="27"/>
-      <c r="H53" s="27"/>
-      <c r="I53" s="27"/>
-      <c r="J53" s="27"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
-      <c r="I54" s="27"/>
-      <c r="J54" s="27"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="27"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="27"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
-      <c r="C60" s="27"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
-      <c r="C61" s="27"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27"/>
-      <c r="H61" s="27"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
-      <c r="C62" s="27"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="27"/>
-      <c r="G62" s="27"/>
-      <c r="H62" s="27"/>
-      <c r="I62" s="27"/>
-      <c r="J62" s="27"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="27"/>
-      <c r="G64" s="27"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
-      <c r="G65" s="27"/>
-      <c r="H65" s="27"/>
-      <c r="I65" s="27"/>
-      <c r="J65" s="27"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
-      <c r="C66" s="27"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
-      <c r="C67" s="27"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="27"/>
-      <c r="G67" s="27"/>
-      <c r="H67" s="27"/>
-      <c r="I67" s="27"/>
-      <c r="J67" s="27"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="27"/>
-      <c r="G68" s="27"/>
-      <c r="H68" s="27"/>
-      <c r="I68" s="27"/>
-      <c r="J68" s="27"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
-      <c r="C69" s="27"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="27"/>
-      <c r="G69" s="27"/>
-      <c r="H69" s="27"/>
-      <c r="I69" s="27"/>
-      <c r="J69" s="27"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
-      <c r="C70" s="27"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="27"/>
-      <c r="G70" s="27"/>
-      <c r="H70" s="27"/>
-      <c r="I70" s="27"/>
-      <c r="J70" s="27"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
-      <c r="C71" s="27"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="27"/>
-      <c r="G71" s="27"/>
-      <c r="H71" s="27"/>
-      <c r="I71" s="27"/>
-      <c r="J71" s="27"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
-      <c r="C72" s="27"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="27"/>
-      <c r="G72" s="27"/>
-      <c r="H72" s="27"/>
-      <c r="I72" s="27"/>
-      <c r="J72" s="27"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="27"/>
-      <c r="G73" s="27"/>
-      <c r="H73" s="27"/>
-      <c r="I73" s="27"/>
-      <c r="J73" s="27"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="27"/>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="27"/>
-      <c r="C76" s="27"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="27"/>
-      <c r="G76" s="27"/>
-      <c r="H76" s="27"/>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
-      <c r="C77" s="27"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="27"/>
-      <c r="J77" s="27"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27"/>
-      <c r="H78" s="27"/>
-      <c r="I78" s="27"/>
-      <c r="J78" s="27"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
-      <c r="C79" s="27"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="27"/>
-      <c r="G79" s="27"/>
-      <c r="H79" s="27"/>
-      <c r="I79" s="27"/>
-      <c r="J79" s="27"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
-      <c r="C80" s="27"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="27"/>
-      <c r="G80" s="27"/>
-      <c r="H80" s="27"/>
-      <c r="I80" s="27"/>
-      <c r="J80" s="27"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
-      <c r="C81" s="27"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="27"/>
-      <c r="G81" s="27"/>
-      <c r="H81" s="27"/>
-      <c r="I81" s="27"/>
-      <c r="J81" s="27"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
-      <c r="C82" s="27"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="27"/>
-      <c r="G82" s="27"/>
-      <c r="H82" s="27"/>
-      <c r="I82" s="27"/>
-      <c r="J82" s="27"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27"/>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
-      <c r="C86" s="27"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="27"/>
-      <c r="G86" s="27"/>
-      <c r="H86" s="27"/>
-      <c r="I86" s="27"/>
-      <c r="J86" s="27"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
-      <c r="C87" s="27"/>
-      <c r="D87" s="27"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="27"/>
-      <c r="G87" s="27"/>
-      <c r="H87" s="27"/>
-      <c r="I87" s="27"/>
-      <c r="J87" s="27"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="27"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="27"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="27"/>
-      <c r="G88" s="27"/>
-      <c r="H88" s="27"/>
-      <c r="I88" s="27"/>
-      <c r="J88" s="27"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="26" t="s">
+      <c r="B90" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="27"/>
-      <c r="D90" s="27"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="27"/>
-      <c r="G90" s="27"/>
-      <c r="H90" s="27"/>
-      <c r="I90" s="27"/>
-      <c r="J90" s="27"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
-      <c r="C91" s="27"/>
-      <c r="D91" s="27"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="27"/>
-      <c r="G91" s="27"/>
-      <c r="H91" s="27"/>
-      <c r="I91" s="27"/>
-      <c r="J91" s="27"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
-      <c r="C92" s="27"/>
-      <c r="D92" s="27"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="27"/>
-      <c r="H92" s="27"/>
-      <c r="I92" s="27"/>
-      <c r="J92" s="27"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
-      <c r="C93" s="27"/>
-      <c r="D93" s="27"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="27"/>
-      <c r="H93" s="27"/>
-      <c r="I93" s="27"/>
-      <c r="J93" s="27"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
-      <c r="C94" s="27"/>
-      <c r="D94" s="27"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="27"/>
-      <c r="H94" s="27"/>
-      <c r="I94" s="27"/>
-      <c r="J94" s="27"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
-      <c r="C95" s="27"/>
-      <c r="D95" s="27"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="27"/>
-      <c r="H95" s="27"/>
-      <c r="I95" s="27"/>
-      <c r="J95" s="27"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
-      <c r="C96" s="27"/>
-      <c r="D96" s="27"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27"/>
-      <c r="H96" s="27"/>
-      <c r="I96" s="27"/>
-      <c r="J96" s="27"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="27"/>
-      <c r="G97" s="27"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
-      <c r="C98" s="27"/>
-      <c r="D98" s="27"/>
-      <c r="E98" s="27"/>
-      <c r="F98" s="27"/>
-      <c r="G98" s="27"/>
-      <c r="H98" s="27"/>
-      <c r="I98" s="27"/>
-      <c r="J98" s="27"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="27"/>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27"/>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27"/>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="27"/>
-      <c r="C102" s="27"/>
-      <c r="D102" s="27"/>
-      <c r="E102" s="27"/>
-      <c r="F102" s="27"/>
-      <c r="G102" s="27"/>
-      <c r="H102" s="27"/>
-      <c r="I102" s="27"/>
-      <c r="J102" s="27"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="27"/>
-      <c r="C103" s="27"/>
-      <c r="D103" s="27"/>
-      <c r="E103" s="27"/>
-      <c r="F103" s="27"/>
-      <c r="G103" s="27"/>
-      <c r="H103" s="27"/>
-      <c r="I103" s="27"/>
-      <c r="J103" s="27"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="27"/>
-      <c r="C104" s="27"/>
-      <c r="D104" s="27"/>
-      <c r="E104" s="27"/>
-      <c r="F104" s="27"/>
-      <c r="G104" s="27"/>
-      <c r="H104" s="27"/>
-      <c r="I104" s="27"/>
-      <c r="J104" s="27"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="27"/>
-      <c r="C105" s="27"/>
-      <c r="D105" s="27"/>
-      <c r="E105" s="27"/>
-      <c r="F105" s="27"/>
-      <c r="G105" s="27"/>
-      <c r="H105" s="27"/>
-      <c r="I105" s="27"/>
-      <c r="J105" s="27"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="27"/>
-      <c r="C106" s="27"/>
-      <c r="D106" s="27"/>
-      <c r="E106" s="27"/>
-      <c r="F106" s="27"/>
-      <c r="G106" s="27"/>
-      <c r="H106" s="27"/>
-      <c r="I106" s="27"/>
-      <c r="J106" s="27"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="27"/>
-      <c r="C107" s="27"/>
-      <c r="D107" s="27"/>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="27"/>
-      <c r="J107" s="27"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="27"/>
-      <c r="C108" s="27"/>
-      <c r="D108" s="27"/>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27"/>
-      <c r="H108" s="27"/>
-      <c r="I108" s="27"/>
-      <c r="J108" s="27"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="27"/>
-      <c r="C109" s="27"/>
-      <c r="D109" s="27"/>
-      <c r="E109" s="27"/>
-      <c r="F109" s="27"/>
-      <c r="G109" s="27"/>
-      <c r="H109" s="27"/>
-      <c r="I109" s="27"/>
-      <c r="J109" s="27"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="27"/>
-      <c r="C110" s="27"/>
-      <c r="D110" s="27"/>
-      <c r="E110" s="27"/>
-      <c r="F110" s="27"/>
-      <c r="G110" s="27"/>
-      <c r="H110" s="27"/>
-      <c r="I110" s="27"/>
-      <c r="J110" s="27"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="27"/>
-      <c r="C111" s="27"/>
-      <c r="D111" s="27"/>
-      <c r="E111" s="27"/>
-      <c r="F111" s="27"/>
-      <c r="G111" s="27"/>
-      <c r="H111" s="27"/>
-      <c r="I111" s="27"/>
-      <c r="J111" s="27"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="27"/>
-      <c r="C112" s="27"/>
-      <c r="D112" s="27"/>
-      <c r="E112" s="27"/>
-      <c r="F112" s="27"/>
-      <c r="G112" s="27"/>
-      <c r="H112" s="27"/>
-      <c r="I112" s="27"/>
-      <c r="J112" s="27"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="27"/>
-      <c r="C113" s="27"/>
-      <c r="D113" s="27"/>
-      <c r="E113" s="27"/>
-      <c r="F113" s="27"/>
-      <c r="G113" s="27"/>
-      <c r="H113" s="27"/>
-      <c r="I113" s="27"/>
-      <c r="J113" s="27"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="27"/>
-      <c r="C114" s="27"/>
-      <c r="D114" s="27"/>
-      <c r="E114" s="27"/>
-      <c r="F114" s="27"/>
-      <c r="G114" s="27"/>
-      <c r="H114" s="27"/>
-      <c r="I114" s="27"/>
-      <c r="J114" s="27"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="27"/>
-      <c r="C115" s="27"/>
-      <c r="D115" s="27"/>
-      <c r="E115" s="27"/>
-      <c r="F115" s="27"/>
-      <c r="G115" s="27"/>
-      <c r="H115" s="27"/>
-      <c r="I115" s="27"/>
-      <c r="J115" s="27"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="27"/>
-      <c r="C116" s="27"/>
-      <c r="D116" s="27"/>
-      <c r="E116" s="27"/>
-      <c r="F116" s="27"/>
-      <c r="G116" s="27"/>
-      <c r="H116" s="27"/>
-      <c r="I116" s="27"/>
-      <c r="J116" s="27"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="26" t="s">
+      <c r="B118" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="27"/>
-      <c r="D118" s="27"/>
-      <c r="E118" s="27"/>
-      <c r="F118" s="27"/>
-      <c r="G118" s="27"/>
-      <c r="H118" s="27"/>
-      <c r="I118" s="27"/>
-      <c r="J118" s="27"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="27"/>
-      <c r="C119" s="27"/>
-      <c r="D119" s="27"/>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="27"/>
-      <c r="J119" s="27"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="27"/>
-      <c r="C120" s="27"/>
-      <c r="D120" s="27"/>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27"/>
-      <c r="H120" s="27"/>
-      <c r="I120" s="27"/>
-      <c r="J120" s="27"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="27"/>
-      <c r="C121" s="27"/>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27"/>
-      <c r="F121" s="27"/>
-      <c r="G121" s="27"/>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27"/>
-      <c r="J121" s="27"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="27"/>
-      <c r="C122" s="27"/>
-      <c r="D122" s="27"/>
-      <c r="E122" s="27"/>
-      <c r="F122" s="27"/>
-      <c r="G122" s="27"/>
-      <c r="H122" s="27"/>
-      <c r="I122" s="27"/>
-      <c r="J122" s="27"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="27"/>
-      <c r="C123" s="27"/>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-      <c r="F123" s="27"/>
-      <c r="G123" s="27"/>
-      <c r="H123" s="27"/>
-      <c r="I123" s="27"/>
-      <c r="J123" s="27"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="27"/>
-      <c r="C124" s="27"/>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-      <c r="F124" s="27"/>
-      <c r="G124" s="27"/>
-      <c r="H124" s="27"/>
-      <c r="I124" s="27"/>
-      <c r="J124" s="27"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="27"/>
-      <c r="C125" s="27"/>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-      <c r="F125" s="27"/>
-      <c r="G125" s="27"/>
-      <c r="H125" s="27"/>
-      <c r="I125" s="27"/>
-      <c r="J125" s="27"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="27"/>
-      <c r="C126" s="27"/>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-      <c r="F126" s="27"/>
-      <c r="G126" s="27"/>
-      <c r="H126" s="27"/>
-      <c r="I126" s="27"/>
-      <c r="J126" s="27"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="27"/>
-      <c r="C127" s="27"/>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-      <c r="F127" s="27"/>
-      <c r="G127" s="27"/>
-      <c r="H127" s="27"/>
-      <c r="I127" s="27"/>
-      <c r="J127" s="27"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="27"/>
-      <c r="C128" s="27"/>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-      <c r="F128" s="27"/>
-      <c r="G128" s="27"/>
-      <c r="H128" s="27"/>
-      <c r="I128" s="27"/>
-      <c r="J128" s="27"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="27"/>
-      <c r="C129" s="27"/>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-      <c r="F129" s="27"/>
-      <c r="G129" s="27"/>
-      <c r="H129" s="27"/>
-      <c r="I129" s="27"/>
-      <c r="J129" s="27"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="27"/>
-      <c r="C130" s="27"/>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-      <c r="F130" s="27"/>
-      <c r="G130" s="27"/>
-      <c r="H130" s="27"/>
-      <c r="I130" s="27"/>
-      <c r="J130" s="27"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-      <c r="F131" s="27"/>
-      <c r="G131" s="27"/>
-      <c r="H131" s="27"/>
-      <c r="I131" s="27"/>
-      <c r="J131" s="27"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="26" t="s">
+      <c r="B133" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="27"/>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27"/>
-      <c r="H133" s="27"/>
-      <c r="I133" s="27"/>
-      <c r="J133" s="27"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="27"/>
-      <c r="C134" s="27"/>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-      <c r="F134" s="27"/>
-      <c r="G134" s="27"/>
-      <c r="H134" s="27"/>
-      <c r="I134" s="27"/>
-      <c r="J134" s="27"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="27"/>
-      <c r="C135" s="27"/>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-      <c r="F135" s="27"/>
-      <c r="G135" s="27"/>
-      <c r="H135" s="27"/>
-      <c r="I135" s="27"/>
-      <c r="J135" s="27"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="27"/>
-      <c r="C136" s="27"/>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-      <c r="F136" s="27"/>
-      <c r="G136" s="27"/>
-      <c r="H136" s="27"/>
-      <c r="I136" s="27"/>
-      <c r="J136" s="27"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="27"/>
-      <c r="C137" s="27"/>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-      <c r="F137" s="27"/>
-      <c r="G137" s="27"/>
-      <c r="H137" s="27"/>
-      <c r="I137" s="27"/>
-      <c r="J137" s="27"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="27"/>
-      <c r="C138" s="27"/>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-      <c r="F138" s="27"/>
-      <c r="G138" s="27"/>
-      <c r="H138" s="27"/>
-      <c r="I138" s="27"/>
-      <c r="J138" s="27"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="27"/>
-      <c r="C139" s="27"/>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-      <c r="F139" s="27"/>
-      <c r="G139" s="27"/>
-      <c r="H139" s="27"/>
-      <c r="I139" s="27"/>
-      <c r="J139" s="27"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="27"/>
-      <c r="C140" s="27"/>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-      <c r="F140" s="27"/>
-      <c r="G140" s="27"/>
-      <c r="H140" s="27"/>
-      <c r="I140" s="27"/>
-      <c r="J140" s="27"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="27"/>
-      <c r="C141" s="27"/>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-      <c r="F141" s="27"/>
-      <c r="G141" s="27"/>
-      <c r="H141" s="27"/>
-      <c r="I141" s="27"/>
-      <c r="J141" s="27"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="27"/>
-      <c r="C142" s="27"/>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-      <c r="F142" s="27"/>
-      <c r="G142" s="27"/>
-      <c r="H142" s="27"/>
-      <c r="I142" s="27"/>
-      <c r="J142" s="27"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="27"/>
-      <c r="C143" s="27"/>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-      <c r="F143" s="27"/>
-      <c r="G143" s="27"/>
-      <c r="H143" s="27"/>
-      <c r="I143" s="27"/>
-      <c r="J143" s="27"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="28" t="s">
+      <c r="B145" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="27"/>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-      <c r="F145" s="27"/>
-      <c r="G145" s="27"/>
-      <c r="H145" s="27"/>
-      <c r="I145" s="27"/>
-      <c r="J145" s="27"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="27"/>
-      <c r="C146" s="27"/>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-      <c r="F146" s="27"/>
-      <c r="G146" s="27"/>
-      <c r="H146" s="27"/>
-      <c r="I146" s="27"/>
-      <c r="J146" s="27"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27"/>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="27"/>
-      <c r="J147" s="27"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="27"/>
-      <c r="C148" s="27"/>
-      <c r="D148" s="27"/>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27"/>
-      <c r="H148" s="27"/>
-      <c r="I148" s="27"/>
-      <c r="J148" s="27"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="27"/>
-      <c r="C149" s="27"/>
-      <c r="D149" s="27"/>
-      <c r="E149" s="27"/>
-      <c r="F149" s="27"/>
-      <c r="G149" s="27"/>
-      <c r="H149" s="27"/>
-      <c r="I149" s="27"/>
-      <c r="J149" s="27"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="16" t="s">
@@ -8995,8 +8981,8 @@
   </sheetPr>
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A209" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A216" sqref="A216"/>
+    <sheetView tabSelected="1" topLeftCell="B213" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G219" sqref="G219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9048,25 +9034,25 @@
     </row>
     <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>929</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>930</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="E3" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="24" t="s">
         <v>931</v>
       </c>
-      <c r="C3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="G3" s="24" t="s">
         <v>932</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="24" t="s">
-        <v>933</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>934</v>
       </c>
       <c r="H3" s="24" t="s">
         <v>305</v>
@@ -9075,25 +9061,25 @@
     </row>
     <row r="4" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
+        <v>898</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>899</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="C4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="24" t="s">
         <v>900</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="E4" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>901</v>
       </c>
-      <c r="E4" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>902</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>903</v>
       </c>
       <c r="H4" s="24" t="s">
         <v>305</v>
@@ -9102,23 +9088,23 @@
     </row>
     <row r="5" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
+        <v>835</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="C5" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>837</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>838</v>
       </c>
       <c r="E5" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H5" s="24" t="s">
         <v>305</v>
@@ -9175,23 +9161,23 @@
     </row>
     <row r="8" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
+        <v>965</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="24" t="s">
         <v>967</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>968</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>969</v>
       </c>
       <c r="E8" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>305</v>
@@ -9361,7 +9347,7 @@
         <v>84</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="G15" s="24"/>
       <c r="H15" s="24" t="s">
@@ -9422,22 +9408,22 @@
         <v>774</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="C18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="E18" s="23" t="s">
         <v>84</v>
       </c>
       <c r="G18" s="24" t="s">
+        <v>1103</v>
+      </c>
+      <c r="H18" s="24" t="s">
         <v>1105</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>1107</v>
       </c>
       <c r="I18" s="24"/>
     </row>
@@ -9491,48 +9477,48 @@
     </row>
     <row r="21" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>840</v>
       </c>
-      <c r="B21" s="24" t="s">
-        <v>841</v>
-      </c>
       <c r="C21" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="E21" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H21" s="24" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
+        <v>842</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>843</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="C22" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="24" t="s">
         <v>844</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>845</v>
       </c>
       <c r="E22" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H22" s="24" t="s">
         <v>305</v>
@@ -9630,7 +9616,7 @@
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24" t="s">
-        <v>778</v>
+        <v>846</v>
       </c>
       <c r="H26" s="24" t="s">
         <v>305</v>
@@ -9639,23 +9625,23 @@
     </row>
     <row r="27" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
+        <v>846</v>
+      </c>
+      <c r="B27" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="B27" s="24" t="s">
+      <c r="C27" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="24" t="s">
         <v>848</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>849</v>
       </c>
       <c r="E27" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H27" s="24" t="s">
         <v>305</v>
@@ -9687,23 +9673,23 @@
     </row>
     <row r="29" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
+        <v>903</v>
+      </c>
+      <c r="B29" s="24" t="s">
         <v>904</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="C29" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="24" t="s">
         <v>905</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>906</v>
       </c>
       <c r="E29" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H29" s="24" t="s">
         <v>305</v>
@@ -9833,23 +9819,23 @@
     </row>
     <row r="35" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
+        <v>907</v>
+      </c>
+      <c r="B35" s="24" t="s">
         <v>908</v>
       </c>
-      <c r="B35" s="24" t="s">
+      <c r="C35" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="24" t="s">
         <v>909</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>910</v>
       </c>
       <c r="E35" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24" t="s">
-        <v>911</v>
+        <v>1171</v>
       </c>
       <c r="H35" s="24" t="s">
         <v>305</v>
@@ -9952,23 +9938,23 @@
     </row>
     <row r="40" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="B40" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="C40" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D40" s="24" t="s">
         <v>780</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>781</v>
       </c>
       <c r="E40" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H40" s="24" t="s">
         <v>305</v>
@@ -10000,23 +9986,23 @@
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
+        <v>910</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="C42" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D42" s="24" t="s">
         <v>912</v>
-      </c>
-      <c r="B42" s="24" t="s">
-        <v>913</v>
-      </c>
-      <c r="C42" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>914</v>
       </c>
       <c r="E42" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H42" s="24" t="s">
         <v>305</v>
@@ -10117,23 +10103,23 @@
     </row>
     <row r="47" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
+        <v>782</v>
+      </c>
+      <c r="B47" s="24" t="s">
         <v>783</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="C47" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="24" t="s">
         <v>784</v>
-      </c>
-      <c r="C47" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>785</v>
       </c>
       <c r="E47" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H47" s="24" t="s">
         <v>305</v>
@@ -10142,25 +10128,25 @@
     </row>
     <row r="48" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="B48" s="24" t="s">
         <v>787</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="C48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D48" s="24" t="s">
         <v>788</v>
       </c>
-      <c r="C48" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D48" s="24" t="s">
+      <c r="E48" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F48" s="24" t="s">
         <v>789</v>
       </c>
-      <c r="E48" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F48" s="24" t="s">
+      <c r="G48" s="24" t="s">
         <v>790</v>
-      </c>
-      <c r="G48" s="24" t="s">
-        <v>791</v>
       </c>
       <c r="H48" s="24" t="s">
         <v>305</v>
@@ -10217,23 +10203,23 @@
     </row>
     <row r="51" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
+        <v>969</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>970</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="24" t="s">
         <v>971</v>
-      </c>
-      <c r="B51" s="24" t="s">
-        <v>972</v>
-      </c>
-      <c r="C51" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>973</v>
       </c>
       <c r="E51" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H51" s="24" t="s">
         <v>305</v>
@@ -10334,25 +10320,25 @@
     </row>
     <row r="56" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
+        <v>956</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>957</v>
+      </c>
+      <c r="C56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D56" s="24" t="s">
         <v>958</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="E56" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F56" s="24" t="s">
         <v>959</v>
       </c>
-      <c r="C56" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D56" s="24" t="s">
+      <c r="G56" s="24" t="s">
         <v>960</v>
-      </c>
-      <c r="E56" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F56" s="24" t="s">
-        <v>961</v>
-      </c>
-      <c r="G56" s="24" t="s">
-        <v>962</v>
       </c>
       <c r="H56" s="24" t="s">
         <v>305</v>
@@ -10522,23 +10508,23 @@
     </row>
     <row r="64" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
+        <v>850</v>
+      </c>
+      <c r="B64" s="24" t="s">
         <v>851</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="C64" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" s="24" t="s">
         <v>852</v>
-      </c>
-      <c r="C64" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>853</v>
       </c>
       <c r="E64" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H64" s="24" t="s">
         <v>305</v>
@@ -10616,23 +10602,23 @@
     </row>
     <row r="68" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
+        <v>981</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>982</v>
+      </c>
+      <c r="C68" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>983</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>984</v>
-      </c>
-      <c r="C68" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>985</v>
       </c>
       <c r="E68" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="H68" s="24" t="s">
         <v>305</v>
@@ -11016,22 +11002,22 @@
     </row>
     <row r="84" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="B84" s="24" t="s">
         <v>792</v>
       </c>
-      <c r="B84" s="24" t="s">
+      <c r="C84" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="24" t="s">
         <v>793</v>
       </c>
-      <c r="C84" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D84" s="24" t="s">
+      <c r="E84" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F84" s="24" t="s">
         <v>794</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F84" s="24" t="s">
-        <v>795</v>
       </c>
       <c r="G84" s="24"/>
       <c r="H84" s="24" t="s">
@@ -11064,23 +11050,23 @@
     </row>
     <row r="86" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="B86" s="24" t="s">
         <v>796</v>
       </c>
-      <c r="B86" s="24" t="s">
+      <c r="C86" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D86" s="24" t="s">
         <v>797</v>
-      </c>
-      <c r="C86" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>798</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="24" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H86" s="24" t="s">
         <v>305</v>
@@ -11135,23 +11121,23 @@
     </row>
     <row r="89" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="23" t="s">
+        <v>977</v>
+      </c>
+      <c r="B89" s="24" t="s">
+        <v>978</v>
+      </c>
+      <c r="C89" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D89" s="24" t="s">
         <v>979</v>
-      </c>
-      <c r="B89" s="24" t="s">
-        <v>980</v>
-      </c>
-      <c r="C89" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>981</v>
       </c>
       <c r="E89" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="24" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="H89" s="24" t="s">
         <v>305</v>
@@ -11444,23 +11430,23 @@
     </row>
     <row r="102" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="23" t="s">
+        <v>973</v>
+      </c>
+      <c r="B102" s="24" t="s">
+        <v>974</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D102" s="24" t="s">
         <v>975</v>
-      </c>
-      <c r="B102" s="24" t="s">
-        <v>976</v>
-      </c>
-      <c r="C102" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>977</v>
       </c>
       <c r="E102" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F102" s="24"/>
       <c r="G102" s="24" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="H102" s="24" t="s">
         <v>305</v>
@@ -11469,23 +11455,23 @@
     </row>
     <row r="103" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="B103" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D103" s="24" t="s">
         <v>916</v>
-      </c>
-      <c r="B103" s="24" t="s">
-        <v>917</v>
-      </c>
-      <c r="C103" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>918</v>
       </c>
       <c r="E103" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F103" s="24"/>
       <c r="G103" s="24" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H103" s="24" t="s">
         <v>305</v>
@@ -11563,23 +11549,23 @@
     </row>
     <row r="107" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="B107" s="24" t="s">
         <v>800</v>
       </c>
-      <c r="B107" s="24" t="s">
+      <c r="C107" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D107" s="24" t="s">
         <v>801</v>
-      </c>
-      <c r="C107" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>802</v>
       </c>
       <c r="E107" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F107" s="24"/>
       <c r="G107" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H107" s="24" t="s">
         <v>305</v>
@@ -11634,23 +11620,23 @@
     </row>
     <row r="110" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="B110" s="24" t="s">
         <v>804</v>
       </c>
-      <c r="B110" s="24" t="s">
+      <c r="C110" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D110" s="24" t="s">
         <v>805</v>
-      </c>
-      <c r="C110" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D110" s="24" t="s">
-        <v>806</v>
       </c>
       <c r="E110" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F110" s="24"/>
       <c r="G110" s="24" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H110" s="24" t="s">
         <v>305</v>
@@ -11709,23 +11695,23 @@
     </row>
     <row r="113" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="B113" s="24" t="s">
         <v>855</v>
       </c>
-      <c r="B113" s="24" t="s">
+      <c r="C113" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D113" s="24" t="s">
         <v>856</v>
-      </c>
-      <c r="C113" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D113" s="24" t="s">
-        <v>857</v>
       </c>
       <c r="E113" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F113" s="24"/>
       <c r="G113" s="24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H113" s="24" t="s">
         <v>305</v>
@@ -11803,23 +11789,23 @@
     </row>
     <row r="117" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="B117" s="24" t="s">
         <v>808</v>
       </c>
-      <c r="B117" s="24" t="s">
+      <c r="C117" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D117" s="24" t="s">
         <v>809</v>
-      </c>
-      <c r="C117" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D117" s="24" t="s">
-        <v>810</v>
       </c>
       <c r="E117" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F117" s="24"/>
       <c r="G117" s="24" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H117" s="24" t="s">
         <v>305</v>
@@ -11874,23 +11860,23 @@
     </row>
     <row r="120" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="B120" s="24" t="s">
         <v>812</v>
       </c>
-      <c r="B120" s="24" t="s">
+      <c r="C120" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D120" s="24" t="s">
         <v>813</v>
-      </c>
-      <c r="C120" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D120" s="24" t="s">
-        <v>814</v>
       </c>
       <c r="E120" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F120" s="24"/>
       <c r="G120" s="24" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H120" s="24" t="s">
         <v>305</v>
@@ -12016,23 +12002,23 @@
     </row>
     <row r="126" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="23" t="s">
+        <v>858</v>
+      </c>
+      <c r="B126" s="24" t="s">
         <v>859</v>
       </c>
-      <c r="B126" s="24" t="s">
+      <c r="C126" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D126" s="24" t="s">
         <v>860</v>
-      </c>
-      <c r="C126" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D126" s="24" t="s">
-        <v>861</v>
       </c>
       <c r="E126" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F126" s="24"/>
       <c r="G126" s="24" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H126" s="24" t="s">
         <v>305</v>
@@ -12041,16 +12027,16 @@
     </row>
     <row r="127" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="23" t="s">
+        <v>815</v>
+      </c>
+      <c r="B127" s="24" t="s">
         <v>816</v>
       </c>
-      <c r="B127" s="24" t="s">
+      <c r="C127" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D127" s="24" t="s">
         <v>817</v>
-      </c>
-      <c r="C127" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D127" s="24" t="s">
-        <v>818</v>
       </c>
       <c r="E127" s="23" t="s">
         <v>84</v>
@@ -12058,7 +12044,7 @@
       <c r="F127" s="24"/>
       <c r="G127" s="24"/>
       <c r="H127" s="24" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="I127" s="24"/>
     </row>
@@ -12112,25 +12098,25 @@
     </row>
     <row r="130" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="23" t="s">
+        <v>933</v>
+      </c>
+      <c r="B130" s="24" t="s">
+        <v>934</v>
+      </c>
+      <c r="C130" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D130" s="24" t="s">
         <v>935</v>
       </c>
-      <c r="B130" s="24" t="s">
+      <c r="E130" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F130" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="C130" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D130" s="24" t="s">
+      <c r="G130" s="24" t="s">
         <v>937</v>
-      </c>
-      <c r="E130" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F130" s="24" t="s">
-        <v>938</v>
-      </c>
-      <c r="G130" s="24" t="s">
-        <v>939</v>
       </c>
       <c r="H130" s="24" t="s">
         <v>305</v>
@@ -12139,23 +12125,23 @@
     </row>
     <row r="131" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="23" t="s">
+        <v>862</v>
+      </c>
+      <c r="B131" s="24" t="s">
         <v>863</v>
       </c>
-      <c r="B131" s="24" t="s">
+      <c r="C131" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D131" s="24" t="s">
         <v>864</v>
-      </c>
-      <c r="C131" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D131" s="24" t="s">
-        <v>865</v>
       </c>
       <c r="E131" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F131" s="24"/>
       <c r="G131" s="24" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H131" s="24" t="s">
         <v>305</v>
@@ -12164,25 +12150,25 @@
     </row>
     <row r="132" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="B132" s="24" t="s">
+        <v>919</v>
+      </c>
+      <c r="C132" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D132" s="24" t="s">
         <v>920</v>
       </c>
-      <c r="B132" s="24" t="s">
+      <c r="E132" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F132" s="24" t="s">
         <v>921</v>
       </c>
-      <c r="C132" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D132" s="24" t="s">
+      <c r="G132" s="24" t="s">
         <v>922</v>
-      </c>
-      <c r="E132" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F132" s="24" t="s">
-        <v>923</v>
-      </c>
-      <c r="G132" s="24" t="s">
-        <v>924</v>
       </c>
       <c r="H132" s="24" t="s">
         <v>305</v>
@@ -12191,23 +12177,23 @@
     </row>
     <row r="133" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="23" t="s">
+        <v>866</v>
+      </c>
+      <c r="B133" s="24" t="s">
         <v>867</v>
       </c>
-      <c r="B133" s="24" t="s">
+      <c r="C133" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D133" s="24" t="s">
         <v>868</v>
-      </c>
-      <c r="C133" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D133" s="24" t="s">
-        <v>869</v>
       </c>
       <c r="E133" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F133" s="24"/>
       <c r="G133" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H133" s="24" t="s">
         <v>305</v>
@@ -12337,25 +12323,25 @@
     </row>
     <row r="139" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="B139" s="24" t="s">
+        <v>924</v>
+      </c>
+      <c r="C139" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D139" s="24" t="s">
         <v>925</v>
       </c>
-      <c r="B139" s="24" t="s">
+      <c r="E139" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F139" s="24" t="s">
         <v>926</v>
       </c>
-      <c r="C139" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D139" s="24" t="s">
+      <c r="G139" s="24" t="s">
         <v>927</v>
-      </c>
-      <c r="E139" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F139" s="24" t="s">
-        <v>928</v>
-      </c>
-      <c r="G139" s="24" t="s">
-        <v>929</v>
       </c>
       <c r="H139" s="24" t="s">
         <v>305</v>
@@ -12458,23 +12444,23 @@
     </row>
     <row r="144" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="23" t="s">
+        <v>819</v>
+      </c>
+      <c r="B144" s="24" t="s">
         <v>820</v>
       </c>
-      <c r="B144" s="24" t="s">
+      <c r="C144" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D144" s="24" t="s">
         <v>821</v>
-      </c>
-      <c r="C144" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D144" s="24" t="s">
-        <v>822</v>
       </c>
       <c r="E144" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F144" s="24"/>
       <c r="G144" s="24" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H144" s="24" t="s">
         <v>305</v>
@@ -12483,25 +12469,25 @@
     </row>
     <row r="145" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="23" t="s">
+        <v>870</v>
+      </c>
+      <c r="B145" s="24" t="s">
         <v>871</v>
       </c>
-      <c r="B145" s="24" t="s">
+      <c r="C145" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D145" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="C145" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D145" s="24" t="s">
+      <c r="E145" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F145" s="24" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G145" s="24" t="s">
         <v>873</v>
-      </c>
-      <c r="E145" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F145" s="24" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G145" s="24" t="s">
-        <v>874</v>
       </c>
       <c r="H145" s="24" t="s">
         <v>305</v>
@@ -12606,25 +12592,25 @@
     </row>
     <row r="150" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="23" t="s">
+        <v>874</v>
+      </c>
+      <c r="B150" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="B150" s="24" t="s">
+      <c r="C150" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D150" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="C150" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D150" s="24" t="s">
+      <c r="E150" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="24" t="s">
         <v>877</v>
       </c>
-      <c r="E150" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F150" s="24" t="s">
+      <c r="G150" s="24" t="s">
         <v>878</v>
-      </c>
-      <c r="G150" s="24" t="s">
-        <v>879</v>
       </c>
       <c r="H150" s="24" t="s">
         <v>305</v>
@@ -12704,25 +12690,25 @@
     </row>
     <row r="154" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="23" t="s">
+        <v>938</v>
+      </c>
+      <c r="B154" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="C154" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D154" s="24" t="s">
         <v>940</v>
       </c>
-      <c r="B154" s="24" t="s">
+      <c r="E154" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F154" s="24" t="s">
         <v>941</v>
       </c>
-      <c r="C154" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D154" s="24" t="s">
+      <c r="G154" s="24" t="s">
         <v>942</v>
-      </c>
-      <c r="E154" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F154" s="24" t="s">
-        <v>943</v>
-      </c>
-      <c r="G154" s="24" t="s">
-        <v>944</v>
       </c>
       <c r="H154" s="24" t="s">
         <v>305</v>
@@ -12823,23 +12809,23 @@
     </row>
     <row r="159" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="23" t="s">
+        <v>823</v>
+      </c>
+      <c r="B159" s="24" t="s">
         <v>824</v>
       </c>
-      <c r="B159" s="24" t="s">
+      <c r="C159" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D159" s="24" t="s">
         <v>825</v>
-      </c>
-      <c r="C159" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D159" s="24" t="s">
-        <v>826</v>
       </c>
       <c r="E159" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F159" s="24"/>
       <c r="G159" s="24" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H159" s="24" t="s">
         <v>305</v>
@@ -12871,23 +12857,23 @@
     </row>
     <row r="161" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="23" t="s">
+        <v>827</v>
+      </c>
+      <c r="B161" s="24" t="s">
         <v>828</v>
       </c>
-      <c r="B161" s="24" t="s">
+      <c r="C161" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D161" s="24" t="s">
         <v>829</v>
-      </c>
-      <c r="C161" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D161" s="24" t="s">
-        <v>830</v>
       </c>
       <c r="E161" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F161" s="24"/>
       <c r="G161" s="24" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H161" s="24" t="s">
         <v>305</v>
@@ -13019,23 +13005,23 @@
     </row>
     <row r="167" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="23" t="s">
+        <v>831</v>
+      </c>
+      <c r="B167" s="24" t="s">
         <v>832</v>
       </c>
-      <c r="B167" s="24" t="s">
+      <c r="C167" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D167" s="24" t="s">
         <v>833</v>
-      </c>
-      <c r="C167" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D167" s="24" t="s">
-        <v>834</v>
       </c>
       <c r="E167" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F167" s="24"/>
       <c r="G167" s="24" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H167" s="24" t="s">
         <v>305</v>
@@ -13044,23 +13030,23 @@
     </row>
     <row r="168" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="23" t="s">
+        <v>879</v>
+      </c>
+      <c r="B168" s="24" t="s">
         <v>880</v>
       </c>
-      <c r="B168" s="24" t="s">
+      <c r="C168" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D168" s="24" t="s">
         <v>881</v>
-      </c>
-      <c r="C168" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D168" s="24" t="s">
-        <v>882</v>
       </c>
       <c r="E168" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F168" s="24"/>
       <c r="G168" s="24" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H168" s="24" t="s">
         <v>305</v>
@@ -13144,23 +13130,23 @@
     </row>
     <row r="172" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="23" t="s">
+        <v>961</v>
+      </c>
+      <c r="B172" s="24" t="s">
+        <v>962</v>
+      </c>
+      <c r="C172" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D172" s="24" t="s">
         <v>963</v>
-      </c>
-      <c r="B172" s="24" t="s">
-        <v>964</v>
-      </c>
-      <c r="C172" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D172" s="24" t="s">
-        <v>965</v>
       </c>
       <c r="E172" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F172" s="24"/>
       <c r="G172" s="24" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="H172" s="24" t="s">
         <v>305</v>
@@ -13284,25 +13270,25 @@
     </row>
     <row r="178" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="23" t="s">
+        <v>883</v>
+      </c>
+      <c r="B178" s="24" t="s">
         <v>884</v>
       </c>
-      <c r="B178" s="24" t="s">
+      <c r="C178" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D178" s="24" t="s">
         <v>885</v>
       </c>
-      <c r="C178" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D178" s="24" t="s">
+      <c r="E178" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F178" s="24" t="s">
         <v>886</v>
       </c>
-      <c r="E178" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F178" s="24" t="s">
+      <c r="G178" s="24" t="s">
         <v>887</v>
-      </c>
-      <c r="G178" s="24" t="s">
-        <v>888</v>
       </c>
       <c r="H178" s="24" t="s">
         <v>305</v>
@@ -13386,23 +13372,23 @@
     </row>
     <row r="182" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="23" t="s">
+        <v>888</v>
+      </c>
+      <c r="B182" s="24" t="s">
         <v>889</v>
       </c>
-      <c r="B182" s="24" t="s">
+      <c r="C182" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D182" s="24" t="s">
         <v>890</v>
-      </c>
-      <c r="C182" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D182" s="24" t="s">
-        <v>891</v>
       </c>
       <c r="E182" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F182" s="24"/>
       <c r="G182" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H182" s="24" t="s">
         <v>86</v>
@@ -13411,23 +13397,23 @@
     </row>
     <row r="183" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="B183" s="24" t="s">
         <v>893</v>
       </c>
-      <c r="B183" s="24" t="s">
+      <c r="C183" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D183" s="24" t="s">
         <v>894</v>
-      </c>
-      <c r="C183" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D183" s="24" t="s">
-        <v>895</v>
       </c>
       <c r="E183" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F183" s="24"/>
       <c r="G183" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H183" s="24" t="s">
         <v>86</v>
@@ -13436,23 +13422,23 @@
     </row>
     <row r="184" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="23" t="s">
+        <v>895</v>
+      </c>
+      <c r="B184" s="24" t="s">
         <v>896</v>
       </c>
-      <c r="B184" s="24" t="s">
+      <c r="C184" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D184" s="24" t="s">
         <v>897</v>
-      </c>
-      <c r="C184" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D184" s="24" t="s">
-        <v>898</v>
       </c>
       <c r="E184" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F184" s="24"/>
       <c r="G184" s="24" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="H184" s="24" t="s">
         <v>86</v>
@@ -13546,7 +13532,7 @@
       </c>
       <c r="F188" s="24"/>
       <c r="G188" s="24" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="H188" s="24" t="s">
         <v>86</v>
@@ -13619,7 +13605,7 @@
       </c>
       <c r="F191" s="24"/>
       <c r="G191" s="24" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="H191" s="24" t="s">
         <v>90</v>
@@ -13631,13 +13617,13 @@
         <v>97</v>
       </c>
       <c r="B192" s="24" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="C192" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D192" s="24" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="E192" s="23" t="s">
         <v>84</v>
@@ -13647,7 +13633,7 @@
         <v>98</v>
       </c>
       <c r="H192" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I192" s="24"/>
     </row>
@@ -13755,7 +13741,7 @@
       <c r="C197" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D197" s="29" t="s">
+      <c r="D197" s="26" t="s">
         <v>113</v>
       </c>
       <c r="E197" s="23" t="s">
@@ -13778,8 +13764,8 @@
       <c r="C198" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D198" s="30" t="s">
-        <v>1147</v>
+      <c r="D198" s="24" t="s">
+        <v>1143</v>
       </c>
       <c r="E198" s="23" t="s">
         <v>84</v>
@@ -13795,16 +13781,16 @@
     </row>
     <row r="199" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="23" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B199" s="24" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="C199" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D199" s="24" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="E199" s="23" t="s">
         <v>84</v>
@@ -13818,48 +13804,48 @@
     </row>
     <row r="200" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="23" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B200" s="24" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="C200" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D200" s="24" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="E200" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F200" s="24"/>
       <c r="G200" s="24" t="s">
-        <v>1141</v>
+        <v>1127</v>
       </c>
       <c r="H200" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I200" s="24"/>
     </row>
     <row r="201" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="23" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="B201" s="24" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="C201" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D201" s="24" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="E201" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F201" s="24"/>
       <c r="G201" s="24" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H201" s="24" t="s">
         <v>90</v>
@@ -13868,16 +13854,16 @@
     </row>
     <row r="202" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="23" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B202" s="24" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C202" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D202" s="24" t="s">
         <v>1109</v>
-      </c>
-      <c r="C202" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D202" s="24" t="s">
-        <v>1111</v>
       </c>
       <c r="E202" s="23" t="s">
         <v>84</v>
@@ -13891,23 +13877,23 @@
     </row>
     <row r="203" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="23" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B203" s="24" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="C203" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D203" s="24" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="E203" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F203" s="24"/>
       <c r="G203" s="24" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H203" s="24" t="s">
         <v>90</v>
@@ -13916,91 +13902,91 @@
     </row>
     <row r="204" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="23" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B204" s="30" t="s">
-        <v>1071</v>
+        <v>1084</v>
+      </c>
+      <c r="B204" s="24" t="s">
+        <v>1069</v>
       </c>
       <c r="C204" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D204" s="24" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="E204" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F204" s="24"/>
-      <c r="G204" s="31" t="s">
-        <v>1159</v>
+      <c r="G204" s="27" t="s">
+        <v>1155</v>
       </c>
       <c r="H204" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I204" s="24"/>
     </row>
     <row r="205" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="23" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B205" s="31" t="s">
-        <v>1072</v>
+        <v>1085</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>1070</v>
       </c>
       <c r="C205" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D205" s="31" t="s">
-        <v>1155</v>
+      <c r="D205" s="27" t="s">
+        <v>1151</v>
       </c>
       <c r="E205" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F205" s="24"/>
       <c r="G205" s="24" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="H205" s="24" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="I205" s="24"/>
     </row>
     <row r="206" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="23" t="s">
-        <v>1088</v>
-      </c>
-      <c r="B206" s="30" t="s">
-        <v>1073</v>
+        <v>1086</v>
+      </c>
+      <c r="B206" s="24" t="s">
+        <v>1071</v>
       </c>
       <c r="C206" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D206" s="31" t="s">
-        <v>1157</v>
+      <c r="D206" s="27" t="s">
+        <v>1153</v>
       </c>
       <c r="E206" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F206" s="24" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G206" s="24"/>
       <c r="H206" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I206" s="24"/>
     </row>
     <row r="207" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="23" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="C207" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D207" s="24" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E207" s="23" t="s">
         <v>84</v>
@@ -14014,22 +14000,22 @@
     </row>
     <row r="208" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="23" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="C208" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D208" s="24" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="E208" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F208" s="24" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G208" s="24"/>
       <c r="H208" s="24" t="s">
@@ -14039,16 +14025,16 @@
     </row>
     <row r="209" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="C209" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D209" s="24" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="E209" s="23" t="s">
         <v>84</v>
@@ -14062,66 +14048,66 @@
     </row>
     <row r="210" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="23" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="C210" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D210" s="31" t="s">
-        <v>1149</v>
+      <c r="D210" s="27" t="s">
+        <v>1145</v>
       </c>
       <c r="E210" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F210" s="24" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="G210" s="24"/>
       <c r="H210" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I210" s="24"/>
     </row>
     <row r="211" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="23" t="s">
-        <v>1093</v>
-      </c>
-      <c r="B211" s="31" t="s">
-        <v>1162</v>
+        <v>1091</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>1158</v>
       </c>
       <c r="C211" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D211" s="24" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="E211" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="F211" s="31" t="s">
-        <v>1077</v>
+      <c r="F211" s="27" t="s">
+        <v>1075</v>
       </c>
       <c r="G211" s="24"/>
       <c r="H211" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I211" s="24"/>
     </row>
     <row r="212" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="23" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B212" s="31" t="s">
-        <v>1158</v>
+        <v>1092</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>1154</v>
       </c>
       <c r="C212" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D212" s="24" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="E212" s="23" t="s">
         <v>84</v>
@@ -14129,22 +14115,22 @@
       <c r="F212" s="24"/>
       <c r="G212" s="24"/>
       <c r="H212" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I212" s="24"/>
     </row>
     <row r="213" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="23" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="C213" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D213" s="31" t="s">
-        <v>1150</v>
+      <c r="D213" s="27" t="s">
+        <v>1146</v>
       </c>
       <c r="E213" s="23" t="s">
         <v>84</v>
@@ -14152,22 +14138,22 @@
       <c r="F213" s="24"/>
       <c r="G213" s="24"/>
       <c r="H213" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I213" s="24"/>
     </row>
     <row r="214" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="23" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="C214" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D214" s="31" t="s">
-        <v>1151</v>
+      <c r="D214" s="27" t="s">
+        <v>1147</v>
       </c>
       <c r="E214" s="23" t="s">
         <v>84</v>
@@ -14175,22 +14161,22 @@
       <c r="F214" s="24"/>
       <c r="G214" s="24"/>
       <c r="H214" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I214" s="24"/>
     </row>
     <row r="215" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="23" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="C215" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D215" s="29" t="s">
-        <v>1160</v>
+      <c r="D215" s="26" t="s">
+        <v>1156</v>
       </c>
       <c r="E215" s="23" t="s">
         <v>84</v>
@@ -14198,22 +14184,22 @@
       <c r="F215" s="24"/>
       <c r="G215" s="24"/>
       <c r="H215" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I215" s="24"/>
     </row>
     <row r="216" spans="1:9" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="23" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="B216" s="24" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="C216" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="D216" s="31" t="s">
-        <v>1161</v>
+      <c r="D216" s="27" t="s">
+        <v>1157</v>
       </c>
       <c r="E216" s="23" t="s">
         <v>84</v>
@@ -14221,22 +14207,22 @@
       <c r="F216" s="24"/>
       <c r="G216" s="24"/>
       <c r="H216" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I216" s="24"/>
     </row>
     <row r="217" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="23" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="B217" s="24" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="C217" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D217" s="24" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="E217" s="23" t="s">
         <v>84</v>
@@ -14244,22 +14230,22 @@
       <c r="F217" s="24"/>
       <c r="G217" s="24"/>
       <c r="H217" s="24" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="I217" s="24"/>
     </row>
     <row r="218" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="23" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="C218" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D218" s="24" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="E218" s="23" t="s">
         <v>84</v>
@@ -14273,24 +14259,22 @@
     </row>
     <row r="219" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="23" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B219" s="24" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="C219" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D219" s="24" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="E219" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F219" s="24"/>
-      <c r="G219" s="24" t="s">
-        <v>1130</v>
-      </c>
+      <c r="G219" s="24"/>
       <c r="H219" s="24" t="s">
         <v>90</v>
       </c>
@@ -14298,16 +14282,16 @@
     </row>
     <row r="220" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="23" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="B220" s="24" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="C220" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D220" s="24" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="E220" s="23" t="s">
         <v>84</v>
@@ -14321,23 +14305,23 @@
     </row>
     <row r="221" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="23" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B221" s="24" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C221" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D221" s="24" t="s">
         <v>1134</v>
-      </c>
-      <c r="B221" s="24" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C221" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>1137</v>
       </c>
       <c r="E221" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F221" s="24"/>
       <c r="G221" s="24" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="H221" s="24" t="s">
         <v>90</v>
@@ -14346,23 +14330,23 @@
     </row>
     <row r="222" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="23" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B222" s="24" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="C222" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D222" s="24" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="E222" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F222" s="24"/>
       <c r="G222" s="24" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="H222" s="24" t="s">
         <v>90</v>
@@ -14371,23 +14355,23 @@
     </row>
     <row r="223" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="23" t="s">
+        <v>943</v>
+      </c>
+      <c r="B223" s="24" t="s">
+        <v>944</v>
+      </c>
+      <c r="C223" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D223" s="24" t="s">
         <v>945</v>
-      </c>
-      <c r="B223" s="24" t="s">
-        <v>946</v>
-      </c>
-      <c r="C223" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D223" s="24" t="s">
-        <v>947</v>
       </c>
       <c r="E223" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F223" s="24"/>
       <c r="G223" s="24" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="H223" s="24" t="s">
         <v>121</v>
@@ -14807,25 +14791,25 @@
     </row>
     <row r="241" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="23" t="s">
+        <v>947</v>
+      </c>
+      <c r="B241" s="24" t="s">
+        <v>948</v>
+      </c>
+      <c r="C241" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D241" s="24" t="s">
         <v>949</v>
       </c>
-      <c r="B241" s="24" t="s">
+      <c r="E241" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F241" s="24" t="s">
         <v>950</v>
       </c>
-      <c r="C241" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D241" s="24" t="s">
+      <c r="G241" s="24" t="s">
         <v>951</v>
-      </c>
-      <c r="E241" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="F241" s="24" t="s">
-        <v>952</v>
-      </c>
-      <c r="G241" s="24" t="s">
-        <v>953</v>
       </c>
       <c r="H241" s="24" t="s">
         <v>121</v>
@@ -15542,23 +15526,23 @@
     </row>
     <row r="272" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="23" t="s">
+        <v>952</v>
+      </c>
+      <c r="B272" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="C272" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="D272" s="24" t="s">
         <v>954</v>
-      </c>
-      <c r="B272" s="24" t="s">
-        <v>955</v>
-      </c>
-      <c r="C272" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="D272" s="24" t="s">
-        <v>956</v>
       </c>
       <c r="E272" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F272" s="24"/>
       <c r="G272" s="24" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H272" s="24" t="s">
         <v>121</v>
@@ -15870,16 +15854,16 @@
     </row>
     <row r="286" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="23" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="B286" s="24" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C286" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D286" s="24" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="E286" s="23" t="s">
         <v>84</v>
@@ -15893,22 +15877,22 @@
     </row>
     <row r="287" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="23" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="B287" s="24" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="C287" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D287" s="24" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="E287" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F287" s="24" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="G287" s="24"/>
       <c r="H287" s="24" t="s">
@@ -15918,22 +15902,22 @@
     </row>
     <row r="288" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="23" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="B288" s="24" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C288" s="23" t="s">
         <v>84</v>
       </c>
       <c r="D288" s="24" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="E288" s="23" t="s">
         <v>84</v>
       </c>
       <c r="F288" s="24" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="G288" s="24"/>
       <c r="H288" s="24" t="s">
@@ -15971,7 +15955,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -15979,19 +15963,19 @@
         <v>74</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>986</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>987</v>
+      </c>
+      <c r="D2" s="22" t="s">
         <v>988</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>989</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>990</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>991</v>
-      </c>
-      <c r="F2" s="22" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17042,252 +17026,252 @@
     </row>
     <row r="212" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="214" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="215" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="216" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="220" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="224" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="225" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="229" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="230" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="232" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="233" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="234" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="235" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="236" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="237" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="238" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="239" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="240" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="241" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="242" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="243" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="244" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="245" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="246" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="247" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="248" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
     </row>
     <row r="249" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="250" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="251" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="252" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="253" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="254" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="255" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="256" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="257" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="258" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="259" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="260" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="261" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="262" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17545,38 +17529,38 @@
   <sheetData>
     <row r="1" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
+        <v>992</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>993</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>994</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>995</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>996</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>997</v>
-      </c>
-      <c r="E2" s="22" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
+        <v>997</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>998</v>
+      </c>
+      <c r="C3" s="24" t="s">
         <v>999</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>1000</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>1002</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>305</v>
@@ -17584,19 +17568,19 @@
     </row>
     <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>1003</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>1004</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>1005</v>
-      </c>
       <c r="D4" s="24" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -17738,242 +17722,242 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B2" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B3" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="B4" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B5" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B6" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B8" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B10" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B12" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B13" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B14" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B15" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B16" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B17" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B18" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B19" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B20" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B21" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B22" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B23" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B24" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B25" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B26" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B27" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B28" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B29" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B30" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Documents\GitHub\voc4cat\inbox-excel-vocabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\smhhborg(D_Laufwerk)\Documents\GitHub\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2368" uniqueCount="1193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2375" uniqueCount="1194">
   <si>
     <t>Template version</t>
   </si>
@@ -4154,6 +4154,9 @@
   </si>
   <si>
     <t>A discontinous stirred tank reactor is a reaction vessel which is either operated in batch, feed batch or sometimes even drained batch process.</t>
+  </si>
+  <si>
+    <t>0000-0001-5886-7860 Hendrik Borgelt created this resource</t>
   </si>
 </sst>
 </file>
@@ -4336,7 +4339,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -4410,6 +4413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4617,8 +4621,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="concepts" displayName="concepts" ref="A2:I301">
-  <autoFilter ref="A2:I301"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="concepts" displayName="concepts" ref="A2:I295">
+  <autoFilter ref="A2:I295"/>
   <tableColumns count="9">
     <tableColumn id="1" name="Concept IRI*"/>
     <tableColumn id="2" name="Preferred Label*"/>
@@ -5011,65 +5015,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -5155,8 +5159,8 @@
   </sheetPr>
   <dimension ref="A1:J1172"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:J6"/>
+    <sheetView showGridLines="0" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5168,61 +5172,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="26"/>
@@ -5286,391 +5290,391 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="29"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="29"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
+      <c r="I42" s="29"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="29"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29"/>
+      <c r="F43" s="29"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="29"/>
+      <c r="I44" s="29"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="26"/>
@@ -5683,1096 +5687,1096 @@
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="C48" s="29"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="29"/>
+      <c r="I48" s="29"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="29"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="29"/>
+      <c r="D50" s="29"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="29"/>
+      <c r="I50" s="29"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="B54" s="29"/>
+      <c r="C54" s="29"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="29"/>
+      <c r="C56" s="29"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="29"/>
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="29"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="29"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="29"/>
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="29"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="29"/>
+      <c r="C64" s="29"/>
+      <c r="D64" s="29"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="29"/>
+      <c r="I64" s="29"/>
+      <c r="J64" s="29"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="29"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="29"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="B66" s="29"/>
+      <c r="C66" s="29"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="29"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="29"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
+      <c r="I68" s="29"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="29"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="29"/>
+      <c r="I69" s="29"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="29"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="B72" s="29"/>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="29"/>
+      <c r="I72" s="29"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="29"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="29"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="29"/>
+      <c r="I74" s="29"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="B75" s="29"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="29"/>
+      <c r="I75" s="29"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="B76" s="29"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="29"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="29"/>
+      <c r="I77" s="29"/>
+      <c r="J77" s="29"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="B79" s="29"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="29"/>
+      <c r="I79" s="29"/>
+      <c r="J79" s="29"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="29"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="29"/>
+      <c r="H81" s="29"/>
+      <c r="I81" s="29"/>
+      <c r="J81" s="29"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="29"/>
+      <c r="I82" s="29"/>
+      <c r="J82" s="29"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="29"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="29"/>
+      <c r="I83" s="29"/>
+      <c r="J83" s="29"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="29"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="29"/>
+      <c r="I85" s="29"/>
+      <c r="J85" s="29"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="B86" s="29"/>
+      <c r="C86" s="29"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="29"/>
+      <c r="I86" s="29"/>
+      <c r="J86" s="29"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="B87" s="29"/>
+      <c r="C87" s="29"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="29"/>
+      <c r="I87" s="29"/>
+      <c r="J87" s="29"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="B88" s="29"/>
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="29"/>
+      <c r="H88" s="29"/>
+      <c r="I88" s="29"/>
+      <c r="J88" s="29"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="29"/>
+      <c r="F91" s="29"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="29"/>
+      <c r="F92" s="29"/>
+      <c r="G92" s="29"/>
+      <c r="H92" s="29"/>
+      <c r="I92" s="29"/>
+      <c r="J92" s="29"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="29"/>
+      <c r="C93" s="29"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="29"/>
+      <c r="F93" s="29"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="29"/>
+      <c r="C94" s="29"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
+      <c r="F96" s="29"/>
+      <c r="G96" s="29"/>
+      <c r="H96" s="29"/>
+      <c r="I96" s="29"/>
+      <c r="J96" s="29"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="29"/>
+      <c r="C97" s="29"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="29"/>
+      <c r="F97" s="29"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="29"/>
+      <c r="I97" s="29"/>
+      <c r="J97" s="29"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="29"/>
+      <c r="C98" s="29"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="29"/>
+      <c r="F98" s="29"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="29"/>
+      <c r="C100" s="29"/>
+      <c r="D100" s="29"/>
+      <c r="E100" s="29"/>
+      <c r="F100" s="29"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="29"/>
+      <c r="C101" s="29"/>
+      <c r="D101" s="29"/>
+      <c r="E101" s="29"/>
+      <c r="F101" s="29"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="29"/>
+      <c r="I101" s="29"/>
+      <c r="J101" s="29"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="29"/>
+      <c r="C102" s="29"/>
+      <c r="D102" s="29"/>
+      <c r="E102" s="29"/>
+      <c r="F102" s="29"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="29"/>
+      <c r="I102" s="29"/>
+      <c r="J102" s="29"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="29"/>
+      <c r="C103" s="29"/>
+      <c r="D103" s="29"/>
+      <c r="E103" s="29"/>
+      <c r="F103" s="29"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
+      <c r="F104" s="29"/>
+      <c r="G104" s="29"/>
+      <c r="H104" s="29"/>
+      <c r="I104" s="29"/>
+      <c r="J104" s="29"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="29"/>
+      <c r="C105" s="29"/>
+      <c r="D105" s="29"/>
+      <c r="E105" s="29"/>
+      <c r="F105" s="29"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="29"/>
+      <c r="I105" s="29"/>
+      <c r="J105" s="29"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="29"/>
+      <c r="C107" s="29"/>
+      <c r="D107" s="29"/>
+      <c r="E107" s="29"/>
+      <c r="F107" s="29"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="29"/>
+      <c r="I107" s="29"/>
+      <c r="J107" s="29"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="29"/>
+      <c r="G108" s="29"/>
+      <c r="H108" s="29"/>
+      <c r="I108" s="29"/>
+      <c r="J108" s="29"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="29"/>
+      <c r="E111" s="29"/>
+      <c r="F111" s="29"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="29"/>
+      <c r="I111" s="29"/>
+      <c r="J111" s="29"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="29"/>
+      <c r="F113" s="29"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="29"/>
+      <c r="I113" s="29"/>
+      <c r="J113" s="29"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="29"/>
+      <c r="E114" s="29"/>
+      <c r="F114" s="29"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="29"/>
+      <c r="I114" s="29"/>
+      <c r="J114" s="29"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="29"/>
+      <c r="E115" s="29"/>
+      <c r="F115" s="29"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="29"/>
+      <c r="I115" s="29"/>
+      <c r="J115" s="29"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="29"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="29"/>
+      <c r="F118" s="29"/>
+      <c r="G118" s="29"/>
+      <c r="H118" s="29"/>
+      <c r="I118" s="29"/>
+      <c r="J118" s="29"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="29"/>
+      <c r="E119" s="29"/>
+      <c r="F119" s="29"/>
+      <c r="G119" s="29"/>
+      <c r="H119" s="29"/>
+      <c r="I119" s="29"/>
+      <c r="J119" s="29"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="29"/>
+      <c r="E120" s="29"/>
+      <c r="F120" s="29"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="29"/>
+      <c r="F121" s="29"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
+      <c r="I121" s="29"/>
+      <c r="J121" s="29"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="29"/>
+      <c r="F122" s="29"/>
+      <c r="G122" s="29"/>
+      <c r="H122" s="29"/>
+      <c r="I122" s="29"/>
+      <c r="J122" s="29"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="29"/>
+      <c r="E123" s="29"/>
+      <c r="F123" s="29"/>
+      <c r="G123" s="29"/>
+      <c r="H123" s="29"/>
+      <c r="I123" s="29"/>
+      <c r="J123" s="29"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="29"/>
+      <c r="E124" s="29"/>
+      <c r="F124" s="29"/>
+      <c r="G124" s="29"/>
+      <c r="H124" s="29"/>
+      <c r="I124" s="29"/>
+      <c r="J124" s="29"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
+      <c r="E125" s="29"/>
+      <c r="F125" s="29"/>
+      <c r="G125" s="29"/>
+      <c r="H125" s="29"/>
+      <c r="I125" s="29"/>
+      <c r="J125" s="29"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="29"/>
+      <c r="F126" s="29"/>
+      <c r="G126" s="29"/>
+      <c r="H126" s="29"/>
+      <c r="I126" s="29"/>
+      <c r="J126" s="29"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="29"/>
+      <c r="E127" s="29"/>
+      <c r="F127" s="29"/>
+      <c r="G127" s="29"/>
+      <c r="H127" s="29"/>
+      <c r="I127" s="29"/>
+      <c r="J127" s="29"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="29"/>
+      <c r="F128" s="29"/>
+      <c r="G128" s="29"/>
+      <c r="H128" s="29"/>
+      <c r="I128" s="29"/>
+      <c r="J128" s="29"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="29"/>
+      <c r="F129" s="29"/>
+      <c r="G129" s="29"/>
+      <c r="H129" s="29"/>
+      <c r="I129" s="29"/>
+      <c r="J129" s="29"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="29"/>
+      <c r="F130" s="29"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
+      <c r="B131" s="29"/>
+      <c r="C131" s="29"/>
+      <c r="D131" s="29"/>
+      <c r="E131" s="29"/>
+      <c r="F131" s="29"/>
+      <c r="G131" s="29"/>
+      <c r="H131" s="29"/>
+      <c r="I131" s="29"/>
+      <c r="J131" s="29"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="C133" s="29"/>
+      <c r="D133" s="29"/>
+      <c r="E133" s="29"/>
+      <c r="F133" s="29"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="29"/>
+      <c r="C134" s="29"/>
+      <c r="D134" s="29"/>
+      <c r="E134" s="29"/>
+      <c r="F134" s="29"/>
+      <c r="G134" s="29"/>
+      <c r="H134" s="29"/>
+      <c r="I134" s="29"/>
+      <c r="J134" s="29"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
+      <c r="G135" s="29"/>
+      <c r="H135" s="29"/>
+      <c r="I135" s="29"/>
+      <c r="J135" s="29"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="29"/>
+      <c r="C136" s="29"/>
+      <c r="D136" s="29"/>
+      <c r="E136" s="29"/>
+      <c r="F136" s="29"/>
+      <c r="G136" s="29"/>
+      <c r="H136" s="29"/>
+      <c r="I136" s="29"/>
+      <c r="J136" s="29"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="29"/>
+      <c r="C137" s="29"/>
+      <c r="D137" s="29"/>
+      <c r="E137" s="29"/>
+      <c r="F137" s="29"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="29"/>
+      <c r="C138" s="29"/>
+      <c r="D138" s="29"/>
+      <c r="E138" s="29"/>
+      <c r="F138" s="29"/>
+      <c r="G138" s="29"/>
+      <c r="H138" s="29"/>
+      <c r="I138" s="29"/>
+      <c r="J138" s="29"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
+      <c r="B139" s="29"/>
+      <c r="C139" s="29"/>
+      <c r="D139" s="29"/>
+      <c r="E139" s="29"/>
+      <c r="F139" s="29"/>
+      <c r="G139" s="29"/>
+      <c r="H139" s="29"/>
+      <c r="I139" s="29"/>
+      <c r="J139" s="29"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="29"/>
+      <c r="C140" s="29"/>
+      <c r="D140" s="29"/>
+      <c r="E140" s="29"/>
+      <c r="F140" s="29"/>
+      <c r="G140" s="29"/>
+      <c r="H140" s="29"/>
+      <c r="I140" s="29"/>
+      <c r="J140" s="29"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
+      <c r="B141" s="29"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
+      <c r="B142" s="29"/>
+      <c r="C142" s="29"/>
+      <c r="D142" s="29"/>
+      <c r="E142" s="29"/>
+      <c r="F142" s="29"/>
+      <c r="G142" s="29"/>
+      <c r="H142" s="29"/>
+      <c r="I142" s="29"/>
+      <c r="J142" s="29"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
+      <c r="B143" s="29"/>
+      <c r="C143" s="29"/>
+      <c r="D143" s="29"/>
+      <c r="E143" s="29"/>
+      <c r="F143" s="29"/>
+      <c r="G143" s="29"/>
+      <c r="H143" s="29"/>
+      <c r="I143" s="29"/>
+      <c r="J143" s="29"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
+      <c r="C145" s="29"/>
+      <c r="D145" s="29"/>
+      <c r="E145" s="29"/>
+      <c r="F145" s="29"/>
+      <c r="G145" s="29"/>
+      <c r="H145" s="29"/>
+      <c r="I145" s="29"/>
+      <c r="J145" s="29"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
+      <c r="B146" s="29"/>
+      <c r="C146" s="29"/>
+      <c r="D146" s="29"/>
+      <c r="E146" s="29"/>
+      <c r="F146" s="29"/>
+      <c r="G146" s="29"/>
+      <c r="H146" s="29"/>
+      <c r="I146" s="29"/>
+      <c r="J146" s="29"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
+      <c r="B147" s="29"/>
+      <c r="C147" s="29"/>
+      <c r="D147" s="29"/>
+      <c r="E147" s="29"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+      <c r="I147" s="29"/>
+      <c r="J147" s="29"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
+      <c r="B148" s="29"/>
+      <c r="C148" s="29"/>
+      <c r="D148" s="29"/>
+      <c r="E148" s="29"/>
+      <c r="F148" s="29"/>
+      <c r="G148" s="29"/>
+      <c r="H148" s="29"/>
+      <c r="I148" s="29"/>
+      <c r="J148" s="29"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
+      <c r="B149" s="29"/>
+      <c r="C149" s="29"/>
+      <c r="D149" s="29"/>
+      <c r="E149" s="29"/>
+      <c r="F149" s="29"/>
+      <c r="G149" s="29"/>
+      <c r="H149" s="29"/>
+      <c r="I149" s="29"/>
+      <c r="J149" s="29"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D150" s="16" t="s">
@@ -9033,8 +9037,8 @@
   </sheetPr>
   <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E296" sqref="A296:E299"/>
+    <sheetView tabSelected="1" topLeftCell="E273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15327,7 +15331,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="13" t="s">
         <v>1173</v>
       </c>
@@ -15343,8 +15347,11 @@
       <c r="E289" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H289" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
         <v>1175</v>
       </c>
@@ -15360,8 +15367,11 @@
       <c r="E290" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H290" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
         <v>1176</v>
       </c>
@@ -15377,8 +15387,11 @@
       <c r="E291" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H291" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
         <v>1177</v>
       </c>
@@ -15394,8 +15407,11 @@
       <c r="E292" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H292" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
         <v>1178</v>
       </c>
@@ -15411,8 +15427,11 @@
       <c r="E293" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H293" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
         <v>1179</v>
       </c>
@@ -15428,8 +15447,11 @@
       <c r="E294" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H294" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
         <v>1180</v>
       </c>
@@ -15445,17 +15467,20 @@
       <c r="E295" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H295" s="27" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="13"/>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -4099,9 +4099,6 @@
     <t>https://w3id.org/nfdi4cat/voc4cat_0007101</t>
   </si>
   <si>
-    <t xml:space="preserve">Chemical reactors are often claasified by archtype reactors, which can them be extended which multiple divices and so on. The reactor type characterises the basic behavior of a reactor and thus creates a level of comparability. </t>
-  </si>
-  <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0007102</t>
   </si>
   <si>
@@ -4123,15 +4120,9 @@
     <t>plug flow reactor</t>
   </si>
   <si>
-    <t>An archtype/ideal reactor type, in which a fluid is flowing through the pipe in a plug like manner. A reaction thus takes place over a certain distance in the reactor.</t>
-  </si>
-  <si>
     <t>stirred tank reactor</t>
   </si>
   <si>
-    <t xml:space="preserve">An archtype/ideal reactor type, in which a large volume of fluid is considered to be perfectly mixed and has a certain residence time. Thus contrasting to the plug flow reactor, the reaction does not take place over a certain distance but rather a certain time. </t>
-  </si>
-  <si>
     <t>tubular reactor</t>
   </si>
   <si>
@@ -4157,6 +4148,15 @@
   </si>
   <si>
     <t>0000-0001-5886-7860 Hendrik Borgelt created this resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An abstract concept/ideal reactor type, in which a large volume of fluid is considered to be perfectly mixed and has a certain residence time. Thus contrasting to the plug flow reactor, the reaction does not take place over a certain distance but rather a certain time. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemical reactors are often classified by abstract concept reactors, which can then be extended with multiple devices and so on. The reactor type characterizes the basic behavior of a reactor and thus creates a level of comparability. </t>
+  </si>
+  <si>
+    <t>An abstract concept/ideal reactor type in which a liquid flows uniformly through the tube, resulting in a straight wave/flow front. A reaction thus takes place over a certain distance in the reactor.</t>
   </si>
 </sst>
 </file>
@@ -9037,8 +9037,8 @@
   </sheetPr>
   <dimension ref="A1:I299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E273" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H295" sqref="H295"/>
+    <sheetView tabSelected="1" topLeftCell="A273" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D300" sqref="D300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15342,133 +15342,133 @@
         <v>84</v>
       </c>
       <c r="D289" t="s">
-        <v>1174</v>
+        <v>1192</v>
       </c>
       <c r="E289" t="s">
         <v>84</v>
       </c>
       <c r="H289" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="13" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="B290" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="C290" t="s">
         <v>84</v>
       </c>
       <c r="D290" t="s">
-        <v>1182</v>
+        <v>1193</v>
       </c>
       <c r="E290" t="s">
         <v>84</v>
       </c>
       <c r="H290" s="27" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="13" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="B291" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C291" t="s">
         <v>84</v>
       </c>
       <c r="D291" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="E291" t="s">
         <v>84</v>
       </c>
       <c r="H291" s="27" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="13" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="B292" t="s">
-        <v>1185</v>
+        <v>1182</v>
       </c>
       <c r="C292" t="s">
         <v>84</v>
       </c>
       <c r="D292" t="s">
-        <v>1186</v>
+        <v>1183</v>
       </c>
       <c r="E292" t="s">
         <v>84</v>
       </c>
       <c r="H292" s="27" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="13" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="B293" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="C293" t="s">
         <v>84</v>
       </c>
       <c r="D293" t="s">
-        <v>1188</v>
+        <v>1185</v>
       </c>
       <c r="E293" t="s">
         <v>84</v>
       </c>
       <c r="H293" s="27" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="13" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="B294" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="C294" t="s">
         <v>84</v>
       </c>
       <c r="D294" t="s">
-        <v>1191</v>
+        <v>1188</v>
       </c>
       <c r="E294" t="s">
         <v>84</v>
       </c>
       <c r="H294" s="27" t="s">
-        <v>1193</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="13" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="B295" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C295" t="s">
+        <v>84</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1189</v>
+      </c>
+      <c r="E295" t="s">
+        <v>84</v>
+      </c>
+      <c r="H295" s="27" t="s">
         <v>1190</v>
-      </c>
-      <c r="C295" t="s">
-        <v>84</v>
-      </c>
-      <c r="D295" t="s">
-        <v>1192</v>
-      </c>
-      <c r="E295" t="s">
-        <v>84</v>
-      </c>
-      <c r="H295" s="27" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -4132,9 +4132,6 @@
     <t>A tubular reactor is a subtype of the plugflow reactor, in which opposing to the ideal plug flow behavior, friction is acting on the fluid, thus creating a residence time distribution.</t>
   </si>
   <si>
-    <t>An archtype/ideal reactor type, in which a large volume of fluid is considered to be perfectly mixed and has a certain residence time. Thus contrasting to the plug flow reactor, the reaction does not take place over a certain distance but rather a certain time.</t>
-  </si>
-  <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0007103</t>
   </si>
   <si>
@@ -4157,6 +4154,9 @@
   </si>
   <si>
     <t>0000-0001-5886-7860 Hendrik Borgelt created this resource</t>
+  </si>
+  <si>
+    <t>An abstract concept/ideal reactor type, in which a large volume of fluid is considered to be perfectly mixed and has a certain residence time. Thus contrasting to the plug flow reactor, the reaction does not take place over a certain distance but rather a certain time.</t>
   </si>
 </sst>
 </file>
@@ -9043,7 +9043,7 @@
   <dimension ref="A1:I295"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A275" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G301" sqref="G301"/>
+      <selection activeCell="F307" sqref="F307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -15338,7 +15338,7 @@
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="B289" s="30" t="s">
         <v>721</v>
@@ -15353,12 +15353,12 @@
         <v>84</v>
       </c>
       <c r="H289" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="B290" s="30" t="s">
         <v>1174</v>
@@ -15373,12 +15373,12 @@
         <v>84</v>
       </c>
       <c r="H290" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="B291" s="30" t="s">
         <v>1175</v>
@@ -15387,18 +15387,18 @@
         <v>84</v>
       </c>
       <c r="D291" t="s">
-        <v>1185</v>
+        <v>1193</v>
       </c>
       <c r="E291" t="s">
         <v>84</v>
       </c>
       <c r="H291" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="B292" s="30" t="s">
         <v>1176</v>
@@ -15413,12 +15413,12 @@
         <v>84</v>
       </c>
       <c r="H292" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="B293" s="30" t="s">
         <v>1177</v>
@@ -15433,12 +15433,12 @@
         <v>84</v>
       </c>
       <c r="H293" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="B294" s="30" t="s">
         <v>1178</v>
@@ -15453,12 +15453,12 @@
         <v>84</v>
       </c>
       <c r="H294" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="B295" s="30" t="s">
         <v>1179</v>
@@ -15473,7 +15473,7 @@
         <v>84</v>
       </c>
       <c r="H295" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -686,7 +686,7 @@
     <t xml:space="preserve">An electroanalytical technique based on the measurement of the electromotive force of an electrochemical cell comprised of a measuring and a reference electrode.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007237, htthttps://w3id.org/nfdi4cat/voc4cat_0007208 ps://w3id.org/nfdi4cat/voc4cat_0007212, https://w3id.org/nfdi4cat/voc4cat_0007209 </t>
+    <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007237, https://w3id.org/nfdi4cat/voc4cat_0007208, https://w3id.org/nfdi4cat/voc4cat_0007212, https://w3id.org/nfdi4cat/voc4cat_0007209 </t>
   </si>
   <si>
     <t xml:space="preserve">https://w3id.org/nfdi4cat/voc4cat_0007207</t>
@@ -8724,8 +8724,8 @@
   </sheetPr>
   <dimension ref="A1:I288"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G232" activeCellId="0" sqref="G232"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.57421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschumann\Documents\ontologies\Voc4Cat\next_additions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EEF9EC-5D3A-437F-97A9-5B00E82130E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD85CBE3-B508-42B8-83B2-13394AE2F193}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7260" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4474,7 +4474,7 @@
 https://w3id.org/nfdi4cat/voc4cat_0000178,
 https://w3id.org/nfdi4cat/voc4cat_0000179,
 https://w3id.org/nfdi4cat/voc4cat_0007005,
-https://w3id.org/nfdi4cat/voc4cat_0007006, https://w3id.org/nfdi4cat/voc4cat_0007040, https://w3id.org/nfdi4cat/voc4cat_0007041
+https://w3id.org/nfdi4cat/voc4cat_0007006, https://w3id.org/nfdi4cat/voc4cat_0007040, https://w3id.org/nfdi4cat/voc4cat_0007041,
 https://w3id.org/nfdi4cat/voc4cat_0007101,
 https://w3id.org/nfdi4cat/voc4cat_0007246,
 https://w3id.org/nfdi4cat/voc4cat_0007247</t>
@@ -4734,16 +4734,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -4755,6 +4755,69 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="13">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FFD9EAD3"/>
@@ -4820,69 +4883,6 @@
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4984,14 +4984,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5345,65 +5345,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
@@ -5500,61 +5500,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="30"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
@@ -5618,391 +5618,391 @@
       <c r="J11" s="26"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="28"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="28"/>
-      <c r="E35" s="28"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
-      <c r="J35" s="28"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
-      <c r="J36" s="28"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
-      <c r="J37" s="28"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="28"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="28"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
-      <c r="E39" s="28"/>
-      <c r="F39" s="28"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
-      <c r="J39" s="28"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
-      <c r="J40" s="28"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
-      <c r="J42" s="28"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="28"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="30"/>
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="28"/>
-      <c r="F44" s="28"/>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
-      <c r="J44" s="28"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="28"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="30"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C47" s="26"/>
@@ -6015,1096 +6015,1096 @@
       <c r="J47" s="26"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="28"/>
-      <c r="C49" s="28"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="28"/>
-      <c r="F49" s="28"/>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
-      <c r="J50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="30"/>
+      <c r="D50" s="30"/>
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="28"/>
-      <c r="C51" s="28"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="28"/>
-      <c r="F51" s="28"/>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
-      <c r="J51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="30"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
-      <c r="J52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="30"/>
+      <c r="D52" s="30"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="28"/>
-      <c r="C53" s="28"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="28"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
-      <c r="J53" s="28"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="30"/>
+      <c r="D53" s="30"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+      <c r="I53" s="30"/>
+      <c r="J53" s="30"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="28"/>
-      <c r="C54" s="28"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="28"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
-      <c r="J54" s="28"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="30"/>
+      <c r="D54" s="30"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="30"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+      <c r="I55" s="30"/>
+      <c r="J55" s="30"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="28"/>
-      <c r="C57" s="28"/>
-      <c r="D57" s="28"/>
-      <c r="E57" s="28"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
-      <c r="J57" s="28"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="30"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
-      <c r="J58" s="28"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="28"/>
-      <c r="C59" s="28"/>
-      <c r="D59" s="28"/>
-      <c r="E59" s="28"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
-      <c r="J59" s="28"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="28"/>
-      <c r="E60" s="28"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
-      <c r="J60" s="28"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="28"/>
-      <c r="C61" s="28"/>
-      <c r="D61" s="28"/>
-      <c r="E61" s="28"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
-      <c r="J61" s="28"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="28"/>
-      <c r="C62" s="28"/>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
-      <c r="J62" s="28"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30"/>
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+      <c r="I62" s="30"/>
+      <c r="J62" s="30"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="28"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="28"/>
-      <c r="C64" s="28"/>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30"/>
+      <c r="D64" s="30"/>
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="28"/>
-      <c r="C65" s="28"/>
-      <c r="D65" s="28"/>
-      <c r="E65" s="28"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
-      <c r="J65" s="28"/>
+      <c r="B65" s="30"/>
+      <c r="C65" s="30"/>
+      <c r="D65" s="30"/>
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+      <c r="I65" s="30"/>
+      <c r="J65" s="30"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="28"/>
-      <c r="C66" s="28"/>
-      <c r="D66" s="28"/>
-      <c r="E66" s="28"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
-      <c r="J66" s="28"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="30"/>
+      <c r="D66" s="30"/>
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30"/>
+      <c r="J66" s="30"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="28"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
-      <c r="J67" s="28"/>
+      <c r="B67" s="30"/>
+      <c r="C67" s="30"/>
+      <c r="D67" s="30"/>
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="28"/>
-      <c r="C68" s="28"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="28"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
-      <c r="J68" s="28"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="30"/>
+      <c r="D68" s="30"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="28"/>
-      <c r="C69" s="28"/>
-      <c r="D69" s="28"/>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
-      <c r="J69" s="28"/>
+      <c r="B69" s="30"/>
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="28"/>
-      <c r="C70" s="28"/>
-      <c r="D70" s="28"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
-      <c r="J70" s="28"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="30"/>
+      <c r="D70" s="30"/>
+      <c r="E70" s="30"/>
+      <c r="F70" s="30"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="28"/>
-      <c r="C71" s="28"/>
-      <c r="D71" s="28"/>
-      <c r="E71" s="28"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
-      <c r="J71" s="28"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="30"/>
+      <c r="D71" s="30"/>
+      <c r="E71" s="30"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="28"/>
-      <c r="C72" s="28"/>
-      <c r="D72" s="28"/>
-      <c r="E72" s="28"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
-      <c r="J72" s="28"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="30"/>
+      <c r="D72" s="30"/>
+      <c r="E72" s="30"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="28"/>
-      <c r="C73" s="28"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="28"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
-      <c r="J73" s="28"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="30"/>
+      <c r="D73" s="30"/>
+      <c r="E73" s="30"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+      <c r="J73" s="30"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="28"/>
-      <c r="C74" s="28"/>
-      <c r="D74" s="28"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="28"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
-      <c r="J74" s="28"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="30"/>
+      <c r="D74" s="30"/>
+      <c r="E74" s="30"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="28"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="28"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
-      <c r="J75" s="28"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="30"/>
+      <c r="D75" s="30"/>
+      <c r="E75" s="30"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="28"/>
-      <c r="C76" s="28"/>
-      <c r="D76" s="28"/>
-      <c r="E76" s="28"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="28"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
-      <c r="J76" s="28"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="28"/>
-      <c r="C77" s="28"/>
-      <c r="D77" s="28"/>
-      <c r="E77" s="28"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="28"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
-      <c r="J77" s="28"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30"/>
+      <c r="E77" s="30"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="28"/>
-      <c r="C78" s="28"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="28"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="28"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="30"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="30"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="28"/>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="30"/>
+      <c r="F79" s="30"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
+      <c r="B80" s="30"/>
+      <c r="C80" s="30"/>
+      <c r="D80" s="30"/>
+      <c r="E80" s="30"/>
+      <c r="F80" s="30"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="28"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
-      <c r="E82" s="28"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="28"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
-      <c r="J82" s="28"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="30"/>
+      <c r="E82" s="30"/>
+      <c r="F82" s="30"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="28"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="28"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="28"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
-      <c r="J83" s="28"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30"/>
+      <c r="E83" s="30"/>
+      <c r="F83" s="30"/>
+      <c r="G83" s="30"/>
+      <c r="H83" s="30"/>
+      <c r="I83" s="30"/>
+      <c r="J83" s="30"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="30"/>
+      <c r="D84" s="30"/>
+      <c r="E84" s="30"/>
+      <c r="F84" s="30"/>
+      <c r="G84" s="30"/>
+      <c r="H84" s="30"/>
+      <c r="I84" s="30"/>
+      <c r="J84" s="30"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="28"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
-      <c r="E85" s="28"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="28"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
-      <c r="J85" s="28"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="28"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
-      <c r="E86" s="28"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="28"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
-      <c r="J86" s="28"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30"/>
+      <c r="E86" s="30"/>
+      <c r="F86" s="30"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B87" s="28"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
-      <c r="E87" s="28"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="28"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
-      <c r="J87" s="28"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30"/>
+      <c r="E87" s="30"/>
+      <c r="F87" s="30"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B88" s="28"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="28"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="28"/>
-      <c r="H88" s="28"/>
-      <c r="I88" s="28"/>
-      <c r="J88" s="28"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30"/>
+      <c r="E88" s="30"/>
+      <c r="F88" s="30"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B90" s="27" t="s">
+      <c r="B90" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="28"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
-      <c r="J90" s="28"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30"/>
+      <c r="E90" s="30"/>
+      <c r="F90" s="30"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="28"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
-      <c r="J91" s="28"/>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="28"/>
-      <c r="H92" s="28"/>
-      <c r="I92" s="28"/>
-      <c r="J92" s="28"/>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="28"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
-      <c r="J93" s="28"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="30"/>
+      <c r="D93" s="30"/>
+      <c r="E93" s="30"/>
+      <c r="F93" s="30"/>
+      <c r="G93" s="30"/>
+      <c r="H93" s="30"/>
+      <c r="I93" s="30"/>
+      <c r="J93" s="30"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
-      <c r="E94" s="28"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="28"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
-      <c r="J94" s="28"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="30"/>
+      <c r="D94" s="30"/>
+      <c r="E94" s="30"/>
+      <c r="F94" s="30"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="28"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
-      <c r="J95" s="28"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="30"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B96" s="28"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="28"/>
-      <c r="H96" s="28"/>
-      <c r="I96" s="28"/>
-      <c r="J96" s="28"/>
+      <c r="B96" s="30"/>
+      <c r="C96" s="30"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="28"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="28"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
-      <c r="J97" s="28"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B98" s="28"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28"/>
-      <c r="F98" s="28"/>
-      <c r="G98" s="28"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
-      <c r="J98" s="28"/>
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="30"/>
+      <c r="E98" s="30"/>
+      <c r="F98" s="30"/>
+      <c r="G98" s="30"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="28"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
-      <c r="E99" s="28"/>
-      <c r="F99" s="28"/>
-      <c r="G99" s="28"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
-      <c r="J99" s="28"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="30"/>
+      <c r="E99" s="30"/>
+      <c r="F99" s="30"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B100" s="28"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
-      <c r="E100" s="28"/>
-      <c r="F100" s="28"/>
-      <c r="G100" s="28"/>
-      <c r="H100" s="28"/>
-      <c r="I100" s="28"/>
-      <c r="J100" s="28"/>
+      <c r="B100" s="30"/>
+      <c r="C100" s="30"/>
+      <c r="D100" s="30"/>
+      <c r="E100" s="30"/>
+      <c r="F100" s="30"/>
+      <c r="G100" s="30"/>
+      <c r="H100" s="30"/>
+      <c r="I100" s="30"/>
+      <c r="J100" s="30"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="28"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
-      <c r="E101" s="28"/>
-      <c r="F101" s="28"/>
-      <c r="G101" s="28"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
-      <c r="J101" s="28"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="30"/>
+      <c r="D101" s="30"/>
+      <c r="E101" s="30"/>
+      <c r="F101" s="30"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B102" s="28"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
-      <c r="E102" s="28"/>
-      <c r="F102" s="28"/>
-      <c r="G102" s="28"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
-      <c r="J102" s="28"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="30"/>
+      <c r="E102" s="30"/>
+      <c r="F102" s="30"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B103" s="28"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
-      <c r="E103" s="28"/>
-      <c r="F103" s="28"/>
-      <c r="G103" s="28"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
-      <c r="J103" s="28"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="30"/>
+      <c r="D103" s="30"/>
+      <c r="E103" s="30"/>
+      <c r="F103" s="30"/>
+      <c r="G103" s="30"/>
+      <c r="H103" s="30"/>
+      <c r="I103" s="30"/>
+      <c r="J103" s="30"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B104" s="28"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
-      <c r="E104" s="28"/>
-      <c r="F104" s="28"/>
-      <c r="G104" s="28"/>
-      <c r="H104" s="28"/>
-      <c r="I104" s="28"/>
-      <c r="J104" s="28"/>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="28"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
-      <c r="E105" s="28"/>
-      <c r="F105" s="28"/>
-      <c r="G105" s="28"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
-      <c r="J105" s="28"/>
+      <c r="B105" s="30"/>
+      <c r="C105" s="30"/>
+      <c r="D105" s="30"/>
+      <c r="E105" s="30"/>
+      <c r="F105" s="30"/>
+      <c r="G105" s="30"/>
+      <c r="H105" s="30"/>
+      <c r="I105" s="30"/>
+      <c r="J105" s="30"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="28"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28"/>
-      <c r="F106" s="28"/>
-      <c r="G106" s="28"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
-      <c r="J106" s="28"/>
+      <c r="B106" s="30"/>
+      <c r="C106" s="30"/>
+      <c r="D106" s="30"/>
+      <c r="E106" s="30"/>
+      <c r="F106" s="30"/>
+      <c r="G106" s="30"/>
+      <c r="H106" s="30"/>
+      <c r="I106" s="30"/>
+      <c r="J106" s="30"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="28"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="28"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
-      <c r="J107" s="28"/>
+      <c r="B107" s="30"/>
+      <c r="C107" s="30"/>
+      <c r="D107" s="30"/>
+      <c r="E107" s="30"/>
+      <c r="F107" s="30"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="28"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
-      <c r="E108" s="28"/>
-      <c r="F108" s="28"/>
-      <c r="G108" s="28"/>
-      <c r="H108" s="28"/>
-      <c r="I108" s="28"/>
-      <c r="J108" s="28"/>
+      <c r="B108" s="30"/>
+      <c r="C108" s="30"/>
+      <c r="D108" s="30"/>
+      <c r="E108" s="30"/>
+      <c r="F108" s="30"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B109" s="28"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
-      <c r="E109" s="28"/>
-      <c r="F109" s="28"/>
-      <c r="G109" s="28"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
-      <c r="J109" s="28"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="30"/>
+      <c r="D109" s="30"/>
+      <c r="E109" s="30"/>
+      <c r="F109" s="30"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="28"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
-      <c r="E110" s="28"/>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
-      <c r="J110" s="28"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="30"/>
+      <c r="D110" s="30"/>
+      <c r="E110" s="30"/>
+      <c r="F110" s="30"/>
+      <c r="G110" s="30"/>
+      <c r="H110" s="30"/>
+      <c r="I110" s="30"/>
+      <c r="J110" s="30"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B111" s="28"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="28"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
-      <c r="J111" s="28"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="30"/>
+      <c r="D111" s="30"/>
+      <c r="E111" s="30"/>
+      <c r="F111" s="30"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="28"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="28"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
-      <c r="J112" s="28"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="30"/>
+      <c r="E112" s="30"/>
+      <c r="F112" s="30"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B113" s="28"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+      <c r="E113" s="30"/>
+      <c r="F113" s="30"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="28"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="30"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="30"/>
+      <c r="F114" s="30"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="28"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="30"/>
+      <c r="D115" s="30"/>
+      <c r="E115" s="30"/>
+      <c r="F115" s="30"/>
+      <c r="G115" s="30"/>
+      <c r="H115" s="30"/>
+      <c r="I115" s="30"/>
+      <c r="J115" s="30"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="28"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
-      <c r="E116" s="28"/>
-      <c r="F116" s="28"/>
-      <c r="G116" s="28"/>
-      <c r="H116" s="28"/>
-      <c r="I116" s="28"/>
-      <c r="J116" s="28"/>
+      <c r="B116" s="30"/>
+      <c r="C116" s="30"/>
+      <c r="D116" s="30"/>
+      <c r="E116" s="30"/>
+      <c r="F116" s="30"/>
+      <c r="G116" s="30"/>
+      <c r="H116" s="30"/>
+      <c r="I116" s="30"/>
+      <c r="J116" s="30"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B118" s="27" t="s">
+      <c r="B118" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
-      <c r="E118" s="28"/>
-      <c r="F118" s="28"/>
-      <c r="G118" s="28"/>
-      <c r="H118" s="28"/>
-      <c r="I118" s="28"/>
-      <c r="J118" s="28"/>
+      <c r="C118" s="30"/>
+      <c r="D118" s="30"/>
+      <c r="E118" s="30"/>
+      <c r="F118" s="30"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="28"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
-      <c r="E119" s="28"/>
-      <c r="F119" s="28"/>
-      <c r="G119" s="28"/>
-      <c r="H119" s="28"/>
-      <c r="I119" s="28"/>
-      <c r="J119" s="28"/>
+      <c r="B119" s="30"/>
+      <c r="C119" s="30"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="30"/>
+      <c r="F119" s="30"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B120" s="28"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
-      <c r="E120" s="28"/>
-      <c r="F120" s="28"/>
-      <c r="G120" s="28"/>
-      <c r="H120" s="28"/>
-      <c r="I120" s="28"/>
-      <c r="J120" s="28"/>
+      <c r="B120" s="30"/>
+      <c r="C120" s="30"/>
+      <c r="D120" s="30"/>
+      <c r="E120" s="30"/>
+      <c r="F120" s="30"/>
+      <c r="G120" s="30"/>
+      <c r="H120" s="30"/>
+      <c r="I120" s="30"/>
+      <c r="J120" s="30"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B121" s="28"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
-      <c r="E121" s="28"/>
-      <c r="F121" s="28"/>
-      <c r="G121" s="28"/>
-      <c r="H121" s="28"/>
-      <c r="I121" s="28"/>
-      <c r="J121" s="28"/>
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="30"/>
+      <c r="E121" s="30"/>
+      <c r="F121" s="30"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="28"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
-      <c r="E122" s="28"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="28"/>
-      <c r="H122" s="28"/>
-      <c r="I122" s="28"/>
-      <c r="J122" s="28"/>
+      <c r="B122" s="30"/>
+      <c r="C122" s="30"/>
+      <c r="D122" s="30"/>
+      <c r="E122" s="30"/>
+      <c r="F122" s="30"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B123" s="28"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
-      <c r="E123" s="28"/>
-      <c r="F123" s="28"/>
-      <c r="G123" s="28"/>
-      <c r="H123" s="28"/>
-      <c r="I123" s="28"/>
-      <c r="J123" s="28"/>
+      <c r="B123" s="30"/>
+      <c r="C123" s="30"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="30"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="28"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
-      <c r="E124" s="28"/>
-      <c r="F124" s="28"/>
-      <c r="G124" s="28"/>
-      <c r="H124" s="28"/>
-      <c r="I124" s="28"/>
-      <c r="J124" s="28"/>
+      <c r="B124" s="30"/>
+      <c r="C124" s="30"/>
+      <c r="D124" s="30"/>
+      <c r="E124" s="30"/>
+      <c r="F124" s="30"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B125" s="28"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
-      <c r="E125" s="28"/>
-      <c r="F125" s="28"/>
-      <c r="G125" s="28"/>
-      <c r="H125" s="28"/>
-      <c r="I125" s="28"/>
-      <c r="J125" s="28"/>
+      <c r="B125" s="30"/>
+      <c r="C125" s="30"/>
+      <c r="D125" s="30"/>
+      <c r="E125" s="30"/>
+      <c r="F125" s="30"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="28"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
-      <c r="E126" s="28"/>
-      <c r="F126" s="28"/>
-      <c r="G126" s="28"/>
-      <c r="H126" s="28"/>
-      <c r="I126" s="28"/>
-      <c r="J126" s="28"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
+      <c r="D126" s="30"/>
+      <c r="E126" s="30"/>
+      <c r="F126" s="30"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="28"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
-      <c r="E127" s="28"/>
-      <c r="F127" s="28"/>
-      <c r="G127" s="28"/>
-      <c r="H127" s="28"/>
-      <c r="I127" s="28"/>
-      <c r="J127" s="28"/>
+      <c r="B127" s="30"/>
+      <c r="C127" s="30"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="30"/>
+      <c r="F127" s="30"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="28"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
-      <c r="E128" s="28"/>
-      <c r="F128" s="28"/>
-      <c r="G128" s="28"/>
-      <c r="H128" s="28"/>
-      <c r="I128" s="28"/>
-      <c r="J128" s="28"/>
+      <c r="B128" s="30"/>
+      <c r="C128" s="30"/>
+      <c r="D128" s="30"/>
+      <c r="E128" s="30"/>
+      <c r="F128" s="30"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="28"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
-      <c r="E129" s="28"/>
-      <c r="F129" s="28"/>
-      <c r="G129" s="28"/>
-      <c r="H129" s="28"/>
-      <c r="I129" s="28"/>
-      <c r="J129" s="28"/>
+      <c r="B129" s="30"/>
+      <c r="C129" s="30"/>
+      <c r="D129" s="30"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="30"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="28"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
-      <c r="E130" s="28"/>
-      <c r="F130" s="28"/>
-      <c r="G130" s="28"/>
-      <c r="H130" s="28"/>
-      <c r="I130" s="28"/>
-      <c r="J130" s="28"/>
+      <c r="B130" s="30"/>
+      <c r="C130" s="30"/>
+      <c r="D130" s="30"/>
+      <c r="E130" s="30"/>
+      <c r="F130" s="30"/>
+      <c r="G130" s="30"/>
+      <c r="H130" s="30"/>
+      <c r="I130" s="30"/>
+      <c r="J130" s="30"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="28"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
-      <c r="E131" s="28"/>
-      <c r="F131" s="28"/>
-      <c r="G131" s="28"/>
-      <c r="H131" s="28"/>
-      <c r="I131" s="28"/>
-      <c r="J131" s="28"/>
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="30"/>
+      <c r="F131" s="30"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="27" t="s">
+      <c r="B133" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28"/>
-      <c r="F133" s="28"/>
-      <c r="G133" s="28"/>
-      <c r="H133" s="28"/>
-      <c r="I133" s="28"/>
-      <c r="J133" s="28"/>
+      <c r="C133" s="30"/>
+      <c r="D133" s="30"/>
+      <c r="E133" s="30"/>
+      <c r="F133" s="30"/>
+      <c r="G133" s="30"/>
+      <c r="H133" s="30"/>
+      <c r="I133" s="30"/>
+      <c r="J133" s="30"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
-      <c r="E134" s="28"/>
-      <c r="F134" s="28"/>
-      <c r="G134" s="28"/>
-      <c r="H134" s="28"/>
-      <c r="I134" s="28"/>
-      <c r="J134" s="28"/>
+      <c r="B134" s="30"/>
+      <c r="C134" s="30"/>
+      <c r="D134" s="30"/>
+      <c r="E134" s="30"/>
+      <c r="F134" s="30"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
-      <c r="G135" s="28"/>
-      <c r="H135" s="28"/>
-      <c r="I135" s="28"/>
-      <c r="J135" s="28"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
-      <c r="E136" s="28"/>
-      <c r="F136" s="28"/>
-      <c r="G136" s="28"/>
-      <c r="H136" s="28"/>
-      <c r="I136" s="28"/>
-      <c r="J136" s="28"/>
+      <c r="B136" s="30"/>
+      <c r="C136" s="30"/>
+      <c r="D136" s="30"/>
+      <c r="E136" s="30"/>
+      <c r="F136" s="30"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
-      <c r="E137" s="28"/>
-      <c r="F137" s="28"/>
-      <c r="G137" s="28"/>
-      <c r="H137" s="28"/>
-      <c r="I137" s="28"/>
-      <c r="J137" s="28"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
-      <c r="E138" s="28"/>
-      <c r="F138" s="28"/>
-      <c r="G138" s="28"/>
-      <c r="H138" s="28"/>
-      <c r="I138" s="28"/>
-      <c r="J138" s="28"/>
+      <c r="B138" s="30"/>
+      <c r="C138" s="30"/>
+      <c r="D138" s="30"/>
+      <c r="E138" s="30"/>
+      <c r="F138" s="30"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
-      <c r="E139" s="28"/>
-      <c r="F139" s="28"/>
-      <c r="G139" s="28"/>
-      <c r="H139" s="28"/>
-      <c r="I139" s="28"/>
-      <c r="J139" s="28"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
-      <c r="E140" s="28"/>
-      <c r="F140" s="28"/>
-      <c r="G140" s="28"/>
-      <c r="H140" s="28"/>
-      <c r="I140" s="28"/>
-      <c r="J140" s="28"/>
+      <c r="B140" s="30"/>
+      <c r="C140" s="30"/>
+      <c r="D140" s="30"/>
+      <c r="E140" s="30"/>
+      <c r="F140" s="30"/>
+      <c r="G140" s="30"/>
+      <c r="H140" s="30"/>
+      <c r="I140" s="30"/>
+      <c r="J140" s="30"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
-      <c r="E141" s="28"/>
-      <c r="F141" s="28"/>
-      <c r="G141" s="28"/>
-      <c r="H141" s="28"/>
-      <c r="I141" s="28"/>
-      <c r="J141" s="28"/>
+      <c r="B141" s="30"/>
+      <c r="C141" s="30"/>
+      <c r="D141" s="30"/>
+      <c r="E141" s="30"/>
+      <c r="F141" s="30"/>
+      <c r="G141" s="30"/>
+      <c r="H141" s="30"/>
+      <c r="I141" s="30"/>
+      <c r="J141" s="30"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
-      <c r="E142" s="28"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="28"/>
-      <c r="H142" s="28"/>
-      <c r="I142" s="28"/>
-      <c r="J142" s="28"/>
+      <c r="B142" s="30"/>
+      <c r="C142" s="30"/>
+      <c r="D142" s="30"/>
+      <c r="E142" s="30"/>
+      <c r="F142" s="30"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
     </row>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
-      <c r="E143" s="28"/>
-      <c r="F143" s="28"/>
-      <c r="G143" s="28"/>
-      <c r="H143" s="28"/>
-      <c r="I143" s="28"/>
-      <c r="J143" s="28"/>
+      <c r="B143" s="30"/>
+      <c r="C143" s="30"/>
+      <c r="D143" s="30"/>
+      <c r="E143" s="30"/>
+      <c r="F143" s="30"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="29" t="s">
+      <c r="B145" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
+      <c r="C145" s="30"/>
+      <c r="D145" s="30"/>
+      <c r="E145" s="30"/>
+      <c r="F145" s="30"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
+      <c r="B146" s="30"/>
+      <c r="C146" s="30"/>
+      <c r="D146" s="30"/>
+      <c r="E146" s="30"/>
+      <c r="F146" s="30"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
+      <c r="B147" s="30"/>
+      <c r="C147" s="30"/>
+      <c r="D147" s="30"/>
+      <c r="E147" s="30"/>
+      <c r="F147" s="30"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
-      <c r="E148" s="28"/>
-      <c r="F148" s="28"/>
-      <c r="G148" s="28"/>
-      <c r="H148" s="28"/>
-      <c r="I148" s="28"/>
-      <c r="J148" s="28"/>
+      <c r="B148" s="30"/>
+      <c r="C148" s="30"/>
+      <c r="D148" s="30"/>
+      <c r="E148" s="30"/>
+      <c r="F148" s="30"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
     </row>
     <row r="149" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
-      <c r="E149" s="28"/>
-      <c r="F149" s="28"/>
-      <c r="G149" s="28"/>
-      <c r="H149" s="28"/>
-      <c r="I149" s="28"/>
-      <c r="J149" s="28"/>
+      <c r="B149" s="30"/>
+      <c r="C149" s="30"/>
+      <c r="D149" s="30"/>
+      <c r="E149" s="30"/>
+      <c r="F149" s="30"/>
+      <c r="G149" s="30"/>
+      <c r="H149" s="30"/>
+      <c r="I149" s="30"/>
+      <c r="J149" s="30"/>
     </row>
     <row r="150" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D150" s="16" t="s">
@@ -8154,32 +8154,32 @@
     <mergeCell ref="B12:J46"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B4 B48:B88">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="12" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B46">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(B90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(B118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(B133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B149">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(B145))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9365,7 +9365,7 @@
   </sheetPr>
   <dimension ref="A1:I319"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C298" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C307" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G307" sqref="G307"/>
     </sheetView>
   </sheetViews>
@@ -15432,7 +15432,7 @@
       <c r="E283" t="s">
         <v>84</v>
       </c>
-      <c r="G283" s="31" t="s">
+      <c r="G283" s="28" t="s">
         <v>1266</v>
       </c>
       <c r="H283" t="s">
@@ -15616,7 +15616,7 @@
       <c r="E291" t="s">
         <v>84</v>
       </c>
-      <c r="G291" s="31" t="s">
+      <c r="G291" s="28" t="s">
         <v>1261</v>
       </c>
       <c r="H291" t="s">
@@ -15990,7 +15990,7 @@
       <c r="E307" t="s">
         <v>84</v>
       </c>
-      <c r="G307" s="31" t="s">
+      <c r="G307" s="28" t="s">
         <v>1267</v>
       </c>
       <c r="H307" t="s">
@@ -16062,7 +16062,7 @@
       <c r="E310" t="s">
         <v>84</v>
       </c>
-      <c r="G310" s="31" t="s">
+      <c r="G310" s="28" t="s">
         <v>1260</v>
       </c>
       <c r="H310" t="s">
@@ -16070,7 +16070,7 @@
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A311" s="30" t="s">
+      <c r="A311" s="27" t="s">
         <v>1231</v>
       </c>
       <c r="B311" t="s">
@@ -16090,7 +16090,7 @@
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A312" s="30" t="s">
+      <c r="A312" s="27" t="s">
         <v>1234</v>
       </c>
       <c r="B312" t="s">
@@ -16113,7 +16113,7 @@
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A313" s="30" t="s">
+      <c r="A313" s="27" t="s">
         <v>1238</v>
       </c>
       <c r="B313" t="s">
@@ -16159,7 +16159,7 @@
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A315" s="30" t="s">
+      <c r="A315" s="27" t="s">
         <v>1246</v>
       </c>
       <c r="B315" t="s">
@@ -16185,7 +16185,7 @@
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A316" s="30" t="s">
+      <c r="A316" s="27" t="s">
         <v>1265</v>
       </c>
       <c r="B316" t="s">
@@ -16208,7 +16208,7 @@
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A317" s="30" t="s">
+      <c r="A317" s="27" t="s">
         <v>1251</v>
       </c>
       <c r="B317" t="s">
@@ -16228,7 +16228,7 @@
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A318" s="30" t="s">
+      <c r="A318" s="27" t="s">
         <v>1254</v>
       </c>
       <c r="B318" t="s">
@@ -16248,7 +16248,7 @@
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A319" s="30" t="s">
+      <c r="A319" s="27" t="s">
         <v>1257</v>
       </c>
       <c r="B319" t="s">

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jschumann\Documents\ontologies\Voc4Cat\next_additions\25_01_20_revision1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3491D7D-7A0E-44A6-96AD-A95D17A6516D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC62046-5428-42E4-A090-B0406E86DE12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7260" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4462,13 +4462,13 @@
     <t>A detailed description of the process leading from the reactants to the products of a reaction, including a description as complete as possible of the composition, structure, energy and other properties of reaction intermediates, products and transition states.</t>
   </si>
   <si>
+    <t>The fractions of atoms of a specific chemical element located at the surface of a material versus the total number of atoms of this specific element in the material.</t>
+  </si>
+  <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0000003,
 https://w3id.org/nfdi4cat/voc4cat_0000005,
 https://w3id.org/nfdi4cat/voc4cat_0000024,
-https://w3id.org/nfdi4cat/voc4cat_0000194,</t>
-  </si>
-  <si>
-    <t>The fractions of atoms of a specific chemical element located at the surface of a material versus the total number of atoms of this specific element in the material.</t>
+https://w3id.org/nfdi4cat/voc4cat_0000194</t>
   </si>
 </sst>
 </file>
@@ -4747,6 +4747,69 @@
   </cellStyles>
   <dxfs count="13">
     <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" wrapText="1"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="center" wrapText="1"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FFD9EAD3"/>
       </font>
@@ -4811,69 +4874,6 @@
           <bgColor rgb="FFD9EAD3"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" wrapText="1"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="center" wrapText="1"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4975,14 +4975,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="collections" displayName="collections" ref="A2:E20" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A2:E20" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Collection IRI" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Preferred Label" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Definition" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Member IRIs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Provenance" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8145,32 +8145,32 @@
     <mergeCell ref="B12:J46"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:B4 B48:B88">
-    <cfRule type="containsBlanks" dxfId="5" priority="7">
+    <cfRule type="containsBlanks" dxfId="12" priority="7">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:B46">
-    <cfRule type="containsBlanks" dxfId="4" priority="6">
+    <cfRule type="containsBlanks" dxfId="11" priority="6">
       <formula>LEN(TRIM(B12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B90">
-    <cfRule type="containsBlanks" dxfId="3" priority="4">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(B90))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" dxfId="9" priority="3">
       <formula>LEN(TRIM(B118))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsBlanks" dxfId="1" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="2">
       <formula>LEN(TRIM(B133))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B145:B149">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(B145))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9356,8 +9356,8 @@
   </sheetPr>
   <dimension ref="A1:I318"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D318" sqref="D318"/>
+    <sheetView tabSelected="1" topLeftCell="C287" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G291" sqref="G291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -15608,7 +15608,7 @@
         <v>84</v>
       </c>
       <c r="G291" s="28" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H291" t="s">
         <v>94</v>
@@ -16229,7 +16229,7 @@
         <v>84</v>
       </c>
       <c r="D318" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="E318" t="s">
         <v>84</v>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-smb3\home$\nmoust\Desktop\Office-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAD7B8AE-E61C-4594-8EB7-59445DF2142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA616F-50FA-4375-B664-DFDD2E104E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="600" windowWidth="19200" windowHeight="21000" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="1483">
   <si>
     <t>Template version</t>
   </si>
@@ -4823,15 +4823,6 @@
     <t>https://w3id.org/nfdi4cat/voc4cat_</t>
   </si>
   <si>
-    <t>ChemCatChem collection</t>
-  </si>
-  <si>
-    <t>A collection of concepts most often appearing as publication keywords in the journal ChemCatChem (Wiley).</t>
-  </si>
-  <si>
-    <t>voc4cat:0000195</t>
-  </si>
-  <si>
     <t>voc4cat:0000196</t>
   </si>
   <si>
@@ -4887,12 +4878,6 @@
   </si>
   <si>
     <t>voc4cat:0000214</t>
-  </si>
-  <si>
-    <t>voc4cat:0000196, voc4cat:0000197, voc4cat:0000198, voc4cat:0000199, voc4cat:0000200, voc4cat:0000201, voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208, voc4cat:0000209, voc4cat:0000210, voc4cat:0000211, voc4cat:0000212, voc4cat:0000213, voc4cat:0000214</t>
-  </si>
-  <si>
-    <t>0000-0002-6242-2167 Nikolaos G. Moustakas created the collection</t>
   </si>
   <si>
     <t>mesoporous material</t>
@@ -10084,7 +10069,7 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C183" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C183" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F189" sqref="F189"/>
     </sheetView>
   </sheetViews>
@@ -14465,7 +14450,7 @@
       </c>
       <c r="F183" s="26"/>
       <c r="G183" s="26" t="s">
-        <v>1483</v>
+        <v>1478</v>
       </c>
       <c r="H183" s="26" t="s">
         <v>1240</v>
@@ -14565,7 +14550,7 @@
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="26" t="s">
-        <v>1484</v>
+        <v>1479</v>
       </c>
       <c r="H187" s="26" t="s">
         <v>1240</v>
@@ -14590,7 +14575,7 @@
       </c>
       <c r="F188" s="26"/>
       <c r="G188" s="26" t="s">
-        <v>1487</v>
+        <v>1482</v>
       </c>
       <c r="H188" s="26" t="s">
         <v>1240</v>
@@ -14615,7 +14600,7 @@
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="26" t="s">
-        <v>1486</v>
+        <v>1481</v>
       </c>
       <c r="H189" s="26" t="s">
         <v>93</v>
@@ -14690,7 +14675,7 @@
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="26" t="s">
-        <v>1485</v>
+        <v>1480</v>
       </c>
       <c r="H192" s="26" t="s">
         <v>93</v>
@@ -18815,7 +18800,7 @@
     </row>
     <row r="367" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="35" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="B367" s="22" t="s">
         <v>346</v>
@@ -18824,7 +18809,7 @@
         <v>84</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="E367" s="35" t="s">
         <v>84</v>
@@ -18835,22 +18820,22 @@
     </row>
     <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="35" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="B368" s="35" t="s">
-        <v>1477</v>
+        <v>1472</v>
       </c>
       <c r="C368" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>1457</v>
+        <v>1452</v>
       </c>
       <c r="E368" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F368" s="35" t="s">
-        <v>1475</v>
+        <v>1470</v>
       </c>
       <c r="H368" s="37" t="s">
         <v>93</v>
@@ -18858,16 +18843,16 @@
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="35" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="C369" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D369" s="22" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
       <c r="E369" s="35" t="s">
         <v>84</v>
@@ -18878,7 +18863,7 @@
     </row>
     <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="35" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="B370" s="22" t="s">
         <v>357</v>
@@ -18887,7 +18872,7 @@
         <v>84</v>
       </c>
       <c r="D370" s="37" t="s">
-        <v>1459</v>
+        <v>1454</v>
       </c>
       <c r="E370" s="35" t="s">
         <v>84</v>
@@ -18898,22 +18883,22 @@
     </row>
     <row r="371" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A371" s="35" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="B371" s="35" t="s">
-        <v>1478</v>
+        <v>1473</v>
       </c>
       <c r="C371" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="E371" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F371" s="35" t="s">
-        <v>1476</v>
+        <v>1471</v>
       </c>
       <c r="H371" s="37" t="s">
         <v>93</v>
@@ -18921,22 +18906,22 @@
     </row>
     <row r="372" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A372" s="35" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="B372" s="35" t="s">
-        <v>1443</v>
+        <v>1438</v>
       </c>
       <c r="C372" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D372" s="37" t="s">
-        <v>1461</v>
+        <v>1456</v>
       </c>
       <c r="E372" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F372" s="35" t="s">
-        <v>1479</v>
+        <v>1474</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>93</v>
@@ -18944,22 +18929,22 @@
     </row>
     <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="35" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>1481</v>
+        <v>1476</v>
       </c>
       <c r="C373" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D373" s="37" t="s">
-        <v>1462</v>
+        <v>1457</v>
       </c>
       <c r="E373" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F373" s="37" t="s">
-        <v>1480</v>
+        <v>1475</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>93</v>
@@ -18967,16 +18952,16 @@
     </row>
     <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="35" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="B374" s="35" t="s">
-        <v>1444</v>
+        <v>1439</v>
       </c>
       <c r="C374" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>1463</v>
+        <v>1458</v>
       </c>
       <c r="E374" s="35" t="s">
         <v>84</v>
@@ -18987,16 +18972,16 @@
     </row>
     <row r="375" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="35" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>1445</v>
+        <v>1440</v>
       </c>
       <c r="C375" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D375" s="22" t="s">
-        <v>1464</v>
+        <v>1459</v>
       </c>
       <c r="E375" s="35" t="s">
         <v>84</v>
@@ -19007,16 +18992,16 @@
     </row>
     <row r="376" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="35" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="B376" s="35" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="C376" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D376" s="39" t="s">
-        <v>1465</v>
+        <v>1460</v>
       </c>
       <c r="E376" s="35" t="s">
         <v>84</v>
@@ -19027,22 +19012,22 @@
     </row>
     <row r="377" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A377" s="35" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>1447</v>
+        <v>1442</v>
       </c>
       <c r="C377" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D377" s="22" t="s">
-        <v>1466</v>
+        <v>1461</v>
       </c>
       <c r="E377" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F377" s="35" t="s">
-        <v>1482</v>
+        <v>1477</v>
       </c>
       <c r="H377" s="37" t="s">
         <v>93</v>
@@ -19050,16 +19035,16 @@
     </row>
     <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="35" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>1448</v>
+        <v>1443</v>
       </c>
       <c r="C378" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D378" s="22" t="s">
-        <v>1467</v>
+        <v>1462</v>
       </c>
       <c r="E378" s="35" t="s">
         <v>84</v>
@@ -19070,16 +19055,16 @@
     </row>
     <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="35" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>1449</v>
+        <v>1444</v>
       </c>
       <c r="C379" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D379" s="37" t="s">
-        <v>1468</v>
+        <v>1463</v>
       </c>
       <c r="E379" s="35" t="s">
         <v>84</v>
@@ -19090,16 +19075,16 @@
     </row>
     <row r="380" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="35" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="B380" s="35" t="s">
-        <v>1450</v>
+        <v>1445</v>
       </c>
       <c r="C380" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D380" s="37" t="s">
-        <v>1469</v>
+        <v>1464</v>
       </c>
       <c r="E380" s="35" t="s">
         <v>84</v>
@@ -19110,16 +19095,16 @@
     </row>
     <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="35" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="B381" s="35" t="s">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="C381" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D381" s="37" t="s">
-        <v>1470</v>
+        <v>1465</v>
       </c>
       <c r="E381" s="35" t="s">
         <v>84</v>
@@ -19130,16 +19115,16 @@
     </row>
     <row r="382" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="35" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="B382" s="35" t="s">
-        <v>1452</v>
+        <v>1447</v>
       </c>
       <c r="C382" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D382" s="39" t="s">
-        <v>1471</v>
+        <v>1466</v>
       </c>
       <c r="E382" s="35" t="s">
         <v>84</v>
@@ -19150,16 +19135,16 @@
     </row>
     <row r="383" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="35" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="B383" s="35" t="s">
-        <v>1453</v>
+        <v>1448</v>
       </c>
       <c r="C383" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1472</v>
+        <v>1467</v>
       </c>
       <c r="E383" s="35" t="s">
         <v>84</v>
@@ -19170,16 +19155,16 @@
     </row>
     <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="35" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>1454</v>
+        <v>1449</v>
       </c>
       <c r="C384" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>1473</v>
+        <v>1468</v>
       </c>
       <c r="E384" s="35" t="s">
         <v>84</v>
@@ -19190,16 +19175,16 @@
     </row>
     <row r="385" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="35" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="B385" s="35" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="C385" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D385" s="39" t="s">
-        <v>1474</v>
+        <v>1469</v>
       </c>
       <c r="E385" s="35" t="s">
         <v>84</v>
@@ -20308,8 +20293,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20377,22 +20362,12 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1419</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>1440</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>1441</v>
-      </c>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-smb3\home$\nmoust\Desktop\Office-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EA616F-50FA-4375-B664-DFDD2E104E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC810A69-691B-4B9E-A740-132092F1FA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2636" uniqueCount="1483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2641" uniqueCount="1488">
   <si>
     <t>Template version</t>
   </si>
@@ -4823,61 +4823,16 @@
     <t>https://w3id.org/nfdi4cat/voc4cat_</t>
   </si>
   <si>
-    <t>voc4cat:0000196</t>
-  </si>
-  <si>
-    <t>voc4cat:0000197</t>
-  </si>
-  <si>
-    <t>voc4cat:0000198</t>
-  </si>
-  <si>
-    <t>voc4cat:0000199</t>
-  </si>
-  <si>
-    <t>voc4cat:0000200</t>
-  </si>
-  <si>
-    <t>voc4cat:0000201</t>
-  </si>
-  <si>
-    <t>voc4cat:0000202</t>
-  </si>
-  <si>
-    <t>voc4cat:0000203</t>
-  </si>
-  <si>
-    <t>voc4cat:0000204</t>
-  </si>
-  <si>
-    <t>voc4cat:0000205</t>
-  </si>
-  <si>
-    <t>voc4cat:0000206</t>
-  </si>
-  <si>
-    <t>voc4cat:0000207</t>
-  </si>
-  <si>
-    <t>voc4cat:0000208</t>
-  </si>
-  <si>
-    <t>voc4cat:0000209</t>
-  </si>
-  <si>
-    <t>voc4cat:0000210</t>
-  </si>
-  <si>
-    <t>voc4cat:0000211</t>
-  </si>
-  <si>
-    <t>voc4cat:0000212</t>
-  </si>
-  <si>
-    <t>voc4cat:0000213</t>
-  </si>
-  <si>
-    <t>voc4cat:0000214</t>
+    <t>ChemCatChem collection</t>
+  </si>
+  <si>
+    <t>A collection of concepts most often appearing as publication keywords in the journal ChemCatChem (Wiley).</t>
+  </si>
+  <si>
+    <t>voc4cat:0000196, voc4cat:0000197, voc4cat:0000198, voc4cat:0000199, voc4cat:0000200, voc4cat:0000201, voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208, voc4cat:0000209, voc4cat:0000210, voc4cat:0000211, voc4cat:0000212, voc4cat:0000213, voc4cat:0000214</t>
+  </si>
+  <si>
+    <t>0000-0002-6242-2167 Nikolaos G. Moustakas created the collection</t>
   </si>
   <si>
     <t>mesoporous material</t>
@@ -5173,6 +5128,66 @@
 voc4cat:0007261 (peak area),
 voc4cat:0007262 (membrane thickness),
 voc4cat:0007263 (total faradaic efficiency), voc4cat:0000211, voc4cat:0000212, voc4cat:0000213, voc4cat:0000214</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000196</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000197</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000198</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000199</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000200</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000201</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000202</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000203</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000204</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000205</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000206</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000207</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000208</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000209</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000210</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000211</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000212</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000213</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000214</t>
+  </si>
+  <si>
+    <t>https://w3id.org/nfdi4cat/voc4cat_0000195</t>
   </si>
 </sst>
 </file>
@@ -10069,8 +10084,8 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView topLeftCell="C183" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F189" sqref="F189"/>
+    <sheetView topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14450,7 +14465,7 @@
       </c>
       <c r="F183" s="26"/>
       <c r="G183" s="26" t="s">
-        <v>1478</v>
+        <v>1463</v>
       </c>
       <c r="H183" s="26" t="s">
         <v>1240</v>
@@ -14550,7 +14565,7 @@
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="26" t="s">
-        <v>1479</v>
+        <v>1464</v>
       </c>
       <c r="H187" s="26" t="s">
         <v>1240</v>
@@ -14575,7 +14590,7 @@
       </c>
       <c r="F188" s="26"/>
       <c r="G188" s="26" t="s">
-        <v>1482</v>
+        <v>1467</v>
       </c>
       <c r="H188" s="26" t="s">
         <v>1240</v>
@@ -14600,7 +14615,7 @@
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="26" t="s">
-        <v>1481</v>
+        <v>1466</v>
       </c>
       <c r="H189" s="26" t="s">
         <v>93</v>
@@ -14675,7 +14690,7 @@
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="26" t="s">
-        <v>1480</v>
+        <v>1465</v>
       </c>
       <c r="H192" s="26" t="s">
         <v>93</v>
@@ -18776,7 +18791,7 @@
       <c r="I365" s="36"/>
     </row>
     <row r="366" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A366" s="36" t="s">
+      <c r="A366" s="25" t="s">
         <v>571</v>
       </c>
       <c r="B366" s="30" t="s">
@@ -18799,8 +18814,8 @@
       <c r="I366" s="36"/>
     </row>
     <row r="367" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A367" s="35" t="s">
-        <v>1418</v>
+      <c r="A367" s="25" t="s">
+        <v>1468</v>
       </c>
       <c r="B367" s="22" t="s">
         <v>346</v>
@@ -18809,7 +18824,7 @@
         <v>84</v>
       </c>
       <c r="D367" s="22" t="s">
-        <v>1451</v>
+        <v>1436</v>
       </c>
       <c r="E367" s="35" t="s">
         <v>84</v>
@@ -18819,40 +18834,40 @@
       </c>
     </row>
     <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A368" s="35" t="s">
-        <v>1419</v>
+      <c r="A368" s="25" t="s">
+        <v>1469</v>
       </c>
       <c r="B368" s="35" t="s">
-        <v>1472</v>
+        <v>1457</v>
       </c>
       <c r="C368" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D368" s="37" t="s">
-        <v>1452</v>
+        <v>1437</v>
       </c>
       <c r="E368" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F368" s="35" t="s">
-        <v>1470</v>
+        <v>1455</v>
       </c>
       <c r="H368" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A369" s="35" t="s">
-        <v>1420</v>
+      <c r="A369" s="25" t="s">
+        <v>1470</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>1437</v>
+        <v>1422</v>
       </c>
       <c r="C369" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D369" s="22" t="s">
-        <v>1453</v>
+        <v>1438</v>
       </c>
       <c r="E369" s="35" t="s">
         <v>84</v>
@@ -18862,8 +18877,8 @@
       </c>
     </row>
     <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A370" s="35" t="s">
-        <v>1421</v>
+      <c r="A370" s="25" t="s">
+        <v>1471</v>
       </c>
       <c r="B370" s="22" t="s">
         <v>357</v>
@@ -18872,7 +18887,7 @@
         <v>84</v>
       </c>
       <c r="D370" s="37" t="s">
-        <v>1454</v>
+        <v>1439</v>
       </c>
       <c r="E370" s="35" t="s">
         <v>84</v>
@@ -18882,86 +18897,86 @@
       </c>
     </row>
     <row r="371" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A371" s="35" t="s">
-        <v>1422</v>
+      <c r="A371" s="25" t="s">
+        <v>1472</v>
       </c>
       <c r="B371" s="35" t="s">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="C371" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D371" s="38" t="s">
-        <v>1455</v>
+        <v>1440</v>
       </c>
       <c r="E371" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F371" s="35" t="s">
-        <v>1471</v>
+        <v>1456</v>
       </c>
       <c r="H371" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="372" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A372" s="35" t="s">
+      <c r="A372" s="25" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B372" s="35" t="s">
         <v>1423</v>
       </c>
-      <c r="B372" s="35" t="s">
-        <v>1438</v>
-      </c>
       <c r="C372" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D372" s="37" t="s">
-        <v>1456</v>
+        <v>1441</v>
       </c>
       <c r="E372" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F372" s="35" t="s">
-        <v>1474</v>
+        <v>1459</v>
       </c>
       <c r="H372" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A373" s="35" t="s">
-        <v>1424</v>
+      <c r="A373" s="25" t="s">
+        <v>1474</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>1476</v>
+        <v>1461</v>
       </c>
       <c r="C373" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D373" s="37" t="s">
-        <v>1457</v>
+        <v>1442</v>
       </c>
       <c r="E373" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F373" s="37" t="s">
-        <v>1475</v>
+        <v>1460</v>
       </c>
       <c r="H373" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A374" s="35" t="s">
-        <v>1425</v>
+      <c r="A374" s="25" t="s">
+        <v>1475</v>
       </c>
       <c r="B374" s="35" t="s">
-        <v>1439</v>
+        <v>1424</v>
       </c>
       <c r="C374" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D374" s="39" t="s">
-        <v>1458</v>
+        <v>1443</v>
       </c>
       <c r="E374" s="35" t="s">
         <v>84</v>
@@ -18971,17 +18986,17 @@
       </c>
     </row>
     <row r="375" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A375" s="35" t="s">
-        <v>1426</v>
+      <c r="A375" s="25" t="s">
+        <v>1476</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>1440</v>
+        <v>1425</v>
       </c>
       <c r="C375" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D375" s="22" t="s">
-        <v>1459</v>
+        <v>1444</v>
       </c>
       <c r="E375" s="35" t="s">
         <v>84</v>
@@ -18991,17 +19006,17 @@
       </c>
     </row>
     <row r="376" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A376" s="35" t="s">
-        <v>1427</v>
+      <c r="A376" s="25" t="s">
+        <v>1477</v>
       </c>
       <c r="B376" s="35" t="s">
-        <v>1441</v>
+        <v>1426</v>
       </c>
       <c r="C376" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D376" s="39" t="s">
-        <v>1460</v>
+        <v>1445</v>
       </c>
       <c r="E376" s="35" t="s">
         <v>84</v>
@@ -19011,40 +19026,40 @@
       </c>
     </row>
     <row r="377" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A377" s="35" t="s">
-        <v>1428</v>
+      <c r="A377" s="25" t="s">
+        <v>1478</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>1442</v>
+        <v>1427</v>
       </c>
       <c r="C377" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D377" s="22" t="s">
-        <v>1461</v>
+        <v>1446</v>
       </c>
       <c r="E377" s="35" t="s">
         <v>84</v>
       </c>
       <c r="F377" s="35" t="s">
-        <v>1477</v>
+        <v>1462</v>
       </c>
       <c r="H377" s="37" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A378" s="35" t="s">
-        <v>1429</v>
+      <c r="A378" s="25" t="s">
+        <v>1479</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>1443</v>
+        <v>1428</v>
       </c>
       <c r="C378" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D378" s="22" t="s">
-        <v>1462</v>
+        <v>1447</v>
       </c>
       <c r="E378" s="35" t="s">
         <v>84</v>
@@ -19054,17 +19069,17 @@
       </c>
     </row>
     <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A379" s="35" t="s">
-        <v>1430</v>
+      <c r="A379" s="25" t="s">
+        <v>1480</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>1444</v>
+        <v>1429</v>
       </c>
       <c r="C379" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D379" s="37" t="s">
-        <v>1463</v>
+        <v>1448</v>
       </c>
       <c r="E379" s="35" t="s">
         <v>84</v>
@@ -19074,17 +19089,17 @@
       </c>
     </row>
     <row r="380" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A380" s="35" t="s">
-        <v>1431</v>
+      <c r="A380" s="25" t="s">
+        <v>1481</v>
       </c>
       <c r="B380" s="35" t="s">
-        <v>1445</v>
+        <v>1430</v>
       </c>
       <c r="C380" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D380" s="37" t="s">
-        <v>1464</v>
+        <v>1449</v>
       </c>
       <c r="E380" s="35" t="s">
         <v>84</v>
@@ -19094,17 +19109,17 @@
       </c>
     </row>
     <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A381" s="35" t="s">
-        <v>1432</v>
+      <c r="A381" s="25" t="s">
+        <v>1482</v>
       </c>
       <c r="B381" s="35" t="s">
-        <v>1446</v>
+        <v>1431</v>
       </c>
       <c r="C381" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D381" s="37" t="s">
-        <v>1465</v>
+        <v>1450</v>
       </c>
       <c r="E381" s="35" t="s">
         <v>84</v>
@@ -19114,17 +19129,17 @@
       </c>
     </row>
     <row r="382" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A382" s="35" t="s">
-        <v>1433</v>
+      <c r="A382" s="25" t="s">
+        <v>1483</v>
       </c>
       <c r="B382" s="35" t="s">
-        <v>1447</v>
+        <v>1432</v>
       </c>
       <c r="C382" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D382" s="39" t="s">
-        <v>1466</v>
+        <v>1451</v>
       </c>
       <c r="E382" s="35" t="s">
         <v>84</v>
@@ -19134,17 +19149,17 @@
       </c>
     </row>
     <row r="383" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A383" s="35" t="s">
-        <v>1434</v>
+      <c r="A383" s="25" t="s">
+        <v>1484</v>
       </c>
       <c r="B383" s="35" t="s">
-        <v>1448</v>
+        <v>1433</v>
       </c>
       <c r="C383" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D383" s="39" t="s">
-        <v>1467</v>
+        <v>1452</v>
       </c>
       <c r="E383" s="35" t="s">
         <v>84</v>
@@ -19154,17 +19169,17 @@
       </c>
     </row>
     <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A384" s="35" t="s">
-        <v>1435</v>
+      <c r="A384" s="25" t="s">
+        <v>1485</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>1449</v>
+        <v>1434</v>
       </c>
       <c r="C384" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D384" s="22" t="s">
-        <v>1468</v>
+        <v>1453</v>
       </c>
       <c r="E384" s="35" t="s">
         <v>84</v>
@@ -19174,17 +19189,17 @@
       </c>
     </row>
     <row r="385" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A385" s="35" t="s">
-        <v>1436</v>
+      <c r="A385" s="25" t="s">
+        <v>1486</v>
       </c>
       <c r="B385" s="35" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="C385" s="35" t="s">
         <v>84</v>
       </c>
       <c r="D385" s="39" t="s">
-        <v>1469</v>
+        <v>1454</v>
       </c>
       <c r="E385" s="35" t="s">
         <v>84</v>
@@ -19194,6 +19209,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
   <conditionalFormatting sqref="B377:B378">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
@@ -19568,12 +19584,31 @@
     <hyperlink ref="A183" r:id="rId364" xr:uid="{00000000-0004-0000-0300-00006B010000}"/>
     <hyperlink ref="A214" r:id="rId365" xr:uid="{00000000-0004-0000-0300-00006C010000}"/>
     <hyperlink ref="A188" r:id="rId366" xr:uid="{00000000-0004-0000-0300-00006D010000}"/>
+    <hyperlink ref="A367" r:id="rId367" xr:uid="{8348A61B-361D-4D0A-8A9A-616039F5E481}"/>
+    <hyperlink ref="A368" r:id="rId368" xr:uid="{0788ECB8-F3B1-4EA3-8E76-45CF6B141020}"/>
+    <hyperlink ref="A369" r:id="rId369" xr:uid="{695FCFB5-F271-4465-8FC5-EC1426A5A1F3}"/>
+    <hyperlink ref="A370" r:id="rId370" xr:uid="{DA164A8D-E2D5-4304-B650-D92E7B4DD3CF}"/>
+    <hyperlink ref="A371" r:id="rId371" xr:uid="{D816A213-374A-4FDA-93CC-F4B792B21058}"/>
+    <hyperlink ref="A372" r:id="rId372" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{6BEC5BA8-C033-46E9-9C09-D264A0475E39}"/>
+    <hyperlink ref="A374" r:id="rId373" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{F76466C1-5485-44E5-8992-1C37AFDCD676}"/>
+    <hyperlink ref="A376" r:id="rId374" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{8BCB0B98-8D1F-4CD3-8D0A-1A30C68A09D4}"/>
+    <hyperlink ref="A378" r:id="rId375" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{54C84067-F708-488F-8878-2405F6319D69}"/>
+    <hyperlink ref="A380" r:id="rId376" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{38FB9477-6A0D-4280-9D00-0C7CB52C4256}"/>
+    <hyperlink ref="A382" r:id="rId377" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{660A8993-8766-474F-8D78-15BE2D8345BE}"/>
+    <hyperlink ref="A384" r:id="rId378" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{DB8DDC43-72CD-4F8E-8DC6-EDD9E53DED79}"/>
+    <hyperlink ref="A373" r:id="rId379" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{7869CDF3-03AE-4465-BA92-B26B6E4E683F}"/>
+    <hyperlink ref="A375" r:id="rId380" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{D40FBE82-82A3-45D4-85EF-F21835C95B0E}"/>
+    <hyperlink ref="A377" r:id="rId381" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{41FD68D4-7E35-42F8-BF65-D9D46ADCE6F6}"/>
+    <hyperlink ref="A379" r:id="rId382" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{94131052-AF15-4771-ABA8-BD216A6E4E88}"/>
+    <hyperlink ref="A381" r:id="rId383" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{FD487901-3F36-4DE0-9276-1CA40FB2BDC5}"/>
+    <hyperlink ref="A383" r:id="rId384" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{4EAF6997-C3E6-430A-8342-DA0AB4441337}"/>
+    <hyperlink ref="A385" r:id="rId385" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{4D123E10-CF26-40DD-A507-6C86E4CA89F7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
-  <legacyDrawing r:id="rId367"/>
+  <legacyDrawing r:id="rId386"/>
   <tableParts count="1">
-    <tablePart r:id="rId368"/>
+    <tablePart r:id="rId387"/>
   </tableParts>
 </worksheet>
 </file>
@@ -20294,7 +20329,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20362,12 +20397,22 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>1420</v>
+      </c>
+      <c r="E5" s="26" t="s">
+        <v>1421</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
@@ -20535,11 +20580,12 @@
   <hyperlinks>
     <hyperlink ref="A3" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
     <hyperlink ref="A4" r:id="rId2" xr:uid="{00000000-0004-0000-0500-000001000000}"/>
+    <hyperlink ref="A5" r:id="rId3" xr:uid="{E4B919DE-9148-4D92-97C4-E4CDF3BADF63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-smb3\home$\nmoust\Desktop\Office-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC810A69-691B-4B9E-A740-132092F1FA18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A70941-C860-4080-BA30-28FA7AC6E2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -4983,34 +4983,6 @@
 voc4cat:0007247 (solute), voc4cat:0000199, voc4cat:0000200, voc4cat:0000201</t>
   </si>
   <si>
-    <t>voc4cat:0000001 (photocatalysis),
-voc4cat:0000014 (modification technique),
-voc4cat:0000020 (deposition technique),
-voc4cat:0000045 (synthesis),
-voc4cat:0000049 (synthesis procedure),
-voc4cat:0000066 (characterization technique),
-voc4cat:0000087 (photocatalytic process),
-voc4cat:0000099 (photocatalytic CO2 reduction),
-voc4cat:0000100 (photocatalytic experiment),
-voc4cat:0000123 (blank experiment),
-voc4cat:0000130 (gas chromatography),
-voc4cat:0000137 (mass spectrometry),
-voc4cat:0000141 (liquid chromatography),
-voc4cat:0007001 (heterogeneous catalysis),
-voc4cat:0007002 (thermal catalysis),
-voc4cat:0007029 (hydrothermal synthesis),
-voc4cat:0007031 (flame spray pyrolysis),
-voc4cat:0007206 (potentiometry),
-voc4cat:0007238 (voltammogramm), voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208,</t>
-  </si>
-  <si>
-    <t>voc4cat:0000003 (semiconductor),
-voc4cat:0000005 (metal oxide),
-voc4cat:0000024 (substrate),
-voc4cat:0000194 (catalyst),
-voc4cat:0005056 (material sample), voc4cat:0000196, voc4cat:0000197, voc4cat:0000198. voc4cat:0000210</t>
-  </si>
-  <si>
     <t>voc4cat:0000061 (synthesis equipment),
 voc4cat:0000146 (pressure controller),
 voc4cat:0000151 (temperature controller),
@@ -5188,6 +5160,34 @@
   </si>
   <si>
     <t>https://w3id.org/nfdi4cat/voc4cat_0000195</t>
+  </si>
+  <si>
+    <t>voc4cat:0000003 (semiconductor),
+voc4cat:0000005 (metal oxide),
+voc4cat:0000024 (substrate),
+voc4cat:0000194 (catalyst),
+voc4cat:0005056 (material sample), voc4cat:0000196, voc4cat:0000197, voc4cat:0000198, voc4cat:0000210</t>
+  </si>
+  <si>
+    <t>voc4cat:0000001 (photocatalysis),
+voc4cat:0000014 (modification technique),
+voc4cat:0000020 (deposition technique),
+voc4cat:0000045 (synthesis),
+voc4cat:0000049 (synthesis procedure),
+voc4cat:0000066 (characterization technique),
+voc4cat:0000087 (photocatalytic process),
+voc4cat:0000099 (photocatalytic CO2 reduction),
+voc4cat:0000100 (photocatalytic experiment),
+voc4cat:0000123 (blank experiment),
+voc4cat:0000130 (gas chromatography),
+voc4cat:0000137 (mass spectrometry),
+voc4cat:0000141 (liquid chromatography),
+voc4cat:0007001 (heterogeneous catalysis),
+voc4cat:0007002 (thermal catalysis),
+voc4cat:0007029 (hydrothermal synthesis),
+voc4cat:0007031 (flame spray pyrolysis),
+voc4cat:0007206 (potentiometry),
+voc4cat:0007238 (voltammogramm), voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208</t>
   </si>
 </sst>
 </file>
@@ -10084,13 +10084,13 @@
   </sheetPr>
   <dimension ref="A1:I385"/>
   <sheetViews>
-    <sheetView topLeftCell="A374" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B387" sqref="B387"/>
+    <sheetView tabSelected="1" topLeftCell="A198" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G199" sqref="G199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="69.28515625" style="35" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="35" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="50.140625" style="35" customWidth="1"/>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="I185" s="36"/>
     </row>
-    <row r="186" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="180" x14ac:dyDescent="0.25">
       <c r="A186" s="36" t="s">
         <v>1306</v>
       </c>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="26" t="s">
-        <v>1464</v>
+        <v>1487</v>
       </c>
       <c r="H187" s="26" t="s">
         <v>1240</v>
@@ -14590,7 +14590,7 @@
       </c>
       <c r="F188" s="26"/>
       <c r="G188" s="26" t="s">
-        <v>1467</v>
+        <v>1465</v>
       </c>
       <c r="H188" s="26" t="s">
         <v>1240</v>
@@ -14615,7 +14615,7 @@
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="26" t="s">
-        <v>1466</v>
+        <v>1464</v>
       </c>
       <c r="H189" s="26" t="s">
         <v>93</v>
@@ -14690,7 +14690,7 @@
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="26" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
       <c r="H192" s="26" t="s">
         <v>93</v>
@@ -18815,7 +18815,7 @@
     </row>
     <row r="367" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A367" s="25" t="s">
-        <v>1468</v>
+        <v>1466</v>
       </c>
       <c r="B367" s="22" t="s">
         <v>346</v>
@@ -18835,7 +18835,7 @@
     </row>
     <row r="368" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A368" s="25" t="s">
-        <v>1469</v>
+        <v>1467</v>
       </c>
       <c r="B368" s="35" t="s">
         <v>1457</v>
@@ -18858,7 +18858,7 @@
     </row>
     <row r="369" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A369" s="25" t="s">
-        <v>1470</v>
+        <v>1468</v>
       </c>
       <c r="B369" s="22" t="s">
         <v>1422</v>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="370" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A370" s="25" t="s">
-        <v>1471</v>
+        <v>1469</v>
       </c>
       <c r="B370" s="22" t="s">
         <v>357</v>
@@ -18898,7 +18898,7 @@
     </row>
     <row r="371" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A371" s="25" t="s">
-        <v>1472</v>
+        <v>1470</v>
       </c>
       <c r="B371" s="35" t="s">
         <v>1458</v>
@@ -18921,7 +18921,7 @@
     </row>
     <row r="372" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A372" s="25" t="s">
-        <v>1473</v>
+        <v>1471</v>
       </c>
       <c r="B372" s="35" t="s">
         <v>1423</v>
@@ -18944,7 +18944,7 @@
     </row>
     <row r="373" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A373" s="25" t="s">
-        <v>1474</v>
+        <v>1472</v>
       </c>
       <c r="B373" s="22" t="s">
         <v>1461</v>
@@ -18967,7 +18967,7 @@
     </row>
     <row r="374" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A374" s="25" t="s">
-        <v>1475</v>
+        <v>1473</v>
       </c>
       <c r="B374" s="35" t="s">
         <v>1424</v>
@@ -18987,7 +18987,7 @@
     </row>
     <row r="375" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A375" s="25" t="s">
-        <v>1476</v>
+        <v>1474</v>
       </c>
       <c r="B375" s="22" t="s">
         <v>1425</v>
@@ -19007,7 +19007,7 @@
     </row>
     <row r="376" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A376" s="25" t="s">
-        <v>1477</v>
+        <v>1475</v>
       </c>
       <c r="B376" s="35" t="s">
         <v>1426</v>
@@ -19027,7 +19027,7 @@
     </row>
     <row r="377" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A377" s="25" t="s">
-        <v>1478</v>
+        <v>1476</v>
       </c>
       <c r="B377" s="22" t="s">
         <v>1427</v>
@@ -19050,7 +19050,7 @@
     </row>
     <row r="378" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A378" s="25" t="s">
-        <v>1479</v>
+        <v>1477</v>
       </c>
       <c r="B378" s="22" t="s">
         <v>1428</v>
@@ -19070,7 +19070,7 @@
     </row>
     <row r="379" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A379" s="25" t="s">
-        <v>1480</v>
+        <v>1478</v>
       </c>
       <c r="B379" s="22" t="s">
         <v>1429</v>
@@ -19090,7 +19090,7 @@
     </row>
     <row r="380" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A380" s="25" t="s">
-        <v>1481</v>
+        <v>1479</v>
       </c>
       <c r="B380" s="35" t="s">
         <v>1430</v>
@@ -19110,7 +19110,7 @@
     </row>
     <row r="381" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A381" s="25" t="s">
-        <v>1482</v>
+        <v>1480</v>
       </c>
       <c r="B381" s="35" t="s">
         <v>1431</v>
@@ -19130,7 +19130,7 @@
     </row>
     <row r="382" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="25" t="s">
-        <v>1483</v>
+        <v>1481</v>
       </c>
       <c r="B382" s="35" t="s">
         <v>1432</v>
@@ -19150,7 +19150,7 @@
     </row>
     <row r="383" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A383" s="25" t="s">
-        <v>1484</v>
+        <v>1482</v>
       </c>
       <c r="B383" s="35" t="s">
         <v>1433</v>
@@ -19170,7 +19170,7 @@
     </row>
     <row r="384" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="25" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="B384" s="22" t="s">
         <v>1434</v>
@@ -19190,7 +19190,7 @@
     </row>
     <row r="385" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="25" t="s">
-        <v>1486</v>
+        <v>1484</v>
       </c>
       <c r="B385" s="35" t="s">
         <v>1435</v>
@@ -20328,13 +20328,13 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="35" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" style="35" customWidth="1"/>
     <col min="2" max="2" width="40.7109375" style="35" customWidth="1"/>
     <col min="3" max="3" width="50.7109375" style="35" customWidth="1"/>
     <col min="4" max="4" width="70.7109375" style="35" customWidth="1"/>
@@ -20399,7 +20399,7 @@
     </row>
     <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
-        <v>1487</v>
+        <v>1485</v>
       </c>
       <c r="B5" s="30" t="s">
         <v>1418</v>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-smb3\home$\nmoust\Desktop\Office-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACC2509-A4B3-4E96-B673-3801BA3FBE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD2CB3-1C88-4210-8754-6DF7DF0AE220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5151,17 +5151,10 @@
 voc4cat:0005056 (material sample), voc4cat:0000197, voc4cat:0000198, voc4cat:0000210</t>
   </si>
   <si>
-    <t>voc4cat:0000197, voc4cat:0000198, voc4cat:0000199, voc4cat:0000200, voc4cat:0000201, voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208, voc4cat:0000209, voc4cat:0000210, voc4cat:0000211, voc4cat:0000212, voc4cat:0000213, voc4cat:0000214, voc4cat_0007034</t>
-  </si>
-  <si>
     <t>The science and technology of sustainable and environment friendly chemical processes and products that reduce or eliminate hazardous substances, while minimizing waste and energy consumption.</t>
   </si>
   <si>
     <t>cross-coupling reaction</t>
-  </si>
-  <si>
-    <t>voc4cat:0007256 (galvanic cell),
-voc4cat:0007257 (electrolytic cell), voc4cat_0000209</t>
   </si>
   <si>
     <t>voc4cat:0000061 (synthesis equipment),
@@ -5182,6 +5175,13 @@
 voc4cat:0007236 (H cell),
 voc4cat:0007249 (electrochemical cell),
 voc4cat:0007250 (electrochemical equipment)</t>
+  </si>
+  <si>
+    <t>voc4cat:0007256 (galvanic cell),
+voc4cat:0007257 (electrolytic cell), voc4cat:0000209</t>
+  </si>
+  <si>
+    <t>voc4cat:0000197, voc4cat:0000198, voc4cat:0000199, voc4cat:0000200, voc4cat:0000201, voc4cat:0000202, voc4cat:0000203, voc4cat:0000204, voc4cat:0000205, voc4cat:0000206, voc4cat:0000207, voc4cat:0000208, voc4cat:0000209, voc4cat:0000210, voc4cat:0000211, voc4cat:0000212, voc4cat:0000213, voc4cat:0000214, voc4cat:0007034</t>
   </si>
 </sst>
 </file>
@@ -10078,8 +10078,8 @@
   </sheetPr>
   <dimension ref="A1:I384"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A345" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G352" sqref="G3:G384"/>
+    <sheetView tabSelected="1" topLeftCell="A359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B392" sqref="B392"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14609,7 +14609,7 @@
       </c>
       <c r="F189" s="26"/>
       <c r="G189" s="26" t="s">
-        <v>1485</v>
+        <v>1483</v>
       </c>
       <c r="H189" s="26" t="s">
         <v>93</v>
@@ -18881,7 +18881,7 @@
         <v>84</v>
       </c>
       <c r="D370" s="38" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="E370" s="35" t="s">
         <v>84</v>
@@ -18898,7 +18898,7 @@
         <v>1463</v>
       </c>
       <c r="B371" s="35" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C371" s="35" t="s">
         <v>84</v>
@@ -18979,7 +18979,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A375" s="25" t="s">
         <v>1467</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A381" s="25" t="s">
         <v>1473</v>
       </c>
@@ -19122,7 +19122,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="57" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A382" s="25" t="s">
         <v>1474</v>
       </c>
@@ -19566,7 +19566,7 @@
     <hyperlink ref="A373" r:id="rId372" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{F76466C1-5485-44E5-8992-1C37AFDCD676}"/>
     <hyperlink ref="A375" r:id="rId373" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{8BCB0B98-8D1F-4CD3-8D0A-1A30C68A09D4}"/>
     <hyperlink ref="A377" r:id="rId374" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{54C84067-F708-488F-8878-2405F6319D69}"/>
-    <hyperlink ref="A379" r:id="rId375" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{38FB9477-6A0D-4280-9D00-0C7CB52C4256}"/>
+    <hyperlink ref="A379" r:id="rId375" xr:uid="{38FB9477-6A0D-4280-9D00-0C7CB52C4256}"/>
     <hyperlink ref="A381" r:id="rId376" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{660A8993-8766-474F-8D78-15BE2D8345BE}"/>
     <hyperlink ref="A383" r:id="rId377" display="https://w3id.org/nfdi4cat/voc4cat_0000199" xr:uid="{DB8DDC43-72CD-4F8E-8DC6-EDD9E53DED79}"/>
     <hyperlink ref="A372" r:id="rId378" display="https://w3id.org/nfdi4cat/voc4cat_0000200" xr:uid="{7869CDF3-03AE-4465-BA92-B26B6E4E683F}"/>
@@ -20302,7 +20302,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20381,7 +20381,7 @@
         <v>1418</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>1419</v>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\srv-smb3\home$\nmoust\Desktop\Office-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7F8BCAF-F46C-42D1-908A-F866E04CAF74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBC7DFF0-F7B9-4CEB-8403-FDB6D0EDF64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" tabRatio="652" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3259" uniqueCount="1824">
   <si>
     <t>Template version</t>
   </si>
@@ -6060,6 +6060,111 @@
     <t>0000-0002-6242-2167 Nikolaos G. Moustakas created the resource, 0000-0002-2367-1988 Norbert Kockmann defined the resource</t>
   </si>
   <si>
+    <t>voc4cat:0000309</t>
+  </si>
+  <si>
+    <t>voc4cat:0000001 (photocatalysis),
+voc4cat:0000197 (metal-organic framework),
+voc4cat:0000198 (mesoporous material),
+voc4cat:0000199 (reaction mechanism),
+voc4cat:0000200 (green chemistry),
+voc4cat:0000201 (cross-coupling reaction),
+voc4cat:0000202 (C-H activation reaction),
+voc4cat:0000203 (photochemistry),
+voc4cat:0000204 (biocatalysis),
+voc4cat:0000205 (epoxidation),
+voc4cat:0000206 (water splitting),
+voc4cat:0000207 (enzyme catalysis),
+voc4cat:0000208 (organocatalysis),
+voc4cat:0000209 (fuel cell),
+voc4cat:0000210 (nanotube),
+voc4cat:0000211 (regioselectivity),
+voc4cat:0000212 (chemoselectivity),
+voc4cat:0000213 (nanostructure),
+voc4cat:0000214 (enantioselectivity),
+voc4cat:0000215 (density functional theory),
+voc4cat:0000216 (electrocatalysis),
+voc4cat:0000217 (asymmetric catalysis),
+voc4cat:0000218 (electrochemistry),
+voc4cat:0000219 (heterocycle),
+voc4cat:0000220 (cyclization reaction),
+voc4cat:0000221 (protein engineering),
+voc4cat:0000222 (hydroformylation),
+voc4cat:0000223 (C-C coupling reaction),
+voc4cat:0000224 (hydrosilylation),
+voc4cat:0000225 (structure-activity relationship),
+voc4cat:0000226 (hydrodeoxygenation),
+voc4cat:0000227 (self-assembly),
+voc4cat:0000228 (chirality),
+voc4cat:0000229 (radical),
+voc4cat:0000230 (sequential reaction),
+voc4cat:0000231 (renewable resource),
+voc4cat:0000232 (acid catalysis),
+voc4cat:0000233 (base catalysis),
+voc4cat:0000234 (microreactor),
+voc4cat:0000235 (synergistic effect),
+voc4cat:0000236 (oxygen evolution reaction),
+voc4cat:0000237 (oxygen reduction reaction),
+voc4cat:0000238 (surface chemistry),
+voc4cat:0000239 (asymmetric synthesis),
+voc4cat:0000240 (stereoisomer),
+voc4cat:0000241 (hydrogen evolution reaction),
+voc4cat:0000242 (amination),
+voc4cat:0000243 (cycloaddition),
+voc4cat:0000244 (transfer hydrogenation),
+voc4cat:0000245 (metathesis),
+voc4cat:0000246 (nanocatalysis),
+voc4cat:0000247 (carbonylation),
+voc4cat:0000248 (biotransformation),
+voc4cat:0000249 (kinetic resolution),
+voc4cat:0000250 (water oxidation),
+voc4cat:0000251 (multicomponent reaction),
+voc4cat:0000252 (arylation),
+voc4cat:0000253 (hydrogenolysis),
+voc4cat:0000254 (electrocatalyst),
+voc4cat:0000255 (magnetic property),
+voc4cat:0000256 (biomass conversion),
+voc4cat:0000257 (solvent effect),
+voc4cat:0000258 (hydroxylation),
+voc4cat:0000259 (CO2 hydrogenation),
+voc4cat:0000260 (hydrogenation),
+voc4cat:0000261 (selective oxidation),
+voc4cat:0000262 (reductive amination),
+voc4cat:0000263 (stereoselectivity),
+voc4cat:0000264 (computational chemistry),
+voc4cat:0000265 (surface analysis),
+voc4cat:0000266 (directed evolution),
+voc4cat:0000267 (bifunctional catalyst),
+voc4cat:0000268 (synthesis gas),
+voc4cat:0000269 (flow chemistry),
+voc4cat:0000270 (porous material ),
+voc4cat:0000271 (microporous material),
+voc4cat:0000272 (macroporous material ),
+voc4cat:0000273 (hydrothermal synthesis),
+voc4cat:0000274 (diastereoselectivity),
+voc4cat:0000275 (water chemistry),
+voc4cat:0000276 (aldol reaction),
+voc4cat:0000277 (C-H functionalization),
+voc4cat:0000278 (Michael addition ),
+voc4cat:0000279 (oxygen vacancy),
+voc4cat:0000280 (Fischer-Tropsch synthesis ),
+voc4cat:0000281 (Fischer-Tropsch process),
+voc4cat:0000282 (DFT calculation),
+voc4cat:0000283 (electron transfer),
+voc4cat:0000284 (nitrogen heterocycle),
+voc4cat:0000285 (carbon dioxide fixation),
+voc4cat:0000286 (X-ray absorption spectroscopy),
+voc4cat:0000287 (ligand),
+voc4cat:0000288 (electron microscopy),
+voc4cat:0000289 (CO oxidation),
+voc4cat:0000290 (CO2 reduction),
+voc4cat:0000291 (hydrogen production),
+voc4cat:0000292 (Fischer-Tropsch technology),
+voc4cat:0007001 (heterogeneous catalysis),
+voc4cat:0007002 (thermal catalysis),
+voc4cat:0007034 (supported catalyst), voc4cat:0000293, voc4cat:0000294, voc4cat:0000295, voc4cat:0000296, voc4cat:0000297, voc4cat:0000298, voc4cat:0000299, voc4cat:0000300, voc4cat:0000301, voc4cat:0000302, voc4cat:0000303, voc4cat:0000304, voc4cat:0000305, voc4cat:0000306, voc4cat:0000307, voc4cat:0000308, voc4cat:0000309, voc4cat:0000097, voc4cat:0000098, voc4cat:0000015, voc4cat:0000020, voc4cat:0000049, voc4cat:0000125, voc4cat:0000093, voc4cat:0000080, voc4cat:0000002, voc4cat:0007003, voc4cat:0000194, voc4cat:0000178, voc4cat:0000073, voc4cat:0000069</t>
+  </si>
+  <si>
     <t>voc4cat:0000001 (photocatalysis),
 voc4cat:0000204 (biocatalysis),
 voc4cat:0000207 (enzyme catalysis),
@@ -6070,7 +6175,7 @@
 voc4cat:0000233 (base catalysis),
 voc4cat:0000246 (nanocatalysis),
 voc4cat:0007001 (heterogeneous catalysis),
-voc4cat:0007002 (thermal catalysis), voc4cat:0000293, voc4cat:0000295</t>
+voc4cat:0007002 (thermal catalysis), voc4cat:0000294, voc4cat:0000296</t>
   </si>
   <si>
     <t>voc4cat:0000007 (Fermi level),
@@ -6121,7 +6226,7 @@
 voc4cat:0007041 (elementary reaction),
 voc4cat:0007101 (reactor model type),
 voc4cat:0007246 (solvent),
-voc4cat:0007247 (solute), voc4cat:0000297, voc4cat:0000300, voc4cat:0000308</t>
+voc4cat:0007247 (solute), voc4cat:0000298, voc4cat:0000301, voc4cat:0000309</t>
   </si>
   <si>
     <t>voc4cat:0000014 (modification technique),
@@ -6158,7 +6263,7 @@
 voc4cat:0007029 (hydrothermal synthesis),
 voc4cat:0007031 (flame spray pyrolysis),
 voc4cat:0007206 (potentiometry),
-voc4cat:0007238 (voltammogramm), voc4cat:0000301, voc4cat:0000303</t>
+voc4cat:0007238 (voltammogramm), voc4cat:0000302, voc4cat:0000304</t>
   </si>
   <si>
     <t>voc4cat:0000088 (photoinduced electron transfer),
@@ -6198,7 +6303,7 @@
 voc4cat:0000283 (electron transfer),
 voc4cat:0000289 (CO oxidation),
 voc4cat:0000290 (CO2 reduction),
-voc4cat:0007234 (charge transport), voc4cat:0000302, voc4cat:0000305, voc4cat:0000296</t>
+voc4cat:0007234 (charge transport), voc4cat:0000303, voc4cat:0000306, voc4cat:0000297</t>
   </si>
   <si>
     <t>voc4cat:0000004 (categories of semiconductors),
@@ -6302,7 +6407,7 @@
 voc4cat:0007260 (retention time),
 voc4cat:0007261 (peak area),
 voc4cat:0007262 (membrane thickness),
-voc4cat:0007263 (total faradaic efficiency), voc4cat:0000304, voc4cat:0000307, voc4cat:0000298</t>
+voc4cat:0007263 (total faradaic efficiency), voc4cat:0000305, voc4cat:0000306, voc4cat:0000299</t>
   </si>
   <si>
     <t>voc4cat:0000003 (semiconductor),
@@ -6313,109 +6418,7 @@
 voc4cat:0000210 (nanotube),
 voc4cat:0000268 (synthesis gas),
 voc4cat:0000270 (porous material ),
-voc4cat:0005056 (material sample), voc4cat:0000292, voc4cat:0000294, voc4cat:0000299, voc4cat:0000306</t>
-  </si>
-  <si>
-    <t>voc4cat:0000001 (photocatalysis),
-voc4cat:0000197 (metal-organic framework),
-voc4cat:0000198 (mesoporous material),
-voc4cat:0000199 (reaction mechanism),
-voc4cat:0000200 (green chemistry),
-voc4cat:0000201 (cross-coupling reaction),
-voc4cat:0000202 (C-H activation reaction),
-voc4cat:0000203 (photochemistry),
-voc4cat:0000204 (biocatalysis),
-voc4cat:0000205 (epoxidation),
-voc4cat:0000206 (water splitting),
-voc4cat:0000207 (enzyme catalysis),
-voc4cat:0000208 (organocatalysis),
-voc4cat:0000209 (fuel cell),
-voc4cat:0000210 (nanotube),
-voc4cat:0000211 (regioselectivity),
-voc4cat:0000212 (chemoselectivity),
-voc4cat:0000213 (nanostructure),
-voc4cat:0000214 (enantioselectivity),
-voc4cat:0000215 (density functional theory),
-voc4cat:0000216 (electrocatalysis),
-voc4cat:0000217 (asymmetric catalysis),
-voc4cat:0000218 (electrochemistry),
-voc4cat:0000219 (heterocycle),
-voc4cat:0000220 (cyclization reaction),
-voc4cat:0000221 (protein engineering),
-voc4cat:0000222 (hydroformylation),
-voc4cat:0000223 (C-C coupling reaction),
-voc4cat:0000224 (hydrosilylation),
-voc4cat:0000225 (structure-activity relationship),
-voc4cat:0000226 (hydrodeoxygenation),
-voc4cat:0000227 (self-assembly),
-voc4cat:0000228 (chirality),
-voc4cat:0000229 (radical),
-voc4cat:0000230 (sequential reaction),
-voc4cat:0000231 (renewable resource),
-voc4cat:0000232 (acid catalysis),
-voc4cat:0000233 (base catalysis),
-voc4cat:0000234 (microreactor),
-voc4cat:0000235 (synergistic effect),
-voc4cat:0000236 (oxygen evolution reaction),
-voc4cat:0000237 (oxygen reduction reaction),
-voc4cat:0000238 (surface chemistry),
-voc4cat:0000239 (asymmetric synthesis),
-voc4cat:0000240 (stereoisomer),
-voc4cat:0000241 (hydrogen evolution reaction),
-voc4cat:0000242 (amination),
-voc4cat:0000243 (cycloaddition),
-voc4cat:0000244 (transfer hydrogenation),
-voc4cat:0000245 (metathesis),
-voc4cat:0000246 (nanocatalysis),
-voc4cat:0000247 (carbonylation),
-voc4cat:0000248 (biotransformation),
-voc4cat:0000249 (kinetic resolution),
-voc4cat:0000250 (water oxidation),
-voc4cat:0000251 (multicomponent reaction),
-voc4cat:0000252 (arylation),
-voc4cat:0000253 (hydrogenolysis),
-voc4cat:0000254 (electrocatalyst),
-voc4cat:0000255 (magnetic property),
-voc4cat:0000256 (biomass conversion),
-voc4cat:0000257 (solvent effect),
-voc4cat:0000258 (hydroxylation),
-voc4cat:0000259 (CO2 hydrogenation),
-voc4cat:0000260 (hydrogenation),
-voc4cat:0000261 (selective oxidation),
-voc4cat:0000262 (reductive amination),
-voc4cat:0000263 (stereoselectivity),
-voc4cat:0000264 (computational chemistry),
-voc4cat:0000265 (surface analysis),
-voc4cat:0000266 (directed evolution),
-voc4cat:0000267 (bifunctional catalyst),
-voc4cat:0000268 (synthesis gas),
-voc4cat:0000269 (flow chemistry),
-voc4cat:0000270 (porous material ),
-voc4cat:0000271 (microporous material),
-voc4cat:0000272 (macroporous material ),
-voc4cat:0000273 (hydrothermal synthesis),
-voc4cat:0000274 (diastereoselectivity),
-voc4cat:0000275 (water chemistry),
-voc4cat:0000276 (aldol reaction),
-voc4cat:0000277 (C-H functionalization),
-voc4cat:0000278 (Michael addition ),
-voc4cat:0000279 (oxygen vacancy),
-voc4cat:0000280 (Fischer-Tropsch synthesis ),
-voc4cat:0000281 (Fischer-Tropsch process),
-voc4cat:0000282 (DFT calculation),
-voc4cat:0000283 (electron transfer),
-voc4cat:0000284 (nitrogen heterocycle),
-voc4cat:0000285 (carbon dioxide fixation),
-voc4cat:0000286 (X-ray absorption spectroscopy),
-voc4cat:0000287 (ligand),
-voc4cat:0000288 (electron microscopy),
-voc4cat:0000289 (CO oxidation),
-voc4cat:0000290 (CO2 reduction),
-voc4cat:0000291 (hydrogen production),
-voc4cat:0000292 (Fischer-Tropsch technology),
-voc4cat:0007001 (heterogeneous catalysis),
-voc4cat:0007002 (thermal catalysis),
-voc4cat:0007034 (supported catalyst), voc4cat:0000292, voc4cat:0000293, voc4cat:0000294, voc4cat:0000295, voc4cat:0000296, voc4cat:0000297, voc4cat:0000298, voc4cat:0000299, voc4cat:0000300, voc4cat:0000301, voc4cat:0000302, voc4cat:0000303, voc4cat:0000304, voc4cat:0000305, voc4cat:0000306, voc4cat:0000307, voc4cat:0000308, voc4cat:0000097, voc4cat:0000098, voc4cat:0000015, voc4cat:0000020, voc4cat:0000049, voc4cat:0000125, voc4cat:0000093, voc4cat:0000080, voc4cat:0000002, voc4cat:0007003, voc4cat:0000194, voc4cat:0000178, voc4cat:0000073, voc4cat:0000069</t>
+voc4cat:0005056 (material sample), voc4cat:0000293, voc4cat:0000295, voc4cat:0000300, voc4cat:0000307</t>
   </si>
 </sst>
 </file>
@@ -6632,7 +6635,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6726,18 +6729,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -7278,65 +7282,65 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="11"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="11"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="20" spans="1:12">
       <c r="B20" t="s">
@@ -7442,61 +7446,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1">
       <c r="B7" s="34"/>
@@ -7560,391 +7564,391 @@
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="41"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="41"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="41"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="41"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="41"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="B21" s="41"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="41"/>
+      <c r="D39" s="41"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="41"/>
+      <c r="D40" s="41"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="41"/>
+      <c r="D41" s="41"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="41"/>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1">
       <c r="C47" s="34"/>
@@ -7957,1074 +7961,1074 @@
       <c r="J47" s="34"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1">
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1">
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1">
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1">
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1">
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1">
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1">
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1">
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1">
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1">
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1">
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1">
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1">
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1">
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1">
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1">
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1">
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1">
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1">
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1">
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1">
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1"/>
     <row r="90" spans="2:10" ht="15" customHeight="1">
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1">
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1">
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1">
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1">
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1">
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1">
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1">
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1">
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1">
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1">
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="41"/>
+      <c r="D100" s="41"/>
+      <c r="E100" s="41"/>
+      <c r="F100" s="41"/>
+      <c r="G100" s="41"/>
+      <c r="H100" s="41"/>
+      <c r="I100" s="41"/>
+      <c r="J100" s="41"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1">
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="41"/>
+      <c r="D101" s="41"/>
+      <c r="E101" s="41"/>
+      <c r="F101" s="41"/>
+      <c r="G101" s="41"/>
+      <c r="H101" s="41"/>
+      <c r="I101" s="41"/>
+      <c r="J101" s="41"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1">
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="41"/>
+      <c r="D102" s="41"/>
+      <c r="E102" s="41"/>
+      <c r="F102" s="41"/>
+      <c r="G102" s="41"/>
+      <c r="H102" s="41"/>
+      <c r="I102" s="41"/>
+      <c r="J102" s="41"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1">
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1">
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="41"/>
+      <c r="D104" s="41"/>
+      <c r="E104" s="41"/>
+      <c r="F104" s="41"/>
+      <c r="G104" s="41"/>
+      <c r="H104" s="41"/>
+      <c r="I104" s="41"/>
+      <c r="J104" s="41"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1">
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="41"/>
+      <c r="D105" s="41"/>
+      <c r="E105" s="41"/>
+      <c r="F105" s="41"/>
+      <c r="G105" s="41"/>
+      <c r="H105" s="41"/>
+      <c r="I105" s="41"/>
+      <c r="J105" s="41"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1">
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="41"/>
+      <c r="D106" s="41"/>
+      <c r="E106" s="41"/>
+      <c r="F106" s="41"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="41"/>
+      <c r="I106" s="41"/>
+      <c r="J106" s="41"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1">
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="41"/>
+      <c r="D107" s="41"/>
+      <c r="E107" s="41"/>
+      <c r="F107" s="41"/>
+      <c r="G107" s="41"/>
+      <c r="H107" s="41"/>
+      <c r="I107" s="41"/>
+      <c r="J107" s="41"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1">
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="41"/>
+      <c r="D108" s="41"/>
+      <c r="E108" s="41"/>
+      <c r="F108" s="41"/>
+      <c r="G108" s="41"/>
+      <c r="H108" s="41"/>
+      <c r="I108" s="41"/>
+      <c r="J108" s="41"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1">
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="41"/>
+      <c r="D109" s="41"/>
+      <c r="E109" s="41"/>
+      <c r="F109" s="41"/>
+      <c r="G109" s="41"/>
+      <c r="H109" s="41"/>
+      <c r="I109" s="41"/>
+      <c r="J109" s="41"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1">
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="41"/>
+      <c r="D110" s="41"/>
+      <c r="E110" s="41"/>
+      <c r="F110" s="41"/>
+      <c r="G110" s="41"/>
+      <c r="H110" s="41"/>
+      <c r="I110" s="41"/>
+      <c r="J110" s="41"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1">
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="41"/>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="41"/>
+      <c r="G111" s="41"/>
+      <c r="H111" s="41"/>
+      <c r="I111" s="41"/>
+      <c r="J111" s="41"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1">
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="41"/>
+      <c r="D112" s="41"/>
+      <c r="E112" s="41"/>
+      <c r="F112" s="41"/>
+      <c r="G112" s="41"/>
+      <c r="H112" s="41"/>
+      <c r="I112" s="41"/>
+      <c r="J112" s="41"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1">
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="41"/>
+      <c r="D113" s="41"/>
+      <c r="E113" s="41"/>
+      <c r="F113" s="41"/>
+      <c r="G113" s="41"/>
+      <c r="H113" s="41"/>
+      <c r="I113" s="41"/>
+      <c r="J113" s="41"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1">
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="41"/>
+      <c r="D114" s="41"/>
+      <c r="E114" s="41"/>
+      <c r="F114" s="41"/>
+      <c r="G114" s="41"/>
+      <c r="H114" s="41"/>
+      <c r="I114" s="41"/>
+      <c r="J114" s="41"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1">
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="41"/>
+      <c r="D115" s="41"/>
+      <c r="E115" s="41"/>
+      <c r="F115" s="41"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="41"/>
+      <c r="I115" s="41"/>
+      <c r="J115" s="41"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1">
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="41"/>
+      <c r="D116" s="41"/>
+      <c r="E116" s="41"/>
+      <c r="F116" s="41"/>
+      <c r="G116" s="41"/>
+      <c r="H116" s="41"/>
+      <c r="I116" s="41"/>
+      <c r="J116" s="41"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1"/>
     <row r="118" spans="2:10" ht="15" customHeight="1">
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
+      <c r="C118" s="41"/>
+      <c r="D118" s="41"/>
+      <c r="E118" s="41"/>
+      <c r="F118" s="41"/>
+      <c r="G118" s="41"/>
+      <c r="H118" s="41"/>
+      <c r="I118" s="41"/>
+      <c r="J118" s="41"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1">
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="41"/>
+      <c r="D119" s="41"/>
+      <c r="E119" s="41"/>
+      <c r="F119" s="41"/>
+      <c r="G119" s="41"/>
+      <c r="H119" s="41"/>
+      <c r="I119" s="41"/>
+      <c r="J119" s="41"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1">
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="41"/>
+      <c r="D120" s="41"/>
+      <c r="E120" s="41"/>
+      <c r="F120" s="41"/>
+      <c r="G120" s="41"/>
+      <c r="H120" s="41"/>
+      <c r="I120" s="41"/>
+      <c r="J120" s="41"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1">
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="41"/>
+      <c r="D121" s="41"/>
+      <c r="E121" s="41"/>
+      <c r="F121" s="41"/>
+      <c r="G121" s="41"/>
+      <c r="H121" s="41"/>
+      <c r="I121" s="41"/>
+      <c r="J121" s="41"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1">
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="41"/>
+      <c r="D122" s="41"/>
+      <c r="E122" s="41"/>
+      <c r="F122" s="41"/>
+      <c r="G122" s="41"/>
+      <c r="H122" s="41"/>
+      <c r="I122" s="41"/>
+      <c r="J122" s="41"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1">
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
+      <c r="B123" s="41"/>
+      <c r="C123" s="41"/>
+      <c r="D123" s="41"/>
+      <c r="E123" s="41"/>
+      <c r="F123" s="41"/>
+      <c r="G123" s="41"/>
+      <c r="H123" s="41"/>
+      <c r="I123" s="41"/>
+      <c r="J123" s="41"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1">
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
+      <c r="B124" s="41"/>
+      <c r="C124" s="41"/>
+      <c r="D124" s="41"/>
+      <c r="E124" s="41"/>
+      <c r="F124" s="41"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="41"/>
+      <c r="I124" s="41"/>
+      <c r="J124" s="41"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1">
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
+      <c r="B125" s="41"/>
+      <c r="C125" s="41"/>
+      <c r="D125" s="41"/>
+      <c r="E125" s="41"/>
+      <c r="F125" s="41"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="41"/>
+      <c r="I125" s="41"/>
+      <c r="J125" s="41"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1">
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="41"/>
+      <c r="D126" s="41"/>
+      <c r="E126" s="41"/>
+      <c r="F126" s="41"/>
+      <c r="G126" s="41"/>
+      <c r="H126" s="41"/>
+      <c r="I126" s="41"/>
+      <c r="J126" s="41"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1">
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="41"/>
+      <c r="D127" s="41"/>
+      <c r="E127" s="41"/>
+      <c r="F127" s="41"/>
+      <c r="G127" s="41"/>
+      <c r="H127" s="41"/>
+      <c r="I127" s="41"/>
+      <c r="J127" s="41"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1">
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="41"/>
+      <c r="D128" s="41"/>
+      <c r="E128" s="41"/>
+      <c r="F128" s="41"/>
+      <c r="G128" s="41"/>
+      <c r="H128" s="41"/>
+      <c r="I128" s="41"/>
+      <c r="J128" s="41"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1">
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
+      <c r="B129" s="41"/>
+      <c r="C129" s="41"/>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="41"/>
+      <c r="G129" s="41"/>
+      <c r="H129" s="41"/>
+      <c r="I129" s="41"/>
+      <c r="J129" s="41"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1">
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="41"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="41"/>
+      <c r="F130" s="41"/>
+      <c r="G130" s="41"/>
+      <c r="H130" s="41"/>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1">
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="41"/>
+      <c r="D131" s="41"/>
+      <c r="E131" s="41"/>
+      <c r="F131" s="41"/>
+      <c r="G131" s="41"/>
+      <c r="H131" s="41"/>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1"/>
     <row r="133" spans="2:10" ht="15" customHeight="1">
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
+      <c r="C133" s="41"/>
+      <c r="D133" s="41"/>
+      <c r="E133" s="41"/>
+      <c r="F133" s="41"/>
+      <c r="G133" s="41"/>
+      <c r="H133" s="41"/>
+      <c r="I133" s="41"/>
+      <c r="J133" s="41"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1">
-      <c r="B134" s="38"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="J134" s="38"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="41"/>
+      <c r="D134" s="41"/>
+      <c r="E134" s="41"/>
+      <c r="F134" s="41"/>
+      <c r="G134" s="41"/>
+      <c r="H134" s="41"/>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1">
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="41"/>
+      <c r="D135" s="41"/>
+      <c r="E135" s="41"/>
+      <c r="F135" s="41"/>
+      <c r="G135" s="41"/>
+      <c r="H135" s="41"/>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1">
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="38"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="41"/>
+      <c r="D136" s="41"/>
+      <c r="E136" s="41"/>
+      <c r="F136" s="41"/>
+      <c r="G136" s="41"/>
+      <c r="H136" s="41"/>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1">
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="41"/>
+      <c r="D137" s="41"/>
+      <c r="E137" s="41"/>
+      <c r="F137" s="41"/>
+      <c r="G137" s="41"/>
+      <c r="H137" s="41"/>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1">
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="J138" s="38"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="41"/>
+      <c r="D138" s="41"/>
+      <c r="E138" s="41"/>
+      <c r="F138" s="41"/>
+      <c r="G138" s="41"/>
+      <c r="H138" s="41"/>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1">
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="41"/>
+      <c r="D139" s="41"/>
+      <c r="E139" s="41"/>
+      <c r="F139" s="41"/>
+      <c r="G139" s="41"/>
+      <c r="H139" s="41"/>
+      <c r="I139" s="41"/>
+      <c r="J139" s="41"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1">
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="38"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="41"/>
+      <c r="D140" s="41"/>
+      <c r="E140" s="41"/>
+      <c r="F140" s="41"/>
+      <c r="G140" s="41"/>
+      <c r="H140" s="41"/>
+      <c r="I140" s="41"/>
+      <c r="J140" s="41"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1">
-      <c r="B141" s="38"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
+      <c r="B141" s="41"/>
+      <c r="C141" s="41"/>
+      <c r="D141" s="41"/>
+      <c r="E141" s="41"/>
+      <c r="F141" s="41"/>
+      <c r="G141" s="41"/>
+      <c r="H141" s="41"/>
+      <c r="I141" s="41"/>
+      <c r="J141" s="41"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1"/>
     <row r="143" spans="2:10" ht="15" customHeight="1">
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
+      <c r="C143" s="41"/>
+      <c r="D143" s="41"/>
+      <c r="E143" s="41"/>
+      <c r="F143" s="41"/>
+      <c r="G143" s="41"/>
+      <c r="H143" s="41"/>
+      <c r="I143" s="41"/>
+      <c r="J143" s="41"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1">
-      <c r="B144" s="38"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="38"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="41"/>
+      <c r="D144" s="41"/>
+      <c r="E144" s="41"/>
+      <c r="F144" s="41"/>
+      <c r="G144" s="41"/>
+      <c r="H144" s="41"/>
+      <c r="I144" s="41"/>
+      <c r="J144" s="41"/>
     </row>
     <row r="145" spans="2:10" ht="15" customHeight="1">
-      <c r="B145" s="38"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="38"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="38"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="41"/>
+      <c r="D145" s="41"/>
+      <c r="E145" s="41"/>
+      <c r="F145" s="41"/>
+      <c r="G145" s="41"/>
+      <c r="H145" s="41"/>
+      <c r="I145" s="41"/>
+      <c r="J145" s="41"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1">
-      <c r="B146" s="38"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
+      <c r="B146" s="41"/>
+      <c r="C146" s="41"/>
+      <c r="D146" s="41"/>
+      <c r="E146" s="41"/>
+      <c r="F146" s="41"/>
+      <c r="G146" s="41"/>
+      <c r="H146" s="41"/>
+      <c r="I146" s="41"/>
+      <c r="J146" s="41"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1">
-      <c r="B147" s="38"/>
-      <c r="C147" s="38"/>
-      <c r="D147" s="38"/>
-      <c r="E147" s="38"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="41"/>
+      <c r="D147" s="41"/>
+      <c r="E147" s="41"/>
+      <c r="F147" s="41"/>
+      <c r="G147" s="41"/>
+      <c r="H147" s="41"/>
+      <c r="I147" s="41"/>
+      <c r="J147" s="41"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1">
       <c r="D148" s="16" t="s">
@@ -11279,8 +11283,8 @@
   </sheetPr>
   <dimension ref="A1:I480"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A470" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A464" sqref="A464:A480"/>
+    <sheetView topLeftCell="E177" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -11330,7 +11334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="90">
+    <row r="3" spans="1:9" ht="45">
       <c r="A3" s="36" t="s">
         <v>1353</v>
       </c>
@@ -11353,7 +11357,7 @@
       </c>
       <c r="I3" s="36"/>
     </row>
-    <row r="4" spans="1:9" ht="90">
+    <row r="4" spans="1:9" ht="60">
       <c r="A4" s="36" t="s">
         <v>565</v>
       </c>
@@ -11401,7 +11405,7 @@
       </c>
       <c r="I5" s="36"/>
     </row>
-    <row r="6" spans="1:9" ht="30">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="36" t="s">
         <v>572</v>
       </c>
@@ -11424,7 +11428,7 @@
       </c>
       <c r="I6" s="36"/>
     </row>
-    <row r="7" spans="1:9" ht="75">
+    <row r="7" spans="1:9" ht="45">
       <c r="A7" s="36" t="s">
         <v>575</v>
       </c>
@@ -11495,7 +11499,7 @@
       </c>
       <c r="I9" s="36"/>
     </row>
-    <row r="10" spans="1:9" ht="30">
+    <row r="10" spans="1:9" ht="45">
       <c r="A10" s="36" t="s">
         <v>585</v>
       </c>
@@ -11541,7 +11545,7 @@
       </c>
       <c r="I11" s="36"/>
     </row>
-    <row r="12" spans="1:9" ht="105">
+    <row r="12" spans="1:9" ht="60">
       <c r="A12" s="36" t="s">
         <v>591</v>
       </c>
@@ -11566,7 +11570,7 @@
       </c>
       <c r="I12" s="36"/>
     </row>
-    <row r="13" spans="1:9" ht="30">
+    <row r="13" spans="1:9" ht="45">
       <c r="A13" s="36" t="s">
         <v>595</v>
       </c>
@@ -11641,7 +11645,7 @@
       </c>
       <c r="I15" s="36"/>
     </row>
-    <row r="16" spans="1:9" ht="30">
+    <row r="16" spans="1:9" ht="45">
       <c r="A16" s="36" t="s">
         <v>1356</v>
       </c>
@@ -11666,7 +11670,7 @@
       </c>
       <c r="I16" s="36"/>
     </row>
-    <row r="17" spans="1:9" ht="30">
+    <row r="17" spans="1:9" ht="45">
       <c r="A17" s="36" t="s">
         <v>607</v>
       </c>
@@ -11689,7 +11693,7 @@
       </c>
       <c r="I17" s="36"/>
     </row>
-    <row r="18" spans="1:9" ht="30">
+    <row r="18" spans="1:9" ht="90">
       <c r="A18" s="29" t="s">
         <v>82</v>
       </c>
@@ -11712,7 +11716,7 @@
       </c>
       <c r="I18" s="29"/>
     </row>
-    <row r="19" spans="1:9" ht="30">
+    <row r="19" spans="1:9" ht="45">
       <c r="A19" s="36" t="s">
         <v>610</v>
       </c>
@@ -11735,7 +11739,7 @@
       </c>
       <c r="I19" s="36"/>
     </row>
-    <row r="20" spans="1:9" ht="30">
+    <row r="20" spans="1:9" ht="45">
       <c r="A20" s="36" t="s">
         <v>613</v>
       </c>
@@ -11758,7 +11762,7 @@
       </c>
       <c r="I20" s="36"/>
     </row>
-    <row r="21" spans="1:9" ht="30">
+    <row r="21" spans="1:9" ht="90">
       <c r="A21" s="29" t="s">
         <v>87</v>
       </c>
@@ -11781,7 +11785,7 @@
       </c>
       <c r="I21" s="29"/>
     </row>
-    <row r="22" spans="1:9" ht="30">
+    <row r="22" spans="1:9" ht="60">
       <c r="A22" s="36" t="s">
         <v>1552</v>
       </c>
@@ -11808,7 +11812,7 @@
       </c>
       <c r="I22" s="36"/>
     </row>
-    <row r="23" spans="1:9" ht="30">
+    <row r="23" spans="1:9" ht="45">
       <c r="A23" s="36" t="s">
         <v>616</v>
       </c>
@@ -11881,7 +11885,7 @@
       </c>
       <c r="I25" s="36"/>
     </row>
-    <row r="26" spans="1:9" ht="30">
+    <row r="26" spans="1:9" ht="75">
       <c r="A26" s="36" t="s">
         <v>1557</v>
       </c>
@@ -11906,7 +11910,7 @@
       </c>
       <c r="I26" s="36"/>
     </row>
-    <row r="27" spans="1:9" ht="30">
+    <row r="27" spans="1:9" ht="45">
       <c r="A27" s="36" t="s">
         <v>627</v>
       </c>
@@ -11929,7 +11933,7 @@
       </c>
       <c r="I27" s="36"/>
     </row>
-    <row r="28" spans="1:9" ht="30">
+    <row r="28" spans="1:9" ht="45">
       <c r="A28" s="36" t="s">
         <v>630</v>
       </c>
@@ -11952,7 +11956,7 @@
       </c>
       <c r="I28" s="36"/>
     </row>
-    <row r="29" spans="1:9" ht="30">
+    <row r="29" spans="1:9" ht="75">
       <c r="A29" s="36" t="s">
         <v>1597</v>
       </c>
@@ -11977,7 +11981,7 @@
       </c>
       <c r="I29" s="36"/>
     </row>
-    <row r="30" spans="1:9" ht="30">
+    <row r="30" spans="1:9" ht="45">
       <c r="A30" s="36" t="s">
         <v>633</v>
       </c>
@@ -12002,7 +12006,7 @@
       </c>
       <c r="I30" s="36"/>
     </row>
-    <row r="31" spans="1:9" ht="30">
+    <row r="31" spans="1:9" ht="45">
       <c r="A31" s="36" t="s">
         <v>637</v>
       </c>
@@ -12027,7 +12031,7 @@
       </c>
       <c r="I31" s="36"/>
     </row>
-    <row r="32" spans="1:9" ht="30">
+    <row r="32" spans="1:9" ht="45">
       <c r="A32" s="36" t="s">
         <v>641</v>
       </c>
@@ -12050,7 +12054,7 @@
       </c>
       <c r="I32" s="36"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="45">
       <c r="A33" s="36" t="s">
         <v>644</v>
       </c>
@@ -12075,7 +12079,7 @@
       </c>
       <c r="I33" s="36"/>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="45">
       <c r="A34" s="36" t="s">
         <v>648</v>
       </c>
@@ -12098,7 +12102,7 @@
       </c>
       <c r="I34" s="36"/>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="60">
       <c r="A35" s="36" t="s">
         <v>1601</v>
       </c>
@@ -12123,7 +12127,7 @@
       </c>
       <c r="I35" s="36"/>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="45">
       <c r="A36" s="36" t="s">
         <v>651</v>
       </c>
@@ -12146,7 +12150,7 @@
       </c>
       <c r="I36" s="36"/>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="45">
       <c r="A37" s="36" t="s">
         <v>654</v>
       </c>
@@ -12169,7 +12173,7 @@
       </c>
       <c r="I37" s="36"/>
     </row>
-    <row r="38" spans="1:9" ht="30">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="36" t="s">
         <v>657</v>
       </c>
@@ -12192,7 +12196,7 @@
       </c>
       <c r="I38" s="36"/>
     </row>
-    <row r="39" spans="1:9" ht="30">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="36" t="s">
         <v>1360</v>
       </c>
@@ -12217,7 +12221,7 @@
       </c>
       <c r="I39" s="36"/>
     </row>
-    <row r="40" spans="1:9" ht="30">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="36" t="s">
         <v>660</v>
       </c>
@@ -12240,7 +12244,7 @@
       </c>
       <c r="I40" s="36"/>
     </row>
-    <row r="41" spans="1:9" ht="30">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="36" t="s">
         <v>663</v>
       </c>
@@ -12263,7 +12267,7 @@
       </c>
       <c r="I41" s="36"/>
     </row>
-    <row r="42" spans="1:9" ht="30">
+    <row r="42" spans="1:9" ht="60">
       <c r="A42" s="36" t="s">
         <v>1605</v>
       </c>
@@ -12288,7 +12292,7 @@
       </c>
       <c r="I42" s="36"/>
     </row>
-    <row r="43" spans="1:9" ht="30">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="36" t="s">
         <v>666</v>
       </c>
@@ -12311,7 +12315,7 @@
       </c>
       <c r="I43" s="36"/>
     </row>
-    <row r="44" spans="1:9" ht="30">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="36" t="s">
         <v>669</v>
       </c>
@@ -12334,7 +12338,7 @@
       </c>
       <c r="I44" s="36"/>
     </row>
-    <row r="45" spans="1:9" ht="30">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="36" t="s">
         <v>672</v>
       </c>
@@ -12357,7 +12361,7 @@
       </c>
       <c r="I45" s="36"/>
     </row>
-    <row r="46" spans="1:9" ht="30">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="36" t="s">
         <v>675</v>
       </c>
@@ -12380,7 +12384,7 @@
       </c>
       <c r="I46" s="36"/>
     </row>
-    <row r="47" spans="1:9" ht="30">
+    <row r="47" spans="1:9" ht="60">
       <c r="A47" s="36" t="s">
         <v>678</v>
       </c>
@@ -12403,7 +12407,7 @@
       </c>
       <c r="I47" s="36"/>
     </row>
-    <row r="48" spans="1:9" ht="30">
+    <row r="48" spans="1:9" ht="105">
       <c r="A48" s="36" t="s">
         <v>1494</v>
       </c>
@@ -12428,7 +12432,7 @@
       </c>
       <c r="I48" s="36"/>
     </row>
-    <row r="49" spans="1:9" ht="30">
+    <row r="49" spans="1:9" ht="45">
       <c r="A49" s="36" t="s">
         <v>681</v>
       </c>
@@ -12451,7 +12455,7 @@
       </c>
       <c r="I49" s="36"/>
     </row>
-    <row r="50" spans="1:9" ht="45">
+    <row r="50" spans="1:9" ht="60">
       <c r="A50" s="36" t="s">
         <v>684</v>
       </c>
@@ -12474,7 +12478,7 @@
       </c>
       <c r="I50" s="36"/>
     </row>
-    <row r="51" spans="1:9" ht="30">
+    <row r="51" spans="1:9" ht="45">
       <c r="A51" s="36" t="s">
         <v>687</v>
       </c>
@@ -12499,7 +12503,7 @@
       </c>
       <c r="I51" s="36"/>
     </row>
-    <row r="52" spans="1:9" ht="30">
+    <row r="52" spans="1:9" ht="45">
       <c r="A52" s="36" t="s">
         <v>691</v>
       </c>
@@ -12522,7 +12526,7 @@
       </c>
       <c r="I52" s="36"/>
     </row>
-    <row r="53" spans="1:9" ht="90">
+    <row r="53" spans="1:9" ht="60">
       <c r="A53" s="36" t="s">
         <v>694</v>
       </c>
@@ -12568,7 +12572,7 @@
       </c>
       <c r="I54" s="36"/>
     </row>
-    <row r="55" spans="1:9" ht="45">
+    <row r="55" spans="1:9" ht="60">
       <c r="A55" s="36" t="s">
         <v>700</v>
       </c>
@@ -12591,7 +12595,7 @@
       </c>
       <c r="I55" s="36"/>
     </row>
-    <row r="56" spans="1:9" ht="90">
+    <row r="56" spans="1:9" ht="45">
       <c r="A56" s="36" t="s">
         <v>703</v>
       </c>
@@ -12666,7 +12670,7 @@
       </c>
       <c r="I58" s="36"/>
     </row>
-    <row r="59" spans="1:9" ht="90">
+    <row r="59" spans="1:9" ht="45">
       <c r="A59" s="36" t="s">
         <v>715</v>
       </c>
@@ -12758,7 +12762,7 @@
       </c>
       <c r="I62" s="36"/>
     </row>
-    <row r="63" spans="1:9" ht="45">
+    <row r="63" spans="1:9" ht="105">
       <c r="A63" s="36" t="s">
         <v>727</v>
       </c>
@@ -12781,7 +12785,7 @@
       </c>
       <c r="I63" s="36"/>
     </row>
-    <row r="64" spans="1:9" ht="90">
+    <row r="64" spans="1:9" ht="45">
       <c r="A64" s="36" t="s">
         <v>730</v>
       </c>
@@ -12873,7 +12877,7 @@
       </c>
       <c r="I67" s="36"/>
     </row>
-    <row r="68" spans="1:9" ht="120">
+    <row r="68" spans="1:9" ht="315">
       <c r="A68" s="36" t="s">
         <v>1644</v>
       </c>
@@ -12900,7 +12904,7 @@
       </c>
       <c r="I68" s="36"/>
     </row>
-    <row r="69" spans="1:9" ht="90">
+    <row r="69" spans="1:9" ht="150">
       <c r="A69" s="36" t="s">
         <v>1364</v>
       </c>
@@ -12950,7 +12954,7 @@
       </c>
       <c r="I70" s="36"/>
     </row>
-    <row r="71" spans="1:9" ht="45">
+    <row r="71" spans="1:9" ht="75">
       <c r="A71" s="36" t="s">
         <v>1372</v>
       </c>
@@ -12975,7 +12979,7 @@
       </c>
       <c r="I71" s="36"/>
     </row>
-    <row r="72" spans="1:9" ht="45">
+    <row r="72" spans="1:9" ht="75">
       <c r="A72" s="36" t="s">
         <v>1376</v>
       </c>
@@ -13000,7 +13004,7 @@
       </c>
       <c r="I72" s="36"/>
     </row>
-    <row r="73" spans="1:9" ht="105">
+    <row r="73" spans="1:9" ht="75">
       <c r="A73" s="36" t="s">
         <v>1380</v>
       </c>
@@ -13025,7 +13029,7 @@
       </c>
       <c r="I73" s="36"/>
     </row>
-    <row r="74" spans="1:9" ht="90">
+    <row r="74" spans="1:9" ht="135">
       <c r="A74" s="36" t="s">
         <v>1384</v>
       </c>
@@ -13050,7 +13054,7 @@
       </c>
       <c r="I74" s="36"/>
     </row>
-    <row r="75" spans="1:9" ht="90">
+    <row r="75" spans="1:9" ht="60">
       <c r="A75" s="36" t="s">
         <v>1388</v>
       </c>
@@ -13075,7 +13079,7 @@
       </c>
       <c r="I75" s="36"/>
     </row>
-    <row r="76" spans="1:9" ht="90">
+    <row r="76" spans="1:9" ht="45">
       <c r="A76" s="36" t="s">
         <v>1392</v>
       </c>
@@ -13100,7 +13104,7 @@
       </c>
       <c r="I76" s="36"/>
     </row>
-    <row r="77" spans="1:9" ht="90">
+    <row r="77" spans="1:9" ht="75">
       <c r="A77" s="36" t="s">
         <v>1396</v>
       </c>
@@ -13125,7 +13129,7 @@
       </c>
       <c r="I77" s="36"/>
     </row>
-    <row r="78" spans="1:9" ht="90">
+    <row r="78" spans="1:9" ht="45">
       <c r="A78" s="36" t="s">
         <v>1400</v>
       </c>
@@ -13150,7 +13154,7 @@
       </c>
       <c r="I78" s="36"/>
     </row>
-    <row r="79" spans="1:9" ht="90">
+    <row r="79" spans="1:9" ht="105">
       <c r="A79" s="36" t="s">
         <v>1404</v>
       </c>
@@ -13175,7 +13179,7 @@
       </c>
       <c r="I79" s="36"/>
     </row>
-    <row r="80" spans="1:9" ht="90">
+    <row r="80" spans="1:9" ht="75">
       <c r="A80" s="36" t="s">
         <v>1408</v>
       </c>
@@ -13200,7 +13204,7 @@
       </c>
       <c r="I80" s="36"/>
     </row>
-    <row r="81" spans="1:9" ht="45">
+    <row r="81" spans="1:9" ht="60">
       <c r="A81" s="36" t="s">
         <v>1412</v>
       </c>
@@ -13225,7 +13229,7 @@
       </c>
       <c r="I81" s="36"/>
     </row>
-    <row r="82" spans="1:9" ht="60">
+    <row r="82" spans="1:9" ht="255">
       <c r="A82" s="36" t="s">
         <v>1416</v>
       </c>
@@ -13250,7 +13254,7 @@
       </c>
       <c r="I82" s="36"/>
     </row>
-    <row r="83" spans="1:9" ht="90">
+    <row r="83" spans="1:9" ht="45">
       <c r="A83" s="36" t="s">
         <v>1420</v>
       </c>
@@ -13300,7 +13304,7 @@
       </c>
       <c r="I84" s="36"/>
     </row>
-    <row r="85" spans="1:9" ht="90">
+    <row r="85" spans="1:9" ht="60">
       <c r="A85" s="36" t="s">
         <v>1428</v>
       </c>
@@ -13323,7 +13327,7 @@
       </c>
       <c r="I85" s="36"/>
     </row>
-    <row r="86" spans="1:9" ht="75">
+    <row r="86" spans="1:9" ht="45">
       <c r="A86" s="36" t="s">
         <v>1498</v>
       </c>
@@ -13394,7 +13398,7 @@
       </c>
       <c r="I88" s="36"/>
     </row>
-    <row r="89" spans="1:9" ht="60">
+    <row r="89" spans="1:9" ht="75">
       <c r="A89" s="36" t="s">
         <v>748</v>
       </c>
@@ -13440,7 +13444,7 @@
       </c>
       <c r="I90" s="36"/>
     </row>
-    <row r="91" spans="1:9" ht="90">
+    <row r="91" spans="1:9" ht="45">
       <c r="A91" s="36" t="s">
         <v>755</v>
       </c>
@@ -13488,7 +13492,7 @@
       </c>
       <c r="I92" s="36"/>
     </row>
-    <row r="93" spans="1:9" ht="90">
+    <row r="93" spans="1:9" ht="60">
       <c r="A93" s="36" t="s">
         <v>762</v>
       </c>
@@ -13511,7 +13515,7 @@
       </c>
       <c r="I93" s="36"/>
     </row>
-    <row r="94" spans="1:9" ht="30">
+    <row r="94" spans="1:9" ht="45">
       <c r="A94" s="36" t="s">
         <v>765</v>
       </c>
@@ -13534,7 +13538,7 @@
       </c>
       <c r="I94" s="36"/>
     </row>
-    <row r="95" spans="1:9" ht="60">
+    <row r="95" spans="1:9" ht="45">
       <c r="A95" s="36" t="s">
         <v>768</v>
       </c>
@@ -13557,7 +13561,7 @@
       </c>
       <c r="I95" s="36"/>
     </row>
-    <row r="96" spans="1:9" ht="30">
+    <row r="96" spans="1:9" ht="60">
       <c r="A96" s="36" t="s">
         <v>771</v>
       </c>
@@ -13580,7 +13584,7 @@
       </c>
       <c r="I96" s="36"/>
     </row>
-    <row r="97" spans="1:9" ht="60">
+    <row r="97" spans="1:9" ht="45">
       <c r="A97" s="36" t="s">
         <v>774</v>
       </c>
@@ -13603,7 +13607,7 @@
       </c>
       <c r="I97" s="36"/>
     </row>
-    <row r="98" spans="1:9" ht="105">
+    <row r="98" spans="1:9" ht="45">
       <c r="A98" s="36" t="s">
         <v>777</v>
       </c>
@@ -13628,7 +13632,7 @@
       </c>
       <c r="I98" s="36"/>
     </row>
-    <row r="99" spans="1:9" ht="105">
+    <row r="99" spans="1:9" ht="45">
       <c r="A99" s="36" t="s">
         <v>781</v>
       </c>
@@ -13651,7 +13655,7 @@
       </c>
       <c r="I99" s="36"/>
     </row>
-    <row r="100" spans="1:9" ht="135">
+    <row r="100" spans="1:9" ht="45">
       <c r="A100" s="36" t="s">
         <v>784</v>
       </c>
@@ -13674,7 +13678,7 @@
       </c>
       <c r="I100" s="36"/>
     </row>
-    <row r="101" spans="1:9" ht="30">
+    <row r="101" spans="1:9" ht="75">
       <c r="A101" s="36" t="s">
         <v>787</v>
       </c>
@@ -13699,7 +13703,7 @@
       </c>
       <c r="I101" s="36"/>
     </row>
-    <row r="102" spans="1:9" ht="30">
+    <row r="102" spans="1:9" ht="45">
       <c r="A102" s="36" t="s">
         <v>791</v>
       </c>
@@ -13722,7 +13726,7 @@
       </c>
       <c r="I102" s="36"/>
     </row>
-    <row r="103" spans="1:9" ht="105">
+    <row r="103" spans="1:9" ht="45">
       <c r="A103" s="36" t="s">
         <v>794</v>
       </c>
@@ -13768,7 +13772,7 @@
       </c>
       <c r="I104" s="36"/>
     </row>
-    <row r="105" spans="1:9" ht="30">
+    <row r="105" spans="1:9" ht="60">
       <c r="A105" s="36" t="s">
         <v>800</v>
       </c>
@@ -13791,7 +13795,7 @@
       </c>
       <c r="I105" s="36"/>
     </row>
-    <row r="106" spans="1:9" ht="30">
+    <row r="106" spans="1:9" ht="45">
       <c r="A106" s="36" t="s">
         <v>803</v>
       </c>
@@ -13814,7 +13818,7 @@
       </c>
       <c r="I106" s="36"/>
     </row>
-    <row r="107" spans="1:9" ht="30">
+    <row r="107" spans="1:9" ht="60">
       <c r="A107" s="36" t="s">
         <v>1502</v>
       </c>
@@ -13839,7 +13843,7 @@
       </c>
       <c r="I107" s="36"/>
     </row>
-    <row r="108" spans="1:9" ht="30">
+    <row r="108" spans="1:9" ht="45">
       <c r="A108" s="36" t="s">
         <v>806</v>
       </c>
@@ -13885,7 +13889,7 @@
       </c>
       <c r="I109" s="36"/>
     </row>
-    <row r="110" spans="1:9" ht="30">
+    <row r="110" spans="1:9" ht="45">
       <c r="A110" s="36" t="s">
         <v>1506</v>
       </c>
@@ -13910,7 +13914,7 @@
       </c>
       <c r="I110" s="36"/>
     </row>
-    <row r="111" spans="1:9" ht="30">
+    <row r="111" spans="1:9" ht="60">
       <c r="A111" s="36" t="s">
         <v>812</v>
       </c>
@@ -13935,7 +13939,7 @@
       </c>
       <c r="I111" s="36"/>
     </row>
-    <row r="112" spans="1:9" ht="45">
+    <row r="112" spans="1:9" ht="60">
       <c r="A112" s="36" t="s">
         <v>816</v>
       </c>
@@ -13983,7 +13987,7 @@
       </c>
       <c r="I113" s="36"/>
     </row>
-    <row r="114" spans="1:9" ht="30">
+    <row r="114" spans="1:9" ht="45">
       <c r="A114" s="36" t="s">
         <v>823</v>
       </c>
@@ -14006,7 +14010,7 @@
       </c>
       <c r="I114" s="36"/>
     </row>
-    <row r="115" spans="1:9" ht="30">
+    <row r="115" spans="1:9" ht="45">
       <c r="A115" s="36" t="s">
         <v>826</v>
       </c>
@@ -14029,7 +14033,7 @@
       </c>
       <c r="I115" s="36"/>
     </row>
-    <row r="116" spans="1:9" ht="30">
+    <row r="116" spans="1:9" ht="45">
       <c r="A116" s="36" t="s">
         <v>829</v>
       </c>
@@ -14052,7 +14056,7 @@
       </c>
       <c r="I116" s="36"/>
     </row>
-    <row r="117" spans="1:9" ht="30">
+    <row r="117" spans="1:9" ht="45">
       <c r="A117" s="36" t="s">
         <v>1510</v>
       </c>
@@ -14077,7 +14081,7 @@
       </c>
       <c r="I117" s="36"/>
     </row>
-    <row r="118" spans="1:9" ht="30">
+    <row r="118" spans="1:9" ht="45">
       <c r="A118" s="36" t="s">
         <v>832</v>
       </c>
@@ -14100,7 +14104,7 @@
       </c>
       <c r="I118" s="36"/>
     </row>
-    <row r="119" spans="1:9" ht="60">
+    <row r="119" spans="1:9" ht="45">
       <c r="A119" s="36" t="s">
         <v>835</v>
       </c>
@@ -14123,7 +14127,7 @@
       </c>
       <c r="I119" s="36"/>
     </row>
-    <row r="120" spans="1:9" ht="30">
+    <row r="120" spans="1:9" ht="45">
       <c r="A120" s="36" t="s">
         <v>1514</v>
       </c>
@@ -14171,7 +14175,7 @@
       </c>
       <c r="I121" s="36"/>
     </row>
-    <row r="122" spans="1:9" ht="30">
+    <row r="122" spans="1:9" ht="45">
       <c r="A122" s="36" t="s">
         <v>841</v>
       </c>
@@ -14194,7 +14198,7 @@
       </c>
       <c r="I122" s="36"/>
     </row>
-    <row r="123" spans="1:9" ht="90">
+    <row r="123" spans="1:9" ht="75">
       <c r="A123" s="36" t="s">
         <v>844</v>
       </c>
@@ -14242,7 +14246,7 @@
       </c>
       <c r="I124" s="36"/>
     </row>
-    <row r="125" spans="1:9" ht="60">
+    <row r="125" spans="1:9" ht="75">
       <c r="A125" s="36" t="s">
         <v>851</v>
       </c>
@@ -14267,7 +14271,7 @@
       </c>
       <c r="I125" s="36"/>
     </row>
-    <row r="126" spans="1:9" ht="30">
+    <row r="126" spans="1:9" ht="60">
       <c r="A126" s="36" t="s">
         <v>855</v>
       </c>
@@ -14290,7 +14294,7 @@
       </c>
       <c r="I126" s="36"/>
     </row>
-    <row r="127" spans="1:9" ht="60">
+    <row r="127" spans="1:9" ht="120">
       <c r="A127" s="36" t="s">
         <v>1431</v>
       </c>
@@ -14313,7 +14317,7 @@
       </c>
       <c r="I127" s="36"/>
     </row>
-    <row r="128" spans="1:9" ht="30">
+    <row r="128" spans="1:9" ht="60">
       <c r="A128" s="36" t="s">
         <v>858</v>
       </c>
@@ -14338,7 +14342,7 @@
       </c>
       <c r="I128" s="36"/>
     </row>
-    <row r="129" spans="1:9" ht="30">
+    <row r="129" spans="1:9" ht="45">
       <c r="A129" s="36" t="s">
         <v>862</v>
       </c>
@@ -14361,7 +14365,7 @@
       </c>
       <c r="I129" s="36"/>
     </row>
-    <row r="130" spans="1:9" ht="105">
+    <row r="130" spans="1:9" ht="45">
       <c r="A130" s="36" t="s">
         <v>865</v>
       </c>
@@ -14386,7 +14390,7 @@
       </c>
       <c r="I130" s="36"/>
     </row>
-    <row r="131" spans="1:9" ht="30">
+    <row r="131" spans="1:9" ht="90">
       <c r="A131" s="36" t="s">
         <v>869</v>
       </c>
@@ -14409,7 +14413,7 @@
       </c>
       <c r="I131" s="36"/>
     </row>
-    <row r="132" spans="1:9" ht="30">
+    <row r="132" spans="1:9" ht="45">
       <c r="A132" s="36" t="s">
         <v>1435</v>
       </c>
@@ -14434,7 +14438,7 @@
       </c>
       <c r="I132" s="36"/>
     </row>
-    <row r="133" spans="1:9" ht="30">
+    <row r="133" spans="1:9" ht="45">
       <c r="A133" s="36" t="s">
         <v>872</v>
       </c>
@@ -14457,7 +14461,7 @@
       </c>
       <c r="I133" s="36"/>
     </row>
-    <row r="134" spans="1:9" ht="30">
+    <row r="134" spans="1:9" ht="75">
       <c r="A134" s="36" t="s">
         <v>875</v>
       </c>
@@ -14507,7 +14511,7 @@
       </c>
       <c r="I135" s="36"/>
     </row>
-    <row r="136" spans="1:9" ht="30">
+    <row r="136" spans="1:9" ht="45">
       <c r="A136" s="36" t="s">
         <v>883</v>
       </c>
@@ -14532,7 +14536,7 @@
       </c>
       <c r="I136" s="36"/>
     </row>
-    <row r="137" spans="1:9" ht="30">
+    <row r="137" spans="1:9" ht="45">
       <c r="A137" s="36" t="s">
         <v>887</v>
       </c>
@@ -14555,7 +14559,7 @@
       </c>
       <c r="I137" s="36"/>
     </row>
-    <row r="138" spans="1:9" ht="30">
+    <row r="138" spans="1:9" ht="105">
       <c r="A138" s="36" t="s">
         <v>890</v>
       </c>
@@ -14578,7 +14582,7 @@
       </c>
       <c r="I138" s="36"/>
     </row>
-    <row r="139" spans="1:9" ht="30">
+    <row r="139" spans="1:9" ht="45">
       <c r="A139" s="36" t="s">
         <v>1439</v>
       </c>
@@ -14603,7 +14607,7 @@
       </c>
       <c r="I139" s="36"/>
     </row>
-    <row r="140" spans="1:9" ht="60">
+    <row r="140" spans="1:9" ht="45">
       <c r="A140" s="36" t="s">
         <v>893</v>
       </c>
@@ -14626,7 +14630,7 @@
       </c>
       <c r="I140" s="36"/>
     </row>
-    <row r="141" spans="1:9" ht="60">
+    <row r="141" spans="1:9" ht="45">
       <c r="A141" s="36" t="s">
         <v>896</v>
       </c>
@@ -14649,7 +14653,7 @@
       </c>
       <c r="I141" s="36"/>
     </row>
-    <row r="142" spans="1:9" ht="75">
+    <row r="142" spans="1:9" ht="90">
       <c r="A142" s="36" t="s">
         <v>899</v>
       </c>
@@ -14672,7 +14676,7 @@
       </c>
       <c r="I142" s="36"/>
     </row>
-    <row r="143" spans="1:9" ht="90">
+    <row r="143" spans="1:9" ht="60">
       <c r="A143" s="36" t="s">
         <v>1443</v>
       </c>
@@ -14697,7 +14701,7 @@
       </c>
       <c r="I143" s="36"/>
     </row>
-    <row r="144" spans="1:9" ht="30">
+    <row r="144" spans="1:9" ht="45">
       <c r="A144" s="36" t="s">
         <v>1518</v>
       </c>
@@ -14722,7 +14726,7 @@
       </c>
       <c r="I144" s="36"/>
     </row>
-    <row r="145" spans="1:9" ht="45">
+    <row r="145" spans="1:9" ht="60">
       <c r="A145" s="36" t="s">
         <v>1522</v>
       </c>
@@ -14749,7 +14753,7 @@
       </c>
       <c r="I145" s="36"/>
     </row>
-    <row r="146" spans="1:9" ht="60">
+    <row r="146" spans="1:9" ht="45">
       <c r="A146" s="36" t="s">
         <v>902</v>
       </c>
@@ -14772,7 +14776,7 @@
       </c>
       <c r="I146" s="36"/>
     </row>
-    <row r="147" spans="1:9" ht="60">
+    <row r="147" spans="1:9" ht="45">
       <c r="A147" s="36" t="s">
         <v>905</v>
       </c>
@@ -14795,7 +14799,7 @@
       </c>
       <c r="I147" s="36"/>
     </row>
-    <row r="148" spans="1:9" ht="30">
+    <row r="148" spans="1:9" ht="75">
       <c r="A148" s="36" t="s">
         <v>1447</v>
       </c>
@@ -14822,7 +14826,7 @@
       </c>
       <c r="I148" s="36"/>
     </row>
-    <row r="149" spans="1:9" ht="30">
+    <row r="149" spans="1:9" ht="45">
       <c r="A149" s="36" t="s">
         <v>908</v>
       </c>
@@ -14918,7 +14922,7 @@
       </c>
       <c r="I152" s="36"/>
     </row>
-    <row r="153" spans="1:9" ht="45">
+    <row r="153" spans="1:9" ht="90">
       <c r="A153" s="36" t="s">
         <v>917</v>
       </c>
@@ -14968,7 +14972,7 @@
       </c>
       <c r="I154" s="36"/>
     </row>
-    <row r="155" spans="1:9" ht="45">
+    <row r="155" spans="1:9" ht="60">
       <c r="A155" s="36" t="s">
         <v>925</v>
       </c>
@@ -15037,7 +15041,7 @@
       </c>
       <c r="I157" s="36"/>
     </row>
-    <row r="158" spans="1:9" ht="60">
+    <row r="158" spans="1:9" ht="45">
       <c r="A158" s="36" t="s">
         <v>934</v>
       </c>
@@ -15083,7 +15087,7 @@
       </c>
       <c r="I159" s="36"/>
     </row>
-    <row r="160" spans="1:9" ht="45">
+    <row r="160" spans="1:9" ht="90">
       <c r="A160" s="36" t="s">
         <v>940</v>
       </c>
@@ -15202,7 +15206,7 @@
       </c>
       <c r="I164" s="36"/>
     </row>
-    <row r="165" spans="1:9" ht="45">
+    <row r="165" spans="1:9" ht="60">
       <c r="A165" s="36" t="s">
         <v>1452</v>
       </c>
@@ -15229,7 +15233,7 @@
       </c>
       <c r="I165" s="36"/>
     </row>
-    <row r="166" spans="1:9" ht="45">
+    <row r="166" spans="1:9" ht="75">
       <c r="A166" s="36" t="s">
         <v>953</v>
       </c>
@@ -15279,7 +15283,7 @@
       </c>
       <c r="I167" s="36"/>
     </row>
-    <row r="168" spans="1:9" ht="45">
+    <row r="168" spans="1:9" ht="60">
       <c r="A168" s="36" t="s">
         <v>1561</v>
       </c>
@@ -15304,7 +15308,7 @@
       </c>
       <c r="I168" s="36"/>
     </row>
-    <row r="169" spans="1:9" ht="45">
+    <row r="169" spans="1:9" ht="75">
       <c r="A169" s="36" t="s">
         <v>957</v>
       </c>
@@ -15329,7 +15333,7 @@
       </c>
       <c r="I169" s="36"/>
     </row>
-    <row r="170" spans="1:9" ht="45">
+    <row r="170" spans="1:9" ht="60">
       <c r="A170" s="36" t="s">
         <v>961</v>
       </c>
@@ -15379,7 +15383,7 @@
       </c>
       <c r="I171" s="36"/>
     </row>
-    <row r="172" spans="1:9" ht="45">
+    <row r="172" spans="1:9" ht="90">
       <c r="A172" s="36" t="s">
         <v>1622</v>
       </c>
@@ -15473,7 +15477,7 @@
       </c>
       <c r="I175" s="36"/>
     </row>
-    <row r="176" spans="1:9" ht="45">
+    <row r="176" spans="1:9" ht="60">
       <c r="A176" s="36" t="s">
         <v>978</v>
       </c>
@@ -15496,7 +15500,7 @@
       </c>
       <c r="I176" s="36"/>
     </row>
-    <row r="177" spans="1:9" ht="45">
+    <row r="177" spans="1:9" ht="60">
       <c r="A177" s="36" t="s">
         <v>981</v>
       </c>
@@ -15594,7 +15598,7 @@
       </c>
       <c r="I180" s="36"/>
     </row>
-    <row r="181" spans="1:9" ht="45">
+    <row r="181" spans="1:9" ht="75">
       <c r="A181" s="36" t="s">
         <v>996</v>
       </c>
@@ -15619,7 +15623,7 @@
       </c>
       <c r="I181" s="36"/>
     </row>
-    <row r="182" spans="1:9" ht="45">
+    <row r="182" spans="1:9" ht="60">
       <c r="A182" s="36" t="s">
         <v>1565</v>
       </c>
@@ -15662,7 +15666,7 @@
       </c>
       <c r="F183" s="26"/>
       <c r="G183" s="26" t="s">
-        <v>1817</v>
+        <v>1819</v>
       </c>
       <c r="H183" s="26" t="s">
         <v>1569</v>
@@ -15712,14 +15716,14 @@
       </c>
       <c r="F185" s="26"/>
       <c r="G185" s="26" t="s">
-        <v>1819</v>
+        <v>1821</v>
       </c>
       <c r="H185" s="26" t="s">
         <v>1569</v>
       </c>
       <c r="I185" s="36"/>
     </row>
-    <row r="186" spans="1:9" ht="60">
+    <row r="186" spans="1:9" ht="195">
       <c r="A186" s="36" t="s">
         <v>1640</v>
       </c>
@@ -15762,7 +15766,7 @@
       </c>
       <c r="F187" s="26"/>
       <c r="G187" s="26" t="s">
-        <v>1818</v>
+        <v>1820</v>
       </c>
       <c r="H187" s="26" t="s">
         <v>1569</v>
@@ -15787,14 +15791,14 @@
       </c>
       <c r="F188" s="26"/>
       <c r="G188" s="26" t="s">
-        <v>1820</v>
+        <v>1822</v>
       </c>
       <c r="H188" s="26" t="s">
         <v>1569</v>
       </c>
       <c r="I188" s="36"/>
     </row>
-    <row r="189" spans="1:9" ht="60">
+    <row r="189" spans="1:9" ht="285">
       <c r="A189" s="36" t="s">
         <v>1649</v>
       </c>
@@ -15844,7 +15848,7 @@
       </c>
       <c r="I190" s="36"/>
     </row>
-    <row r="191" spans="1:9" ht="60">
+    <row r="191" spans="1:9" ht="45">
       <c r="A191" s="36" t="s">
         <v>1465</v>
       </c>
@@ -15887,14 +15891,14 @@
       </c>
       <c r="F192" s="26"/>
       <c r="G192" s="26" t="s">
-        <v>1821</v>
+        <v>1823</v>
       </c>
       <c r="H192" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I192" s="36"/>
     </row>
-    <row r="193" spans="1:9" ht="45">
+    <row r="193" spans="1:9" ht="90">
       <c r="A193" s="36" t="s">
         <v>1609</v>
       </c>
@@ -15967,7 +15971,7 @@
       </c>
       <c r="I195" s="36"/>
     </row>
-    <row r="196" spans="1:9" ht="45">
+    <row r="196" spans="1:9" ht="120">
       <c r="A196" s="36" t="s">
         <v>1630</v>
       </c>
@@ -16012,14 +16016,14 @@
         <v>1639</v>
       </c>
       <c r="G197" s="26" t="s">
-        <v>1816</v>
+        <v>1818</v>
       </c>
       <c r="H197" s="26" t="s">
         <v>93</v>
       </c>
       <c r="I197" s="36"/>
     </row>
-    <row r="198" spans="1:9" ht="45">
+    <row r="198" spans="1:9" ht="60">
       <c r="A198" s="36" t="s">
         <v>1004</v>
       </c>
@@ -16044,7 +16048,7 @@
       </c>
       <c r="I198" s="36"/>
     </row>
-    <row r="199" spans="1:9" ht="105">
+    <row r="199" spans="1:9" ht="45">
       <c r="A199" s="36" t="s">
         <v>1008</v>
       </c>
@@ -16090,7 +16094,7 @@
       </c>
       <c r="I200" s="36"/>
     </row>
-    <row r="201" spans="1:9" ht="45">
+    <row r="201" spans="1:9" ht="75">
       <c r="A201" s="36" t="s">
         <v>1013</v>
       </c>
@@ -16115,7 +16119,7 @@
       </c>
       <c r="I201" s="36"/>
     </row>
-    <row r="202" spans="1:9" ht="45">
+    <row r="202" spans="1:9" ht="75">
       <c r="A202" s="36" t="s">
         <v>1017</v>
       </c>
@@ -16140,7 +16144,7 @@
       </c>
       <c r="I202" s="36"/>
     </row>
-    <row r="203" spans="1:9" ht="45">
+    <row r="203" spans="1:9" ht="105">
       <c r="A203" s="36" t="s">
         <v>1021</v>
       </c>
@@ -16211,7 +16215,7 @@
       </c>
       <c r="I205" s="36"/>
     </row>
-    <row r="206" spans="1:9" ht="75">
+    <row r="206" spans="1:9" ht="60">
       <c r="A206" s="36" t="s">
         <v>1031</v>
       </c>
@@ -16234,7 +16238,7 @@
       </c>
       <c r="I206" s="36"/>
     </row>
-    <row r="207" spans="1:9" ht="90">
+    <row r="207" spans="1:9" ht="60">
       <c r="A207" s="36" t="s">
         <v>1034</v>
       </c>
@@ -16282,7 +16286,7 @@
       </c>
       <c r="I208" s="36"/>
     </row>
-    <row r="209" spans="1:9" ht="90">
+    <row r="209" spans="1:9" ht="60">
       <c r="A209" s="36" t="s">
         <v>1041</v>
       </c>
@@ -16374,7 +16378,7 @@
       </c>
       <c r="I212" s="36"/>
     </row>
-    <row r="213" spans="1:9" ht="60">
+    <row r="213" spans="1:9" ht="45">
       <c r="A213" s="36" t="s">
         <v>1053</v>
       </c>
@@ -16420,7 +16424,7 @@
       </c>
       <c r="I214" s="36"/>
     </row>
-    <row r="215" spans="1:9" ht="45">
+    <row r="215" spans="1:9" ht="60">
       <c r="A215" s="36" t="s">
         <v>1059</v>
       </c>
@@ -16443,7 +16447,7 @@
       </c>
       <c r="I215" s="36"/>
     </row>
-    <row r="216" spans="1:9" ht="45">
+    <row r="216" spans="1:9" ht="75">
       <c r="A216" s="36" t="s">
         <v>1062</v>
       </c>
@@ -16514,7 +16518,7 @@
       </c>
       <c r="I218" s="36"/>
     </row>
-    <row r="219" spans="1:9" ht="45">
+    <row r="219" spans="1:9" ht="75">
       <c r="A219" s="36" t="s">
         <v>1072</v>
       </c>
@@ -16635,7 +16639,7 @@
       </c>
       <c r="I223" s="36"/>
     </row>
-    <row r="224" spans="1:9" ht="45">
+    <row r="224" spans="1:9" ht="60">
       <c r="A224" s="36" t="s">
         <v>1090</v>
       </c>
@@ -16685,7 +16689,7 @@
       </c>
       <c r="I225" s="36"/>
     </row>
-    <row r="226" spans="1:9" ht="60">
+    <row r="226" spans="1:9" ht="45">
       <c r="A226" s="36" t="s">
         <v>1098</v>
       </c>
@@ -16710,7 +16714,7 @@
       </c>
       <c r="I226" s="36"/>
     </row>
-    <row r="227" spans="1:9" ht="60">
+    <row r="227" spans="1:9" ht="45">
       <c r="A227" s="36" t="s">
         <v>1102</v>
       </c>
@@ -16735,7 +16739,7 @@
       </c>
       <c r="I227" s="36"/>
     </row>
-    <row r="228" spans="1:9" ht="45">
+    <row r="228" spans="1:9" ht="60">
       <c r="A228" s="36" t="s">
         <v>1106</v>
       </c>
@@ -16758,7 +16762,7 @@
       </c>
       <c r="I228" s="36"/>
     </row>
-    <row r="229" spans="1:9" ht="45">
+    <row r="229" spans="1:9" ht="60">
       <c r="A229" s="36" t="s">
         <v>1109</v>
       </c>
@@ -16804,7 +16808,7 @@
       </c>
       <c r="I230" s="36"/>
     </row>
-    <row r="231" spans="1:9" ht="45">
+    <row r="231" spans="1:9" ht="105">
       <c r="A231" s="36" t="s">
         <v>1115</v>
       </c>
@@ -16829,7 +16833,7 @@
       </c>
       <c r="I231" s="36"/>
     </row>
-    <row r="232" spans="1:9" ht="45">
+    <row r="232" spans="1:9" ht="60">
       <c r="A232" s="36" t="s">
         <v>1119</v>
       </c>
@@ -16852,7 +16856,7 @@
       </c>
       <c r="I232" s="36"/>
     </row>
-    <row r="233" spans="1:9" ht="45">
+    <row r="233" spans="1:9" ht="60">
       <c r="A233" s="36" t="s">
         <v>1122</v>
       </c>
@@ -16875,7 +16879,7 @@
       </c>
       <c r="I233" s="36"/>
     </row>
-    <row r="234" spans="1:9" ht="45">
+    <row r="234" spans="1:9" ht="60">
       <c r="A234" s="36" t="s">
         <v>1125</v>
       </c>
@@ -16898,7 +16902,7 @@
       </c>
       <c r="I234" s="36"/>
     </row>
-    <row r="235" spans="1:9" ht="45">
+    <row r="235" spans="1:9" ht="75">
       <c r="A235" s="36" t="s">
         <v>1128</v>
       </c>
@@ -16971,7 +16975,7 @@
       </c>
       <c r="I237" s="36"/>
     </row>
-    <row r="238" spans="1:9" ht="75">
+    <row r="238" spans="1:9" ht="45">
       <c r="A238" s="36" t="s">
         <v>1139</v>
       </c>
@@ -16996,7 +17000,7 @@
       </c>
       <c r="I238" s="36"/>
     </row>
-    <row r="239" spans="1:9" ht="60">
+    <row r="239" spans="1:9" ht="45">
       <c r="A239" s="36" t="s">
         <v>1143</v>
       </c>
@@ -17019,7 +17023,7 @@
       </c>
       <c r="I239" s="36"/>
     </row>
-    <row r="240" spans="1:9" ht="60">
+    <row r="240" spans="1:9" ht="45">
       <c r="A240" s="36" t="s">
         <v>1146</v>
       </c>
@@ -17092,7 +17096,7 @@
       </c>
       <c r="I242" s="36"/>
     </row>
-    <row r="243" spans="1:9" ht="90">
+    <row r="243" spans="1:9" ht="45">
       <c r="A243" s="36" t="s">
         <v>1157</v>
       </c>
@@ -17142,7 +17146,7 @@
       </c>
       <c r="I244" s="36"/>
     </row>
-    <row r="245" spans="1:9" ht="75">
+    <row r="245" spans="1:9" ht="45">
       <c r="A245" s="36" t="s">
         <v>1165</v>
       </c>
@@ -17167,7 +17171,7 @@
       </c>
       <c r="I245" s="36"/>
     </row>
-    <row r="246" spans="1:9" ht="60">
+    <row r="246" spans="1:9" ht="75">
       <c r="A246" s="36" t="s">
         <v>1169</v>
       </c>
@@ -17240,7 +17244,7 @@
       </c>
       <c r="I248" s="36"/>
     </row>
-    <row r="249" spans="1:9" ht="105">
+    <row r="249" spans="1:9" ht="45">
       <c r="A249" s="36" t="s">
         <v>1180</v>
       </c>
@@ -17311,7 +17315,7 @@
       </c>
       <c r="I251" s="36"/>
     </row>
-    <row r="252" spans="1:9" ht="90">
+    <row r="252" spans="1:9" ht="60">
       <c r="A252" s="36" t="s">
         <v>1190</v>
       </c>
@@ -17409,7 +17413,7 @@
       </c>
       <c r="I255" s="36"/>
     </row>
-    <row r="256" spans="1:9" ht="45">
+    <row r="256" spans="1:9" ht="75">
       <c r="A256" s="36" t="s">
         <v>1205</v>
       </c>
@@ -17432,7 +17436,7 @@
       </c>
       <c r="I256" s="36"/>
     </row>
-    <row r="257" spans="1:9" ht="45">
+    <row r="257" spans="1:9" ht="60">
       <c r="A257" s="36" t="s">
         <v>1209</v>
       </c>
@@ -17455,7 +17459,7 @@
       </c>
       <c r="I257" s="36"/>
     </row>
-    <row r="258" spans="1:9" ht="90">
+    <row r="258" spans="1:9" ht="45">
       <c r="A258" s="36" t="s">
         <v>1212</v>
       </c>
@@ -17626,7 +17630,7 @@
       </c>
       <c r="I264" s="36"/>
     </row>
-    <row r="265" spans="1:9" ht="90">
+    <row r="265" spans="1:9" ht="45">
       <c r="A265" s="36" t="s">
         <v>1238</v>
       </c>
@@ -17672,7 +17676,7 @@
       </c>
       <c r="I266" s="36"/>
     </row>
-    <row r="267" spans="1:9" ht="45">
+    <row r="267" spans="1:9" ht="75">
       <c r="A267" s="36" t="s">
         <v>1244</v>
       </c>
@@ -17720,7 +17724,7 @@
       </c>
       <c r="I268" s="36"/>
     </row>
-    <row r="269" spans="1:9" ht="75">
+    <row r="269" spans="1:9" ht="45">
       <c r="A269" s="36" t="s">
         <v>1251</v>
       </c>
@@ -17745,7 +17749,7 @@
       </c>
       <c r="I269" s="36"/>
     </row>
-    <row r="270" spans="1:9" ht="75">
+    <row r="270" spans="1:9" ht="45">
       <c r="A270" s="36" t="s">
         <v>1255</v>
       </c>
@@ -17866,7 +17870,7 @@
       </c>
       <c r="I274" s="36"/>
     </row>
-    <row r="275" spans="1:9" ht="45">
+    <row r="275" spans="1:9" ht="60">
       <c r="A275" s="36" t="s">
         <v>1267</v>
       </c>
@@ -17889,7 +17893,7 @@
       </c>
       <c r="I275" s="36"/>
     </row>
-    <row r="276" spans="1:9" ht="60">
+    <row r="276" spans="1:9" ht="45">
       <c r="A276" s="36" t="s">
         <v>1270</v>
       </c>
@@ -17912,7 +17916,7 @@
       </c>
       <c r="I276" s="36"/>
     </row>
-    <row r="277" spans="1:9" ht="60">
+    <row r="277" spans="1:9" ht="90">
       <c r="A277" s="36" t="s">
         <v>1273</v>
       </c>
@@ -18010,7 +18014,7 @@
       </c>
       <c r="I280" s="36"/>
     </row>
-    <row r="281" spans="1:9" ht="75">
+    <row r="281" spans="1:9" ht="90">
       <c r="A281" s="36" t="s">
         <v>1288</v>
       </c>
@@ -18033,7 +18037,7 @@
       </c>
       <c r="I281" s="36"/>
     </row>
-    <row r="282" spans="1:9" ht="45">
+    <row r="282" spans="1:9" ht="75">
       <c r="A282" s="36" t="s">
         <v>1291</v>
       </c>
@@ -18056,7 +18060,7 @@
       </c>
       <c r="I282" s="36"/>
     </row>
-    <row r="283" spans="1:9" ht="60">
+    <row r="283" spans="1:9" ht="45">
       <c r="A283" s="36" t="s">
         <v>1294</v>
       </c>
@@ -18081,7 +18085,7 @@
       </c>
       <c r="I283" s="36"/>
     </row>
-    <row r="284" spans="1:9" ht="45">
+    <row r="284" spans="1:9" ht="60">
       <c r="A284" s="36" t="s">
         <v>1298</v>
       </c>
@@ -18150,7 +18154,7 @@
       </c>
       <c r="I286" s="36"/>
     </row>
-    <row r="287" spans="1:9" ht="75">
+    <row r="287" spans="1:9" ht="60">
       <c r="A287" s="36" t="s">
         <v>1307</v>
       </c>
@@ -18175,7 +18179,7 @@
       </c>
       <c r="I287" s="36"/>
     </row>
-    <row r="288" spans="1:9" ht="105">
+    <row r="288" spans="1:9" ht="45">
       <c r="A288" s="36" t="s">
         <v>1311</v>
       </c>
@@ -18221,7 +18225,7 @@
       </c>
       <c r="I289" s="36"/>
     </row>
-    <row r="290" spans="1:9" ht="45">
+    <row r="290" spans="1:9" ht="60">
       <c r="A290" s="36" t="s">
         <v>1317</v>
       </c>
@@ -18246,7 +18250,7 @@
       </c>
       <c r="I290" s="36"/>
     </row>
-    <row r="291" spans="1:9" ht="60">
+    <row r="291" spans="1:9" ht="75">
       <c r="A291" s="36" t="s">
         <v>1321</v>
       </c>
@@ -18271,7 +18275,7 @@
       </c>
       <c r="I291" s="36"/>
     </row>
-    <row r="292" spans="1:9" ht="60">
+    <row r="292" spans="1:9" ht="45">
       <c r="A292" s="36" t="s">
         <v>1325</v>
       </c>
@@ -18294,7 +18298,7 @@
       </c>
       <c r="I292" s="36"/>
     </row>
-    <row r="293" spans="1:9" ht="45">
+    <row r="293" spans="1:9" ht="90">
       <c r="A293" s="36" t="s">
         <v>1328</v>
       </c>
@@ -18367,7 +18371,7 @@
       </c>
       <c r="I295" s="36"/>
     </row>
-    <row r="296" spans="1:9" ht="45">
+    <row r="296" spans="1:9" ht="60">
       <c r="A296" s="36" t="s">
         <v>1586</v>
       </c>
@@ -18392,7 +18396,7 @@
       </c>
       <c r="I296" s="36"/>
     </row>
-    <row r="297" spans="1:9" ht="45">
+    <row r="297" spans="1:9" ht="60">
       <c r="A297" s="36" t="s">
         <v>1469</v>
       </c>
@@ -18415,7 +18419,7 @@
       </c>
       <c r="I297" s="36"/>
     </row>
-    <row r="298" spans="1:9" ht="45">
+    <row r="298" spans="1:9" ht="75">
       <c r="A298" s="36" t="s">
         <v>1472</v>
       </c>
@@ -18438,7 +18442,7 @@
       </c>
       <c r="I298" s="36"/>
     </row>
-    <row r="299" spans="1:9" ht="45">
+    <row r="299" spans="1:9" ht="105">
       <c r="A299" s="36" t="s">
         <v>1475</v>
       </c>
@@ -18461,7 +18465,7 @@
       </c>
       <c r="I299" s="36"/>
     </row>
-    <row r="300" spans="1:9" ht="60">
+    <row r="300" spans="1:9" ht="30">
       <c r="A300" s="36" t="s">
         <v>94</v>
       </c>
@@ -18532,7 +18536,7 @@
       </c>
       <c r="I302" s="36"/>
     </row>
-    <row r="303" spans="1:9" ht="75">
+    <row r="303" spans="1:9" ht="45">
       <c r="A303" s="36" t="s">
         <v>106</v>
       </c>
@@ -18557,7 +18561,7 @@
       </c>
       <c r="I303" s="36"/>
     </row>
-    <row r="304" spans="1:9" ht="75">
+    <row r="304" spans="1:9" ht="90">
       <c r="A304" s="36" t="s">
         <v>1613</v>
       </c>
@@ -18582,7 +18586,7 @@
       </c>
       <c r="I304" s="36"/>
     </row>
-    <row r="305" spans="1:9" ht="45">
+    <row r="305" spans="1:9" ht="30">
       <c r="A305" s="36" t="s">
         <v>110</v>
       </c>
@@ -18628,7 +18632,7 @@
       </c>
       <c r="I306" s="36"/>
     </row>
-    <row r="307" spans="1:9" ht="60">
+    <row r="307" spans="1:9" ht="105">
       <c r="A307" s="36" t="s">
         <v>116</v>
       </c>
@@ -18651,7 +18655,7 @@
       </c>
       <c r="I307" s="36"/>
     </row>
-    <row r="308" spans="1:9" ht="45">
+    <row r="308" spans="1:9" ht="30">
       <c r="A308" s="36" t="s">
         <v>119</v>
       </c>
@@ -18674,7 +18678,7 @@
       </c>
       <c r="I308" s="36"/>
     </row>
-    <row r="309" spans="1:9" ht="60">
+    <row r="309" spans="1:9" ht="45">
       <c r="A309" s="36" t="s">
         <v>122</v>
       </c>
@@ -18720,7 +18724,7 @@
       </c>
       <c r="I310" s="36"/>
     </row>
-    <row r="311" spans="1:9" ht="45">
+    <row r="311" spans="1:9" ht="409.5">
       <c r="A311" s="36" t="s">
         <v>1653</v>
       </c>
@@ -18745,7 +18749,7 @@
       </c>
       <c r="I311" s="36"/>
     </row>
-    <row r="312" spans="1:9" ht="45">
+    <row r="312" spans="1:9" ht="30">
       <c r="A312" s="36" t="s">
         <v>128</v>
       </c>
@@ -18768,7 +18772,7 @@
       </c>
       <c r="I312" s="36"/>
     </row>
-    <row r="313" spans="1:9" ht="60">
+    <row r="313" spans="1:9" ht="30">
       <c r="A313" s="36" t="s">
         <v>131</v>
       </c>
@@ -18791,7 +18795,7 @@
       </c>
       <c r="I313" s="36"/>
     </row>
-    <row r="314" spans="1:9" ht="60">
+    <row r="314" spans="1:9" ht="30">
       <c r="A314" s="36" t="s">
         <v>134</v>
       </c>
@@ -18814,7 +18818,7 @@
       </c>
       <c r="I314" s="36"/>
     </row>
-    <row r="315" spans="1:9" ht="45">
+    <row r="315" spans="1:9" ht="30">
       <c r="A315" s="36" t="s">
         <v>137</v>
       </c>
@@ -18837,7 +18841,7 @@
       </c>
       <c r="I315" s="36"/>
     </row>
-    <row r="316" spans="1:9" ht="105">
+    <row r="316" spans="1:9" ht="30">
       <c r="A316" s="36" t="s">
         <v>140</v>
       </c>
@@ -18860,7 +18864,7 @@
       </c>
       <c r="I316" s="36"/>
     </row>
-    <row r="317" spans="1:9" ht="60">
+    <row r="317" spans="1:9" ht="30">
       <c r="A317" s="36" t="s">
         <v>143</v>
       </c>
@@ -18883,7 +18887,7 @@
       </c>
       <c r="I317" s="36"/>
     </row>
-    <row r="318" spans="1:9" ht="60">
+    <row r="318" spans="1:9" ht="30">
       <c r="A318" s="36" t="s">
         <v>146</v>
       </c>
@@ -18906,7 +18910,7 @@
       </c>
       <c r="I318" s="36"/>
     </row>
-    <row r="319" spans="1:9" ht="60">
+    <row r="319" spans="1:9" ht="30">
       <c r="A319" s="36" t="s">
         <v>149</v>
       </c>
@@ -18929,7 +18933,7 @@
       </c>
       <c r="I319" s="36"/>
     </row>
-    <row r="320" spans="1:9" ht="75">
+    <row r="320" spans="1:9" ht="45">
       <c r="A320" s="36" t="s">
         <v>152</v>
       </c>
@@ -18952,7 +18956,7 @@
       </c>
       <c r="I320" s="36"/>
     </row>
-    <row r="321" spans="1:9" ht="75">
+    <row r="321" spans="1:9" ht="60">
       <c r="A321" s="36" t="s">
         <v>155</v>
       </c>
@@ -18975,7 +18979,7 @@
       </c>
       <c r="I321" s="36"/>
     </row>
-    <row r="322" spans="1:9" ht="45">
+    <row r="322" spans="1:9" ht="30">
       <c r="A322" s="36" t="s">
         <v>158</v>
       </c>
@@ -18998,7 +19002,7 @@
       </c>
       <c r="I322" s="36"/>
     </row>
-    <row r="323" spans="1:9" ht="45">
+    <row r="323" spans="1:9" ht="30">
       <c r="A323" s="36" t="s">
         <v>161</v>
       </c>
@@ -19021,7 +19025,7 @@
       </c>
       <c r="I323" s="36"/>
     </row>
-    <row r="324" spans="1:9" ht="45">
+    <row r="324" spans="1:9" ht="30">
       <c r="A324" s="36" t="s">
         <v>164</v>
       </c>
@@ -19044,7 +19048,7 @@
       </c>
       <c r="I324" s="36"/>
     </row>
-    <row r="325" spans="1:9" ht="45">
+    <row r="325" spans="1:9" ht="30">
       <c r="A325" s="36" t="s">
         <v>167</v>
       </c>
@@ -19067,7 +19071,7 @@
       </c>
       <c r="I325" s="36"/>
     </row>
-    <row r="326" spans="1:9" ht="45">
+    <row r="326" spans="1:9" ht="30">
       <c r="A326" s="36" t="s">
         <v>170</v>
       </c>
@@ -19090,7 +19094,7 @@
       </c>
       <c r="I326" s="36"/>
     </row>
-    <row r="327" spans="1:9" ht="45">
+    <row r="327" spans="1:9" ht="30">
       <c r="A327" s="36" t="s">
         <v>173</v>
       </c>
@@ -19113,7 +19117,7 @@
       </c>
       <c r="I327" s="36"/>
     </row>
-    <row r="328" spans="1:9" ht="45">
+    <row r="328" spans="1:9" ht="30">
       <c r="A328" s="36" t="s">
         <v>176</v>
       </c>
@@ -19136,7 +19140,7 @@
       </c>
       <c r="I328" s="36"/>
     </row>
-    <row r="329" spans="1:9" ht="45">
+    <row r="329" spans="1:9" ht="30">
       <c r="A329" s="36" t="s">
         <v>179</v>
       </c>
@@ -19159,7 +19163,7 @@
       </c>
       <c r="I329" s="36"/>
     </row>
-    <row r="330" spans="1:9" ht="45">
+    <row r="330" spans="1:9" ht="30">
       <c r="A330" s="36" t="s">
         <v>182</v>
       </c>
@@ -19182,7 +19186,7 @@
       </c>
       <c r="I330" s="36"/>
     </row>
-    <row r="331" spans="1:9" ht="75">
+    <row r="331" spans="1:9" ht="30">
       <c r="A331" s="36" t="s">
         <v>185</v>
       </c>
@@ -19205,7 +19209,7 @@
       </c>
       <c r="I331" s="36"/>
     </row>
-    <row r="332" spans="1:9" ht="45">
+    <row r="332" spans="1:9" ht="30">
       <c r="A332" s="36" t="s">
         <v>188</v>
       </c>
@@ -19228,7 +19232,7 @@
       </c>
       <c r="I332" s="36"/>
     </row>
-    <row r="333" spans="1:9" ht="45">
+    <row r="333" spans="1:9" ht="30">
       <c r="A333" s="36" t="s">
         <v>191</v>
       </c>
@@ -19251,7 +19255,7 @@
       </c>
       <c r="I333" s="36"/>
     </row>
-    <row r="334" spans="1:9" ht="45">
+    <row r="334" spans="1:9" ht="30">
       <c r="A334" s="36" t="s">
         <v>194</v>
       </c>
@@ -19274,7 +19278,7 @@
       </c>
       <c r="I334" s="36"/>
     </row>
-    <row r="335" spans="1:9" ht="45">
+    <row r="335" spans="1:9" ht="30">
       <c r="A335" s="36" t="s">
         <v>197</v>
       </c>
@@ -19297,7 +19301,7 @@
       </c>
       <c r="I335" s="36"/>
     </row>
-    <row r="336" spans="1:9" ht="45">
+    <row r="336" spans="1:9" ht="30">
       <c r="A336" s="36" t="s">
         <v>200</v>
       </c>
@@ -19320,7 +19324,7 @@
       </c>
       <c r="I336" s="36"/>
     </row>
-    <row r="337" spans="1:9" ht="60">
+    <row r="337" spans="1:9" ht="30">
       <c r="A337" s="36" t="s">
         <v>203</v>
       </c>
@@ -19343,7 +19347,7 @@
       </c>
       <c r="I337" s="36"/>
     </row>
-    <row r="338" spans="1:9" ht="45">
+    <row r="338" spans="1:9" ht="30">
       <c r="A338" s="36" t="s">
         <v>206</v>
       </c>
@@ -19366,7 +19370,7 @@
       </c>
       <c r="I338" s="36"/>
     </row>
-    <row r="339" spans="1:9" ht="45">
+    <row r="339" spans="1:9" ht="30">
       <c r="A339" s="36" t="s">
         <v>209</v>
       </c>
@@ -19389,7 +19393,7 @@
       </c>
       <c r="I339" s="36"/>
     </row>
-    <row r="340" spans="1:9" ht="45">
+    <row r="340" spans="1:9" ht="30">
       <c r="A340" s="36" t="s">
         <v>212</v>
       </c>
@@ -19412,7 +19416,7 @@
       </c>
       <c r="I340" s="36"/>
     </row>
-    <row r="341" spans="1:9" ht="75">
+    <row r="341" spans="1:9" ht="30">
       <c r="A341" s="36" t="s">
         <v>215</v>
       </c>
@@ -19435,7 +19439,7 @@
       </c>
       <c r="I341" s="36"/>
     </row>
-    <row r="342" spans="1:9" ht="60">
+    <row r="342" spans="1:9" ht="30">
       <c r="A342" s="36" t="s">
         <v>218</v>
       </c>
@@ -19458,7 +19462,7 @@
       </c>
       <c r="I342" s="36"/>
     </row>
-    <row r="343" spans="1:9" ht="45">
+    <row r="343" spans="1:9" ht="30">
       <c r="A343" s="36" t="s">
         <v>221</v>
       </c>
@@ -19481,7 +19485,7 @@
       </c>
       <c r="I343" s="36"/>
     </row>
-    <row r="344" spans="1:9" ht="45">
+    <row r="344" spans="1:9" ht="60">
       <c r="A344" s="36" t="s">
         <v>1589</v>
       </c>
@@ -19506,7 +19510,7 @@
       </c>
       <c r="I344" s="36"/>
     </row>
-    <row r="345" spans="1:9" ht="60">
+    <row r="345" spans="1:9" ht="30">
       <c r="A345" s="36" t="s">
         <v>224</v>
       </c>
@@ -19529,7 +19533,7 @@
       </c>
       <c r="I345" s="36"/>
     </row>
-    <row r="346" spans="1:9" ht="45">
+    <row r="346" spans="1:9" ht="30">
       <c r="A346" s="36" t="s">
         <v>227</v>
       </c>
@@ -19575,7 +19579,7 @@
       </c>
       <c r="I347" s="36"/>
     </row>
-    <row r="348" spans="1:9" ht="45">
+    <row r="348" spans="1:9" ht="30">
       <c r="A348" s="36" t="s">
         <v>233</v>
       </c>
@@ -19598,7 +19602,7 @@
       </c>
       <c r="I348" s="36"/>
     </row>
-    <row r="349" spans="1:9" ht="45">
+    <row r="349" spans="1:9" ht="30">
       <c r="A349" s="36" t="s">
         <v>236</v>
       </c>
@@ -19623,7 +19627,7 @@
       </c>
       <c r="I349" s="36"/>
     </row>
-    <row r="350" spans="1:9" ht="45">
+    <row r="350" spans="1:9" ht="90">
       <c r="A350" s="36" t="s">
         <v>240</v>
       </c>
@@ -19669,7 +19673,7 @@
       </c>
       <c r="I351" s="36"/>
     </row>
-    <row r="352" spans="1:9" ht="75">
+    <row r="352" spans="1:9" ht="60">
       <c r="A352" s="36" t="s">
         <v>1332</v>
       </c>
@@ -19738,7 +19742,7 @@
       </c>
       <c r="I354" s="36"/>
     </row>
-    <row r="355" spans="1:9" ht="45">
+    <row r="355" spans="1:9" ht="90">
       <c r="A355" s="36" t="s">
         <v>250</v>
       </c>
@@ -19809,7 +19813,7 @@
       </c>
       <c r="I357" s="36"/>
     </row>
-    <row r="358" spans="1:9" ht="45">
+    <row r="358" spans="1:9" ht="90">
       <c r="A358" s="36" t="s">
         <v>261</v>
       </c>
@@ -19832,7 +19836,7 @@
       </c>
       <c r="I358" s="36"/>
     </row>
-    <row r="359" spans="1:9" ht="60">
+    <row r="359" spans="1:9" ht="45">
       <c r="A359" s="36" t="s">
         <v>264</v>
       </c>
@@ -19878,7 +19882,7 @@
       </c>
       <c r="I360" s="36"/>
     </row>
-    <row r="361" spans="1:9" ht="90">
+    <row r="361" spans="1:9" ht="45">
       <c r="A361" s="36" t="s">
         <v>270</v>
       </c>
@@ -19926,7 +19930,7 @@
       </c>
       <c r="I362" s="36"/>
     </row>
-    <row r="363" spans="1:9" ht="45">
+    <row r="363" spans="1:9" ht="90">
       <c r="A363" s="36" t="s">
         <v>277</v>
       </c>
@@ -19972,7 +19976,7 @@
       </c>
       <c r="I364" s="36"/>
     </row>
-    <row r="365" spans="1:9" ht="90">
+    <row r="365" spans="1:9" ht="45">
       <c r="A365" s="36" t="s">
         <v>283</v>
       </c>
@@ -19995,7 +19999,7 @@
       </c>
       <c r="I365" s="36"/>
     </row>
-    <row r="366" spans="1:9" ht="75">
+    <row r="366" spans="1:9" ht="45">
       <c r="A366" s="36" t="s">
         <v>286</v>
       </c>
@@ -20018,7 +20022,7 @@
       </c>
       <c r="I366" s="36"/>
     </row>
-    <row r="367" spans="1:9" ht="45">
+    <row r="367" spans="1:9" ht="90">
       <c r="A367" s="36" t="s">
         <v>1536</v>
       </c>
@@ -20043,7 +20047,7 @@
       </c>
       <c r="I367" s="36"/>
     </row>
-    <row r="368" spans="1:9" ht="60">
+    <row r="368" spans="1:9" ht="120">
       <c r="A368" s="36" t="s">
         <v>289</v>
       </c>
@@ -20066,7 +20070,7 @@
       </c>
       <c r="I368" s="36"/>
     </row>
-    <row r="369" spans="1:9" ht="45">
+    <row r="369" spans="1:9" ht="90">
       <c r="A369" s="36" t="s">
         <v>293</v>
       </c>
@@ -20114,7 +20118,7 @@
       </c>
       <c r="I370" s="36"/>
     </row>
-    <row r="371" spans="1:9" ht="60">
+    <row r="371" spans="1:9" ht="45">
       <c r="A371" s="36" t="s">
         <v>300</v>
       </c>
@@ -20162,7 +20166,7 @@
       </c>
       <c r="I372" s="36"/>
     </row>
-    <row r="373" spans="1:9" ht="45">
+    <row r="373" spans="1:9" ht="105">
       <c r="A373" s="36" t="s">
         <v>307</v>
       </c>
@@ -20187,7 +20191,7 @@
       </c>
       <c r="I373" s="36"/>
     </row>
-    <row r="374" spans="1:9" ht="60">
+    <row r="374" spans="1:9" ht="90">
       <c r="A374" s="36" t="s">
         <v>311</v>
       </c>
@@ -20212,7 +20216,7 @@
       </c>
       <c r="I374" s="36"/>
     </row>
-    <row r="375" spans="1:9" ht="75">
+    <row r="375" spans="1:9" ht="90">
       <c r="A375" s="36" t="s">
         <v>315</v>
       </c>
@@ -20235,7 +20239,7 @@
       </c>
       <c r="I375" s="36"/>
     </row>
-    <row r="376" spans="1:9" ht="45">
+    <row r="376" spans="1:9" ht="90">
       <c r="A376" s="36" t="s">
         <v>318</v>
       </c>
@@ -20281,7 +20285,7 @@
       </c>
       <c r="I377" s="36"/>
     </row>
-    <row r="378" spans="1:9" ht="60">
+    <row r="378" spans="1:9" ht="90">
       <c r="A378" s="36" t="s">
         <v>324</v>
       </c>
@@ -20304,7 +20308,7 @@
       </c>
       <c r="I378" s="36"/>
     </row>
-    <row r="379" spans="1:9" ht="45">
+    <row r="379" spans="1:9" ht="90">
       <c r="A379" s="36" t="s">
         <v>327</v>
       </c>
@@ -20327,7 +20331,7 @@
       </c>
       <c r="I379" s="36"/>
     </row>
-    <row r="380" spans="1:9" ht="45">
+    <row r="380" spans="1:9" ht="90">
       <c r="A380" s="36" t="s">
         <v>330</v>
       </c>
@@ -20373,7 +20377,7 @@
       </c>
       <c r="I381" s="36"/>
     </row>
-    <row r="382" spans="1:9" ht="90">
+    <row r="382" spans="1:9" ht="60">
       <c r="A382" s="36" t="s">
         <v>336</v>
       </c>
@@ -20396,7 +20400,7 @@
       </c>
       <c r="I382" s="36"/>
     </row>
-    <row r="383" spans="1:9" ht="60">
+    <row r="383" spans="1:9" ht="45">
       <c r="A383" s="36" t="s">
         <v>1338</v>
       </c>
@@ -20469,7 +20473,7 @@
       </c>
       <c r="I385" s="36"/>
     </row>
-    <row r="386" spans="1:9" ht="45">
+    <row r="386" spans="1:9" ht="90">
       <c r="A386" s="36" t="s">
         <v>339</v>
       </c>
@@ -20492,7 +20496,7 @@
       </c>
       <c r="I386" s="36"/>
     </row>
-    <row r="387" spans="1:9" ht="150">
+    <row r="387" spans="1:9" ht="45">
       <c r="A387" s="36" t="s">
         <v>342</v>
       </c>
@@ -20515,7 +20519,7 @@
       </c>
       <c r="I387" s="36"/>
     </row>
-    <row r="388" spans="1:9" ht="45">
+    <row r="388" spans="1:9" ht="90">
       <c r="A388" s="36" t="s">
         <v>345</v>
       </c>
@@ -20569,7 +20573,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="75">
+    <row r="390" spans="1:9" ht="45">
       <c r="A390" s="36" t="s">
         <v>355</v>
       </c>
@@ -20592,7 +20596,7 @@
       </c>
       <c r="I390" s="36"/>
     </row>
-    <row r="391" spans="1:9" ht="75">
+    <row r="391" spans="1:9" ht="45">
       <c r="A391" s="36" t="s">
         <v>358</v>
       </c>
@@ -20615,7 +20619,7 @@
       </c>
       <c r="I391" s="36"/>
     </row>
-    <row r="392" spans="1:9" ht="135">
+    <row r="392" spans="1:9" ht="60">
       <c r="A392" s="36" t="s">
         <v>361</v>
       </c>
@@ -20638,7 +20642,7 @@
       </c>
       <c r="I392" s="36"/>
     </row>
-    <row r="393" spans="1:9" ht="60">
+    <row r="393" spans="1:9" ht="45">
       <c r="A393" s="36" t="s">
         <v>1482</v>
       </c>
@@ -20663,7 +20667,7 @@
       </c>
       <c r="I393" s="36"/>
     </row>
-    <row r="394" spans="1:9" ht="45">
+    <row r="394" spans="1:9" ht="105">
       <c r="A394" s="36" t="s">
         <v>1540</v>
       </c>
@@ -20688,7 +20692,7 @@
       </c>
       <c r="I394" s="36"/>
     </row>
-    <row r="395" spans="1:9" ht="75">
+    <row r="395" spans="1:9" ht="90">
       <c r="A395" s="36" t="s">
         <v>364</v>
       </c>
@@ -20713,7 +20717,7 @@
       </c>
       <c r="I395" s="36"/>
     </row>
-    <row r="396" spans="1:9" ht="45">
+    <row r="396" spans="1:9" ht="90">
       <c r="A396" s="36" t="s">
         <v>1486</v>
       </c>
@@ -20738,7 +20742,7 @@
       </c>
       <c r="I396" s="36"/>
     </row>
-    <row r="397" spans="1:9" ht="105">
+    <row r="397" spans="1:9" ht="90">
       <c r="A397" s="36" t="s">
         <v>1345</v>
       </c>
@@ -20763,7 +20767,7 @@
       </c>
       <c r="I397" s="36"/>
     </row>
-    <row r="398" spans="1:9" ht="75">
+    <row r="398" spans="1:9" ht="90">
       <c r="A398" s="36" t="s">
         <v>369</v>
       </c>
@@ -20786,7 +20790,7 @@
       </c>
       <c r="I398" s="36"/>
     </row>
-    <row r="399" spans="1:9" ht="60">
+    <row r="399" spans="1:9" ht="90">
       <c r="A399" s="36" t="s">
         <v>372</v>
       </c>
@@ -20811,7 +20815,7 @@
       </c>
       <c r="I399" s="36"/>
     </row>
-    <row r="400" spans="1:9" ht="255">
+    <row r="400" spans="1:9" ht="90">
       <c r="A400" s="36" t="s">
         <v>376</v>
       </c>
@@ -20836,7 +20840,7 @@
       </c>
       <c r="I400" s="36"/>
     </row>
-    <row r="401" spans="1:9" ht="45">
+    <row r="401" spans="1:9" ht="105">
       <c r="A401" s="36" t="s">
         <v>1626</v>
       </c>
@@ -20861,7 +20865,7 @@
       </c>
       <c r="I401" s="36"/>
     </row>
-    <row r="402" spans="1:9" ht="45">
+    <row r="402" spans="1:9" ht="30">
       <c r="A402" s="36" t="s">
         <v>380</v>
       </c>
@@ -20911,7 +20915,7 @@
       </c>
       <c r="I403" s="36"/>
     </row>
-    <row r="404" spans="1:9" ht="120">
+    <row r="404" spans="1:9" ht="30">
       <c r="A404" s="36" t="s">
         <v>389</v>
       </c>
@@ -20936,7 +20940,7 @@
       </c>
       <c r="I404" s="36"/>
     </row>
-    <row r="405" spans="1:9" ht="45">
+    <row r="405" spans="1:9" ht="60">
       <c r="A405" s="36" t="s">
         <v>392</v>
       </c>
@@ -20959,7 +20963,7 @@
       </c>
       <c r="I405" s="36"/>
     </row>
-    <row r="406" spans="1:9" ht="45">
+    <row r="406" spans="1:9" ht="75">
       <c r="A406" s="36" t="s">
         <v>1593</v>
       </c>
@@ -20984,7 +20988,7 @@
       </c>
       <c r="I406" s="36"/>
     </row>
-    <row r="407" spans="1:9" ht="60">
+    <row r="407" spans="1:9" ht="105">
       <c r="A407" s="36" t="s">
         <v>395</v>
       </c>
@@ -21009,7 +21013,7 @@
       </c>
       <c r="I407" s="36"/>
     </row>
-    <row r="408" spans="1:9" ht="75">
+    <row r="408" spans="1:9" ht="105">
       <c r="A408" s="36" t="s">
         <v>399</v>
       </c>
@@ -21034,7 +21038,7 @@
       </c>
       <c r="I408" s="36"/>
     </row>
-    <row r="409" spans="1:9" ht="60">
+    <row r="409" spans="1:9" ht="135">
       <c r="A409" s="36" t="s">
         <v>403</v>
       </c>
@@ -21059,7 +21063,7 @@
       </c>
       <c r="I409" s="36"/>
     </row>
-    <row r="410" spans="1:9" ht="60">
+    <row r="410" spans="1:9" ht="30">
       <c r="A410" s="36" t="s">
         <v>407</v>
       </c>
@@ -21084,7 +21088,7 @@
       </c>
       <c r="I410" s="36"/>
     </row>
-    <row r="411" spans="1:9" ht="45">
+    <row r="411" spans="1:9" ht="30">
       <c r="A411" s="36" t="s">
         <v>411</v>
       </c>
@@ -21109,7 +21113,7 @@
       </c>
       <c r="I411" s="36"/>
     </row>
-    <row r="412" spans="1:9" ht="45">
+    <row r="412" spans="1:9" ht="105">
       <c r="A412" s="36" t="s">
         <v>415</v>
       </c>
@@ -21134,7 +21138,7 @@
       </c>
       <c r="I412" s="36"/>
     </row>
-    <row r="413" spans="1:9" ht="60">
+    <row r="413" spans="1:9" ht="45">
       <c r="A413" s="36" t="s">
         <v>419</v>
       </c>
@@ -21159,7 +21163,7 @@
       </c>
       <c r="I413" s="36"/>
     </row>
-    <row r="414" spans="1:9" ht="75">
+    <row r="414" spans="1:9" ht="30">
       <c r="A414" s="36" t="s">
         <v>423</v>
       </c>
@@ -21182,7 +21186,7 @@
       </c>
       <c r="I414" s="36"/>
     </row>
-    <row r="415" spans="1:9" ht="105">
+    <row r="415" spans="1:9" ht="30">
       <c r="A415" s="36" t="s">
         <v>426</v>
       </c>
@@ -21205,7 +21209,7 @@
       </c>
       <c r="I415" s="36"/>
     </row>
-    <row r="416" spans="1:9" ht="45">
+    <row r="416" spans="1:9" ht="30">
       <c r="A416" s="36" t="s">
         <v>429</v>
       </c>
@@ -21228,7 +21232,7 @@
       </c>
       <c r="I416" s="36"/>
     </row>
-    <row r="417" spans="1:9" ht="45">
+    <row r="417" spans="1:9" ht="30">
       <c r="A417" s="36" t="s">
         <v>432</v>
       </c>
@@ -21251,7 +21255,7 @@
       </c>
       <c r="I417" s="36"/>
     </row>
-    <row r="418" spans="1:9" ht="90">
+    <row r="418" spans="1:9" ht="45">
       <c r="A418" s="36" t="s">
         <v>435</v>
       </c>
@@ -21301,7 +21305,7 @@
       </c>
       <c r="I419" s="36"/>
     </row>
-    <row r="420" spans="1:9" ht="105">
+    <row r="420" spans="1:9" ht="60">
       <c r="A420" s="36" t="s">
         <v>1349</v>
       </c>
@@ -21326,7 +21330,7 @@
       </c>
       <c r="I420" s="36"/>
     </row>
-    <row r="421" spans="1:9" ht="45">
+    <row r="421" spans="1:9" ht="30">
       <c r="A421" s="36" t="s">
         <v>438</v>
       </c>
@@ -21349,7 +21353,7 @@
       </c>
       <c r="I421" s="36"/>
     </row>
-    <row r="422" spans="1:9" ht="60">
+    <row r="422" spans="1:9" ht="30">
       <c r="A422" s="36" t="s">
         <v>441</v>
       </c>
@@ -21418,7 +21422,7 @@
       </c>
       <c r="I424" s="36"/>
     </row>
-    <row r="425" spans="1:9" ht="45">
+    <row r="425" spans="1:9" ht="30">
       <c r="A425" s="36" t="s">
         <v>450</v>
       </c>
@@ -21441,7 +21445,7 @@
       </c>
       <c r="I425" s="36"/>
     </row>
-    <row r="426" spans="1:9" ht="45">
+    <row r="426" spans="1:9" ht="30">
       <c r="A426" s="36" t="s">
         <v>453</v>
       </c>
@@ -21464,7 +21468,7 @@
       </c>
       <c r="I426" s="36"/>
     </row>
-    <row r="427" spans="1:9" ht="60">
+    <row r="427" spans="1:9" ht="30">
       <c r="A427" s="36" t="s">
         <v>456</v>
       </c>
@@ -21487,7 +21491,7 @@
       </c>
       <c r="I427" s="36"/>
     </row>
-    <row r="428" spans="1:9" ht="60">
+    <row r="428" spans="1:9" ht="30">
       <c r="A428" s="36" t="s">
         <v>459</v>
       </c>
@@ -21510,7 +21514,7 @@
       </c>
       <c r="I428" s="36"/>
     </row>
-    <row r="429" spans="1:9" ht="45">
+    <row r="429" spans="1:9" ht="30">
       <c r="A429" s="36" t="s">
         <v>462</v>
       </c>
@@ -21533,7 +21537,7 @@
       </c>
       <c r="I429" s="36"/>
     </row>
-    <row r="430" spans="1:9" ht="90">
+    <row r="430" spans="1:9" ht="60">
       <c r="A430" s="36" t="s">
         <v>465</v>
       </c>
@@ -21556,7 +21560,7 @@
       </c>
       <c r="I430" s="36"/>
     </row>
-    <row r="431" spans="1:9" ht="105">
+    <row r="431" spans="1:9" ht="30">
       <c r="A431" s="36" t="s">
         <v>468</v>
       </c>
@@ -21581,7 +21585,7 @@
       </c>
       <c r="I431" s="36"/>
     </row>
-    <row r="432" spans="1:9" ht="120">
+    <row r="432" spans="1:9" ht="45">
       <c r="A432" s="36" t="s">
         <v>472</v>
       </c>
@@ -21604,7 +21608,7 @@
       </c>
       <c r="I432" s="36"/>
     </row>
-    <row r="433" spans="1:9" ht="105">
+    <row r="433" spans="1:9" ht="30">
       <c r="A433" s="36" t="s">
         <v>475</v>
       </c>
@@ -21627,7 +21631,7 @@
       </c>
       <c r="I433" s="36"/>
     </row>
-    <row r="434" spans="1:9" ht="60">
+    <row r="434" spans="1:9" ht="90">
       <c r="A434" s="36" t="s">
         <v>478</v>
       </c>
@@ -21650,7 +21654,7 @@
       </c>
       <c r="I434" s="36"/>
     </row>
-    <row r="435" spans="1:9" ht="75">
+    <row r="435" spans="1:9" ht="45">
       <c r="A435" s="36" t="s">
         <v>481</v>
       </c>
@@ -21700,7 +21704,7 @@
       </c>
       <c r="I436" s="36"/>
     </row>
-    <row r="437" spans="1:9" ht="60">
+    <row r="437" spans="1:9" ht="120">
       <c r="A437" s="36" t="s">
         <v>1544</v>
       </c>
@@ -21725,7 +21729,7 @@
       </c>
       <c r="I437" s="36"/>
     </row>
-    <row r="438" spans="1:9" ht="60">
+    <row r="438" spans="1:9" ht="30">
       <c r="A438" s="36" t="s">
         <v>489</v>
       </c>
@@ -21748,7 +21752,7 @@
       </c>
       <c r="I438" s="36"/>
     </row>
-    <row r="439" spans="1:9" ht="60">
+    <row r="439" spans="1:9" ht="90">
       <c r="A439" s="36" t="s">
         <v>1490</v>
       </c>
@@ -21796,7 +21800,7 @@
       </c>
       <c r="I440" s="36"/>
     </row>
-    <row r="441" spans="1:9" ht="60">
+    <row r="441" spans="1:9" ht="30">
       <c r="A441" s="36" t="s">
         <v>495</v>
       </c>
@@ -21819,7 +21823,7 @@
       </c>
       <c r="I441" s="36"/>
     </row>
-    <row r="442" spans="1:9" ht="60">
+    <row r="442" spans="1:9" ht="30">
       <c r="A442" s="36" t="s">
         <v>498</v>
       </c>
@@ -21842,7 +21846,7 @@
       </c>
       <c r="I442" s="36"/>
     </row>
-    <row r="443" spans="1:9" ht="60">
+    <row r="443" spans="1:9" ht="105">
       <c r="A443" s="36" t="s">
         <v>501</v>
       </c>
@@ -21867,7 +21871,7 @@
       </c>
       <c r="I443" s="36"/>
     </row>
-    <row r="444" spans="1:9" ht="75">
+    <row r="444" spans="1:9" ht="30">
       <c r="A444" s="36" t="s">
         <v>505</v>
       </c>
@@ -21890,7 +21894,7 @@
       </c>
       <c r="I444" s="36"/>
     </row>
-    <row r="445" spans="1:9" ht="75">
+    <row r="445" spans="1:9" ht="30">
       <c r="A445" s="36" t="s">
         <v>508</v>
       </c>
@@ -21913,7 +21917,7 @@
       </c>
       <c r="I445" s="36"/>
     </row>
-    <row r="446" spans="1:9" ht="60">
+    <row r="446" spans="1:9" ht="30">
       <c r="A446" s="36" t="s">
         <v>511</v>
       </c>
@@ -21936,7 +21940,7 @@
       </c>
       <c r="I446" s="36"/>
     </row>
-    <row r="447" spans="1:9" ht="60">
+    <row r="447" spans="1:9" ht="30">
       <c r="A447" s="36" t="s">
         <v>514</v>
       </c>
@@ -21959,7 +21963,7 @@
       </c>
       <c r="I447" s="36"/>
     </row>
-    <row r="448" spans="1:9" ht="90">
+    <row r="448" spans="1:9" ht="60">
       <c r="A448" s="36" t="s">
         <v>517</v>
       </c>
@@ -21984,7 +21988,7 @@
       </c>
       <c r="I448" s="36"/>
     </row>
-    <row r="449" spans="1:9" ht="90">
+    <row r="449" spans="1:9" ht="105">
       <c r="A449" s="36" t="s">
         <v>1548</v>
       </c>
@@ -22009,7 +22013,7 @@
       </c>
       <c r="I449" s="36"/>
     </row>
-    <row r="450" spans="1:9" ht="90">
+    <row r="450" spans="1:9" ht="30">
       <c r="A450" s="36" t="s">
         <v>521</v>
       </c>
@@ -22032,7 +22036,7 @@
       </c>
       <c r="I450" s="36"/>
     </row>
-    <row r="451" spans="1:9" ht="90">
+    <row r="451" spans="1:9" ht="30">
       <c r="A451" s="36" t="s">
         <v>524</v>
       </c>
@@ -22057,7 +22061,7 @@
       </c>
       <c r="I451" s="36"/>
     </row>
-    <row r="452" spans="1:9" ht="105">
+    <row r="452" spans="1:9" ht="30">
       <c r="A452" s="36" t="s">
         <v>528</v>
       </c>
@@ -22080,7 +22084,7 @@
       </c>
       <c r="I452" s="36"/>
     </row>
-    <row r="453" spans="1:9" ht="120">
+    <row r="453" spans="1:9" ht="30">
       <c r="A453" s="36" t="s">
         <v>531</v>
       </c>
@@ -22103,7 +22107,7 @@
       </c>
       <c r="I453" s="36"/>
     </row>
-    <row r="454" spans="1:9" ht="135">
+    <row r="454" spans="1:9" ht="60">
       <c r="A454" s="36" t="s">
         <v>534</v>
       </c>
@@ -22126,7 +22130,7 @@
       </c>
       <c r="I454" s="36"/>
     </row>
-    <row r="455" spans="1:9" ht="165">
+    <row r="455" spans="1:9" ht="60">
       <c r="A455" s="36" t="s">
         <v>537</v>
       </c>
@@ -22149,7 +22153,7 @@
       </c>
       <c r="I455" s="36"/>
     </row>
-    <row r="456" spans="1:9" ht="195">
+    <row r="456" spans="1:9" ht="75">
       <c r="A456" s="36" t="s">
         <v>540</v>
       </c>
@@ -22172,7 +22176,7 @@
       </c>
       <c r="I456" s="36"/>
     </row>
-    <row r="457" spans="1:9" ht="315">
+    <row r="457" spans="1:9" ht="90">
       <c r="A457" s="36" t="s">
         <v>543</v>
       </c>
@@ -22195,7 +22199,7 @@
       </c>
       <c r="I457" s="36"/>
     </row>
-    <row r="458" spans="1:9" ht="285">
+    <row r="458" spans="1:9" ht="30">
       <c r="A458" s="36" t="s">
         <v>546</v>
       </c>
@@ -22220,7 +22224,7 @@
       </c>
       <c r="I458" s="36"/>
     </row>
-    <row r="459" spans="1:9" ht="409.5">
+    <row r="459" spans="1:9" ht="45">
       <c r="A459" s="36" t="s">
         <v>550</v>
       </c>
@@ -22243,7 +22247,7 @@
       </c>
       <c r="I459" s="36"/>
     </row>
-    <row r="460" spans="1:9" ht="409.5">
+    <row r="460" spans="1:9" ht="60">
       <c r="A460" s="36" t="s">
         <v>553</v>
       </c>
@@ -22266,7 +22270,7 @@
       </c>
       <c r="I460" s="36"/>
     </row>
-    <row r="461" spans="1:9" ht="409.5">
+    <row r="461" spans="1:9" ht="60">
       <c r="A461" s="36" t="s">
         <v>556</v>
       </c>
@@ -22289,7 +22293,7 @@
       </c>
       <c r="I461" s="36"/>
     </row>
-    <row r="462" spans="1:9" ht="409.5">
+    <row r="462" spans="1:9" ht="30">
       <c r="A462" s="36" t="s">
         <v>559</v>
       </c>
@@ -22337,95 +22341,95 @@
     </row>
     <row r="464" spans="1:9" ht="45">
       <c r="A464" s="35" t="s">
-        <v>1328</v>
-      </c>
-      <c r="B464" s="40" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B464" s="38" t="s">
         <v>1776</v>
       </c>
       <c r="C464" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D464" s="40" t="s">
+      <c r="D464" s="38" t="s">
         <v>1798</v>
       </c>
       <c r="E464" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H464" s="40" t="s">
+      <c r="H464" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="465" spans="1:8" ht="45">
-      <c r="A465" s="35" t="s">
-        <v>1760</v>
-      </c>
-      <c r="B465" s="40" t="s">
+      <c r="A465" s="37" t="s">
+        <v>1761</v>
+      </c>
+      <c r="B465" s="38" t="s">
         <v>1777</v>
       </c>
       <c r="C465" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D465" s="40" t="s">
+      <c r="D465" s="38" t="s">
         <v>1799</v>
       </c>
       <c r="E465" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H465" s="40" t="s">
+      <c r="H465" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="466" spans="1:8" ht="90">
-      <c r="A466" s="35" t="s">
-        <v>1761</v>
-      </c>
-      <c r="B466" s="40" t="s">
+      <c r="A466" s="37" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B466" s="38" t="s">
         <v>1778</v>
       </c>
       <c r="C466" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D466" s="40" t="s">
+      <c r="D466" s="38" t="s">
         <v>1800</v>
       </c>
       <c r="E466" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H466" s="40" t="s">
+      <c r="H466" s="38" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="467" spans="1:8" ht="45">
-      <c r="A467" s="35" t="s">
-        <v>1762</v>
-      </c>
-      <c r="B467" s="40" t="s">
+      <c r="A467" s="37" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B467" s="38" t="s">
         <v>1779</v>
       </c>
       <c r="C467" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D467" s="40" t="s">
+      <c r="D467" s="38" t="s">
         <v>1801</v>
       </c>
       <c r="E467" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H467" s="40" t="s">
+      <c r="H467" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="468" spans="1:8" ht="45">
-      <c r="A468" s="35" t="s">
-        <v>1763</v>
-      </c>
-      <c r="B468" s="40" t="s">
+      <c r="A468" s="37" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B468" s="38" t="s">
         <v>1780</v>
       </c>
       <c r="C468" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D468" s="40" t="s">
+      <c r="D468" s="38" t="s">
         <v>1802</v>
       </c>
       <c r="E468" s="35" t="s">
@@ -22434,187 +22438,187 @@
       <c r="F468" s="35" t="s">
         <v>1791</v>
       </c>
-      <c r="H468" s="40" t="s">
+      <c r="H468" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="469" spans="1:8" ht="60">
-      <c r="A469" s="35" t="s">
-        <v>1764</v>
-      </c>
-      <c r="B469" s="40" t="s">
+      <c r="A469" s="37" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B469" s="38" t="s">
         <v>1781</v>
       </c>
       <c r="C469" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D469" s="40" t="s">
+      <c r="D469" s="38" t="s">
         <v>1803</v>
       </c>
       <c r="E469" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H469" s="40" t="s">
+      <c r="H469" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="470" spans="1:8" ht="90">
-      <c r="A470" s="35" t="s">
-        <v>1765</v>
-      </c>
-      <c r="B470" s="40" t="s">
+      <c r="A470" s="37" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B470" s="38" t="s">
         <v>1782</v>
       </c>
       <c r="C470" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D470" s="40" t="s">
+      <c r="D470" s="38" t="s">
         <v>1804</v>
       </c>
       <c r="E470" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H470" s="40" t="s">
+      <c r="H470" s="38" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="471" spans="1:8" ht="90">
-      <c r="A471" s="35" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B471" s="40" t="s">
+      <c r="A471" s="37" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B471" s="38" t="s">
         <v>1783</v>
       </c>
       <c r="C471" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D471" s="40" t="s">
+      <c r="D471" s="38" t="s">
         <v>1805</v>
       </c>
       <c r="E471" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H471" s="40" t="s">
+      <c r="H471" s="38" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="472" spans="1:8" ht="60">
-      <c r="A472" s="35" t="s">
-        <v>1767</v>
-      </c>
-      <c r="B472" s="40" t="s">
+      <c r="A472" s="37" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B472" s="38" t="s">
         <v>1784</v>
       </c>
       <c r="C472" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D472" s="40" t="s">
+      <c r="D472" s="38" t="s">
         <v>1806</v>
       </c>
       <c r="E472" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H472" s="40" t="s">
+      <c r="H472" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="473" spans="1:8" ht="60">
-      <c r="A473" s="35" t="s">
-        <v>1768</v>
-      </c>
-      <c r="B473" s="40" t="s">
+      <c r="A473" s="37" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B473" s="38" t="s">
         <v>1793</v>
       </c>
       <c r="C473" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D473" s="40" t="s">
+      <c r="D473" s="38" t="s">
         <v>1807</v>
       </c>
       <c r="E473" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F473" s="40" t="s">
+      <c r="F473" s="38" t="s">
         <v>1794</v>
       </c>
-      <c r="H473" s="40" t="s">
+      <c r="H473" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="474" spans="1:8" ht="45">
-      <c r="A474" s="35" t="s">
-        <v>1769</v>
-      </c>
-      <c r="B474" s="40" t="s">
+      <c r="A474" s="37" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B474" s="38" t="s">
         <v>1785</v>
       </c>
       <c r="C474" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D474" s="40" t="s">
+      <c r="D474" s="38" t="s">
         <v>1808</v>
       </c>
       <c r="E474" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H474" s="40" t="s">
+      <c r="H474" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="475" spans="1:8" ht="60">
-      <c r="A475" s="35" t="s">
-        <v>1770</v>
-      </c>
-      <c r="B475" s="40" t="s">
+      <c r="A475" s="37" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B475" s="38" t="s">
         <v>1786</v>
       </c>
       <c r="C475" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D475" s="40" t="s">
+      <c r="D475" s="38" t="s">
         <v>1809</v>
       </c>
       <c r="E475" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F475" s="40" t="s">
+      <c r="F475" s="38" t="s">
         <v>1795</v>
       </c>
-      <c r="H475" s="40" t="s">
+      <c r="H475" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="476" spans="1:8" ht="45">
-      <c r="A476" s="35" t="s">
-        <v>1771</v>
-      </c>
-      <c r="B476" s="40" t="s">
+      <c r="A476" s="37" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B476" s="38" t="s">
         <v>1787</v>
       </c>
       <c r="C476" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D476" s="40" t="s">
+      <c r="D476" s="38" t="s">
         <v>1810</v>
       </c>
       <c r="E476" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H476" s="40" t="s">
+      <c r="H476" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="477" spans="1:8" ht="45">
-      <c r="A477" s="35" t="s">
-        <v>1772</v>
-      </c>
-      <c r="B477" s="40" t="s">
+      <c r="A477" s="37" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B477" s="38" t="s">
         <v>1788</v>
       </c>
       <c r="C477" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D477" s="40" t="s">
+      <c r="D477" s="38" t="s">
         <v>1811</v>
       </c>
       <c r="E477" s="35" t="s">
@@ -22623,21 +22627,21 @@
       <c r="F477" s="35" t="s">
         <v>1792</v>
       </c>
-      <c r="H477" s="40" t="s">
+      <c r="H477" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="478" spans="1:8" ht="60">
-      <c r="A478" s="35" t="s">
-        <v>1773</v>
-      </c>
-      <c r="B478" s="40" t="s">
+      <c r="A478" s="37" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B478" s="38" t="s">
         <v>1797</v>
       </c>
       <c r="C478" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D478" s="40" t="s">
+      <c r="D478" s="38" t="s">
         <v>1812</v>
       </c>
       <c r="E478" s="35" t="s">
@@ -22646,47 +22650,47 @@
       <c r="F478" s="35" t="s">
         <v>1796</v>
       </c>
-      <c r="H478" s="40" t="s">
+      <c r="H478" s="38" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="479" spans="1:8" ht="90">
-      <c r="A479" s="35" t="s">
-        <v>1774</v>
-      </c>
-      <c r="B479" s="40" t="s">
+      <c r="A479" s="37" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B479" s="38" t="s">
         <v>1789</v>
       </c>
       <c r="C479" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D479" s="40" t="s">
+      <c r="D479" s="38" t="s">
         <v>1813</v>
       </c>
       <c r="E479" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H479" s="40" t="s">
+      <c r="H479" s="38" t="s">
         <v>1815</v>
       </c>
     </row>
     <row r="480" spans="1:8" ht="45">
-      <c r="A480" s="35" t="s">
-        <v>1775</v>
-      </c>
-      <c r="B480" s="40" t="s">
+      <c r="A480" s="37" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B480" s="38" t="s">
         <v>1790</v>
       </c>
       <c r="C480" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="D480" s="41" t="s">
+      <c r="D480" s="39" t="s">
         <v>1814</v>
       </c>
       <c r="E480" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="H480" s="40" t="s">
+      <c r="H480" s="38" t="s">
         <v>93</v>
       </c>
     </row>
@@ -23881,8 +23885,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15"/>
@@ -23927,7 +23931,7 @@
         <v>1687</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>1822</v>
+        <v>1817</v>
       </c>
       <c r="E3" s="24" t="s">
         <v>1688</v>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\working group\Franzi\Research Data Managment\Voc4Cat\FF_20250328_Voc4Cat contributions\Revision ab august\selected concepts 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B5AE0B-FCA6-4C98-B88F-D61C9E0617BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347A717F-27FD-45B2-B2A2-28317099230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -6650,68 +6650,6 @@
     <t>voc4cat:0007840 (solvation)</t>
   </si>
   <si>
-    <t>voc4cat:0000007 (Fermi level),
-voc4cat:0000011 (valence band),
-voc4cat:0000012 (conduction band),
-voc4cat:0000055 (calcination gaseous environment),
-voc4cat:0000062 (chemical substance for synthesis),
-voc4cat:0000084 (electronic state),
-voc4cat:0000101 (reactant),
-voc4cat:0000105 (sacrificial reagant),
-voc4cat:0000128 (photoreactor design),
-voc4cat:0000177 (infrared),
-voc4cat:0000178 (visible),
-voc4cat:0000179 (ultraviolet),
-voc4cat:0000196 (catalysis research field),
-voc4cat:0000199 (reaction mechanism),
-voc4cat:0000200 (green chemistry),
-voc4cat:0000201 (cross-coupling reaction),
-voc4cat:0000203 (photochemistry),
-voc4cat:0000215 (density functional theory),
-voc4cat:0000218 (electrochemistry),
-voc4cat:0000219 (heterocycle),
-voc4cat:0000225 (structure-activity relationship),
-voc4cat:0000229 (radical),
-voc4cat:0000231 (renewable resource),
-voc4cat:0000235 (synergistic effect),
-voc4cat:0000238 (surface chemistry),
-voc4cat:0000240 (stereoisomer),
-voc4cat:0000255 (magnetic property),
-voc4cat:0000257 (solvent effect),
-voc4cat:0000263 (stereoselectivity),
-voc4cat:0000264 (computational chemistry),
-voc4cat:0000267 (bifunctional catalyst),
-voc4cat:0000274 (diastereoselectivity),
-voc4cat:0000275 (water chemistry),
-voc4cat:0000277 (C-H functionalization),
-voc4cat:0000279 (oxygen vacancy),
-voc4cat:0000284 (nitrogen heterocycle),
-voc4cat:0000287 (ligand),
-voc4cat:0000292 (Fischer-Tropsch technology),
-voc4cat:0000298 (kinetics),
-voc4cat:0000301 (Lewis acid),
-voc4cat:0000309 (transition metal),
-voc4cat:0005011 (PID resource categories),
-voc4cat:0005018 (resource relation),
-voc4cat:0005051 (pid4cat status),
-voc4cat:0005058 (statistical sample),
-voc4cat:0007005 (reagent),
-voc4cat:0007006 (active site),
-voc4cat;0007794 (precursor)
-voc4cat:0007040 (chemical reaction mechanism),
-voc4cat:0007041 (elementary reaction),
-voc4cat:0007101 (reactor model type),
-voc4cat:0007246 (solvent),
-voc4cat:0007247 (solute),
-voc4cat:0007811 (liquid sample),
-voc4cat:0007812 (gaseous sample)
-voc4cat:0007828 (external standard),
-voc4cat:0007829 (internal standard),
-voc4cat:0007809 (atmosphere),
-voc4cat:0007838 (product mixture),
-voc4cat:0007793 (additive)</t>
-  </si>
-  <si>
     <t>voc4cat:0007803</t>
   </si>
   <si>
@@ -6845,6 +6783,68 @@
 voc4cat:0007844 (molar equivalent),
 voc4cat:0007817 (turnover frequency),
 voc4cat:0007803 (turnover number)</t>
+  </si>
+  <si>
+    <t>voc4cat:0000007 (Fermi level),
+voc4cat:0000011 (valence band),
+voc4cat:0000012 (conduction band),
+voc4cat:0000055 (calcination gaseous environment),
+voc4cat:0000062 (chemical substance for synthesis),
+voc4cat:0000084 (electronic state),
+voc4cat:0000101 (reactant),
+voc4cat:0000105 (sacrificial reagant),
+voc4cat:0000128 (photoreactor design),
+voc4cat:0000177 (infrared),
+voc4cat:0000178 (visible),
+voc4cat:0000179 (ultraviolet),
+voc4cat:0000196 (catalysis research field),
+voc4cat:0000199 (reaction mechanism),
+voc4cat:0000200 (green chemistry),
+voc4cat:0000201 (cross-coupling reaction),
+voc4cat:0000203 (photochemistry),
+voc4cat:0000215 (density functional theory),
+voc4cat:0000218 (electrochemistry),
+voc4cat:0000219 (heterocycle),
+voc4cat:0000225 (structure-activity relationship),
+voc4cat:0000229 (radical),
+voc4cat:0000231 (renewable resource),
+voc4cat:0000235 (synergistic effect),
+voc4cat:0000238 (surface chemistry),
+voc4cat:0000240 (stereoisomer),
+voc4cat:0000255 (magnetic property),
+voc4cat:0000257 (solvent effect),
+voc4cat:0000263 (stereoselectivity),
+voc4cat:0000264 (computational chemistry),
+voc4cat:0000267 (bifunctional catalyst),
+voc4cat:0000274 (diastereoselectivity),
+voc4cat:0000275 (water chemistry),
+voc4cat:0000277 (C-H functionalization),
+voc4cat:0000279 (oxygen vacancy),
+voc4cat:0000284 (nitrogen heterocycle),
+voc4cat:0000287 (ligand),
+voc4cat:0000292 (Fischer-Tropsch technology),
+voc4cat:0000298 (kinetics),
+voc4cat:0000301 (Lewis acid),
+voc4cat:0000309 (transition metal),
+voc4cat:0005011 (PID resource categories),
+voc4cat:0005018 (resource relation),
+voc4cat:0005051 (pid4cat status),
+voc4cat:0005058 (statistical sample),
+voc4cat:0007005 (reagent),
+voc4cat:0007006 (active site),
+voc4cat:0007794 (precursor)
+voc4cat:0007040 (chemical reaction mechanism),
+voc4cat:0007041 (elementary reaction),
+voc4cat:0007101 (reactor model type),
+voc4cat:0007246 (solvent),
+voc4cat:0007247 (solute),
+voc4cat:0007811 (liquid sample),
+voc4cat:0007812 (gaseous sample)
+voc4cat:0007828 (external standard),
+voc4cat:0007829 (internal standard),
+voc4cat:0007809 (atmosphere),
+voc4cat:0007838 (product mixture),
+voc4cat:0007793 (additive)</t>
   </si>
 </sst>
 </file>
@@ -7095,7 +7095,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7188,13 +7188,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -7213,23 +7206,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="7" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -7768,65 +7753,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="12"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="12"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
@@ -7932,61 +7917,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="37"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
@@ -8050,391 +8035,391 @@
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-      <c r="J29" s="37"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="37"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="37"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="37"/>
-      <c r="J33" s="37"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="37"/>
-      <c r="F34" s="37"/>
-      <c r="G34" s="37"/>
-      <c r="H34" s="37"/>
-      <c r="I34" s="37"/>
-      <c r="J34" s="37"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="37"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="37"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="37"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="44"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="37"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="37"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="37"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="37"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="44"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="37"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="37"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="37"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="37"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="37"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="37"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="37"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="37"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="37"/>
+      <c r="B44" s="44"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="44"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="44"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="37"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="37"/>
+      <c r="B45" s="44"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="44"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="37"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="37"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="37"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
@@ -8447,1074 +8432,1074 @@
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="36" t="s">
+      <c r="B48" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="37"/>
-      <c r="D48" s="37"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="37"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="37"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="37"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
+      <c r="B49" s="44"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="44"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="37"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="37"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
+      <c r="B50" s="44"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="37"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="37"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="37"/>
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="37"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="37"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="37"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="44"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="37"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="37"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="37"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="44"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="37"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="37"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="37"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="37"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="37"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="37"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="37"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="37"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="37"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="37"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="37"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="37"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="37"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="44"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="37"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="37"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="37"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="37"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="37"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="37"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="37"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="37"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="44"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="37"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="37"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="37"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="37"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="37"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="37"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="37"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="37"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="37"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="44"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="37"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="37"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="37"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="44"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="37"/>
+      <c r="B67" s="44"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="44"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="37"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="37"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="37"/>
+      <c r="B68" s="44"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="37"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="37"/>
+      <c r="B69" s="44"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="44"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="37"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="37"/>
+      <c r="B70" s="44"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="44"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
+      <c r="B71" s="44"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="44"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="44"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
+      <c r="B72" s="44"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
+      <c r="B73" s="44"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
+      <c r="B74" s="44"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="44"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="37"/>
-      <c r="C75" s="37"/>
-      <c r="D75" s="37"/>
-      <c r="E75" s="37"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
-      <c r="I75" s="37"/>
-      <c r="J75" s="37"/>
+      <c r="B75" s="44"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
+      <c r="B76" s="44"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="44"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="44"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="37"/>
-      <c r="C77" s="37"/>
-      <c r="D77" s="37"/>
-      <c r="E77" s="37"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
-      <c r="I77" s="37"/>
-      <c r="J77" s="37"/>
+      <c r="B77" s="44"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="37"/>
-      <c r="C78" s="37"/>
-      <c r="D78" s="37"/>
-      <c r="E78" s="37"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
-      <c r="I78" s="37"/>
-      <c r="J78" s="37"/>
+      <c r="B78" s="44"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="37"/>
-      <c r="C79" s="37"/>
-      <c r="D79" s="37"/>
-      <c r="E79" s="37"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
-      <c r="I79" s="37"/>
-      <c r="J79" s="37"/>
+      <c r="B79" s="44"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="44"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="44"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="37"/>
-      <c r="C80" s="37"/>
-      <c r="D80" s="37"/>
-      <c r="E80" s="37"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-      <c r="J80" s="37"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="44"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="37"/>
-      <c r="C81" s="37"/>
-      <c r="D81" s="37"/>
-      <c r="E81" s="37"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
-      <c r="I81" s="37"/>
-      <c r="J81" s="37"/>
+      <c r="B81" s="44"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="44"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="37"/>
-      <c r="C82" s="37"/>
-      <c r="D82" s="37"/>
-      <c r="E82" s="37"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
-      <c r="I82" s="37"/>
-      <c r="J82" s="37"/>
+      <c r="B82" s="44"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
+      <c r="E82" s="44"/>
+      <c r="F82" s="44"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="37"/>
-      <c r="C83" s="37"/>
-      <c r="D83" s="37"/>
-      <c r="E83" s="37"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
-      <c r="I83" s="37"/>
-      <c r="J83" s="37"/>
+      <c r="B83" s="44"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="44"/>
+      <c r="E83" s="44"/>
+      <c r="F83" s="44"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="37"/>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
+      <c r="B84" s="44"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="44"/>
+      <c r="E84" s="44"/>
+      <c r="F84" s="44"/>
+      <c r="G84" s="44"/>
+      <c r="H84" s="44"/>
+      <c r="I84" s="44"/>
+      <c r="J84" s="44"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
+      <c r="B85" s="44"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
+      <c r="E85" s="44"/>
+      <c r="F85" s="44"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
+      <c r="B86" s="44"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
+      <c r="G86" s="44"/>
+      <c r="H86" s="44"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
+      <c r="B87" s="44"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44"/>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
+      <c r="B88" s="44"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="44"/>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="36" t="s">
+      <c r="B90" s="43" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
+      <c r="E90" s="44"/>
+      <c r="F90" s="44"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="37"/>
-      <c r="C91" s="37"/>
-      <c r="D91" s="37"/>
-      <c r="E91" s="37"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37"/>
-      <c r="J91" s="37"/>
+      <c r="B91" s="44"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="44"/>
+      <c r="F91" s="44"/>
+      <c r="G91" s="44"/>
+      <c r="H91" s="44"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="37"/>
-      <c r="C92" s="37"/>
-      <c r="D92" s="37"/>
-      <c r="E92" s="37"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
-      <c r="I92" s="37"/>
-      <c r="J92" s="37"/>
+      <c r="B92" s="44"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
+      <c r="E92" s="44"/>
+      <c r="F92" s="44"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="37"/>
-      <c r="C93" s="37"/>
-      <c r="D93" s="37"/>
-      <c r="E93" s="37"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
-      <c r="I93" s="37"/>
-      <c r="J93" s="37"/>
+      <c r="B93" s="44"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
+      <c r="E93" s="44"/>
+      <c r="F93" s="44"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="37"/>
-      <c r="C94" s="37"/>
-      <c r="D94" s="37"/>
-      <c r="E94" s="37"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
-      <c r="I94" s="37"/>
-      <c r="J94" s="37"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="44"/>
+      <c r="G94" s="44"/>
+      <c r="H94" s="44"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="37"/>
-      <c r="C95" s="37"/>
-      <c r="D95" s="37"/>
-      <c r="E95" s="37"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
-      <c r="I95" s="37"/>
-      <c r="J95" s="37"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="44"/>
+      <c r="E95" s="44"/>
+      <c r="F95" s="44"/>
+      <c r="G95" s="44"/>
+      <c r="H95" s="44"/>
+      <c r="I95" s="44"/>
+      <c r="J95" s="44"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="37"/>
-      <c r="C96" s="37"/>
-      <c r="D96" s="37"/>
-      <c r="E96" s="37"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
-      <c r="I96" s="37"/>
-      <c r="J96" s="37"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
+      <c r="E96" s="44"/>
+      <c r="F96" s="44"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="37"/>
-      <c r="C97" s="37"/>
-      <c r="D97" s="37"/>
-      <c r="E97" s="37"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
-      <c r="I97" s="37"/>
-      <c r="J97" s="37"/>
+      <c r="B97" s="44"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="44"/>
+      <c r="E97" s="44"/>
+      <c r="F97" s="44"/>
+      <c r="G97" s="44"/>
+      <c r="H97" s="44"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="44"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="37"/>
-      <c r="C98" s="37"/>
-      <c r="D98" s="37"/>
-      <c r="E98" s="37"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
-      <c r="I98" s="37"/>
-      <c r="J98" s="37"/>
+      <c r="B98" s="44"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="44"/>
+      <c r="E98" s="44"/>
+      <c r="F98" s="44"/>
+      <c r="G98" s="44"/>
+      <c r="H98" s="44"/>
+      <c r="I98" s="44"/>
+      <c r="J98" s="44"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="37"/>
-      <c r="C99" s="37"/>
-      <c r="D99" s="37"/>
-      <c r="E99" s="37"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
-      <c r="I99" s="37"/>
-      <c r="J99" s="37"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="37"/>
-      <c r="C100" s="37"/>
-      <c r="D100" s="37"/>
-      <c r="E100" s="37"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
-      <c r="I100" s="37"/>
-      <c r="J100" s="37"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="37"/>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
-      <c r="I101" s="37"/>
-      <c r="J101" s="37"/>
+      <c r="B101" s="44"/>
+      <c r="C101" s="44"/>
+      <c r="D101" s="44"/>
+      <c r="E101" s="44"/>
+      <c r="F101" s="44"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="37"/>
-      <c r="C102" s="37"/>
-      <c r="D102" s="37"/>
-      <c r="E102" s="37"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
-      <c r="I102" s="37"/>
-      <c r="J102" s="37"/>
+      <c r="B102" s="44"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="37"/>
-      <c r="C103" s="37"/>
-      <c r="D103" s="37"/>
-      <c r="E103" s="37"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
-      <c r="I103" s="37"/>
-      <c r="J103" s="37"/>
+      <c r="B103" s="44"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
+      <c r="E103" s="44"/>
+      <c r="F103" s="44"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="37"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="37"/>
-      <c r="E104" s="37"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
-      <c r="I104" s="37"/>
-      <c r="J104" s="37"/>
+      <c r="B104" s="44"/>
+      <c r="C104" s="44"/>
+      <c r="D104" s="44"/>
+      <c r="E104" s="44"/>
+      <c r="F104" s="44"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
-      <c r="I105" s="37"/>
-      <c r="J105" s="37"/>
+      <c r="B105" s="44"/>
+      <c r="C105" s="44"/>
+      <c r="D105" s="44"/>
+      <c r="E105" s="44"/>
+      <c r="F105" s="44"/>
+      <c r="G105" s="44"/>
+      <c r="H105" s="44"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="37"/>
-      <c r="C106" s="37"/>
-      <c r="D106" s="37"/>
-      <c r="E106" s="37"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
-      <c r="I106" s="37"/>
-      <c r="J106" s="37"/>
+      <c r="B106" s="44"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="44"/>
+      <c r="E106" s="44"/>
+      <c r="F106" s="44"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="37"/>
-      <c r="C107" s="37"/>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
-      <c r="I107" s="37"/>
-      <c r="J107" s="37"/>
+      <c r="B107" s="44"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="44"/>
+      <c r="E107" s="44"/>
+      <c r="F107" s="44"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="37"/>
-      <c r="C108" s="37"/>
-      <c r="D108" s="37"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
-      <c r="I108" s="37"/>
-      <c r="J108" s="37"/>
+      <c r="B108" s="44"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="44"/>
+      <c r="E108" s="44"/>
+      <c r="F108" s="44"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="37"/>
-      <c r="C109" s="37"/>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
-      <c r="I109" s="37"/>
-      <c r="J109" s="37"/>
+      <c r="B109" s="44"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="44"/>
+      <c r="F109" s="44"/>
+      <c r="G109" s="44"/>
+      <c r="H109" s="44"/>
+      <c r="I109" s="44"/>
+      <c r="J109" s="44"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="37"/>
-      <c r="C110" s="37"/>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
-      <c r="I110" s="37"/>
-      <c r="J110" s="37"/>
+      <c r="B110" s="44"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="44"/>
+      <c r="E110" s="44"/>
+      <c r="F110" s="44"/>
+      <c r="G110" s="44"/>
+      <c r="H110" s="44"/>
+      <c r="I110" s="44"/>
+      <c r="J110" s="44"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="37"/>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
+      <c r="B111" s="44"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="44"/>
+      <c r="E111" s="44"/>
+      <c r="F111" s="44"/>
+      <c r="G111" s="44"/>
+      <c r="H111" s="44"/>
+      <c r="I111" s="44"/>
+      <c r="J111" s="44"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="37"/>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-      <c r="I112" s="37"/>
-      <c r="J112" s="37"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="44"/>
+      <c r="G112" s="44"/>
+      <c r="H112" s="44"/>
+      <c r="I112" s="44"/>
+      <c r="J112" s="44"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="37"/>
-      <c r="C113" s="37"/>
-      <c r="D113" s="37"/>
-      <c r="E113" s="37"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-      <c r="I113" s="37"/>
-      <c r="J113" s="37"/>
+      <c r="B113" s="44"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="44"/>
+      <c r="E113" s="44"/>
+      <c r="F113" s="44"/>
+      <c r="G113" s="44"/>
+      <c r="H113" s="44"/>
+      <c r="I113" s="44"/>
+      <c r="J113" s="44"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="37"/>
-      <c r="C114" s="37"/>
-      <c r="D114" s="37"/>
-      <c r="E114" s="37"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-      <c r="I114" s="37"/>
-      <c r="J114" s="37"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="44"/>
+      <c r="E114" s="44"/>
+      <c r="F114" s="44"/>
+      <c r="G114" s="44"/>
+      <c r="H114" s="44"/>
+      <c r="I114" s="44"/>
+      <c r="J114" s="44"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="37"/>
-      <c r="C115" s="37"/>
-      <c r="D115" s="37"/>
-      <c r="E115" s="37"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-      <c r="I115" s="37"/>
-      <c r="J115" s="37"/>
+      <c r="B115" s="44"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="44"/>
+      <c r="E115" s="44"/>
+      <c r="F115" s="44"/>
+      <c r="G115" s="44"/>
+      <c r="H115" s="44"/>
+      <c r="I115" s="44"/>
+      <c r="J115" s="44"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="37"/>
-      <c r="C116" s="37"/>
-      <c r="D116" s="37"/>
-      <c r="E116" s="37"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-      <c r="I116" s="37"/>
-      <c r="J116" s="37"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="44"/>
+      <c r="F116" s="44"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="44"/>
+      <c r="E118" s="44"/>
+      <c r="F118" s="44"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="37"/>
-      <c r="C119" s="37"/>
-      <c r="D119" s="37"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-      <c r="I119" s="37"/>
-      <c r="J119" s="37"/>
+      <c r="B119" s="44"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="44"/>
+      <c r="E119" s="44"/>
+      <c r="F119" s="44"/>
+      <c r="G119" s="44"/>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="37"/>
-      <c r="C120" s="37"/>
-      <c r="D120" s="37"/>
-      <c r="E120" s="37"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
-      <c r="I120" s="37"/>
-      <c r="J120" s="37"/>
+      <c r="B120" s="44"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="37"/>
-      <c r="C121" s="37"/>
-      <c r="D121" s="37"/>
-      <c r="E121" s="37"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
-      <c r="I121" s="37"/>
-      <c r="J121" s="37"/>
+      <c r="B121" s="44"/>
+      <c r="C121" s="44"/>
+      <c r="D121" s="44"/>
+      <c r="E121" s="44"/>
+      <c r="F121" s="44"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="37"/>
-      <c r="C122" s="37"/>
-      <c r="D122" s="37"/>
-      <c r="E122" s="37"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
-      <c r="I122" s="37"/>
-      <c r="J122" s="37"/>
+      <c r="B122" s="44"/>
+      <c r="C122" s="44"/>
+      <c r="D122" s="44"/>
+      <c r="E122" s="44"/>
+      <c r="F122" s="44"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="37"/>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
-      <c r="I123" s="37"/>
-      <c r="J123" s="37"/>
+      <c r="B123" s="44"/>
+      <c r="C123" s="44"/>
+      <c r="D123" s="44"/>
+      <c r="E123" s="44"/>
+      <c r="F123" s="44"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="44"/>
+      <c r="J123" s="44"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="37"/>
-      <c r="C124" s="37"/>
-      <c r="D124" s="37"/>
-      <c r="E124" s="37"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
-      <c r="I124" s="37"/>
-      <c r="J124" s="37"/>
+      <c r="B124" s="44"/>
+      <c r="C124" s="44"/>
+      <c r="D124" s="44"/>
+      <c r="E124" s="44"/>
+      <c r="F124" s="44"/>
+      <c r="G124" s="44"/>
+      <c r="H124" s="44"/>
+      <c r="I124" s="44"/>
+      <c r="J124" s="44"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="37"/>
-      <c r="C125" s="37"/>
-      <c r="D125" s="37"/>
-      <c r="E125" s="37"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
-      <c r="I125" s="37"/>
-      <c r="J125" s="37"/>
+      <c r="B125" s="44"/>
+      <c r="C125" s="44"/>
+      <c r="D125" s="44"/>
+      <c r="E125" s="44"/>
+      <c r="F125" s="44"/>
+      <c r="G125" s="44"/>
+      <c r="H125" s="44"/>
+      <c r="I125" s="44"/>
+      <c r="J125" s="44"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="37"/>
-      <c r="C126" s="37"/>
-      <c r="D126" s="37"/>
-      <c r="E126" s="37"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
-      <c r="I126" s="37"/>
-      <c r="J126" s="37"/>
+      <c r="B126" s="44"/>
+      <c r="C126" s="44"/>
+      <c r="D126" s="44"/>
+      <c r="E126" s="44"/>
+      <c r="F126" s="44"/>
+      <c r="G126" s="44"/>
+      <c r="H126" s="44"/>
+      <c r="I126" s="44"/>
+      <c r="J126" s="44"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="37"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="37"/>
-      <c r="E127" s="37"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
-      <c r="I127" s="37"/>
-      <c r="J127" s="37"/>
+      <c r="B127" s="44"/>
+      <c r="C127" s="44"/>
+      <c r="D127" s="44"/>
+      <c r="E127" s="44"/>
+      <c r="F127" s="44"/>
+      <c r="G127" s="44"/>
+      <c r="H127" s="44"/>
+      <c r="I127" s="44"/>
+      <c r="J127" s="44"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="37"/>
-      <c r="C128" s="37"/>
-      <c r="D128" s="37"/>
-      <c r="E128" s="37"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
-      <c r="I128" s="37"/>
-      <c r="J128" s="37"/>
+      <c r="B128" s="44"/>
+      <c r="C128" s="44"/>
+      <c r="D128" s="44"/>
+      <c r="E128" s="44"/>
+      <c r="F128" s="44"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44"/>
+      <c r="J128" s="44"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="37"/>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
-      <c r="I129" s="37"/>
-      <c r="J129" s="37"/>
+      <c r="B129" s="44"/>
+      <c r="C129" s="44"/>
+      <c r="D129" s="44"/>
+      <c r="E129" s="44"/>
+      <c r="F129" s="44"/>
+      <c r="G129" s="44"/>
+      <c r="H129" s="44"/>
+      <c r="I129" s="44"/>
+      <c r="J129" s="44"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="37"/>
-      <c r="C130" s="37"/>
-      <c r="D130" s="37"/>
-      <c r="E130" s="37"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
-      <c r="I130" s="37"/>
-      <c r="J130" s="37"/>
+      <c r="B130" s="44"/>
+      <c r="C130" s="44"/>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="44"/>
+      <c r="G130" s="44"/>
+      <c r="H130" s="44"/>
+      <c r="I130" s="44"/>
+      <c r="J130" s="44"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="37"/>
-      <c r="C131" s="37"/>
-      <c r="D131" s="37"/>
-      <c r="E131" s="37"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
-      <c r="I131" s="37"/>
-      <c r="J131" s="37"/>
+      <c r="B131" s="44"/>
+      <c r="C131" s="44"/>
+      <c r="D131" s="44"/>
+      <c r="E131" s="44"/>
+      <c r="F131" s="44"/>
+      <c r="G131" s="44"/>
+      <c r="H131" s="44"/>
+      <c r="I131" s="44"/>
+      <c r="J131" s="44"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="36" t="s">
+      <c r="B133" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="37"/>
-      <c r="D133" s="37"/>
-      <c r="E133" s="37"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
-      <c r="I133" s="37"/>
-      <c r="J133" s="37"/>
+      <c r="C133" s="44"/>
+      <c r="D133" s="44"/>
+      <c r="E133" s="44"/>
+      <c r="F133" s="44"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="37"/>
-      <c r="C134" s="37"/>
-      <c r="D134" s="37"/>
-      <c r="E134" s="37"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
-      <c r="I134" s="37"/>
-      <c r="J134" s="37"/>
+      <c r="B134" s="44"/>
+      <c r="C134" s="44"/>
+      <c r="D134" s="44"/>
+      <c r="E134" s="44"/>
+      <c r="F134" s="44"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="44"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="37"/>
-      <c r="C135" s="37"/>
-      <c r="D135" s="37"/>
-      <c r="E135" s="37"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
-      <c r="I135" s="37"/>
-      <c r="J135" s="37"/>
+      <c r="B135" s="44"/>
+      <c r="C135" s="44"/>
+      <c r="D135" s="44"/>
+      <c r="E135" s="44"/>
+      <c r="F135" s="44"/>
+      <c r="G135" s="44"/>
+      <c r="H135" s="44"/>
+      <c r="I135" s="44"/>
+      <c r="J135" s="44"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="37"/>
-      <c r="C136" s="37"/>
-      <c r="D136" s="37"/>
-      <c r="E136" s="37"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
-      <c r="I136" s="37"/>
-      <c r="J136" s="37"/>
+      <c r="B136" s="44"/>
+      <c r="C136" s="44"/>
+      <c r="D136" s="44"/>
+      <c r="E136" s="44"/>
+      <c r="F136" s="44"/>
+      <c r="G136" s="44"/>
+      <c r="H136" s="44"/>
+      <c r="I136" s="44"/>
+      <c r="J136" s="44"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B137" s="37"/>
-      <c r="C137" s="37"/>
-      <c r="D137" s="37"/>
-      <c r="E137" s="37"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
-      <c r="I137" s="37"/>
-      <c r="J137" s="37"/>
+      <c r="B137" s="44"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="44"/>
+      <c r="E137" s="44"/>
+      <c r="F137" s="44"/>
+      <c r="G137" s="44"/>
+      <c r="H137" s="44"/>
+      <c r="I137" s="44"/>
+      <c r="J137" s="44"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B138" s="37"/>
-      <c r="C138" s="37"/>
-      <c r="D138" s="37"/>
-      <c r="E138" s="37"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
-      <c r="I138" s="37"/>
-      <c r="J138" s="37"/>
+      <c r="B138" s="44"/>
+      <c r="C138" s="44"/>
+      <c r="D138" s="44"/>
+      <c r="E138" s="44"/>
+      <c r="F138" s="44"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
+      <c r="J138" s="44"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B139" s="37"/>
-      <c r="C139" s="37"/>
-      <c r="D139" s="37"/>
-      <c r="E139" s="37"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
-      <c r="I139" s="37"/>
-      <c r="J139" s="37"/>
+      <c r="B139" s="44"/>
+      <c r="C139" s="44"/>
+      <c r="D139" s="44"/>
+      <c r="E139" s="44"/>
+      <c r="F139" s="44"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B140" s="37"/>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
-      <c r="I140" s="37"/>
-      <c r="J140" s="37"/>
+      <c r="B140" s="44"/>
+      <c r="C140" s="44"/>
+      <c r="D140" s="44"/>
+      <c r="E140" s="44"/>
+      <c r="F140" s="44"/>
+      <c r="G140" s="44"/>
+      <c r="H140" s="44"/>
+      <c r="I140" s="44"/>
+      <c r="J140" s="44"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B141" s="37"/>
-      <c r="C141" s="37"/>
-      <c r="D141" s="37"/>
-      <c r="E141" s="37"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
-      <c r="I141" s="37"/>
-      <c r="J141" s="37"/>
+      <c r="B141" s="44"/>
+      <c r="C141" s="44"/>
+      <c r="D141" s="44"/>
+      <c r="E141" s="44"/>
+      <c r="F141" s="44"/>
+      <c r="G141" s="44"/>
+      <c r="H141" s="44"/>
+      <c r="I141" s="44"/>
+      <c r="J141" s="44"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B143" s="38" t="s">
+      <c r="B143" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="37"/>
-      <c r="D143" s="37"/>
-      <c r="E143" s="37"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
-      <c r="I143" s="37"/>
-      <c r="J143" s="37"/>
+      <c r="C143" s="44"/>
+      <c r="D143" s="44"/>
+      <c r="E143" s="44"/>
+      <c r="F143" s="44"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="44"/>
+      <c r="J143" s="44"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B144" s="37"/>
-      <c r="C144" s="37"/>
-      <c r="D144" s="37"/>
-      <c r="E144" s="37"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="J144" s="37"/>
+      <c r="B144" s="44"/>
+      <c r="C144" s="44"/>
+      <c r="D144" s="44"/>
+      <c r="E144" s="44"/>
+      <c r="F144" s="44"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="44"/>
     </row>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B145" s="37"/>
-      <c r="C145" s="37"/>
-      <c r="D145" s="37"/>
-      <c r="E145" s="37"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
-      <c r="I145" s="37"/>
-      <c r="J145" s="37"/>
+      <c r="B145" s="44"/>
+      <c r="C145" s="44"/>
+      <c r="D145" s="44"/>
+      <c r="E145" s="44"/>
+      <c r="F145" s="44"/>
+      <c r="G145" s="44"/>
+      <c r="H145" s="44"/>
+      <c r="I145" s="44"/>
+      <c r="J145" s="44"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="37"/>
-      <c r="C146" s="37"/>
-      <c r="D146" s="37"/>
-      <c r="E146" s="37"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
-      <c r="I146" s="37"/>
-      <c r="J146" s="37"/>
+      <c r="B146" s="44"/>
+      <c r="C146" s="44"/>
+      <c r="D146" s="44"/>
+      <c r="E146" s="44"/>
+      <c r="F146" s="44"/>
+      <c r="G146" s="44"/>
+      <c r="H146" s="44"/>
+      <c r="I146" s="44"/>
+      <c r="J146" s="44"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B147" s="37"/>
-      <c r="C147" s="37"/>
-      <c r="D147" s="37"/>
-      <c r="E147" s="37"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
-      <c r="I147" s="37"/>
-      <c r="J147" s="37"/>
+      <c r="B147" s="44"/>
+      <c r="C147" s="44"/>
+      <c r="D147" s="44"/>
+      <c r="E147" s="44"/>
+      <c r="F147" s="44"/>
+      <c r="G147" s="44"/>
+      <c r="H147" s="44"/>
+      <c r="I147" s="44"/>
+      <c r="J147" s="44"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D148" s="17" t="s">
@@ -11770,7 +11755,7 @@
   <dimension ref="A1:I500"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E482" sqref="E482"/>
+      <selection activeCell="G481" sqref="G481"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23223,7 +23208,7 @@
       </c>
       <c r="F480" s="27"/>
       <c r="G480" s="27" t="s">
-        <v>1930</v>
+        <v>1939</v>
       </c>
       <c r="H480" s="27" t="s">
         <v>1624</v>
@@ -23248,7 +23233,7 @@
       </c>
       <c r="F481" s="27"/>
       <c r="G481" s="27" t="s">
-        <v>1939</v>
+        <v>1938</v>
       </c>
       <c r="H481" s="27" t="s">
         <v>1624</v>
@@ -23259,7 +23244,7 @@
       <c r="A482" s="35" t="s">
         <v>1851</v>
       </c>
-      <c r="B482" s="39" t="s">
+      <c r="B482" s="36" t="s">
         <v>1852</v>
       </c>
       <c r="C482" s="24" t="s">
@@ -23279,437 +23264,437 @@
       <c r="I482" s="24"/>
     </row>
     <row r="483" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A483" s="40" t="s">
+      <c r="A483" s="37" t="s">
         <v>1855</v>
       </c>
-      <c r="B483" s="41" t="s">
+      <c r="B483" s="38" t="s">
         <v>1856</v>
       </c>
-      <c r="C483" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="D483" s="43" t="s">
+      <c r="C483" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D483" s="40" t="s">
         <v>1857</v>
       </c>
-      <c r="E483" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="F483" s="43" t="s">
+      <c r="E483" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F483" s="40" t="s">
         <v>1858</v>
       </c>
-      <c r="G483" s="43" t="s">
+      <c r="G483" s="40" t="s">
         <v>1921</v>
       </c>
-      <c r="H483" s="43" t="s">
+      <c r="H483" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I483" s="44" t="s">
+      <c r="I483" s="41" t="s">
         <v>1859</v>
       </c>
     </row>
     <row r="484" spans="1:9" ht="78" x14ac:dyDescent="0.3">
-      <c r="A484" s="45" t="s">
+      <c r="A484" s="37" t="s">
         <v>1860</v>
       </c>
-      <c r="B484" s="46" t="s">
+      <c r="B484" s="38" t="s">
         <v>1861</v>
       </c>
-      <c r="C484" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D484" s="48" t="s">
+      <c r="C484" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D484" s="40" t="s">
         <v>1862</v>
       </c>
-      <c r="E484" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F484" s="48"/>
-      <c r="G484" s="48"/>
-      <c r="H484" s="48" t="s">
+      <c r="E484" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F484" s="40"/>
+      <c r="G484" s="40"/>
+      <c r="H484" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I484" s="49" t="s">
+      <c r="I484" s="41" t="s">
         <v>1863</v>
       </c>
     </row>
     <row r="485" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A485" s="45" t="s">
+      <c r="A485" s="37" t="s">
         <v>1864</v>
       </c>
-      <c r="B485" s="46" t="s">
+      <c r="B485" s="38" t="s">
         <v>1923</v>
       </c>
-      <c r="C485" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D485" s="48" t="s">
+      <c r="C485" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D485" s="40" t="s">
         <v>1865</v>
       </c>
-      <c r="E485" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F485" s="48" t="s">
+      <c r="E485" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F485" s="40" t="s">
         <v>1924</v>
       </c>
-      <c r="G485" s="48"/>
-      <c r="H485" s="48" t="s">
+      <c r="G485" s="40"/>
+      <c r="H485" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I485" s="49" t="s">
+      <c r="I485" s="41" t="s">
         <v>1866</v>
       </c>
     </row>
     <row r="486" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A486" s="45" t="s">
+      <c r="A486" s="37" t="s">
         <v>1867</v>
       </c>
-      <c r="B486" s="46" t="s">
+      <c r="B486" s="38" t="s">
         <v>1868</v>
       </c>
-      <c r="C486" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D486" s="48" t="s">
+      <c r="C486" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D486" s="40" t="s">
         <v>1869</v>
       </c>
-      <c r="E486" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F486" s="48" t="s">
+      <c r="E486" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F486" s="40" t="s">
         <v>1870</v>
       </c>
-      <c r="G486" s="48"/>
-      <c r="H486" s="48" t="s">
+      <c r="G486" s="40"/>
+      <c r="H486" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I486" s="49" t="s">
+      <c r="I486" s="41" t="s">
         <v>1871</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A487" s="45" t="s">
+      <c r="A487" s="37" t="s">
         <v>1872</v>
       </c>
-      <c r="B487" s="46" t="s">
+      <c r="B487" s="38" t="s">
         <v>1926</v>
       </c>
-      <c r="C487" s="47" t="s">
+      <c r="C487" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D487" s="25" t="s">
         <v>1927</v>
       </c>
-      <c r="E487" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F487" s="48"/>
-      <c r="G487" s="48"/>
-      <c r="H487" s="48" t="s">
+      <c r="E487" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F487" s="40"/>
+      <c r="G487" s="40"/>
+      <c r="H487" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I487" s="49" t="s">
+      <c r="I487" s="41" t="s">
         <v>1873</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A488" s="45" t="s">
+      <c r="A488" s="37" t="s">
         <v>1874</v>
       </c>
-      <c r="B488" s="46" t="s">
+      <c r="B488" s="38" t="s">
         <v>1875</v>
       </c>
-      <c r="C488" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D488" s="48" t="s">
+      <c r="C488" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D488" s="40" t="s">
         <v>1876</v>
       </c>
-      <c r="E488" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F488" s="48"/>
-      <c r="G488" s="48"/>
-      <c r="H488" s="48" t="s">
+      <c r="E488" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F488" s="40"/>
+      <c r="G488" s="40"/>
+      <c r="H488" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I488" s="49" t="s">
+      <c r="I488" s="41" t="s">
         <v>1877</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A489" s="45" t="s">
+      <c r="A489" s="37" t="s">
         <v>1878</v>
       </c>
-      <c r="B489" s="46" t="s">
+      <c r="B489" s="38" t="s">
         <v>1879</v>
       </c>
-      <c r="C489" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D489" s="48" t="s">
+      <c r="C489" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D489" s="40" t="s">
         <v>1880</v>
       </c>
-      <c r="E489" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F489" s="48" t="s">
+      <c r="E489" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F489" s="40" t="s">
         <v>1881</v>
       </c>
-      <c r="G489" s="48"/>
-      <c r="H489" s="48" t="s">
+      <c r="G489" s="40"/>
+      <c r="H489" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I489" s="49" t="s">
+      <c r="I489" s="41" t="s">
         <v>1882</v>
       </c>
     </row>
     <row r="490" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A490" s="45" t="s">
+      <c r="A490" s="37" t="s">
         <v>1883</v>
       </c>
-      <c r="B490" s="46" t="s">
+      <c r="B490" s="38" t="s">
         <v>1884</v>
       </c>
-      <c r="C490" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D490" s="48" t="s">
+      <c r="C490" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D490" s="40" t="s">
         <v>1885</v>
       </c>
-      <c r="E490" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F490" s="48" t="s">
+      <c r="E490" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F490" s="40" t="s">
         <v>1886</v>
       </c>
-      <c r="G490" s="48"/>
-      <c r="H490" s="48" t="s">
+      <c r="G490" s="40"/>
+      <c r="H490" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I490" s="49" t="s">
+      <c r="I490" s="41" t="s">
         <v>1887</v>
       </c>
     </row>
     <row r="491" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A491" s="45" t="s">
+      <c r="A491" s="37" t="s">
         <v>1888</v>
       </c>
-      <c r="B491" s="46" t="s">
+      <c r="B491" s="38" t="s">
         <v>1889</v>
       </c>
-      <c r="C491" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D491" s="48" t="s">
+      <c r="C491" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D491" s="40" t="s">
         <v>1890</v>
       </c>
-      <c r="E491" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F491" s="48" t="s">
+      <c r="E491" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F491" s="40" t="s">
         <v>1891</v>
       </c>
-      <c r="G491" s="48"/>
-      <c r="H491" s="48" t="s">
+      <c r="G491" s="40"/>
+      <c r="H491" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I491" s="49" t="s">
+      <c r="I491" s="41" t="s">
         <v>1892</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A492" s="45" t="s">
+      <c r="A492" s="37" t="s">
         <v>1893</v>
       </c>
-      <c r="B492" s="46" t="s">
+      <c r="B492" s="38" t="s">
         <v>1894</v>
       </c>
-      <c r="C492" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D492" s="48" t="s">
+      <c r="C492" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D492" s="40" t="s">
         <v>1895</v>
       </c>
-      <c r="E492" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F492" s="48"/>
-      <c r="G492" s="48"/>
-      <c r="H492" s="48" t="s">
+      <c r="E492" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F492" s="40"/>
+      <c r="G492" s="40"/>
+      <c r="H492" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I492" s="49" t="s">
+      <c r="I492" s="41" t="s">
         <v>1896</v>
       </c>
     </row>
     <row r="493" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A493" s="45" t="s">
+      <c r="A493" s="37" t="s">
         <v>1897</v>
       </c>
-      <c r="B493" s="46" t="s">
+      <c r="B493" s="38" t="s">
         <v>1898</v>
       </c>
-      <c r="C493" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D493" s="48" t="s">
+      <c r="C493" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D493" s="40" t="s">
         <v>1899</v>
       </c>
-      <c r="E493" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F493" s="48"/>
-      <c r="G493" s="48"/>
-      <c r="H493" s="48" t="s">
+      <c r="E493" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F493" s="40"/>
+      <c r="G493" s="40"/>
+      <c r="H493" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I493" s="49" t="s">
+      <c r="I493" s="41" t="s">
         <v>1900</v>
       </c>
     </row>
     <row r="494" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A494" s="45" t="s">
+      <c r="A494" s="37" t="s">
         <v>1901</v>
       </c>
-      <c r="B494" s="46" t="s">
+      <c r="B494" s="38" t="s">
         <v>1902</v>
       </c>
-      <c r="C494" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D494" s="48" t="s">
+      <c r="C494" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D494" s="40" t="s">
         <v>1903</v>
       </c>
-      <c r="E494" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F494" s="48"/>
-      <c r="G494" s="48"/>
-      <c r="H494" s="48" t="s">
+      <c r="E494" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F494" s="40"/>
+      <c r="G494" s="40"/>
+      <c r="H494" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I494" s="49" t="s">
+      <c r="I494" s="41" t="s">
         <v>1904</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A495" s="45" t="s">
+      <c r="A495" s="37" t="s">
         <v>1905</v>
       </c>
-      <c r="B495" s="46" t="s">
+      <c r="B495" s="38" t="s">
         <v>1906</v>
       </c>
-      <c r="C495" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D495" s="48" t="s">
+      <c r="C495" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D495" s="40" t="s">
         <v>1907</v>
       </c>
-      <c r="E495" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F495" s="48"/>
-      <c r="G495" s="48"/>
-      <c r="H495" s="48" t="s">
+      <c r="E495" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F495" s="40"/>
+      <c r="G495" s="40"/>
+      <c r="H495" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I495" s="49" t="s">
+      <c r="I495" s="41" t="s">
         <v>1908</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A496" s="45" t="s">
+      <c r="A496" s="37" t="s">
         <v>1909</v>
       </c>
-      <c r="B496" s="46" t="s">
+      <c r="B496" s="38" t="s">
         <v>1910</v>
       </c>
-      <c r="C496" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D496" s="48" t="s">
+      <c r="C496" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D496" s="40" t="s">
         <v>1911</v>
       </c>
-      <c r="E496" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F496" s="48"/>
-      <c r="G496" s="48"/>
-      <c r="H496" s="48" t="s">
+      <c r="E496" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F496" s="40"/>
+      <c r="G496" s="40"/>
+      <c r="H496" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I496" s="49" t="s">
+      <c r="I496" s="41" t="s">
         <v>1912</v>
       </c>
     </row>
     <row r="497" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A497" s="45" t="s">
+      <c r="A497" s="37" t="s">
         <v>1913</v>
       </c>
-      <c r="B497" s="46" t="s">
+      <c r="B497" s="38" t="s">
         <v>1914</v>
       </c>
-      <c r="C497" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D497" s="48" t="s">
+      <c r="C497" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D497" s="40" t="s">
         <v>1915</v>
       </c>
-      <c r="E497" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F497" s="48"/>
-      <c r="G497" s="48"/>
-      <c r="H497" s="48" t="s">
+      <c r="E497" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F497" s="40"/>
+      <c r="G497" s="40"/>
+      <c r="H497" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I497" s="49" t="s">
+      <c r="I497" s="41" t="s">
         <v>1916</v>
       </c>
     </row>
     <row r="498" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A498" s="45" t="s">
+      <c r="A498" s="37" t="s">
         <v>1917</v>
       </c>
-      <c r="B498" s="46" t="s">
+      <c r="B498" s="38" t="s">
         <v>1918</v>
       </c>
-      <c r="C498" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="D498" s="48" t="s">
+      <c r="C498" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="D498" s="40" t="s">
         <v>1919</v>
       </c>
-      <c r="E498" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="F498" s="48"/>
-      <c r="G498" s="48"/>
-      <c r="H498" s="48" t="s">
+      <c r="E498" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="F498" s="40"/>
+      <c r="G498" s="40"/>
+      <c r="H498" s="40" t="s">
         <v>1854</v>
       </c>
-      <c r="I498" s="49" t="s">
+      <c r="I498" s="41" t="s">
         <v>1920</v>
       </c>
     </row>
     <row r="499" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" s="35" t="s">
+        <v>1930</v>
+      </c>
+      <c r="B499" s="36" t="s">
         <v>1931</v>
       </c>
-      <c r="B499" s="39" t="s">
+      <c r="C499" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D499" s="42" t="s">
         <v>1932</v>
       </c>
-      <c r="C499" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D499" s="50" t="s">
+      <c r="E499" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F499" s="24" t="s">
         <v>1933</v>
-      </c>
-      <c r="E499" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F499" s="24" t="s">
-        <v>1934</v>
       </c>
       <c r="G499" s="24"/>
       <c r="H499" s="25" t="s">
@@ -23719,22 +23704,22 @@
     </row>
     <row r="500" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="35" t="s">
+        <v>1934</v>
+      </c>
+      <c r="B500" s="36" t="s">
         <v>1935</v>
       </c>
-      <c r="B500" s="39" t="s">
+      <c r="C500" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D500" s="25" t="s">
         <v>1936</v>
       </c>
-      <c r="C500" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D500" s="25" t="s">
+      <c r="E500" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F500" s="24" t="s">
         <v>1937</v>
-      </c>
-      <c r="E500" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F500" s="24" t="s">
-        <v>1938</v>
       </c>
       <c r="G500" s="24"/>
       <c r="H500" s="25" t="s">

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\working group\Franzi\Research Data Managment\Voc4Cat\FF_20250328_Voc4Cat contributions\Revision ab august\selected concepts 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{347A717F-27FD-45B2-B2A2-28317099230E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF15B856-0238-422E-A795-6F4F65CF9611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6606,35 +6606,10 @@
     <t>voc4cat:0007795 (co-precipitation)</t>
   </si>
   <si>
-    <t>voc4cat:00007806 (incipient wetness impregnation)</t>
-  </si>
-  <si>
     <t>operando analysis</t>
   </si>
   <si>
     <t>operando characterization</t>
-  </si>
-  <si>
-    <t>voc4cat:0000067 (X-ray fluorescence),
-voc4cat:0000068 (electron energy loss spectroscopy),
-voc4cat:0000069 (Raman spectroscopy),
-voc4cat:0000070 (atomic force microscopy),
-voc4cat:0000071 (differential scanning calorimetry),
-voc4cat:0000072 (thermogravimetric analysis),
-voc4cat:0000073 (nuclear magnetic resonance spectroscopy),
-voc4cat:0000074 (photoluminescence),
-voc4cat:0000075 (scanning electron microscopy),
-voc4cat:0000076 (X-ray photoelectron spectroscopy),
-voc4cat:0000077 (X-ray diffraction),
-voc4cat:0000078 (transmission electron microscopy),
-voc4cat:0000079 (ultraviolet-visible spectroscopy),
-voc4cat:0000080 (Fourier transform infrared spectroscopy),
-voc4cat:0000081 (Brunauer-Emmett-Teller surface area analysis),
-voc4cat:0000083 (Mott-Schottky analysis),
-voc4cat:0000286 (X-ray absorption spectroscopy),
-voc4cat:0000288 (electron microscopy),
-voc4cat:0007807 (in-operando analysis),
-voc4cat:0007808 (in-situ analysis)</t>
   </si>
   <si>
     <t>atmosphere</t>
@@ -6845,6 +6820,31 @@
 voc4cat:0007809 (atmosphere),
 voc4cat:0007838 (product mixture),
 voc4cat:0007793 (additive)</t>
+  </si>
+  <si>
+    <t>voc4cat:0000067 (X-ray fluorescence),
+voc4cat:0000068 (electron energy loss spectroscopy),
+voc4cat:0000069 (Raman spectroscopy),
+voc4cat:0000070 (atomic force microscopy),
+voc4cat:0000071 (differential scanning calorimetry),
+voc4cat:0000072 (thermogravimetric analysis),
+voc4cat:0000073 (nuclear magnetic resonance spectroscopy),
+voc4cat:0000074 (photoluminescence),
+voc4cat:0000075 (scanning electron microscopy),
+voc4cat:0000076 (X-ray photoelectron spectroscopy),
+voc4cat:0000077 (X-ray diffraction),
+voc4cat:0000078 (transmission electron microscopy),
+voc4cat:0000079 (ultraviolet-visible spectroscopy),
+voc4cat:0000080 (Fourier transform infrared spectroscopy),
+voc4cat:0000081 (Brunauer-Emmett-Teller surface area analysis),
+voc4cat:0000083 (Mott-Schottky analysis),
+voc4cat:0000286 (X-ray absorption spectroscopy),
+voc4cat:0000288 (electron microscopy),
+voc4cat:0007807 (operando analysis),
+voc4cat:0007808 (in-situ analysis)</t>
+  </si>
+  <si>
+    <t>voc4cat:0007806 (incipient wetness impregnation)</t>
   </si>
 </sst>
 </file>
@@ -11754,8 +11754,8 @@
   </sheetPr>
   <dimension ref="A1:I500"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G481" sqref="G481"/>
+    <sheetView tabSelected="1" topLeftCell="A482" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A484" sqref="A484"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13566,7 +13566,7 @@
       </c>
       <c r="F78" s="27"/>
       <c r="G78" s="27" t="s">
-        <v>1922</v>
+        <v>1939</v>
       </c>
       <c r="H78" s="27" t="s">
         <v>252</v>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F237" s="27"/>
       <c r="G237" s="27" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="H237" s="27" t="s">
         <v>93</v>
@@ -21206,7 +21206,7 @@
         <v>1410</v>
       </c>
       <c r="G400" s="27" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="H400" s="27" t="s">
         <v>93</v>
@@ -23083,7 +23083,7 @@
         <v>1709</v>
       </c>
       <c r="G475" s="27" t="s">
-        <v>1925</v>
+        <v>1938</v>
       </c>
       <c r="H475" s="27" t="s">
         <v>93</v>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="F480" s="27"/>
       <c r="G480" s="27" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="H480" s="27" t="s">
         <v>1624</v>
@@ -23233,7 +23233,7 @@
       </c>
       <c r="F481" s="27"/>
       <c r="G481" s="27" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="H481" s="27" t="s">
         <v>1624</v>
@@ -23322,7 +23322,7 @@
         <v>1864</v>
       </c>
       <c r="B485" s="38" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="C485" s="39" t="s">
         <v>84</v>
@@ -23334,7 +23334,7 @@
         <v>84</v>
       </c>
       <c r="F485" s="40" t="s">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="G485" s="40"/>
       <c r="H485" s="40" t="s">
@@ -23376,13 +23376,13 @@
         <v>1872</v>
       </c>
       <c r="B487" s="38" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="C487" s="39" t="s">
         <v>84</v>
       </c>
       <c r="D487" s="25" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="E487" s="39" t="s">
         <v>84</v>
@@ -23679,22 +23679,22 @@
     </row>
     <row r="499" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A499" s="35" t="s">
+        <v>1928</v>
+      </c>
+      <c r="B499" s="36" t="s">
+        <v>1929</v>
+      </c>
+      <c r="C499" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D499" s="42" t="s">
         <v>1930</v>
       </c>
-      <c r="B499" s="36" t="s">
+      <c r="E499" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F499" s="24" t="s">
         <v>1931</v>
-      </c>
-      <c r="C499" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D499" s="42" t="s">
-        <v>1932</v>
-      </c>
-      <c r="E499" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F499" s="24" t="s">
-        <v>1933</v>
       </c>
       <c r="G499" s="24"/>
       <c r="H499" s="25" t="s">
@@ -23704,22 +23704,22 @@
     </row>
     <row r="500" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A500" s="35" t="s">
+        <v>1932</v>
+      </c>
+      <c r="B500" s="36" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C500" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D500" s="25" t="s">
         <v>1934</v>
       </c>
-      <c r="B500" s="36" t="s">
+      <c r="E500" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F500" s="24" t="s">
         <v>1935</v>
-      </c>
-      <c r="C500" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D500" s="25" t="s">
-        <v>1936</v>
-      </c>
-      <c r="E500" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="F500" s="24" t="s">
-        <v>1937</v>
       </c>
       <c r="G500" s="24"/>
       <c r="H500" s="25" t="s">

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3425" uniqueCount="1935">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3426" uniqueCount="1935">
   <si>
     <t xml:space="preserve">Template version</t>
   </si>
@@ -5896,7 +5896,6 @@
 voc4cat:0007261 (peak area),
 voc4cat:0007262 (membrane thickness),
 voc4cat:0007263 (total faradaic efficiency),
-voc4cat:0008084 (detector dead time),
 voc4cat:0008085 (dead time correction),
 voc4cat:0008086 (fluorescence yield),
 voc4cat:0008087 (absorbance),
@@ -5904,11 +5903,6 @@
 voc4cat:0008089 (absorbance of the sample),
 voc4cat:0008090 (manual energy shift),
 voc4cat:0008091 (fluorescence signal),
-voc4cat:0008092 (incoming count rate),
-voc4cat:0008093 (outgoing count rate),
-voc4cat:0008094 (trigger live time),
-voc4cat:0008095 (effective measurement time),
-voc4cat:0008096 (total measurement time),
 voc4cat:0008097 (X-ray photon energy),
 voc4cat:0008099 (dead time),
 voc4cat:0008100 (detector performance measure)
@@ -7380,9 +7374,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>579240</xdr:colOff>
+      <xdr:colOff>578520</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>131760</xdr:rowOff>
+      <xdr:rowOff>131040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7396,8 +7390,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1377360" y="304920"/>
-          <a:ext cx="5910120" cy="1541520"/>
+          <a:off x="1378440" y="304920"/>
+          <a:ext cx="5909400" cy="1540800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7473,11 +7467,11 @@
   </sheetPr>
   <dimension ref="A11:L32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.28"/>
@@ -7666,11 +7660,11 @@
   </sheetPr>
   <dimension ref="A1:J1149"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16"/>
@@ -10354,11 +10348,11 @@
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="72.7"/>
@@ -11526,11 +11520,11 @@
   </sheetPr>
   <dimension ref="A1:I527"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A482" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B491" activeCellId="0" sqref="B491"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A482" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A500" activeCellId="0" sqref="A500"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.7"/>
@@ -22983,7 +22977,7 @@
       </c>
       <c r="I480" s="34"/>
     </row>
-    <row r="481" customFormat="false" ht="1706.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="481" customFormat="false" ht="1624.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="34" t="s">
         <v>1734</v>
       </c>
@@ -23407,7 +23401,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="500" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="500" customFormat="false" ht="80.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A500" s="34" t="s">
         <v>1807</v>
       </c>
@@ -23426,6 +23420,9 @@
       <c r="F500" s="0"/>
       <c r="G500" s="35" t="s">
         <v>1810</v>
+      </c>
+      <c r="H500" s="1" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23940,11 +23937,11 @@
   </sheetPr>
   <dimension ref="A1:F461"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="1" width="42.71"/>
   </cols>
@@ -24720,11 +24717,11 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.7"/>
@@ -25003,11 +25000,11 @@
   </sheetPr>
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6015625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="60.72"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Documents\GitHub\Hendrik\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FB7A7C-33FB-41F1-96B4-881067EC945D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6C3A72-9F7E-491C-84B7-72AFD7FD7C06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3725" uniqueCount="2095">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3726" uniqueCount="2096">
   <si>
     <t>Template version</t>
   </si>
@@ -7407,6 +7407,9 @@
 voc4cat:0007127 (signal range),
 voc4cat:0007128 (measurement matrix size),
 voc4cat:0007129 (spatial sampling interval) </t>
+  </si>
+  <si>
+    <t>Metadata attributes relevant for Scanning Electron Microscopy (SEM)</t>
   </si>
 </sst>
 </file>
@@ -7712,14 +7715,14 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -8257,65 +8260,65 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
       <c r="L17" s="11"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -8421,61 +8424,61 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="34"/>
@@ -8539,391 +8542,391 @@
       <c r="J11" s="34"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
     </row>
     <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
     </row>
     <row r="14" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="39"/>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="39"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="39"/>
     </row>
     <row r="17" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="39"/>
     </row>
     <row r="19" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
     </row>
     <row r="20" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="38"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="39"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="39"/>
+      <c r="J26" s="39"/>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="38"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="38"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="38"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
     </row>
     <row r="33" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="38"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
     </row>
     <row r="34" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="38"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
     </row>
     <row r="35" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
     </row>
     <row r="36" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
     </row>
     <row r="37" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="38"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
     </row>
     <row r="39" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="38"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="38"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="38"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="39"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="38"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="38"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="38"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="39"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="38"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="39"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="38"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="34"/>
@@ -8936,1074 +8939,1074 @@
       <c r="J47" s="34"/>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="38"/>
-      <c r="J48" s="38"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
     </row>
     <row r="49" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="38"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="38"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
-      <c r="I49" s="38"/>
-      <c r="J49" s="38"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="39"/>
     </row>
     <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="38"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="38"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
-      <c r="I50" s="38"/>
-      <c r="J50" s="38"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
     </row>
     <row r="51" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="38"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
-      <c r="I51" s="38"/>
-      <c r="J51" s="38"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="39"/>
     </row>
     <row r="52" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
-      <c r="I52" s="38"/>
-      <c r="J52" s="38"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="39"/>
     </row>
     <row r="53" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="38"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="38"/>
-      <c r="J53" s="38"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
     </row>
     <row r="54" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
-      <c r="I54" s="38"/>
-      <c r="J54" s="38"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="39"/>
     </row>
     <row r="55" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="38"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
-      <c r="I55" s="38"/>
-      <c r="J55" s="38"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
     </row>
     <row r="56" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
-      <c r="I56" s="38"/>
-      <c r="J56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="39"/>
     </row>
     <row r="57" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="38"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
-      <c r="I57" s="38"/>
-      <c r="J57" s="38"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="39"/>
     </row>
     <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="38"/>
-      <c r="J58" s="38"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="39"/>
     </row>
     <row r="59" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="38"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-      <c r="I59" s="38"/>
-      <c r="J59" s="38"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="39"/>
     </row>
     <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-      <c r="I60" s="38"/>
-      <c r="J60" s="38"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
+      <c r="I60" s="39"/>
+      <c r="J60" s="39"/>
     </row>
     <row r="61" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="38"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-      <c r="I61" s="38"/>
-      <c r="J61" s="38"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
     </row>
     <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="38"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-      <c r="I62" s="38"/>
-      <c r="J62" s="38"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
     </row>
     <row r="63" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="38"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="38"/>
-      <c r="J63" s="38"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
     </row>
     <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="38"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-      <c r="I64" s="38"/>
-      <c r="J64" s="38"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
     </row>
     <row r="65" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
     </row>
     <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="38"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="38"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
     </row>
     <row r="67" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="38"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-      <c r="I67" s="38"/>
-      <c r="J67" s="38"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="39"/>
     </row>
     <row r="68" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="38"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="38"/>
-      <c r="J68" s="38"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="39"/>
     </row>
     <row r="69" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="38"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="38"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="38"/>
-      <c r="J69" s="38"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="39"/>
+      <c r="F69" s="39"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="39"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="39"/>
     </row>
     <row r="70" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="39"/>
+      <c r="F70" s="39"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="39"/>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
     </row>
     <row r="71" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="38"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="39"/>
+      <c r="F71" s="39"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="39"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="39"/>
     </row>
     <row r="72" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="39"/>
+      <c r="F72" s="39"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="39"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="39"/>
     </row>
     <row r="73" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="38"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="38"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="38"/>
-      <c r="J73" s="38"/>
+      <c r="B73" s="39"/>
+      <c r="C73" s="39"/>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="39"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="39"/>
     </row>
     <row r="74" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="38"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="38"/>
-      <c r="E74" s="38"/>
-      <c r="F74" s="38"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="38"/>
-      <c r="J74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="39"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="39"/>
     </row>
     <row r="75" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="39"/>
+      <c r="I75" s="39"/>
+      <c r="J75" s="39"/>
     </row>
     <row r="76" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="38"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="38"/>
-      <c r="E76" s="38"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="38"/>
-      <c r="J76" s="38"/>
+      <c r="B76" s="39"/>
+      <c r="C76" s="39"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
+      <c r="F76" s="39"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="39"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="39"/>
     </row>
     <row r="77" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="38"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="38"/>
-      <c r="E77" s="38"/>
-      <c r="F77" s="38"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="38"/>
-      <c r="J77" s="38"/>
+      <c r="B77" s="39"/>
+      <c r="C77" s="39"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="39"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="39"/>
     </row>
     <row r="78" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="38"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="38"/>
-      <c r="J78" s="38"/>
+      <c r="B78" s="39"/>
+      <c r="C78" s="39"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="39"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="39"/>
     </row>
     <row r="79" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="38"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="38"/>
-      <c r="E79" s="38"/>
-      <c r="F79" s="38"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="38"/>
-      <c r="J79" s="38"/>
+      <c r="B79" s="39"/>
+      <c r="C79" s="39"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="39"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="39"/>
     </row>
     <row r="80" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="38"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
+      <c r="B80" s="39"/>
+      <c r="C80" s="39"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="39"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="39"/>
+      <c r="I80" s="39"/>
+      <c r="J80" s="39"/>
     </row>
     <row r="81" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="38"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
+      <c r="B81" s="39"/>
+      <c r="C81" s="39"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="39"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="39"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="39"/>
     </row>
     <row r="82" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="38"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
+      <c r="B82" s="39"/>
+      <c r="C82" s="39"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
+      <c r="F82" s="39"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="39"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="39"/>
     </row>
     <row r="83" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="38"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
+      <c r="B83" s="39"/>
+      <c r="C83" s="39"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
+      <c r="F83" s="39"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="39"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="39"/>
     </row>
     <row r="84" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="38"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="38"/>
-      <c r="J84" s="38"/>
+      <c r="B84" s="39"/>
+      <c r="C84" s="39"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
+      <c r="F84" s="39"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="39"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="39"/>
     </row>
     <row r="85" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="38"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="38"/>
-      <c r="E85" s="38"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="38"/>
+      <c r="B85" s="39"/>
+      <c r="C85" s="39"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
+      <c r="F85" s="39"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="39"/>
+      <c r="I85" s="39"/>
+      <c r="J85" s="39"/>
     </row>
     <row r="86" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="38"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="38"/>
-      <c r="E86" s="38"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="38"/>
-      <c r="J86" s="38"/>
+      <c r="B86" s="39"/>
+      <c r="C86" s="39"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
+      <c r="F86" s="39"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="39"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="39"/>
     </row>
     <row r="87" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="38"/>
-      <c r="E87" s="38"/>
-      <c r="F87" s="38"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="38"/>
-      <c r="J87" s="38"/>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
+      <c r="F87" s="39"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="39"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="39"/>
     </row>
     <row r="88" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="38"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="38"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="38"/>
-      <c r="J88" s="38"/>
+      <c r="B88" s="39"/>
+      <c r="C88" s="39"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
+      <c r="F88" s="39"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="39"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="39"/>
     </row>
     <row r="89" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="90" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C90" s="38"/>
-      <c r="D90" s="38"/>
-      <c r="E90" s="38"/>
-      <c r="F90" s="38"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="38"/>
-      <c r="J90" s="38"/>
+      <c r="C90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
+      <c r="F90" s="39"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="39"/>
+      <c r="I90" s="39"/>
+      <c r="J90" s="39"/>
     </row>
     <row r="91" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="38"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="38"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="38"/>
-      <c r="J91" s="38"/>
+      <c r="B91" s="39"/>
+      <c r="C91" s="39"/>
+      <c r="D91" s="39"/>
+      <c r="E91" s="39"/>
+      <c r="F91" s="39"/>
+      <c r="G91" s="39"/>
+      <c r="H91" s="39"/>
+      <c r="I91" s="39"/>
+      <c r="J91" s="39"/>
     </row>
     <row r="92" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="38"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="38"/>
-      <c r="E92" s="38"/>
-      <c r="F92" s="38"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="38"/>
-      <c r="J92" s="38"/>
+      <c r="B92" s="39"/>
+      <c r="C92" s="39"/>
+      <c r="D92" s="39"/>
+      <c r="E92" s="39"/>
+      <c r="F92" s="39"/>
+      <c r="G92" s="39"/>
+      <c r="H92" s="39"/>
+      <c r="I92" s="39"/>
+      <c r="J92" s="39"/>
     </row>
     <row r="93" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="38"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="38"/>
-      <c r="E93" s="38"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="38"/>
-      <c r="J93" s="38"/>
+      <c r="B93" s="39"/>
+      <c r="C93" s="39"/>
+      <c r="D93" s="39"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="39"/>
+      <c r="H93" s="39"/>
+      <c r="I93" s="39"/>
+      <c r="J93" s="39"/>
     </row>
     <row r="94" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="38"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="38"/>
-      <c r="E94" s="38"/>
-      <c r="F94" s="38"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="38"/>
-      <c r="J94" s="38"/>
+      <c r="B94" s="39"/>
+      <c r="C94" s="39"/>
+      <c r="D94" s="39"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="39"/>
+      <c r="H94" s="39"/>
+      <c r="I94" s="39"/>
+      <c r="J94" s="39"/>
     </row>
     <row r="95" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="38"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="38"/>
-      <c r="E95" s="38"/>
-      <c r="F95" s="38"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="38"/>
-      <c r="J95" s="38"/>
+      <c r="B95" s="39"/>
+      <c r="C95" s="39"/>
+      <c r="D95" s="39"/>
+      <c r="E95" s="39"/>
+      <c r="F95" s="39"/>
+      <c r="G95" s="39"/>
+      <c r="H95" s="39"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
     </row>
     <row r="96" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="38"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="38"/>
-      <c r="J96" s="38"/>
+      <c r="B96" s="39"/>
+      <c r="C96" s="39"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="39"/>
+      <c r="G96" s="39"/>
+      <c r="H96" s="39"/>
+      <c r="I96" s="39"/>
+      <c r="J96" s="39"/>
     </row>
     <row r="97" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="38"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="38"/>
-      <c r="F97" s="38"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="38"/>
-      <c r="J97" s="38"/>
+      <c r="B97" s="39"/>
+      <c r="C97" s="39"/>
+      <c r="D97" s="39"/>
+      <c r="E97" s="39"/>
+      <c r="F97" s="39"/>
+      <c r="G97" s="39"/>
+      <c r="H97" s="39"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
     </row>
     <row r="98" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="38"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="38"/>
-      <c r="F98" s="38"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="38"/>
-      <c r="J98" s="38"/>
+      <c r="B98" s="39"/>
+      <c r="C98" s="39"/>
+      <c r="D98" s="39"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="39"/>
+      <c r="H98" s="39"/>
+      <c r="I98" s="39"/>
+      <c r="J98" s="39"/>
     </row>
     <row r="99" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="38"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="38"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="38"/>
-      <c r="J99" s="38"/>
+      <c r="B99" s="39"/>
+      <c r="C99" s="39"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
     </row>
     <row r="100" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="38"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="38"/>
-      <c r="J100" s="38"/>
+      <c r="B100" s="39"/>
+      <c r="C100" s="39"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
     </row>
     <row r="101" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="38"/>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-      <c r="I101" s="38"/>
-      <c r="J101" s="38"/>
+      <c r="B101" s="39"/>
+      <c r="C101" s="39"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
+      <c r="I101" s="39"/>
+      <c r="J101" s="39"/>
     </row>
     <row r="102" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="38"/>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-      <c r="I102" s="38"/>
-      <c r="J102" s="38"/>
+      <c r="B102" s="39"/>
+      <c r="C102" s="39"/>
+      <c r="D102" s="39"/>
+      <c r="E102" s="39"/>
+      <c r="F102" s="39"/>
+      <c r="G102" s="39"/>
+      <c r="H102" s="39"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
     </row>
     <row r="103" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B103" s="38"/>
-      <c r="C103" s="38"/>
-      <c r="D103" s="38"/>
-      <c r="E103" s="38"/>
-      <c r="F103" s="38"/>
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-      <c r="I103" s="38"/>
-      <c r="J103" s="38"/>
+      <c r="B103" s="39"/>
+      <c r="C103" s="39"/>
+      <c r="D103" s="39"/>
+      <c r="E103" s="39"/>
+      <c r="F103" s="39"/>
+      <c r="G103" s="39"/>
+      <c r="H103" s="39"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
     </row>
     <row r="104" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="38"/>
-      <c r="C104" s="38"/>
-      <c r="D104" s="38"/>
-      <c r="E104" s="38"/>
-      <c r="F104" s="38"/>
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-      <c r="I104" s="38"/>
-      <c r="J104" s="38"/>
+      <c r="B104" s="39"/>
+      <c r="C104" s="39"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
     </row>
     <row r="105" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B105" s="38"/>
-      <c r="C105" s="38"/>
-      <c r="D105" s="38"/>
-      <c r="E105" s="38"/>
-      <c r="F105" s="38"/>
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-      <c r="I105" s="38"/>
-      <c r="J105" s="38"/>
+      <c r="B105" s="39"/>
+      <c r="C105" s="39"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
     </row>
     <row r="106" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="38"/>
-      <c r="C106" s="38"/>
-      <c r="D106" s="38"/>
-      <c r="E106" s="38"/>
-      <c r="F106" s="38"/>
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-      <c r="I106" s="38"/>
-      <c r="J106" s="38"/>
+      <c r="B106" s="39"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
     </row>
     <row r="107" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B107" s="38"/>
-      <c r="C107" s="38"/>
-      <c r="D107" s="38"/>
-      <c r="E107" s="38"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-      <c r="I107" s="38"/>
-      <c r="J107" s="38"/>
+      <c r="B107" s="39"/>
+      <c r="C107" s="39"/>
+      <c r="D107" s="39"/>
+      <c r="E107" s="39"/>
+      <c r="F107" s="39"/>
+      <c r="G107" s="39"/>
+      <c r="H107" s="39"/>
+      <c r="I107" s="39"/>
+      <c r="J107" s="39"/>
     </row>
     <row r="108" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B108" s="38"/>
-      <c r="C108" s="38"/>
-      <c r="D108" s="38"/>
-      <c r="E108" s="38"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-      <c r="I108" s="38"/>
-      <c r="J108" s="38"/>
+      <c r="B108" s="39"/>
+      <c r="C108" s="39"/>
+      <c r="D108" s="39"/>
+      <c r="E108" s="39"/>
+      <c r="F108" s="39"/>
+      <c r="G108" s="39"/>
+      <c r="H108" s="39"/>
+      <c r="I108" s="39"/>
+      <c r="J108" s="39"/>
     </row>
     <row r="109" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="38"/>
-      <c r="E109" s="38"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-      <c r="I109" s="38"/>
-      <c r="J109" s="38"/>
+      <c r="B109" s="39"/>
+      <c r="C109" s="39"/>
+      <c r="D109" s="39"/>
+      <c r="E109" s="39"/>
+      <c r="F109" s="39"/>
+      <c r="G109" s="39"/>
+      <c r="H109" s="39"/>
+      <c r="I109" s="39"/>
+      <c r="J109" s="39"/>
     </row>
     <row r="110" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="38"/>
-      <c r="E110" s="38"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-      <c r="I110" s="38"/>
-      <c r="J110" s="38"/>
+      <c r="B110" s="39"/>
+      <c r="C110" s="39"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="39"/>
+      <c r="G110" s="39"/>
+      <c r="H110" s="39"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
     </row>
     <row r="111" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="38"/>
-      <c r="E111" s="38"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-      <c r="I111" s="38"/>
-      <c r="J111" s="38"/>
+      <c r="B111" s="39"/>
+      <c r="C111" s="39"/>
+      <c r="D111" s="39"/>
+      <c r="E111" s="39"/>
+      <c r="F111" s="39"/>
+      <c r="G111" s="39"/>
+      <c r="H111" s="39"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
     </row>
     <row r="112" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B112" s="38"/>
-      <c r="C112" s="38"/>
-      <c r="D112" s="38"/>
-      <c r="E112" s="38"/>
-      <c r="F112" s="38"/>
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-      <c r="I112" s="38"/>
-      <c r="J112" s="38"/>
+      <c r="B112" s="39"/>
+      <c r="C112" s="39"/>
+      <c r="D112" s="39"/>
+      <c r="E112" s="39"/>
+      <c r="F112" s="39"/>
+      <c r="G112" s="39"/>
+      <c r="H112" s="39"/>
+      <c r="I112" s="39"/>
+      <c r="J112" s="39"/>
     </row>
     <row r="113" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B113" s="38"/>
-      <c r="C113" s="38"/>
-      <c r="D113" s="38"/>
-      <c r="E113" s="38"/>
-      <c r="F113" s="38"/>
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-      <c r="I113" s="38"/>
-      <c r="J113" s="38"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="39"/>
+      <c r="H113" s="39"/>
+      <c r="I113" s="39"/>
+      <c r="J113" s="39"/>
     </row>
     <row r="114" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="38"/>
-      <c r="C114" s="38"/>
-      <c r="D114" s="38"/>
-      <c r="E114" s="38"/>
-      <c r="F114" s="38"/>
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-      <c r="I114" s="38"/>
-      <c r="J114" s="38"/>
+      <c r="B114" s="39"/>
+      <c r="C114" s="39"/>
+      <c r="D114" s="39"/>
+      <c r="E114" s="39"/>
+      <c r="F114" s="39"/>
+      <c r="G114" s="39"/>
+      <c r="H114" s="39"/>
+      <c r="I114" s="39"/>
+      <c r="J114" s="39"/>
     </row>
     <row r="115" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B115" s="38"/>
-      <c r="C115" s="38"/>
-      <c r="D115" s="38"/>
-      <c r="E115" s="38"/>
-      <c r="F115" s="38"/>
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-      <c r="I115" s="38"/>
-      <c r="J115" s="38"/>
+      <c r="B115" s="39"/>
+      <c r="C115" s="39"/>
+      <c r="D115" s="39"/>
+      <c r="E115" s="39"/>
+      <c r="F115" s="39"/>
+      <c r="G115" s="39"/>
+      <c r="H115" s="39"/>
+      <c r="I115" s="39"/>
+      <c r="J115" s="39"/>
     </row>
     <row r="116" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B116" s="38"/>
-      <c r="C116" s="38"/>
-      <c r="D116" s="38"/>
-      <c r="E116" s="38"/>
-      <c r="F116" s="38"/>
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-      <c r="I116" s="38"/>
-      <c r="J116" s="38"/>
+      <c r="B116" s="39"/>
+      <c r="C116" s="39"/>
+      <c r="D116" s="39"/>
+      <c r="E116" s="39"/>
+      <c r="F116" s="39"/>
+      <c r="G116" s="39"/>
+      <c r="H116" s="39"/>
+      <c r="I116" s="39"/>
+      <c r="J116" s="39"/>
     </row>
     <row r="117" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="118" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B118" s="37" t="s">
+      <c r="B118" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C118" s="38"/>
-      <c r="D118" s="38"/>
-      <c r="E118" s="38"/>
-      <c r="F118" s="38"/>
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-      <c r="I118" s="38"/>
-      <c r="J118" s="38"/>
+      <c r="C118" s="39"/>
+      <c r="D118" s="39"/>
+      <c r="E118" s="39"/>
+      <c r="F118" s="39"/>
+      <c r="G118" s="39"/>
+      <c r="H118" s="39"/>
+      <c r="I118" s="39"/>
+      <c r="J118" s="39"/>
     </row>
     <row r="119" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B119" s="38"/>
-      <c r="C119" s="38"/>
-      <c r="D119" s="38"/>
-      <c r="E119" s="38"/>
-      <c r="F119" s="38"/>
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-      <c r="I119" s="38"/>
-      <c r="J119" s="38"/>
+      <c r="B119" s="39"/>
+      <c r="C119" s="39"/>
+      <c r="D119" s="39"/>
+      <c r="E119" s="39"/>
+      <c r="F119" s="39"/>
+      <c r="G119" s="39"/>
+      <c r="H119" s="39"/>
+      <c r="I119" s="39"/>
+      <c r="J119" s="39"/>
     </row>
     <row r="120" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B120" s="38"/>
-      <c r="C120" s="38"/>
-      <c r="D120" s="38"/>
-      <c r="E120" s="38"/>
-      <c r="F120" s="38"/>
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-      <c r="I120" s="38"/>
-      <c r="J120" s="38"/>
+      <c r="B120" s="39"/>
+      <c r="C120" s="39"/>
+      <c r="D120" s="39"/>
+      <c r="E120" s="39"/>
+      <c r="F120" s="39"/>
+      <c r="G120" s="39"/>
+      <c r="H120" s="39"/>
+      <c r="I120" s="39"/>
+      <c r="J120" s="39"/>
     </row>
     <row r="121" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="38"/>
-      <c r="C121" s="38"/>
-      <c r="D121" s="38"/>
-      <c r="E121" s="38"/>
-      <c r="F121" s="38"/>
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-      <c r="I121" s="38"/>
-      <c r="J121" s="38"/>
+      <c r="B121" s="39"/>
+      <c r="C121" s="39"/>
+      <c r="D121" s="39"/>
+      <c r="E121" s="39"/>
+      <c r="F121" s="39"/>
+      <c r="G121" s="39"/>
+      <c r="H121" s="39"/>
+      <c r="I121" s="39"/>
+      <c r="J121" s="39"/>
     </row>
     <row r="122" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B122" s="38"/>
-      <c r="C122" s="38"/>
-      <c r="D122" s="38"/>
-      <c r="E122" s="38"/>
-      <c r="F122" s="38"/>
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-      <c r="I122" s="38"/>
-      <c r="J122" s="38"/>
+      <c r="B122" s="39"/>
+      <c r="C122" s="39"/>
+      <c r="D122" s="39"/>
+      <c r="E122" s="39"/>
+      <c r="F122" s="39"/>
+      <c r="G122" s="39"/>
+      <c r="H122" s="39"/>
+      <c r="I122" s="39"/>
+      <c r="J122" s="39"/>
     </row>
     <row r="123" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B123" s="38"/>
-      <c r="C123" s="38"/>
-      <c r="D123" s="38"/>
-      <c r="E123" s="38"/>
-      <c r="F123" s="38"/>
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-      <c r="I123" s="38"/>
-      <c r="J123" s="38"/>
+      <c r="B123" s="39"/>
+      <c r="C123" s="39"/>
+      <c r="D123" s="39"/>
+      <c r="E123" s="39"/>
+      <c r="F123" s="39"/>
+      <c r="G123" s="39"/>
+      <c r="H123" s="39"/>
+      <c r="I123" s="39"/>
+      <c r="J123" s="39"/>
     </row>
     <row r="124" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B124" s="38"/>
-      <c r="C124" s="38"/>
-      <c r="D124" s="38"/>
-      <c r="E124" s="38"/>
-      <c r="F124" s="38"/>
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="38"/>
+      <c r="B124" s="39"/>
+      <c r="C124" s="39"/>
+      <c r="D124" s="39"/>
+      <c r="E124" s="39"/>
+      <c r="F124" s="39"/>
+      <c r="G124" s="39"/>
+      <c r="H124" s="39"/>
+      <c r="I124" s="39"/>
+      <c r="J124" s="39"/>
     </row>
     <row r="125" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B125" s="38"/>
-      <c r="C125" s="38"/>
-      <c r="D125" s="38"/>
-      <c r="E125" s="38"/>
-      <c r="F125" s="38"/>
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-      <c r="I125" s="38"/>
-      <c r="J125" s="38"/>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39"/>
+      <c r="D125" s="39"/>
+      <c r="E125" s="39"/>
+      <c r="F125" s="39"/>
+      <c r="G125" s="39"/>
+      <c r="H125" s="39"/>
+      <c r="I125" s="39"/>
+      <c r="J125" s="39"/>
     </row>
     <row r="126" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="38"/>
-      <c r="C126" s="38"/>
-      <c r="D126" s="38"/>
-      <c r="E126" s="38"/>
-      <c r="F126" s="38"/>
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-      <c r="I126" s="38"/>
-      <c r="J126" s="38"/>
+      <c r="B126" s="39"/>
+      <c r="C126" s="39"/>
+      <c r="D126" s="39"/>
+      <c r="E126" s="39"/>
+      <c r="F126" s="39"/>
+      <c r="G126" s="39"/>
+      <c r="H126" s="39"/>
+      <c r="I126" s="39"/>
+      <c r="J126" s="39"/>
     </row>
     <row r="127" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="38"/>
-      <c r="C127" s="38"/>
-      <c r="D127" s="38"/>
-      <c r="E127" s="38"/>
-      <c r="F127" s="38"/>
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-      <c r="I127" s="38"/>
-      <c r="J127" s="38"/>
+      <c r="B127" s="39"/>
+      <c r="C127" s="39"/>
+      <c r="D127" s="39"/>
+      <c r="E127" s="39"/>
+      <c r="F127" s="39"/>
+      <c r="G127" s="39"/>
+      <c r="H127" s="39"/>
+      <c r="I127" s="39"/>
+      <c r="J127" s="39"/>
     </row>
     <row r="128" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B128" s="38"/>
-      <c r="C128" s="38"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-      <c r="F128" s="38"/>
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-      <c r="I128" s="38"/>
-      <c r="J128" s="38"/>
+      <c r="B128" s="39"/>
+      <c r="C128" s="39"/>
+      <c r="D128" s="39"/>
+      <c r="E128" s="39"/>
+      <c r="F128" s="39"/>
+      <c r="G128" s="39"/>
+      <c r="H128" s="39"/>
+      <c r="I128" s="39"/>
+      <c r="J128" s="39"/>
     </row>
     <row r="129" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="38"/>
-      <c r="C129" s="38"/>
-      <c r="D129" s="38"/>
-      <c r="E129" s="38"/>
-      <c r="F129" s="38"/>
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-      <c r="I129" s="38"/>
-      <c r="J129" s="38"/>
+      <c r="B129" s="39"/>
+      <c r="C129" s="39"/>
+      <c r="D129" s="39"/>
+      <c r="E129" s="39"/>
+      <c r="F129" s="39"/>
+      <c r="G129" s="39"/>
+      <c r="H129" s="39"/>
+      <c r="I129" s="39"/>
+      <c r="J129" s="39"/>
     </row>
     <row r="130" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="38"/>
-      <c r="C130" s="38"/>
-      <c r="D130" s="38"/>
-      <c r="E130" s="38"/>
-      <c r="F130" s="38"/>
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38"/>
+      <c r="B130" s="39"/>
+      <c r="C130" s="39"/>
+      <c r="D130" s="39"/>
+      <c r="E130" s="39"/>
+      <c r="F130" s="39"/>
+      <c r="G130" s="39"/>
+      <c r="H130" s="39"/>
+      <c r="I130" s="39"/>
+      <c r="J130" s="39"/>
     </row>
     <row r="131" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="38"/>
-      <c r="C131" s="38"/>
-      <c r="D131" s="38"/>
-      <c r="E131" s="38"/>
-      <c r="F131" s="38"/>
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38"/>
+      <c r="B131" s="39"/>
+      <c r="C131" s="39"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="39"/>
+      <c r="F131" s="39"/>
+      <c r="G131" s="39"/>
+      <c r="H131" s="39"/>
+      <c r="I131" s="39"/>
+      <c r="J131" s="39"/>
     </row>
     <row r="132" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="37" t="s">
+      <c r="B133" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C133" s="38"/>
-      <c r="D133" s="38"/>
-      <c r="E133" s="38"/>
-      <c r="F133" s="38"/>
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-      <c r="I133" s="38"/>
-      <c r="J133" s="38"/>
+      <c r="C133" s="39"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="39"/>
+      <c r="F133" s="39"/>
+      <c r="G133" s="39"/>
+      <c r="H133" s="39"/>
+      <c r="I133" s="39"/>
+      <c r="J133" s="39"/>
     </row>
     <row r="134" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="38"/>
-      <c r="C134" s="38"/>
-      <c r="D134" s="38"/>
-      <c r="E134" s="38"/>
-      <c r="F134" s="38"/>
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-      <c r="I134" s="38"/>
-      <c r="J134" s="38"/>
+      <c r="B134" s="39"/>
+      <c r="C134" s="39"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="39"/>
+      <c r="F134" s="39"/>
+      <c r="G134" s="39"/>
+      <c r="H134" s="39"/>
+      <c r="I134" s="39"/>
+      <c r="J134" s="39"/>
     </row>
     <row r="135" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="38"/>
-      <c r="C135" s="38"/>
-      <c r="D135" s="38"/>
-      <c r="E135" s="38"/>
-      <c r="F135" s="38"/>
-      <c r="G135" s="38"/>
-      <c r="H135" s="38"/>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38"/>
+      <c r="B135" s="39"/>
+      <c r="C135" s="39"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="39"/>
+      <c r="F135" s="39"/>
+      <c r="G135" s="39"/>
+      <c r="H135" s="39"/>
+      <c r="I135" s="39"/>
+      <c r="J135" s="39"/>
     </row>
     <row r="136" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="38"/>
-      <c r="C136" s="38"/>
-      <c r="D136" s="38"/>
-      <c r="E136" s="38"/>
-      <c r="F136" s="38"/>
-      <c r="G136" s="38"/>
-      <c r="H136" s="38"/>
-      <c r="I136" s="38"/>
-      <c r="J136" s="38"/>
+      <c r="B136" s="39"/>
+      <c r="C136" s="39"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="39"/>
+      <c r="F136" s="39"/>
+      <c r="G136" s="39"/>
+      <c r="H136" s="39"/>
+      <c r="I136" s="39"/>
+      <c r="J136" s="39"/>
     </row>
     <row r="137" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="38"/>
-      <c r="C137" s="38"/>
-      <c r="D137" s="38"/>
-      <c r="E137" s="38"/>
-      <c r="F137" s="38"/>
-      <c r="G137" s="38"/>
-      <c r="H137" s="38"/>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38"/>
+      <c r="B137" s="39"/>
+      <c r="C137" s="39"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="39"/>
+      <c r="F137" s="39"/>
+      <c r="G137" s="39"/>
+      <c r="H137" s="39"/>
+      <c r="I137" s="39"/>
+      <c r="J137" s="39"/>
     </row>
     <row r="138" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B138" s="38"/>
-      <c r="C138" s="38"/>
-      <c r="D138" s="38"/>
-      <c r="E138" s="38"/>
-      <c r="F138" s="38"/>
-      <c r="G138" s="38"/>
-      <c r="H138" s="38"/>
-      <c r="I138" s="38"/>
-      <c r="J138" s="38"/>
+      <c r="B138" s="39"/>
+      <c r="C138" s="39"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="39"/>
+      <c r="F138" s="39"/>
+      <c r="G138" s="39"/>
+      <c r="H138" s="39"/>
+      <c r="I138" s="39"/>
+      <c r="J138" s="39"/>
     </row>
     <row r="139" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B139" s="38"/>
-      <c r="C139" s="38"/>
-      <c r="D139" s="38"/>
-      <c r="E139" s="38"/>
-      <c r="F139" s="38"/>
-      <c r="G139" s="38"/>
-      <c r="H139" s="38"/>
-      <c r="I139" s="38"/>
-      <c r="J139" s="38"/>
+      <c r="B139" s="39"/>
+      <c r="C139" s="39"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="39"/>
+      <c r="F139" s="39"/>
+      <c r="G139" s="39"/>
+      <c r="H139" s="39"/>
+      <c r="I139" s="39"/>
+      <c r="J139" s="39"/>
     </row>
     <row r="140" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="38"/>
-      <c r="C140" s="38"/>
-      <c r="D140" s="38"/>
-      <c r="E140" s="38"/>
-      <c r="F140" s="38"/>
-      <c r="G140" s="38"/>
-      <c r="H140" s="38"/>
-      <c r="I140" s="38"/>
-      <c r="J140" s="38"/>
+      <c r="B140" s="39"/>
+      <c r="C140" s="39"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="39"/>
+      <c r="F140" s="39"/>
+      <c r="G140" s="39"/>
+      <c r="H140" s="39"/>
+      <c r="I140" s="39"/>
+      <c r="J140" s="39"/>
     </row>
     <row r="141" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="38"/>
-      <c r="C141" s="38"/>
-      <c r="D141" s="38"/>
-      <c r="E141" s="38"/>
-      <c r="F141" s="38"/>
-      <c r="G141" s="38"/>
-      <c r="H141" s="38"/>
-      <c r="I141" s="38"/>
-      <c r="J141" s="38"/>
+      <c r="B141" s="39"/>
+      <c r="C141" s="39"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="39"/>
+      <c r="F141" s="39"/>
+      <c r="G141" s="39"/>
+      <c r="H141" s="39"/>
+      <c r="I141" s="39"/>
+      <c r="J141" s="39"/>
     </row>
     <row r="142" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="143" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C143" s="38"/>
-      <c r="D143" s="38"/>
-      <c r="E143" s="38"/>
-      <c r="F143" s="38"/>
-      <c r="G143" s="38"/>
-      <c r="H143" s="38"/>
-      <c r="I143" s="38"/>
-      <c r="J143" s="38"/>
+      <c r="C143" s="39"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="39"/>
+      <c r="F143" s="39"/>
+      <c r="G143" s="39"/>
+      <c r="H143" s="39"/>
+      <c r="I143" s="39"/>
+      <c r="J143" s="39"/>
     </row>
     <row r="144" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="38"/>
-      <c r="C144" s="38"/>
-      <c r="D144" s="38"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="38"/>
-      <c r="G144" s="38"/>
-      <c r="H144" s="38"/>
-      <c r="I144" s="38"/>
-      <c r="J144" s="38"/>
+      <c r="B144" s="39"/>
+      <c r="C144" s="39"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="39"/>
+      <c r="F144" s="39"/>
+      <c r="G144" s="39"/>
+      <c r="H144" s="39"/>
+      <c r="I144" s="39"/>
+      <c r="J144" s="39"/>
     </row>
     <row r="145" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="38"/>
-      <c r="C145" s="38"/>
-      <c r="D145" s="38"/>
-      <c r="E145" s="38"/>
-      <c r="F145" s="38"/>
-      <c r="G145" s="38"/>
-      <c r="H145" s="38"/>
-      <c r="I145" s="38"/>
-      <c r="J145" s="38"/>
+      <c r="B145" s="39"/>
+      <c r="C145" s="39"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="39"/>
+      <c r="F145" s="39"/>
+      <c r="G145" s="39"/>
+      <c r="H145" s="39"/>
+      <c r="I145" s="39"/>
+      <c r="J145" s="39"/>
     </row>
     <row r="146" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="38"/>
-      <c r="C146" s="38"/>
-      <c r="D146" s="38"/>
-      <c r="E146" s="38"/>
-      <c r="F146" s="38"/>
-      <c r="G146" s="38"/>
-      <c r="H146" s="38"/>
-      <c r="I146" s="38"/>
-      <c r="J146" s="38"/>
+      <c r="B146" s="39"/>
+      <c r="C146" s="39"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="39"/>
+      <c r="G146" s="39"/>
+      <c r="H146" s="39"/>
+      <c r="I146" s="39"/>
+      <c r="J146" s="39"/>
     </row>
     <row r="147" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="38"/>
-      <c r="C147" s="38"/>
-      <c r="D147" s="38"/>
-      <c r="E147" s="38"/>
-      <c r="F147" s="38"/>
-      <c r="G147" s="38"/>
-      <c r="H147" s="38"/>
-      <c r="I147" s="38"/>
-      <c r="J147" s="38"/>
+      <c r="B147" s="39"/>
+      <c r="C147" s="39"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="39"/>
+      <c r="F147" s="39"/>
+      <c r="G147" s="39"/>
+      <c r="H147" s="39"/>
+      <c r="I147" s="39"/>
+      <c r="J147" s="39"/>
     </row>
     <row r="148" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D148" s="16" t="s">
@@ -11091,8 +11094,8 @@
   </sheetPr>
   <dimension ref="A1:D994"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12258,8 +12261,8 @@
   </sheetPr>
   <dimension ref="A1:I542"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A92" sqref="A92:B105"/>
+    <sheetView tabSelected="1" topLeftCell="A536" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D542" sqref="D542"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25223,7 +25226,10 @@
       <c r="C542" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="G542" s="40" t="s">
+      <c r="D542" s="35" t="s">
+        <v>2095</v>
+      </c>
+      <c r="G542" s="37" t="s">
         <v>2089</v>
       </c>
       <c r="H542" s="35" t="s">
@@ -26575,8 +26581,8 @@
   </sheetPr>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendr\Documents\GitHub\Forks\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4A0CFE-8004-4787-B3C6-21C1DAEA6ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE17672-4FAB-4AFA-AF75-F2010B9B0C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25695" yWindow="0" windowWidth="26010" windowHeight="20985" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="2832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4816" uniqueCount="2834">
   <si>
     <t>Template version</t>
   </si>
@@ -8557,6 +8557,12 @@
   </si>
   <si>
     <t>0000-0002-6242-2167 Nikolaos G. Moustakas created the resource, 0000-0001-5886-7860 Hendrik Borgelt contributed to the definition of the resource</t>
+  </si>
+  <si>
+    <t>voc4cat:0007148</t>
+  </si>
+  <si>
+    <t>voc4cat:0007149</t>
   </si>
 </sst>
 </file>
@@ -9798,8 +9804,8 @@
   <dimension ref="A1:Q565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J253" sqref="J253"/>
+      <pane ySplit="5" topLeftCell="A546" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C573" sqref="C573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28870,7 +28876,7 @@
     </row>
     <row r="548" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="26" t="s">
-        <v>2587</v>
+        <v>2832</v>
       </c>
       <c r="B548" t="s">
         <v>124</v>
@@ -28890,7 +28896,7 @@
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" s="26" t="s">
-        <v>2569</v>
+        <v>2833</v>
       </c>
       <c r="B549" t="s">
         <v>124</v>
@@ -30360,7 +30366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Documents\GitHub\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACD0B53C-AD68-4F90-B9BF-908E86015C55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC42526-BCF4-42F8-9DF2-F1ECEAAEE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8504,9 +8504,6 @@
     <t>Pre-treatment of a catalyst before the reaction is initiated.</t>
   </si>
   <si>
-    <t xml:space="preserve"> voc4cat:0007146 (analytical measurement technique)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> voc4cat:0000137 (mass spectrometry)</t>
   </si>
   <si>
@@ -8571,6 +8568,9 @@
   </si>
   <si>
     <t>0000-0002-6242-2167 Nikolaos G. Moustakas created the resource,0000-0002-5561-4320 Ivo Kuehnrich, and 0000-0001-5886-7860 Hendrik Borgelt contributed to the definition of the resource</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> voc4cat:0008218 (analytical measurement technique)</t>
   </si>
 </sst>
 </file>
@@ -9812,9 +9812,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A247" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J254" sqref="J254"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G557" sqref="G557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18452,7 +18452,7 @@
         <v>1232</v>
       </c>
       <c r="J253" s="13" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
@@ -18894,7 +18894,7 @@
       <c r="P265" s="18"/>
       <c r="Q265" s="13"/>
     </row>
-    <row r="266" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="20" t="s">
         <v>1288</v>
       </c>
@@ -20497,7 +20497,7 @@
       <c r="P310" s="18"/>
       <c r="Q310" s="13"/>
     </row>
-    <row r="311" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="20" t="s">
         <v>1493</v>
       </c>
@@ -23548,7 +23548,7 @@
       <c r="P395" s="18"/>
       <c r="Q395" s="13"/>
     </row>
-    <row r="396" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A396" s="20" t="s">
         <v>1873</v>
       </c>
@@ -28865,7 +28865,7 @@
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A547" s="21" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="B547" t="s">
         <v>124</v>
@@ -28880,12 +28880,12 @@
         <v>875</v>
       </c>
       <c r="J547" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="548" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="21" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
       <c r="B548" t="s">
         <v>124</v>
@@ -28900,12 +28900,12 @@
         <v>875</v>
       </c>
       <c r="J548" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="549" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A549" s="21" t="s">
-        <v>2816</v>
+        <v>2815</v>
       </c>
       <c r="B549" t="s">
         <v>124</v>
@@ -28923,12 +28923,12 @@
         <v>127</v>
       </c>
       <c r="J549" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A550" s="21" t="s">
-        <v>2817</v>
+        <v>2816</v>
       </c>
       <c r="B550" t="s">
         <v>124</v>
@@ -28946,12 +28946,12 @@
         <v>875</v>
       </c>
       <c r="J550" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A551" s="21" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="B551" t="s">
         <v>124</v>
@@ -28969,12 +28969,12 @@
         <v>127</v>
       </c>
       <c r="J551" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A552" s="21" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="B552" t="s">
         <v>124</v>
@@ -28989,12 +28989,12 @@
         <v>127</v>
       </c>
       <c r="J552" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A553" s="21" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="B553" t="s">
         <v>124</v>
@@ -29009,12 +29009,12 @@
         <v>2783</v>
       </c>
       <c r="J553" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A554" s="21" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="B554" t="s">
         <v>124</v>
@@ -29029,12 +29029,12 @@
         <v>127</v>
       </c>
       <c r="J554" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A555" s="21" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="B555" t="s">
         <v>124</v>
@@ -29049,15 +29049,15 @@
         <v>2781</v>
       </c>
       <c r="F555" s="13" t="s">
-        <v>2812</v>
+        <v>2834</v>
       </c>
       <c r="J555" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A556" s="21" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="B556" t="s">
         <v>124</v>
@@ -29072,15 +29072,15 @@
         <v>2780</v>
       </c>
       <c r="F556" s="13" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="J556" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A557" s="21" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="B557" t="s">
         <v>124</v>
@@ -29095,12 +29095,12 @@
         <v>127</v>
       </c>
       <c r="J557" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A558" s="21" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="B558" t="s">
         <v>124</v>
@@ -29118,12 +29118,12 @@
         <v>127</v>
       </c>
       <c r="J558" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="559" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="21" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="B559" t="s">
         <v>124</v>
@@ -29138,12 +29138,12 @@
         <v>2782</v>
       </c>
       <c r="J559" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="560" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A560" s="21" t="s">
-        <v>2827</v>
+        <v>2826</v>
       </c>
       <c r="B560" t="s">
         <v>124</v>
@@ -29158,15 +29158,15 @@
         <v>2788</v>
       </c>
       <c r="F560" s="13" t="s">
-        <v>2812</v>
+        <v>2834</v>
       </c>
       <c r="J560" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" s="21" t="s">
-        <v>2828</v>
+        <v>2827</v>
       </c>
       <c r="B561" t="s">
         <v>124</v>
@@ -29181,15 +29181,15 @@
         <v>2789</v>
       </c>
       <c r="F561" s="13" t="s">
-        <v>2812</v>
+        <v>2834</v>
       </c>
       <c r="J561" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" s="21" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="B562" t="s">
         <v>124</v>
@@ -29207,12 +29207,12 @@
         <v>127</v>
       </c>
       <c r="J562" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" s="21" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="B563" t="s">
         <v>124</v>
@@ -29230,12 +29230,12 @@
         <v>875</v>
       </c>
       <c r="J563" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" s="21" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="B564" t="s">
         <v>124</v>
@@ -29250,12 +29250,12 @@
         <v>340</v>
       </c>
       <c r="J564" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" s="21" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="B565" t="s">
         <v>124</v>
@@ -29270,7 +29270,7 @@
         <v>340</v>
       </c>
       <c r="J565" s="26" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
     </row>
   </sheetData>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Documents\GitHub\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DC42526-BCF4-42F8-9DF2-F1ECEAAEE849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7B1C4-7C5C-4CEB-80A1-C0B4757B1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8902,8 +8902,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Concepts" displayName="Table_Concepts" ref="A5:Q566">
-  <autoFilter ref="A5:Q566" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_Concepts" displayName="Table_Concepts" ref="A5:Q565">
+  <autoFilter ref="A5:Q565" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Concept IRI*"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Language Code*"/>
@@ -9814,7 +9814,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G557" sqref="G557"/>
+      <selection pane="bottomLeft" activeCell="F556" sqref="F556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28871,19 +28871,19 @@
         <v>124</v>
       </c>
       <c r="C547" s="22" t="s">
-        <v>2761</v>
+        <v>2778</v>
       </c>
       <c r="D547" s="24" t="s">
-        <v>2792</v>
-      </c>
-      <c r="F547" s="13" t="s">
-        <v>875</v>
-      </c>
-      <c r="J547" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F547" t="s">
+        <v>340</v>
+      </c>
+      <c r="J547" s="26" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="548" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A548" s="21" t="s">
         <v>2814</v>
       </c>
@@ -28891,19 +28891,19 @@
         <v>124</v>
       </c>
       <c r="C548" s="22" t="s">
-        <v>2762</v>
-      </c>
-      <c r="D548" s="25" t="s">
-        <v>2793</v>
+        <v>2761</v>
+      </c>
+      <c r="D548" s="24" t="s">
+        <v>2792</v>
       </c>
       <c r="F548" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="J548" s="26" t="s">
+      <c r="J548" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="549" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="21" t="s">
         <v>2815</v>
       </c>
@@ -28911,16 +28911,13 @@
         <v>124</v>
       </c>
       <c r="C549" s="22" t="s">
-        <v>2763</v>
-      </c>
-      <c r="D549" s="24" t="s">
-        <v>2794</v>
-      </c>
-      <c r="E549" s="24" t="s">
-        <v>2784</v>
+        <v>2762</v>
+      </c>
+      <c r="D549" s="25" t="s">
+        <v>2793</v>
       </c>
       <c r="F549" s="13" t="s">
-        <v>127</v>
+        <v>875</v>
       </c>
       <c r="J549" s="26" t="s">
         <v>2832</v>
@@ -28934,16 +28931,16 @@
         <v>124</v>
       </c>
       <c r="C550" s="22" t="s">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="D550" s="24" t="s">
-        <v>2795</v>
+        <v>2794</v>
       </c>
       <c r="E550" s="24" t="s">
-        <v>2785</v>
+        <v>2784</v>
       </c>
       <c r="F550" s="13" t="s">
-        <v>875</v>
+        <v>127</v>
       </c>
       <c r="J550" s="26" t="s">
         <v>2832</v>
@@ -28957,16 +28954,16 @@
         <v>124</v>
       </c>
       <c r="C551" s="22" t="s">
-        <v>2765</v>
+        <v>2764</v>
       </c>
       <c r="D551" s="24" t="s">
-        <v>2796</v>
-      </c>
-      <c r="E551" s="25" t="s">
-        <v>2786</v>
+        <v>2795</v>
+      </c>
+      <c r="E551" s="24" t="s">
+        <v>2785</v>
       </c>
       <c r="F551" s="13" t="s">
-        <v>127</v>
+        <v>875</v>
       </c>
       <c r="J551" s="26" t="s">
         <v>2832</v>
@@ -28980,10 +28977,13 @@
         <v>124</v>
       </c>
       <c r="C552" s="22" t="s">
-        <v>2766</v>
+        <v>2765</v>
       </c>
       <c r="D552" s="24" t="s">
-        <v>2797</v>
+        <v>2796</v>
+      </c>
+      <c r="E552" s="25" t="s">
+        <v>2786</v>
       </c>
       <c r="F552" s="13" t="s">
         <v>127</v>
@@ -29000,13 +29000,13 @@
         <v>124</v>
       </c>
       <c r="C553" s="22" t="s">
-        <v>2767</v>
+        <v>2766</v>
       </c>
       <c r="D553" s="24" t="s">
-        <v>2798</v>
-      </c>
-      <c r="F553" t="s">
-        <v>2783</v>
+        <v>2797</v>
+      </c>
+      <c r="F553" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="J553" s="26" t="s">
         <v>2832</v>
@@ -29020,13 +29020,13 @@
         <v>124</v>
       </c>
       <c r="C554" s="22" t="s">
-        <v>2768</v>
+        <v>2767</v>
       </c>
       <c r="D554" s="24" t="s">
-        <v>2799</v>
-      </c>
-      <c r="F554" s="13" t="s">
-        <v>127</v>
+        <v>2798</v>
+      </c>
+      <c r="F554" t="s">
+        <v>2783</v>
       </c>
       <c r="J554" s="26" t="s">
         <v>2832</v>
@@ -29040,16 +29040,13 @@
         <v>124</v>
       </c>
       <c r="C555" s="22" t="s">
-        <v>2769</v>
+        <v>2768</v>
       </c>
       <c r="D555" s="24" t="s">
-        <v>2800</v>
-      </c>
-      <c r="E555" t="s">
-        <v>2781</v>
+        <v>2799</v>
       </c>
       <c r="F555" s="13" t="s">
-        <v>2834</v>
+        <v>127</v>
       </c>
       <c r="J555" s="26" t="s">
         <v>2832</v>
@@ -29063,16 +29060,16 @@
         <v>124</v>
       </c>
       <c r="C556" s="22" t="s">
-        <v>2770</v>
+        <v>2769</v>
       </c>
       <c r="D556" s="24" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
       <c r="E556" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="F556" s="13" t="s">
-        <v>2812</v>
+        <v>2834</v>
       </c>
       <c r="J556" s="26" t="s">
         <v>2832</v>
@@ -29086,13 +29083,16 @@
         <v>124</v>
       </c>
       <c r="C557" s="22" t="s">
-        <v>2771</v>
+        <v>2770</v>
       </c>
       <c r="D557" s="24" t="s">
-        <v>2802</v>
+        <v>2801</v>
+      </c>
+      <c r="E557" t="s">
+        <v>2780</v>
       </c>
       <c r="F557" s="13" t="s">
-        <v>127</v>
+        <v>2812</v>
       </c>
       <c r="J557" s="26" t="s">
         <v>2832</v>
@@ -29106,13 +29106,10 @@
         <v>124</v>
       </c>
       <c r="C558" s="22" t="s">
-        <v>2772</v>
+        <v>2771</v>
       </c>
       <c r="D558" s="24" t="s">
-        <v>2803</v>
-      </c>
-      <c r="E558" s="24" t="s">
-        <v>2787</v>
+        <v>2802</v>
       </c>
       <c r="F558" s="13" t="s">
         <v>127</v>
@@ -29121,44 +29118,44 @@
         <v>2832</v>
       </c>
     </row>
-    <row r="559" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A559" s="21" t="s">
         <v>2825</v>
       </c>
       <c r="B559" t="s">
         <v>124</v>
       </c>
-      <c r="C559" s="23" t="s">
-        <v>2773</v>
-      </c>
-      <c r="D559" s="25" t="s">
-        <v>2804</v>
+      <c r="C559" s="22" t="s">
+        <v>2772</v>
+      </c>
+      <c r="D559" s="24" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E559" s="24" t="s">
+        <v>2787</v>
       </c>
       <c r="F559" s="13" t="s">
-        <v>2782</v>
+        <v>127</v>
       </c>
       <c r="J559" s="26" t="s">
         <v>2832</v>
       </c>
     </row>
-    <row r="560" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A560" s="21" t="s">
         <v>2826</v>
       </c>
       <c r="B560" t="s">
         <v>124</v>
       </c>
-      <c r="C560" s="22" t="s">
-        <v>2774</v>
-      </c>
-      <c r="D560" s="24" t="s">
-        <v>2805</v>
-      </c>
-      <c r="E560" s="24" t="s">
-        <v>2788</v>
+      <c r="C560" s="23" t="s">
+        <v>2773</v>
+      </c>
+      <c r="D560" s="25" t="s">
+        <v>2804</v>
       </c>
       <c r="F560" s="13" t="s">
-        <v>2834</v>
+        <v>2782</v>
       </c>
       <c r="J560" s="26" t="s">
         <v>2832</v>
@@ -29172,13 +29169,13 @@
         <v>124</v>
       </c>
       <c r="C561" s="22" t="s">
-        <v>2775</v>
+        <v>2774</v>
       </c>
       <c r="D561" s="24" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
       <c r="E561" s="24" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
       <c r="F561" s="13" t="s">
         <v>2834</v>
@@ -29194,17 +29191,17 @@
       <c r="B562" t="s">
         <v>124</v>
       </c>
-      <c r="C562" s="23" t="s">
-        <v>2776</v>
+      <c r="C562" s="22" t="s">
+        <v>2775</v>
       </c>
       <c r="D562" s="24" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
       <c r="E562" s="24" t="s">
-        <v>2790</v>
+        <v>2789</v>
       </c>
       <c r="F562" s="13" t="s">
-        <v>127</v>
+        <v>2834</v>
       </c>
       <c r="J562" s="26" t="s">
         <v>2832</v>
@@ -29217,17 +29214,17 @@
       <c r="B563" t="s">
         <v>124</v>
       </c>
-      <c r="C563" s="22" t="s">
-        <v>2777</v>
+      <c r="C563" s="23" t="s">
+        <v>2776</v>
       </c>
       <c r="D563" s="24" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
       <c r="E563" s="24" t="s">
-        <v>2791</v>
+        <v>2790</v>
       </c>
       <c r="F563" s="13" t="s">
-        <v>875</v>
+        <v>127</v>
       </c>
       <c r="J563" s="26" t="s">
         <v>2832</v>
@@ -29241,13 +29238,16 @@
         <v>124</v>
       </c>
       <c r="C564" s="22" t="s">
-        <v>2778</v>
+        <v>2777</v>
       </c>
       <c r="D564" s="24" t="s">
-        <v>2809</v>
-      </c>
-      <c r="F564" t="s">
-        <v>340</v>
+        <v>2808</v>
+      </c>
+      <c r="E564" s="24" t="s">
+        <v>2791</v>
+      </c>
+      <c r="F564" s="13" t="s">
+        <v>875</v>
       </c>
       <c r="J564" s="26" t="s">
         <v>2832</v>
@@ -29276,7 +29276,7 @@
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Input" error="Invalid value. Please select from the dropdown list." sqref="P6:P546" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Input" error="Invalid value. Please select from the dropdown list." sqref="P6:P547" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>ValidationList_obsolete_reason</formula1>
     </dataValidation>
   </dataValidations>

--- a/inbox-excel-vocabs/voc4cat.xlsx
+++ b/inbox-excel-vocabs/voc4cat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smhhborg\Documents\GitHub\voc4cat\inbox-excel-vocabs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendr\Documents\GitHub\Forks\voc4cat\inbox-excel-vocabs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF7B1C4-7C5C-4CEB-80A1-C0B4757B1449}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54C12AD0-1609-4E45-8D50-30DB4C492FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="652" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="1" r:id="rId1"/>
@@ -26,11 +26,6 @@
     <definedName name="ValidationList_obsolete_reason">_ValidationLists!$B$1:$B$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -8507,63 +8502,6 @@
     <t xml:space="preserve"> voc4cat:0000137 (mass spectrometry)</t>
   </si>
   <si>
-    <t>voc4cat:00008201</t>
-  </si>
-  <si>
-    <t>voc4cat:00008202</t>
-  </si>
-  <si>
-    <t>voc4cat:00008203</t>
-  </si>
-  <si>
-    <t>voc4cat:00008204</t>
-  </si>
-  <si>
-    <t>voc4cat:00008205</t>
-  </si>
-  <si>
-    <t>voc4cat:00008206</t>
-  </si>
-  <si>
-    <t>voc4cat:00008207</t>
-  </si>
-  <si>
-    <t>voc4cat:00008208</t>
-  </si>
-  <si>
-    <t>voc4cat:00008209</t>
-  </si>
-  <si>
-    <t>voc4cat:00008210</t>
-  </si>
-  <si>
-    <t>voc4cat:00008211</t>
-  </si>
-  <si>
-    <t>voc4cat:00008212</t>
-  </si>
-  <si>
-    <t>voc4cat:00008213</t>
-  </si>
-  <si>
-    <t>voc4cat:00008214</t>
-  </si>
-  <si>
-    <t>voc4cat:00008215</t>
-  </si>
-  <si>
-    <t>voc4cat:00008216</t>
-  </si>
-  <si>
-    <t>voc4cat:00008217</t>
-  </si>
-  <si>
-    <t>voc4cat:00008218</t>
-  </si>
-  <si>
-    <t>voc4cat:00008219</t>
-  </si>
-  <si>
     <t>0000-0002-5561-4320 Ivo Kuehnrich and 0000-0001-5886-7860 Hendrik Borgelt created this resource</t>
   </si>
   <si>
@@ -8571,6 +8509,63 @@
   </si>
   <si>
     <t xml:space="preserve"> voc4cat:0008218 (analytical measurement technique)</t>
+  </si>
+  <si>
+    <t>voc4cat:0008201</t>
+  </si>
+  <si>
+    <t>voc4cat:0008202</t>
+  </si>
+  <si>
+    <t>voc4cat:0008203</t>
+  </si>
+  <si>
+    <t>voc4cat:0008204</t>
+  </si>
+  <si>
+    <t>voc4cat:0008205</t>
+  </si>
+  <si>
+    <t>voc4cat:0008206</t>
+  </si>
+  <si>
+    <t>voc4cat:0008207</t>
+  </si>
+  <si>
+    <t>voc4cat:0008208</t>
+  </si>
+  <si>
+    <t>voc4cat:0008209</t>
+  </si>
+  <si>
+    <t>voc4cat:0008210</t>
+  </si>
+  <si>
+    <t>voc4cat:0008211</t>
+  </si>
+  <si>
+    <t>voc4cat:0008212</t>
+  </si>
+  <si>
+    <t>voc4cat:0008213</t>
+  </si>
+  <si>
+    <t>voc4cat:0008214</t>
+  </si>
+  <si>
+    <t>voc4cat:0008215</t>
+  </si>
+  <si>
+    <t>voc4cat:0008216</t>
+  </si>
+  <si>
+    <t>voc4cat:0008217</t>
+  </si>
+  <si>
+    <t>voc4cat:0008218</t>
+  </si>
+  <si>
+    <t>voc4cat:0008219</t>
   </si>
 </sst>
 </file>
@@ -8731,7 +8726,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8789,7 +8784,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8802,7 +8796,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8818,9 +8811,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Link 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8987,9 +8980,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -9027,7 +9020,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -9133,7 +9126,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -9275,7 +9268,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9292,7 +9285,7 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="9" width="12.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.28515625" customWidth="1"/>
@@ -9323,65 +9316,65 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
-      <c r="J15" s="28"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -9392,43 +9385,43 @@
       <c r="D20" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
     </row>
     <row r="21" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="30" t="s">
+      <c r="E21" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
     </row>
     <row r="22" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="30" t="s">
+      <c r="E22" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
     <row r="23" spans="2:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="30" t="s">
+      <c r="E23" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="26"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
@@ -9443,20 +9436,20 @@
       <c r="D25" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="31" t="s">
+      <c r="E25" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D26" s="6"/>
-      <c r="E26" s="31" t="s">
+      <c r="E26" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
       <c r="H26" s="8"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
@@ -9468,12 +9461,12 @@
       <c r="D30" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E30" s="30" t="s">
+      <c r="E30" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -9507,7 +9500,7 @@
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="3" width="50" customWidth="1"/>
@@ -9812,12 +9805,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q565"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F556" sqref="F556"/>
+      <selection pane="bottomLeft" activeCell="E549" sqref="E549"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -12994,7 +12987,7 @@
       <c r="P95" s="18"/>
       <c r="Q95" s="13"/>
     </row>
-    <row r="96" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="20" t="s">
         <v>529</v>
       </c>
@@ -18452,7 +18445,7 @@
         <v>1232</v>
       </c>
       <c r="J253" s="13" t="s">
-        <v>2833</v>
+        <v>2814</v>
       </c>
       <c r="K253" s="13"/>
       <c r="L253" s="13"/>
@@ -28864,228 +28857,228 @@
       <c r="Q546" s="13"/>
     </row>
     <row r="547" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A547" s="21" t="s">
-        <v>2813</v>
+      <c r="A547" t="s">
+        <v>2816</v>
       </c>
       <c r="B547" t="s">
         <v>124</v>
       </c>
-      <c r="C547" s="22" t="s">
+      <c r="C547" s="21" t="s">
         <v>2778</v>
       </c>
-      <c r="D547" s="24" t="s">
+      <c r="D547" s="23" t="s">
         <v>2809</v>
       </c>
       <c r="F547" t="s">
         <v>340</v>
       </c>
-      <c r="J547" s="26" t="s">
-        <v>2832</v>
+      <c r="J547" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="548" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A548" s="21" t="s">
-        <v>2814</v>
+      <c r="A548" t="s">
+        <v>2817</v>
       </c>
       <c r="B548" t="s">
         <v>124</v>
       </c>
-      <c r="C548" s="22" t="s">
+      <c r="C548" s="21" t="s">
         <v>2761</v>
       </c>
-      <c r="D548" s="24" t="s">
+      <c r="D548" s="23" t="s">
         <v>2792</v>
       </c>
       <c r="F548" s="13" t="s">
         <v>875</v>
       </c>
       <c r="J548" t="s">
-        <v>2832</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="549" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A549" s="21" t="s">
-        <v>2815</v>
+      <c r="A549" t="s">
+        <v>2818</v>
       </c>
       <c r="B549" t="s">
         <v>124</v>
       </c>
-      <c r="C549" s="22" t="s">
+      <c r="C549" s="21" t="s">
         <v>2762</v>
       </c>
-      <c r="D549" s="25" t="s">
+      <c r="D549" s="24" t="s">
         <v>2793</v>
       </c>
       <c r="F549" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="J549" s="26" t="s">
-        <v>2832</v>
+      <c r="J549" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="550" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A550" s="21" t="s">
-        <v>2816</v>
+      <c r="A550" t="s">
+        <v>2819</v>
       </c>
       <c r="B550" t="s">
         <v>124</v>
       </c>
-      <c r="C550" s="22" t="s">
+      <c r="C550" s="21" t="s">
         <v>2763</v>
       </c>
-      <c r="D550" s="24" t="s">
+      <c r="D550" s="23" t="s">
         <v>2794</v>
       </c>
-      <c r="E550" s="24" t="s">
+      <c r="E550" s="23" t="s">
         <v>2784</v>
       </c>
       <c r="F550" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J550" s="26" t="s">
-        <v>2832</v>
+      <c r="J550" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="551" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A551" s="21" t="s">
-        <v>2817</v>
+      <c r="A551" t="s">
+        <v>2820</v>
       </c>
       <c r="B551" t="s">
         <v>124</v>
       </c>
-      <c r="C551" s="22" t="s">
+      <c r="C551" s="21" t="s">
         <v>2764</v>
       </c>
-      <c r="D551" s="24" t="s">
+      <c r="D551" s="23" t="s">
         <v>2795</v>
       </c>
-      <c r="E551" s="24" t="s">
+      <c r="E551" s="23" t="s">
         <v>2785</v>
       </c>
       <c r="F551" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="J551" s="26" t="s">
-        <v>2832</v>
+      <c r="J551" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="552" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A552" s="21" t="s">
-        <v>2818</v>
+      <c r="A552" t="s">
+        <v>2821</v>
       </c>
       <c r="B552" t="s">
         <v>124</v>
       </c>
-      <c r="C552" s="22" t="s">
+      <c r="C552" s="21" t="s">
         <v>2765</v>
       </c>
-      <c r="D552" s="24" t="s">
+      <c r="D552" s="23" t="s">
         <v>2796</v>
       </c>
-      <c r="E552" s="25" t="s">
+      <c r="E552" s="24" t="s">
         <v>2786</v>
       </c>
       <c r="F552" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J552" s="26" t="s">
-        <v>2832</v>
+      <c r="J552" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="553" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A553" s="21" t="s">
-        <v>2819</v>
+      <c r="A553" t="s">
+        <v>2822</v>
       </c>
       <c r="B553" t="s">
         <v>124</v>
       </c>
-      <c r="C553" s="22" t="s">
+      <c r="C553" s="21" t="s">
         <v>2766</v>
       </c>
-      <c r="D553" s="24" t="s">
+      <c r="D553" s="23" t="s">
         <v>2797</v>
       </c>
       <c r="F553" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J553" s="26" t="s">
-        <v>2832</v>
+      <c r="J553" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="554" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A554" s="21" t="s">
-        <v>2820</v>
+      <c r="A554" t="s">
+        <v>2823</v>
       </c>
       <c r="B554" t="s">
         <v>124</v>
       </c>
-      <c r="C554" s="22" t="s">
+      <c r="C554" s="21" t="s">
         <v>2767</v>
       </c>
-      <c r="D554" s="24" t="s">
+      <c r="D554" s="23" t="s">
         <v>2798</v>
       </c>
       <c r="F554" t="s">
         <v>2783</v>
       </c>
-      <c r="J554" s="26" t="s">
-        <v>2832</v>
+      <c r="J554" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="555" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A555" s="21" t="s">
-        <v>2821</v>
+      <c r="A555" t="s">
+        <v>2824</v>
       </c>
       <c r="B555" t="s">
         <v>124</v>
       </c>
-      <c r="C555" s="22" t="s">
+      <c r="C555" s="21" t="s">
         <v>2768</v>
       </c>
-      <c r="D555" s="24" t="s">
+      <c r="D555" s="23" t="s">
         <v>2799</v>
       </c>
       <c r="F555" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J555" s="26" t="s">
-        <v>2832</v>
+      <c r="J555" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="556" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A556" s="21" t="s">
-        <v>2822</v>
+      <c r="A556" t="s">
+        <v>2825</v>
       </c>
       <c r="B556" t="s">
         <v>124</v>
       </c>
-      <c r="C556" s="22" t="s">
+      <c r="C556" s="21" t="s">
         <v>2769</v>
       </c>
-      <c r="D556" s="24" t="s">
+      <c r="D556" s="23" t="s">
         <v>2800</v>
       </c>
       <c r="E556" t="s">
         <v>2781</v>
       </c>
       <c r="F556" s="13" t="s">
-        <v>2834</v>
-      </c>
-      <c r="J556" s="26" t="s">
-        <v>2832</v>
+        <v>2815</v>
+      </c>
+      <c r="J556" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="557" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A557" s="21" t="s">
-        <v>2823</v>
+      <c r="A557" t="s">
+        <v>2826</v>
       </c>
       <c r="B557" t="s">
         <v>124</v>
       </c>
-      <c r="C557" s="22" t="s">
+      <c r="C557" s="21" t="s">
         <v>2770</v>
       </c>
-      <c r="D557" s="24" t="s">
+      <c r="D557" s="23" t="s">
         <v>2801</v>
       </c>
       <c r="E557" t="s">
@@ -29094,183 +29087,183 @@
       <c r="F557" s="13" t="s">
         <v>2812</v>
       </c>
-      <c r="J557" s="26" t="s">
-        <v>2832</v>
+      <c r="J557" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="558" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A558" s="21" t="s">
-        <v>2824</v>
+      <c r="A558" t="s">
+        <v>2827</v>
       </c>
       <c r="B558" t="s">
         <v>124</v>
       </c>
-      <c r="C558" s="22" t="s">
+      <c r="C558" s="21" t="s">
         <v>2771</v>
       </c>
-      <c r="D558" s="24" t="s">
+      <c r="D558" s="23" t="s">
         <v>2802</v>
       </c>
       <c r="F558" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J558" s="26" t="s">
-        <v>2832</v>
+      <c r="J558" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="559" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A559" s="21" t="s">
-        <v>2825</v>
+      <c r="A559" t="s">
+        <v>2828</v>
       </c>
       <c r="B559" t="s">
         <v>124</v>
       </c>
-      <c r="C559" s="22" t="s">
+      <c r="C559" s="21" t="s">
         <v>2772</v>
       </c>
-      <c r="D559" s="24" t="s">
+      <c r="D559" s="23" t="s">
         <v>2803</v>
       </c>
-      <c r="E559" s="24" t="s">
+      <c r="E559" s="23" t="s">
         <v>2787</v>
       </c>
       <c r="F559" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J559" s="26" t="s">
-        <v>2832</v>
+      <c r="J559" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="560" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="A560" s="21" t="s">
-        <v>2826</v>
+      <c r="A560" t="s">
+        <v>2829</v>
       </c>
       <c r="B560" t="s">
         <v>124</v>
       </c>
-      <c r="C560" s="23" t="s">
+      <c r="C560" s="22" t="s">
         <v>2773</v>
       </c>
-      <c r="D560" s="25" t="s">
+      <c r="D560" s="24" t="s">
         <v>2804</v>
       </c>
       <c r="F560" s="13" t="s">
         <v>2782</v>
       </c>
-      <c r="J560" s="26" t="s">
+      <c r="J560" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B561" t="s">
+        <v>124</v>
+      </c>
+      <c r="C561" s="21" t="s">
+        <v>2774</v>
+      </c>
+      <c r="D561" s="23" t="s">
+        <v>2805</v>
+      </c>
+      <c r="E561" s="23" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F561" s="13" t="s">
+        <v>2815</v>
+      </c>
+      <c r="J561" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B562" t="s">
+        <v>124</v>
+      </c>
+      <c r="C562" s="21" t="s">
+        <v>2775</v>
+      </c>
+      <c r="D562" s="23" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E562" s="23" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F562" s="13" t="s">
+        <v>2815</v>
+      </c>
+      <c r="J562" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
         <v>2832</v>
       </c>
-    </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A561" s="21" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B561" t="s">
-        <v>124</v>
-      </c>
-      <c r="C561" s="22" t="s">
-        <v>2774</v>
-      </c>
-      <c r="D561" s="24" t="s">
-        <v>2805</v>
-      </c>
-      <c r="E561" s="24" t="s">
-        <v>2788</v>
-      </c>
-      <c r="F561" s="13" t="s">
-        <v>2834</v>
-      </c>
-      <c r="J561" s="26" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A562" s="21" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B562" t="s">
-        <v>124</v>
-      </c>
-      <c r="C562" s="22" t="s">
-        <v>2775</v>
-      </c>
-      <c r="D562" s="24" t="s">
-        <v>2806</v>
-      </c>
-      <c r="E562" s="24" t="s">
-        <v>2789</v>
-      </c>
-      <c r="F562" s="13" t="s">
-        <v>2834</v>
-      </c>
-      <c r="J562" s="26" t="s">
-        <v>2832</v>
-      </c>
-    </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A563" s="21" t="s">
-        <v>2829</v>
-      </c>
       <c r="B563" t="s">
         <v>124</v>
       </c>
-      <c r="C563" s="23" t="s">
+      <c r="C563" s="22" t="s">
         <v>2776</v>
       </c>
-      <c r="D563" s="24" t="s">
+      <c r="D563" s="23" t="s">
         <v>2807</v>
       </c>
-      <c r="E563" s="24" t="s">
+      <c r="E563" s="23" t="s">
         <v>2790</v>
       </c>
       <c r="F563" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="J563" s="26" t="s">
-        <v>2832</v>
+      <c r="J563" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A564" s="21" t="s">
-        <v>2830</v>
+      <c r="A564" t="s">
+        <v>2833</v>
       </c>
       <c r="B564" t="s">
         <v>124</v>
       </c>
-      <c r="C564" s="22" t="s">
+      <c r="C564" s="21" t="s">
         <v>2777</v>
       </c>
-      <c r="D564" s="24" t="s">
+      <c r="D564" s="23" t="s">
         <v>2808</v>
       </c>
-      <c r="E564" s="24" t="s">
+      <c r="E564" s="23" t="s">
         <v>2791</v>
       </c>
       <c r="F564" s="13" t="s">
         <v>875</v>
       </c>
-      <c r="J564" s="26" t="s">
-        <v>2832</v>
+      <c r="J564" t="s">
+        <v>2813</v>
       </c>
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A565" s="21" t="s">
-        <v>2831</v>
+      <c r="A565" t="s">
+        <v>2834</v>
       </c>
       <c r="B565" t="s">
         <v>124</v>
       </c>
-      <c r="C565" s="22" t="s">
+      <c r="C565" s="21" t="s">
         <v>2779</v>
       </c>
-      <c r="D565" s="24" t="s">
+      <c r="D565" s="23" t="s">
         <v>2810</v>
       </c>
       <c r="F565" t="s">
         <v>340</v>
       </c>
-      <c r="J565" s="26" t="s">
-        <v>2832</v>
+      <c r="J565" t="s">
+        <v>2813</v>
       </c>
     </row>
   </sheetData>
@@ -30379,7 +30372,7 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -30676,7 +30669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -31031,7 +31024,7 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -31244,7 +31237,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
     <col min="2" max="2" width="45" customWidth="1"/>
@@ -31517,7 +31510,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
